--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="道具作用说明表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -31,7 +30,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Aspire:
+          <t>Aspire:
 前两位
 10:基本属性  增量
 11:战斗属性  增量
@@ -44,13 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
-  <si>
-    <t>说明：
-    1、ID共六位，第1位3代表装备，2-3位为部位，4-6位为序号
-    2、部位：00武器，01衣服，02头盔，03项链，04手镯，05戒指，06勋章，07腰带，08靴子，09宝石
-    3、等级为佩带等级，后面属性为增量</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -273,20 +266,34 @@
   <si>
     <t>drop</t>
   </si>
+  <si>
+    <t>说明：
+    1、ID共六位，第1位3代表装备，2-3位为部位，4-6位为序号
+    2、部位：00武器，01衣服，02头盔，03项链，04手镯，05戒指，06勋章，07腰带，08靴子，09宝石
+    3、等级为佩带等级，后面属性为增量,并且属性为单值，没有上下限。
+    4、所有装备属性以要求等级皆为原来的10倍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="7"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="7"/>
       <charset val="134"/>
@@ -309,23 +316,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -345,21 +337,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -658,6 +652,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -690,15 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="3" width="5.375" customWidth="1"/>
@@ -714,93 +708,93 @@
     <col min="17" max="17" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69" customHeight="1" spans="1:17">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="3:7">
+    <row r="1" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>300000</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -845,15 +839,15 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>301000</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -898,32 +892,32 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 D1:E3 F1:G3"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -935,54 +929,54 @@
     <col min="9" max="9" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>200000</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1004,15 +998,15 @@
         <v>立即恢复HP:40</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>200001</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1030,19 +1024,19 @@
         <v>90</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H11" si="0">CONCATENATE("立即恢复HP:",G5)</f>
+        <f t="shared" ref="H5" si="0">CONCATENATE("立即恢复HP:",G5)</f>
         <v>立即恢复HP:90</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200002</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1064,18 +1058,18 @@
         <v>立即恢复HP:160</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>200003</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -1094,18 +1088,18 @@
         <v>立即恢复HP:400</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>200004</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -1124,18 +1118,18 @@
         <v>立即恢复HP:1000</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>200005</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>3000</v>
@@ -1154,18 +1148,18 @@
         <v>立即恢复HP:3000</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>200006</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -1184,15 +1178,15 @@
         <v>立即恢复HP:10000</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>200007</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1214,15 +1208,15 @@
         <v>立即恢复MP:50</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>200008</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -1240,19 +1234,19 @@
         <v>100</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ref="H12:H17" si="1">CONCATENATE("立即恢复MP:",G12)</f>
+        <f t="shared" ref="H12" si="1">CONCATENATE("立即恢复MP:",G12)</f>
         <v>立即恢复MP:100</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>200009</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1274,18 +1268,18 @@
         <v>立即恢复MP:200</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>200010</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1304,18 +1298,18 @@
         <v>立即恢复MP:500</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>200011</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1334,18 +1328,18 @@
         <v>立即恢复MP:1000</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>200012</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D16">
         <v>3000</v>
@@ -1364,18 +1358,18 @@
         <v>立即恢复MP:3000</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>200013</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -1394,15 +1388,15 @@
         <v>立即恢复MP:10000</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>201000</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1424,15 +1418,15 @@
         <v>使用后获得双倍经验100次</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>201001</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1450,19 +1444,19 @@
         <v>3</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H35" si="2">CONCATENATE("使用后获得",B19,"100次")</f>
+        <f t="shared" ref="H19" si="2">CONCATENATE("使用后获得",B19,"100次")</f>
         <v>使用后获得三倍经验100次</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>201002</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1480,19 +1474,19 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("使用后获得",B20,"100次")</f>
+        <f t="shared" ref="H20:H35" si="3">CONCATENATE("使用后获得",B20,"100次")</f>
         <v>使用后获得四倍经验100次</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>201003</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1510,19 +1504,19 @@
         <v>5</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("使用后获得",B21,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得五倍经验100次</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201004</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1540,19 +1534,19 @@
         <v>6</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("使用后获得",B22,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得六倍经验100次</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201005</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1570,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE("使用后获得",B23,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得八倍经验100次</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>201006</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1600,19 +1594,19 @@
         <v>10</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("使用后获得",B24,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得十倍经验100次</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>201007</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1630,19 +1624,19 @@
         <v>2</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE("使用后获得",B25,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得双倍声望100次</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>201008</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1660,19 +1654,19 @@
         <v>3</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE("使用后获得",B26,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得三倍声望100次</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>201009</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1690,19 +1684,19 @@
         <v>4</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE("使用后获得",B27,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得四倍声望100次</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>201010</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1720,19 +1714,19 @@
         <v>5</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE("使用后获得",B28,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得五倍声望100次</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>201011</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1750,19 +1744,19 @@
         <v>6</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE("使用后获得",B29,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得六倍声望100次</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>201012</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1780,19 +1774,19 @@
         <v>8</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE("使用后获得",B30,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得八倍声望100次</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>201013</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1810,19 +1804,19 @@
         <v>10</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE("使用后获得",B31,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得十倍声望100次</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>201014</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1840,19 +1834,19 @@
         <v>2</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE("使用后获得",B32,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得双倍暴率100次</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>201015</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -1870,19 +1864,19 @@
         <v>3</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE("使用后获得",B33,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得三倍暴率100次</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>201016</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1900,19 +1894,19 @@
         <v>4</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE("使用后获得",B34,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得四倍暴率100次</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>201017</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -1930,184 +1924,194 @@
         <v>5</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE("使用后获得",B35,"100次")</f>
+        <f t="shared" si="3"/>
         <v>使用后获得五倍暴率100次</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D19:D24 D26:D35 D36:D65535"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F4:F10 F11:F17 F18:F65535">
-      <formula1>道具作用说明表!$A$2:$A$17</formula1>
-    </dataValidation>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D19:D24 D26:D65535"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>道具作用说明表!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F65535</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5001</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5002</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>木剑</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>作用</t>
-  </si>
-  <si>
-    <t>值</t>
   </si>
   <si>
     <t>金创药(小)</t>
@@ -1200,6 +1194,14 @@
   </si>
   <si>
     <t>30元宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1295,9 +1297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1309,6 +1308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1683,25 +1685,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="A1" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C2" s="4"/>
@@ -1711,52 +1713,52 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -1764,7 +1766,7 @@
         <v>300000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1809,7 +1811,7 @@
         <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1817,7 +1819,7 @@
         <v>300001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>3636</v>
       </c>
       <c r="Q5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -1870,7 +1872,7 @@
         <v>300002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -1915,7 +1917,7 @@
         <v>500</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -1923,7 +1925,7 @@
         <v>300003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>10000</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -1976,7 +1978,7 @@
         <v>300004</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -2021,7 +2023,7 @@
         <v>900</v>
       </c>
       <c r="Q8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2029,7 +2031,7 @@
         <v>300005</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -2074,7 +2076,7 @@
         <v>1000</v>
       </c>
       <c r="Q9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2082,7 +2084,7 @@
         <v>300006</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -2127,7 +2129,7 @@
         <v>1000</v>
       </c>
       <c r="Q10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2135,7 +2137,7 @@
         <v>300007</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -2180,7 +2182,7 @@
         <v>1500</v>
       </c>
       <c r="Q11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2188,7 +2190,7 @@
         <v>300008</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -2233,7 +2235,7 @@
         <v>3000</v>
       </c>
       <c r="Q12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2241,7 +2243,7 @@
         <v>300009</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -2286,7 +2288,7 @@
         <v>4545</v>
       </c>
       <c r="Q13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -2294,7 +2296,7 @@
         <v>300010</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>3000</v>
       </c>
       <c r="Q14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -2347,7 +2349,7 @@
         <v>300011</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -2392,7 +2394,7 @@
         <v>4545</v>
       </c>
       <c r="Q15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -2400,7 +2402,7 @@
         <v>300012</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>5000</v>
       </c>
       <c r="Q16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -2453,7 +2455,7 @@
         <v>300013</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2498,7 +2500,7 @@
         <v>6000</v>
       </c>
       <c r="Q17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -2506,7 +2508,7 @@
         <v>300014</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -2551,7 +2553,7 @@
         <v>9091</v>
       </c>
       <c r="Q18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -2559,7 +2561,7 @@
         <v>300015</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -2604,7 +2606,7 @@
         <v>9091</v>
       </c>
       <c r="Q19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -2612,7 +2614,7 @@
         <v>300016</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -2657,7 +2659,7 @@
         <v>30000</v>
       </c>
       <c r="Q20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -2665,7 +2667,7 @@
         <v>300017</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         <v>30000</v>
       </c>
       <c r="Q21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -2718,7 +2720,7 @@
         <v>300018</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -2763,7 +2765,7 @@
         <v>15000</v>
       </c>
       <c r="Q22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -2771,7 +2773,7 @@
         <v>300019</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -2816,7 +2818,7 @@
         <v>10000</v>
       </c>
       <c r="Q23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -2824,7 +2826,7 @@
         <v>300020</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -2869,7 +2871,7 @@
         <v>15000</v>
       </c>
       <c r="Q24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -2877,7 +2879,7 @@
         <v>300021</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>40000</v>
       </c>
       <c r="Q25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -2930,7 +2932,7 @@
         <v>300022</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -2975,7 +2977,7 @@
         <v>8000</v>
       </c>
       <c r="Q26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -2983,7 +2985,7 @@
         <v>300023</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -3028,7 +3030,7 @@
         <v>20000</v>
       </c>
       <c r="Q27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -3036,7 +3038,7 @@
         <v>300024</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -3081,7 +3083,7 @@
         <v>40000</v>
       </c>
       <c r="Q28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -3089,7 +3091,7 @@
         <v>300025</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3134,7 +3136,7 @@
         <v>50000</v>
       </c>
       <c r="Q29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3142,7 +3144,7 @@
         <v>300026</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>23000</v>
       </c>
       <c r="Q30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3195,7 +3197,7 @@
         <v>300027</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -3240,7 +3242,7 @@
         <v>700000</v>
       </c>
       <c r="Q31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3248,7 +3250,7 @@
         <v>300028</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3293,7 +3295,7 @@
         <v>50000</v>
       </c>
       <c r="Q32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3301,7 +3303,7 @@
         <v>300029</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3346,7 +3348,7 @@
         <v>50000</v>
       </c>
       <c r="Q33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3354,7 +3356,7 @@
         <v>300030</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -3399,7 +3401,7 @@
         <v>50000</v>
       </c>
       <c r="Q34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -3407,7 +3409,7 @@
         <v>300031</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -3452,7 +3454,7 @@
         <v>100000</v>
       </c>
       <c r="Q35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -3460,7 +3462,7 @@
         <v>300032</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
@@ -3505,7 +3507,7 @@
         <v>800000</v>
       </c>
       <c r="Q36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -3513,7 +3515,7 @@
         <v>300033</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
@@ -3558,7 +3560,7 @@
         <v>800000</v>
       </c>
       <c r="Q37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -3566,7 +3568,7 @@
         <v>300034</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -3611,7 +3613,7 @@
         <v>800000</v>
       </c>
       <c r="Q38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -3619,7 +3621,7 @@
         <v>300035</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>1200000</v>
       </c>
       <c r="Q39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -3672,7 +3674,7 @@
         <v>300036</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C40" s="5">
         <v>0</v>
@@ -3717,7 +3719,7 @@
         <v>2000000</v>
       </c>
       <c r="Q40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -3725,7 +3727,7 @@
         <v>300037</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -3770,7 +3772,7 @@
         <v>2000000</v>
       </c>
       <c r="Q41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -3778,7 +3780,7 @@
         <v>300038</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -3823,7 +3825,7 @@
         <v>2000000</v>
       </c>
       <c r="Q42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -3831,7 +3833,7 @@
         <v>301000</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -3876,7 +3878,7 @@
         <v>400</v>
       </c>
       <c r="Q43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
@@ -3884,7 +3886,7 @@
         <v>301001</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
@@ -3929,7 +3931,7 @@
         <v>3000</v>
       </c>
       <c r="Q44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -3937,7 +3939,7 @@
         <v>301002</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -3982,7 +3984,7 @@
         <v>5500</v>
       </c>
       <c r="Q45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -3990,7 +3992,7 @@
         <v>301003</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -4035,7 +4037,7 @@
         <v>10000</v>
       </c>
       <c r="Q46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -4043,7 +4045,7 @@
         <v>301004</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -4088,7 +4090,7 @@
         <v>9091</v>
       </c>
       <c r="Q47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -4096,7 +4098,7 @@
         <v>301005</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -4141,7 +4143,7 @@
         <v>9091</v>
       </c>
       <c r="Q48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -4149,7 +4151,7 @@
         <v>301006</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -4194,7 +4196,7 @@
         <v>35000</v>
       </c>
       <c r="Q49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -4202,7 +4204,7 @@
         <v>301007</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -4247,7 +4249,7 @@
         <v>35000</v>
       </c>
       <c r="Q50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
@@ -4255,7 +4257,7 @@
         <v>301008</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4300,7 +4302,7 @@
         <v>35000</v>
       </c>
       <c r="Q51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -4308,7 +4310,7 @@
         <v>301009</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -4353,7 +4355,7 @@
         <v>35000</v>
       </c>
       <c r="Q52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -4361,7 +4363,7 @@
         <v>301010</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -4406,7 +4408,7 @@
         <v>35000</v>
       </c>
       <c r="Q53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
@@ -4414,7 +4416,7 @@
         <v>301011</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4459,7 +4461,7 @@
         <v>35000</v>
       </c>
       <c r="Q54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
@@ -4467,7 +4469,7 @@
         <v>301012</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -4512,7 +4514,7 @@
         <v>150000</v>
       </c>
       <c r="Q55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
@@ -4520,7 +4522,7 @@
         <v>301013</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4565,7 +4567,7 @@
         <v>150000</v>
       </c>
       <c r="Q56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
@@ -4573,7 +4575,7 @@
         <v>301014</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -4618,7 +4620,7 @@
         <v>150000</v>
       </c>
       <c r="Q57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -4626,7 +4628,7 @@
         <v>301015</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -4671,7 +4673,7 @@
         <v>800000</v>
       </c>
       <c r="Q58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
@@ -4679,7 +4681,7 @@
         <v>302000</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="5">
         <v>2</v>
@@ -4724,7 +4726,7 @@
         <v>400</v>
       </c>
       <c r="Q59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
@@ -4732,7 +4734,7 @@
         <v>302001</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5">
         <v>2</v>
@@ -4777,7 +4779,7 @@
         <v>3000</v>
       </c>
       <c r="Q60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
@@ -4785,7 +4787,7 @@
         <v>302002</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C61" s="5">
         <v>2</v>
@@ -4830,7 +4832,7 @@
         <v>5500</v>
       </c>
       <c r="Q61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
@@ -4838,7 +4840,7 @@
         <v>302003</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="5">
         <v>2</v>
@@ -4883,7 +4885,7 @@
         <v>10000</v>
       </c>
       <c r="Q62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
@@ -4891,7 +4893,7 @@
         <v>302004</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
@@ -4936,7 +4938,7 @@
         <v>9091</v>
       </c>
       <c r="Q63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
@@ -4944,7 +4946,7 @@
         <v>302005</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="5">
         <v>2</v>
@@ -4989,7 +4991,7 @@
         <v>9091</v>
       </c>
       <c r="Q64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -4997,7 +4999,7 @@
         <v>302006</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="5">
         <v>2</v>
@@ -5042,7 +5044,7 @@
         <v>35000</v>
       </c>
       <c r="Q65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -5050,7 +5052,7 @@
         <v>302007</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C66" s="5">
         <v>2</v>
@@ -5095,7 +5097,7 @@
         <v>35000</v>
       </c>
       <c r="Q66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -5103,7 +5105,7 @@
         <v>302008</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C67" s="5">
         <v>2</v>
@@ -5148,7 +5150,7 @@
         <v>35000</v>
       </c>
       <c r="Q67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -5156,7 +5158,7 @@
         <v>302009</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C68" s="5">
         <v>2</v>
@@ -5201,7 +5203,7 @@
         <v>35000</v>
       </c>
       <c r="Q68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -5209,7 +5211,7 @@
         <v>302010</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
@@ -5254,7 +5256,7 @@
         <v>35000</v>
       </c>
       <c r="Q69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
@@ -5262,7 +5264,7 @@
         <v>302011</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="5">
         <v>2</v>
@@ -5307,7 +5309,7 @@
         <v>35000</v>
       </c>
       <c r="Q70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -5315,7 +5317,7 @@
         <v>302012</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C71" s="5">
         <v>2</v>
@@ -5360,7 +5362,7 @@
         <v>150000</v>
       </c>
       <c r="Q71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
@@ -5368,7 +5370,7 @@
         <v>302013</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C72" s="5">
         <v>2</v>
@@ -5413,7 +5415,7 @@
         <v>150000</v>
       </c>
       <c r="Q72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -5421,7 +5423,7 @@
         <v>302014</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C73" s="5">
         <v>2</v>
@@ -5466,7 +5468,7 @@
         <v>150000</v>
       </c>
       <c r="Q73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -5474,7 +5476,7 @@
         <v>302015</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C74" s="5">
         <v>2</v>
@@ -5519,7 +5521,7 @@
         <v>800000</v>
       </c>
       <c r="Q74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
@@ -5527,7 +5529,7 @@
         <v>303000</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
@@ -5572,7 +5574,7 @@
         <v>909</v>
       </c>
       <c r="Q75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
@@ -5580,7 +5582,7 @@
         <v>303001</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="5">
         <v>3</v>
@@ -5625,7 +5627,7 @@
         <v>1818</v>
       </c>
       <c r="Q76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -5633,7 +5635,7 @@
         <v>303002</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" s="5">
         <v>3</v>
@@ -5678,7 +5680,7 @@
         <v>7273</v>
       </c>
       <c r="Q77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -5686,7 +5688,7 @@
         <v>303003</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -5731,7 +5733,7 @@
         <v>5000</v>
       </c>
       <c r="Q78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -5739,7 +5741,7 @@
         <v>303004</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5">
         <v>3</v>
@@ -5784,7 +5786,7 @@
         <v>10000</v>
       </c>
       <c r="Q79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -5792,7 +5794,7 @@
         <v>303005</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="5">
         <v>3</v>
@@ -5837,7 +5839,7 @@
         <v>20000</v>
       </c>
       <c r="Q80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -5845,7 +5847,7 @@
         <v>303006</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="5">
         <v>3</v>
@@ -5890,7 +5892,7 @@
         <v>40000</v>
       </c>
       <c r="Q81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -5898,7 +5900,7 @@
         <v>303007</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C82" s="5">
         <v>3</v>
@@ -5943,7 +5945,7 @@
         <v>20000</v>
       </c>
       <c r="Q82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -5951,7 +5953,7 @@
         <v>303008</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C83" s="5">
         <v>3</v>
@@ -5996,7 +5998,7 @@
         <v>20000</v>
       </c>
       <c r="Q83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -6004,7 +6006,7 @@
         <v>303009</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C84" s="5">
         <v>3</v>
@@ -6049,7 +6051,7 @@
         <v>20000</v>
       </c>
       <c r="Q84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
@@ -6057,7 +6059,7 @@
         <v>303010</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C85" s="5">
         <v>3</v>
@@ -6102,7 +6104,7 @@
         <v>800000</v>
       </c>
       <c r="Q85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -6110,7 +6112,7 @@
         <v>303011</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
@@ -6155,7 +6157,7 @@
         <v>800000</v>
       </c>
       <c r="Q86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -6163,7 +6165,7 @@
         <v>303012</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
@@ -6208,7 +6210,7 @@
         <v>800000</v>
       </c>
       <c r="Q87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -6216,7 +6218,7 @@
         <v>304000</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5">
         <v>4</v>
@@ -6261,7 +6263,7 @@
         <v>500</v>
       </c>
       <c r="Q88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.15">
@@ -6269,7 +6271,7 @@
         <v>304001</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="5">
         <v>4</v>
@@ -6314,7 +6316,7 @@
         <v>1000</v>
       </c>
       <c r="Q89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
@@ -6322,7 +6324,7 @@
         <v>304002</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C90" s="5">
         <v>4</v>
@@ -6367,7 +6369,7 @@
         <v>1200</v>
       </c>
       <c r="Q90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.15">
@@ -6375,7 +6377,7 @@
         <v>304003</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="5">
         <v>4</v>
@@ -6420,7 +6422,7 @@
         <v>1200</v>
       </c>
       <c r="Q91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
@@ -6428,7 +6430,7 @@
         <v>304004</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" s="5">
         <v>4</v>
@@ -6473,7 +6475,7 @@
         <v>1500</v>
       </c>
       <c r="Q92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.15">
@@ -6481,7 +6483,7 @@
         <v>304005</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="5">
         <v>4</v>
@@ -6526,7 +6528,7 @@
         <v>2727</v>
       </c>
       <c r="Q93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.15">
@@ -6534,7 +6536,7 @@
         <v>304006</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" s="5">
         <v>4</v>
@@ -6579,7 +6581,7 @@
         <v>3636</v>
       </c>
       <c r="Q94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.15">
@@ -6587,7 +6589,7 @@
         <v>304007</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="5">
         <v>4</v>
@@ -6632,7 +6634,7 @@
         <v>1818</v>
       </c>
       <c r="Q95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
@@ -6640,7 +6642,7 @@
         <v>304008</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C96" s="5">
         <v>4</v>
@@ -6685,7 +6687,7 @@
         <v>2500</v>
       </c>
       <c r="Q96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.15">
@@ -6693,7 +6695,7 @@
         <v>304009</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="5">
         <v>4</v>
@@ -6738,7 +6740,7 @@
         <v>9091</v>
       </c>
       <c r="Q97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
@@ -6746,7 +6748,7 @@
         <v>304010</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C98" s="5">
         <v>4</v>
@@ -6791,7 +6793,7 @@
         <v>1818</v>
       </c>
       <c r="Q98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.15">
@@ -6799,7 +6801,7 @@
         <v>304011</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" s="5">
         <v>4</v>
@@ -6844,7 +6846,7 @@
         <v>6000</v>
       </c>
       <c r="Q99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.15">
@@ -6852,7 +6854,7 @@
         <v>304012</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C100" s="5">
         <v>4</v>
@@ -6897,7 +6899,7 @@
         <v>6000</v>
       </c>
       <c r="Q100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.15">
@@ -6905,7 +6907,7 @@
         <v>304013</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C101" s="5">
         <v>4</v>
@@ -6950,7 +6952,7 @@
         <v>1818</v>
       </c>
       <c r="Q101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.15">
@@ -6958,7 +6960,7 @@
         <v>304014</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C102" s="5">
         <v>4</v>
@@ -7003,7 +7005,7 @@
         <v>20000</v>
       </c>
       <c r="Q102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.15">
@@ -7011,7 +7013,7 @@
         <v>304015</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C103" s="5">
         <v>4</v>
@@ -7056,7 +7058,7 @@
         <v>10000</v>
       </c>
       <c r="Q103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.15">
@@ -7064,7 +7066,7 @@
         <v>304016</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="5">
         <v>4</v>
@@ -7109,7 +7111,7 @@
         <v>10000</v>
       </c>
       <c r="Q104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
@@ -7117,7 +7119,7 @@
         <v>304017</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C105" s="5">
         <v>4</v>
@@ -7162,7 +7164,7 @@
         <v>10000</v>
       </c>
       <c r="Q105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.15">
@@ -7170,7 +7172,7 @@
         <v>304018</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C106" s="5">
         <v>4</v>
@@ -7215,7 +7217,7 @@
         <v>10000</v>
       </c>
       <c r="Q106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.15">
@@ -7223,7 +7225,7 @@
         <v>304019</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C107" s="5">
         <v>4</v>
@@ -7268,7 +7270,7 @@
         <v>10000</v>
       </c>
       <c r="Q107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.15">
@@ -7276,7 +7278,7 @@
         <v>304020</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C108" s="5">
         <v>4</v>
@@ -7321,7 +7323,7 @@
         <v>10000</v>
       </c>
       <c r="Q108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.15">
@@ -7329,7 +7331,7 @@
         <v>304021</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C109" s="5">
         <v>4</v>
@@ -7374,7 +7376,7 @@
         <v>10000</v>
       </c>
       <c r="Q109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.15">
@@ -7382,7 +7384,7 @@
         <v>304022</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C110" s="5">
         <v>4</v>
@@ -7427,7 +7429,7 @@
         <v>20000</v>
       </c>
       <c r="Q110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.15">
@@ -7435,7 +7437,7 @@
         <v>304023</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C111" s="5">
         <v>4</v>
@@ -7480,7 +7482,7 @@
         <v>18000</v>
       </c>
       <c r="Q111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.15">
@@ -7488,7 +7490,7 @@
         <v>304024</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C112" s="5">
         <v>4</v>
@@ -7533,7 +7535,7 @@
         <v>18000</v>
       </c>
       <c r="Q112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.15">
@@ -7541,7 +7543,7 @@
         <v>304025</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C113" s="5">
         <v>4</v>
@@ -7586,7 +7588,7 @@
         <v>20000</v>
       </c>
       <c r="Q113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.15">
@@ -7594,7 +7596,7 @@
         <v>304026</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C114" s="5">
         <v>4</v>
@@ -7639,7 +7641,7 @@
         <v>20000</v>
       </c>
       <c r="Q114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.15">
@@ -7647,7 +7649,7 @@
         <v>304027</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" s="5">
         <v>4</v>
@@ -7692,7 +7694,7 @@
         <v>20000</v>
       </c>
       <c r="Q115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.15">
@@ -7700,7 +7702,7 @@
         <v>304028</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C116" s="5">
         <v>4</v>
@@ -7745,7 +7747,7 @@
         <v>800000</v>
       </c>
       <c r="Q116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.15">
@@ -7753,7 +7755,7 @@
         <v>304029</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C117" s="5">
         <v>4</v>
@@ -7798,7 +7800,7 @@
         <v>800000</v>
       </c>
       <c r="Q117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.15">
@@ -7806,7 +7808,7 @@
         <v>304030</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C118" s="5">
         <v>4</v>
@@ -7851,7 +7853,7 @@
         <v>800000</v>
       </c>
       <c r="Q118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.15">
@@ -7859,7 +7861,7 @@
         <v>304031</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C119" s="5">
         <v>4</v>
@@ -7904,7 +7906,7 @@
         <v>70000</v>
       </c>
       <c r="Q119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.15">
@@ -7912,7 +7914,7 @@
         <v>304032</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C120" s="5">
         <v>4</v>
@@ -7957,7 +7959,7 @@
         <v>70000</v>
       </c>
       <c r="Q120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.15">
@@ -7965,7 +7967,7 @@
         <v>304033</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121" s="5">
         <v>4</v>
@@ -8010,7 +8012,7 @@
         <v>70000</v>
       </c>
       <c r="Q121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.15">
@@ -8018,7 +8020,7 @@
         <v>305000</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C122" s="5">
         <v>5</v>
@@ -8063,7 +8065,7 @@
         <v>800</v>
       </c>
       <c r="Q122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.15">
@@ -8071,7 +8073,7 @@
         <v>305001</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C123" s="5">
         <v>5</v>
@@ -8116,7 +8118,7 @@
         <v>1500</v>
       </c>
       <c r="Q123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.15">
@@ -8124,7 +8126,7 @@
         <v>305002</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C124" s="5">
         <v>5</v>
@@ -8169,7 +8171,7 @@
         <v>1818</v>
       </c>
       <c r="Q124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
@@ -8177,7 +8179,7 @@
         <v>305003</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="5">
         <v>5</v>
@@ -8222,7 +8224,7 @@
         <v>1000</v>
       </c>
       <c r="Q125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.15">
@@ -8230,7 +8232,7 @@
         <v>305004</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="5">
         <v>5</v>
@@ -8275,7 +8277,7 @@
         <v>1500</v>
       </c>
       <c r="Q126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.15">
@@ -8283,7 +8285,7 @@
         <v>305005</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="5">
         <v>5</v>
@@ -8328,7 +8330,7 @@
         <v>4545</v>
       </c>
       <c r="Q127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.15">
@@ -8336,7 +8338,7 @@
         <v>305006</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C128" s="5">
         <v>5</v>
@@ -8381,7 +8383,7 @@
         <v>20000</v>
       </c>
       <c r="Q128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.15">
@@ -8389,7 +8391,7 @@
         <v>305007</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C129" s="5">
         <v>5</v>
@@ -8434,7 +8436,7 @@
         <v>20000</v>
       </c>
       <c r="Q129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.15">
@@ -8442,7 +8444,7 @@
         <v>305008</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C130" s="5">
         <v>5</v>
@@ -8487,7 +8489,7 @@
         <v>20000</v>
       </c>
       <c r="Q130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.15">
@@ -8495,7 +8497,7 @@
         <v>305009</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C131" s="5">
         <v>5</v>
@@ -8540,7 +8542,7 @@
         <v>6364</v>
       </c>
       <c r="Q131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.15">
@@ -8548,7 +8550,7 @@
         <v>305010</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C132" s="5">
         <v>5</v>
@@ -8593,7 +8595,7 @@
         <v>4000</v>
       </c>
       <c r="Q132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.15">
@@ -8601,7 +8603,7 @@
         <v>305011</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C133" s="5">
         <v>5</v>
@@ -8646,7 +8648,7 @@
         <v>8000</v>
       </c>
       <c r="Q133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.15">
@@ -8654,7 +8656,7 @@
         <v>305012</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C134" s="5">
         <v>5</v>
@@ -8699,7 +8701,7 @@
         <v>6364</v>
       </c>
       <c r="Q134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.15">
@@ -8707,7 +8709,7 @@
         <v>305013</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C135" s="5">
         <v>5</v>
@@ -8752,7 +8754,7 @@
         <v>3636</v>
       </c>
       <c r="Q135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.15">
@@ -8760,7 +8762,7 @@
         <v>305014</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C136" s="5">
         <v>5</v>
@@ -8805,7 +8807,7 @@
         <v>3636</v>
       </c>
       <c r="Q136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.15">
@@ -8813,7 +8815,7 @@
         <v>305015</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C137" s="5">
         <v>5</v>
@@ -8858,7 +8860,7 @@
         <v>10000</v>
       </c>
       <c r="Q137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.15">
@@ -8866,7 +8868,7 @@
         <v>305016</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C138" s="5">
         <v>5</v>
@@ -8911,7 +8913,7 @@
         <v>10000</v>
       </c>
       <c r="Q138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.15">
@@ -8919,7 +8921,7 @@
         <v>305017</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C139" s="5">
         <v>5</v>
@@ -8964,7 +8966,7 @@
         <v>8000</v>
       </c>
       <c r="Q139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.15">
@@ -8972,7 +8974,7 @@
         <v>305018</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C140" s="5">
         <v>5</v>
@@ -9017,7 +9019,7 @@
         <v>10000</v>
       </c>
       <c r="Q140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.15">
@@ -9025,7 +9027,7 @@
         <v>305019</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C141" s="5">
         <v>5</v>
@@ -9070,7 +9072,7 @@
         <v>7273</v>
       </c>
       <c r="Q141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.15">
@@ -9078,7 +9080,7 @@
         <v>305020</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C142" s="5">
         <v>5</v>
@@ -9123,7 +9125,7 @@
         <v>10000</v>
       </c>
       <c r="Q142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.15">
@@ -9131,7 +9133,7 @@
         <v>305021</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C143" s="5">
         <v>5</v>
@@ -9176,7 +9178,7 @@
         <v>13000</v>
       </c>
       <c r="Q143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.15">
@@ -9184,7 +9186,7 @@
         <v>305022</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C144" s="5">
         <v>5</v>
@@ -9229,7 +9231,7 @@
         <v>10000</v>
       </c>
       <c r="Q144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.15">
@@ -9237,7 +9239,7 @@
         <v>305023</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C145" s="5">
         <v>5</v>
@@ -9282,7 +9284,7 @@
         <v>10000</v>
       </c>
       <c r="Q145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.15">
@@ -9290,7 +9292,7 @@
         <v>305024</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C146" s="5">
         <v>5</v>
@@ -9335,7 +9337,7 @@
         <v>15000</v>
       </c>
       <c r="Q146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.15">
@@ -9343,7 +9345,7 @@
         <v>305025</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C147" s="5">
         <v>5</v>
@@ -9388,7 +9390,7 @@
         <v>12000</v>
       </c>
       <c r="Q147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.15">
@@ -9396,7 +9398,7 @@
         <v>305026</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C148" s="5">
         <v>5</v>
@@ -9441,7 +9443,7 @@
         <v>10000</v>
       </c>
       <c r="Q148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
@@ -9449,7 +9451,7 @@
         <v>305027</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C149" s="5">
         <v>5</v>
@@ -9494,7 +9496,7 @@
         <v>20000</v>
       </c>
       <c r="Q149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.15">
@@ -9502,7 +9504,7 @@
         <v>305028</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C150" s="5">
         <v>5</v>
@@ -9547,7 +9549,7 @@
         <v>20000</v>
       </c>
       <c r="Q150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.15">
@@ -9555,7 +9557,7 @@
         <v>305029</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C151" s="5">
         <v>5</v>
@@ -9600,7 +9602,7 @@
         <v>20000</v>
       </c>
       <c r="Q151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.15">
@@ -9608,7 +9610,7 @@
         <v>305030</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C152" s="5">
         <v>5</v>
@@ -9653,7 +9655,7 @@
         <v>900000</v>
       </c>
       <c r="Q152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.15">
@@ -9661,7 +9663,7 @@
         <v>305031</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C153" s="5">
         <v>5</v>
@@ -9706,7 +9708,7 @@
         <v>900000</v>
       </c>
       <c r="Q153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.15">
@@ -9714,7 +9716,7 @@
         <v>305032</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C154" s="5">
         <v>5</v>
@@ -9759,7 +9761,7 @@
         <v>900000</v>
       </c>
       <c r="Q154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.15">
@@ -9767,7 +9769,7 @@
         <v>305033</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C155" s="5">
         <v>5</v>
@@ -9812,7 +9814,7 @@
         <v>70000</v>
       </c>
       <c r="Q155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.15">
@@ -9820,7 +9822,7 @@
         <v>305034</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C156" s="5">
         <v>5</v>
@@ -9865,7 +9867,7 @@
         <v>70000</v>
       </c>
       <c r="Q156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.15">
@@ -9873,7 +9875,7 @@
         <v>305035</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C157" s="5">
         <v>5</v>
@@ -9918,7 +9920,7 @@
         <v>70000</v>
       </c>
       <c r="Q157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.15">
@@ -9926,7 +9928,7 @@
         <v>306000</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C158" s="5">
         <v>6</v>
@@ -9971,7 +9973,7 @@
         <v>500</v>
       </c>
       <c r="Q158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.15">
@@ -9979,7 +9981,7 @@
         <v>306001</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C159" s="5">
         <v>6</v>
@@ -10024,7 +10026,7 @@
         <v>800</v>
       </c>
       <c r="Q159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.15">
@@ -10032,7 +10034,7 @@
         <v>306002</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C160" s="5">
         <v>6</v>
@@ -10077,7 +10079,7 @@
         <v>800</v>
       </c>
       <c r="Q160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.15">
@@ -10085,7 +10087,7 @@
         <v>306003</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C161" s="5">
         <v>6</v>
@@ -10130,7 +10132,7 @@
         <v>1000</v>
       </c>
       <c r="Q161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.15">
@@ -10138,7 +10140,7 @@
         <v>306004</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C162" s="5">
         <v>6</v>
@@ -10183,7 +10185,7 @@
         <v>1500</v>
       </c>
       <c r="Q162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.15">
@@ -10191,7 +10193,7 @@
         <v>306005</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C163" s="5">
         <v>6</v>
@@ -10236,7 +10238,7 @@
         <v>2727</v>
       </c>
       <c r="Q163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.15">
@@ -10244,7 +10246,7 @@
         <v>306006</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C164" s="5">
         <v>6</v>
@@ -10289,7 +10291,7 @@
         <v>7273</v>
       </c>
       <c r="Q164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.15">
@@ -10297,7 +10299,7 @@
         <v>306007</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C165" s="5">
         <v>6</v>
@@ -10342,7 +10344,7 @@
         <v>3636</v>
       </c>
       <c r="Q165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.15">
@@ -10350,7 +10352,7 @@
         <v>306008</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C166" s="5">
         <v>6</v>
@@ -10395,7 +10397,7 @@
         <v>3636</v>
       </c>
       <c r="Q166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.15">
@@ -10403,7 +10405,7 @@
         <v>306009</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C167" s="5">
         <v>6</v>
@@ -10448,7 +10450,7 @@
         <v>8000</v>
       </c>
       <c r="Q167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.15">
@@ -10456,7 +10458,7 @@
         <v>306010</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C168" s="5">
         <v>6</v>
@@ -10501,7 +10503,7 @@
         <v>1818</v>
       </c>
       <c r="Q168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -10509,7 +10511,7 @@
         <v>306011</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C169" s="5">
         <v>6</v>
@@ -10554,7 +10556,7 @@
         <v>10000</v>
       </c>
       <c r="Q169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.15">
@@ -10562,7 +10564,7 @@
         <v>306012</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C170" s="5">
         <v>6</v>
@@ -10607,7 +10609,7 @@
         <v>1818</v>
       </c>
       <c r="Q170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.15">
@@ -10615,7 +10617,7 @@
         <v>306013</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C171" s="5">
         <v>6</v>
@@ -10660,7 +10662,7 @@
         <v>10000</v>
       </c>
       <c r="Q171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.15">
@@ -10668,7 +10670,7 @@
         <v>306014</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C172" s="5">
         <v>6</v>
@@ -10713,7 +10715,7 @@
         <v>1818</v>
       </c>
       <c r="Q172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.15">
@@ -10721,7 +10723,7 @@
         <v>306015</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C173" s="5">
         <v>6</v>
@@ -10766,7 +10768,7 @@
         <v>10000</v>
       </c>
       <c r="Q173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.15">
@@ -10774,7 +10776,7 @@
         <v>306016</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C174" s="5">
         <v>6</v>
@@ -10819,7 +10821,7 @@
         <v>4545</v>
       </c>
       <c r="Q174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.15">
@@ -10827,7 +10829,7 @@
         <v>306017</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C175" s="5">
         <v>6</v>
@@ -10872,7 +10874,7 @@
         <v>15000</v>
       </c>
       <c r="Q175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.15">
@@ -10880,7 +10882,7 @@
         <v>306018</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C176" s="5">
         <v>6</v>
@@ -10925,7 +10927,7 @@
         <v>20000</v>
       </c>
       <c r="Q176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.15">
@@ -10933,7 +10935,7 @@
         <v>306019</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C177" s="5">
         <v>6</v>
@@ -10978,7 +10980,7 @@
         <v>10000</v>
       </c>
       <c r="Q177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.15">
@@ -10986,7 +10988,7 @@
         <v>306020</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C178" s="5">
         <v>6</v>
@@ -11031,7 +11033,7 @@
         <v>10000</v>
       </c>
       <c r="Q178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.15">
@@ -11039,7 +11041,7 @@
         <v>306021</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C179" s="5">
         <v>6</v>
@@ -11084,7 +11086,7 @@
         <v>20000</v>
       </c>
       <c r="Q179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.15">
@@ -11092,7 +11094,7 @@
         <v>306022</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C180" s="5">
         <v>6</v>
@@ -11137,7 +11139,7 @@
         <v>15000</v>
       </c>
       <c r="Q180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.15">
@@ -11145,7 +11147,7 @@
         <v>306023</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C181" s="5">
         <v>6</v>
@@ -11190,7 +11192,7 @@
         <v>15000</v>
       </c>
       <c r="Q181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.15">
@@ -11198,7 +11200,7 @@
         <v>306024</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C182" s="5">
         <v>6</v>
@@ -11243,7 +11245,7 @@
         <v>10000</v>
       </c>
       <c r="Q182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.15">
@@ -11251,7 +11253,7 @@
         <v>306025</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C183" s="5">
         <v>6</v>
@@ -11296,7 +11298,7 @@
         <v>10000</v>
       </c>
       <c r="Q183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -11304,7 +11306,7 @@
         <v>306026</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C184" s="5">
         <v>6</v>
@@ -11349,7 +11351,7 @@
         <v>20000</v>
       </c>
       <c r="Q184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.15">
@@ -11357,7 +11359,7 @@
         <v>306027</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C185" s="5">
         <v>6</v>
@@ -11402,7 +11404,7 @@
         <v>20000</v>
       </c>
       <c r="Q185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.15">
@@ -11410,7 +11412,7 @@
         <v>306028</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C186" s="5">
         <v>6</v>
@@ -11455,7 +11457,7 @@
         <v>20000</v>
       </c>
       <c r="Q186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.15">
@@ -11463,7 +11465,7 @@
         <v>306029</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C187" s="5">
         <v>6</v>
@@ -11508,7 +11510,7 @@
         <v>800000</v>
       </c>
       <c r="Q187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.15">
@@ -11516,7 +11518,7 @@
         <v>306030</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C188" s="5">
         <v>6</v>
@@ -11561,7 +11563,7 @@
         <v>800000</v>
       </c>
       <c r="Q188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.15">
@@ -11569,7 +11571,7 @@
         <v>306031</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C189" s="5">
         <v>6</v>
@@ -11614,7 +11616,7 @@
         <v>800000</v>
       </c>
       <c r="Q189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.15">
@@ -11622,7 +11624,7 @@
         <v>306032</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C190" s="5">
         <v>6</v>
@@ -11667,7 +11669,7 @@
         <v>70000</v>
       </c>
       <c r="Q190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.15">
@@ -11675,7 +11677,7 @@
         <v>306033</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C191" s="5">
         <v>6</v>
@@ -11720,7 +11722,7 @@
         <v>70000</v>
       </c>
       <c r="Q191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.15">
@@ -11728,7 +11730,7 @@
         <v>306034</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C192" s="5">
         <v>6</v>
@@ -11773,15 +11775,15 @@
         <v>70000</v>
       </c>
       <c r="Q192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A193" s="5">
         <v>307000</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>288</v>
+      <c r="B193" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C193" s="5">
         <v>7</v>
@@ -11826,15 +11828,15 @@
         <v>100000</v>
       </c>
       <c r="Q193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A194" s="5">
         <v>307001</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>289</v>
+      <c r="B194" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="C194" s="5">
         <v>7</v>
@@ -11879,15 +11881,15 @@
         <v>100000</v>
       </c>
       <c r="Q194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A195" s="5">
         <v>307002</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>290</v>
+      <c r="B195" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C195" s="5">
         <v>7</v>
@@ -11932,7 +11934,7 @@
         <v>100000</v>
       </c>
       <c r="Q195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.15">
@@ -11940,7 +11942,7 @@
         <v>307003</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C196" s="5">
         <v>7</v>
@@ -11985,7 +11987,7 @@
         <v>100000</v>
       </c>
       <c r="Q196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.15">
@@ -11993,7 +11995,7 @@
         <v>307004</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C197" s="5">
         <v>7</v>
@@ -12038,7 +12040,7 @@
         <v>100000</v>
       </c>
       <c r="Q197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.15">
@@ -12046,7 +12048,7 @@
         <v>307005</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C198" s="5">
         <v>7</v>
@@ -12091,7 +12093,7 @@
         <v>250000</v>
       </c>
       <c r="Q198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.15">
@@ -12099,7 +12101,7 @@
         <v>307006</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C199" s="5">
         <v>7</v>
@@ -12144,7 +12146,7 @@
         <v>250000</v>
       </c>
       <c r="Q199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.15">
@@ -12152,7 +12154,7 @@
         <v>307007</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C200" s="5">
         <v>7</v>
@@ -12197,7 +12199,7 @@
         <v>500000</v>
       </c>
       <c r="Q200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.15">
@@ -12205,7 +12207,7 @@
         <v>307008</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C201" s="5">
         <v>7</v>
@@ -12250,7 +12252,7 @@
         <v>500000</v>
       </c>
       <c r="Q201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.15">
@@ -12258,7 +12260,7 @@
         <v>307009</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C202" s="5">
         <v>7</v>
@@ -12303,7 +12305,7 @@
         <v>500000</v>
       </c>
       <c r="Q202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.15">
@@ -12311,7 +12313,7 @@
         <v>307010</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C203" s="5">
         <v>7</v>
@@ -12356,7 +12358,7 @@
         <v>700000</v>
       </c>
       <c r="Q203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.15">
@@ -12364,7 +12366,7 @@
         <v>307011</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C204" s="5">
         <v>7</v>
@@ -12409,7 +12411,7 @@
         <v>500000</v>
       </c>
       <c r="Q204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.15">
@@ -12417,7 +12419,7 @@
         <v>307012</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C205" s="5">
         <v>7</v>
@@ -12462,7 +12464,7 @@
         <v>500000</v>
       </c>
       <c r="Q205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.15">
@@ -12470,7 +12472,7 @@
         <v>307013</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C206" s="5">
         <v>7</v>
@@ -12515,7 +12517,7 @@
         <v>700000</v>
       </c>
       <c r="Q206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.15">
@@ -12523,7 +12525,7 @@
         <v>307014</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C207" s="5">
         <v>7</v>
@@ -12568,7 +12570,7 @@
         <v>700000</v>
       </c>
       <c r="Q207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.15">
@@ -12576,7 +12578,7 @@
         <v>307015</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C208" s="5">
         <v>7</v>
@@ -12621,7 +12623,7 @@
         <v>900000</v>
       </c>
       <c r="Q208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.15">
@@ -12629,7 +12631,7 @@
         <v>307016</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C209" s="5">
         <v>7</v>
@@ -12674,7 +12676,7 @@
         <v>900000</v>
       </c>
       <c r="Q209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -12682,7 +12684,7 @@
         <v>307017</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C210" s="5">
         <v>7</v>
@@ -12727,7 +12729,7 @@
         <v>1000000</v>
       </c>
       <c r="Q210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.15">
@@ -12735,7 +12737,7 @@
         <v>307018</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C211" s="5">
         <v>7</v>
@@ -12780,7 +12782,7 @@
         <v>1000000</v>
       </c>
       <c r="Q211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.15">
@@ -12788,7 +12790,7 @@
         <v>307019</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C212" s="5">
         <v>7</v>
@@ -12833,7 +12835,7 @@
         <v>900000</v>
       </c>
       <c r="Q212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.15">
@@ -12841,7 +12843,7 @@
         <v>307020</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C213" s="5">
         <v>7</v>
@@ -12886,7 +12888,7 @@
         <v>2000000</v>
       </c>
       <c r="Q213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.15">
@@ -12894,7 +12896,7 @@
         <v>307021</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C214" s="5">
         <v>7</v>
@@ -12939,7 +12941,7 @@
         <v>2000000</v>
       </c>
       <c r="Q214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.15">
@@ -12947,7 +12949,7 @@
         <v>307022</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C215" s="5">
         <v>7</v>
@@ -12992,7 +12994,7 @@
         <v>2000000</v>
       </c>
       <c r="Q215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.15">
@@ -13000,7 +13002,7 @@
         <v>307023</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C216" s="5">
         <v>7</v>
@@ -13045,7 +13047,7 @@
         <v>2000000</v>
       </c>
       <c r="Q216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.15">
@@ -13053,7 +13055,7 @@
         <v>307024</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C217" s="5">
         <v>7</v>
@@ -13098,7 +13100,7 @@
         <v>2000000</v>
       </c>
       <c r="Q217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.15">
@@ -13106,7 +13108,7 @@
         <v>307025</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C218" s="5">
         <v>7</v>
@@ -13151,7 +13153,7 @@
         <v>50000</v>
       </c>
       <c r="Q218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.15">
@@ -13159,7 +13161,7 @@
         <v>307026</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C219" s="5">
         <v>7</v>
@@ -13204,7 +13206,7 @@
         <v>50000</v>
       </c>
       <c r="Q219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.15">
@@ -13212,7 +13214,7 @@
         <v>307027</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C220" s="5">
         <v>7</v>
@@ -13257,7 +13259,7 @@
         <v>50000</v>
       </c>
       <c r="Q220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.15">
@@ -13265,7 +13267,7 @@
         <v>308000</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C221" s="5">
         <v>8</v>
@@ -13310,7 +13312,7 @@
         <v>5000</v>
       </c>
       <c r="Q221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.15">
@@ -13318,7 +13320,7 @@
         <v>308001</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C222" s="5">
         <v>8</v>
@@ -13363,7 +13365,7 @@
         <v>5000</v>
       </c>
       <c r="Q222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.15">
@@ -13371,7 +13373,7 @@
         <v>308002</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C223" s="5">
         <v>8</v>
@@ -13416,7 +13418,7 @@
         <v>5000</v>
       </c>
       <c r="Q223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.15">
@@ -13424,7 +13426,7 @@
         <v>308003</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C224" s="5">
         <v>8</v>
@@ -13469,7 +13471,7 @@
         <v>5000</v>
       </c>
       <c r="Q224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.15">
@@ -13477,7 +13479,7 @@
         <v>308004</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C225" s="5">
         <v>8</v>
@@ -13522,7 +13524,7 @@
         <v>5000</v>
       </c>
       <c r="Q225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.15">
@@ -13530,7 +13532,7 @@
         <v>308005</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C226" s="5">
         <v>8</v>
@@ -13575,7 +13577,7 @@
         <v>5000</v>
       </c>
       <c r="Q226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.15">
@@ -13583,7 +13585,7 @@
         <v>308006</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C227" s="5">
         <v>8</v>
@@ -13628,7 +13630,7 @@
         <v>5000</v>
       </c>
       <c r="Q227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.15">
@@ -13636,7 +13638,7 @@
         <v>308007</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C228" s="5">
         <v>8</v>
@@ -13681,7 +13683,7 @@
         <v>700000</v>
       </c>
       <c r="Q228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.15">
@@ -13689,7 +13691,7 @@
         <v>308008</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C229" s="5">
         <v>8</v>
@@ -13734,7 +13736,7 @@
         <v>700000</v>
       </c>
       <c r="Q229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.15">
@@ -13742,7 +13744,7 @@
         <v>308009</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C230" s="5">
         <v>8</v>
@@ -13787,7 +13789,7 @@
         <v>700000</v>
       </c>
       <c r="Q230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.15">
@@ -13795,7 +13797,7 @@
         <v>309000</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C231" s="5">
         <v>9</v>
@@ -13840,7 +13842,7 @@
         <v>5000</v>
       </c>
       <c r="Q231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.15">
@@ -13848,7 +13850,7 @@
         <v>309001</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C232" s="5">
         <v>9</v>
@@ -13893,7 +13895,7 @@
         <v>5000</v>
       </c>
       <c r="Q232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.15">
@@ -13901,7 +13903,7 @@
         <v>309002</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C233" s="5">
         <v>9</v>
@@ -13946,7 +13948,7 @@
         <v>5000</v>
       </c>
       <c r="Q233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.15">
@@ -13954,7 +13956,7 @@
         <v>309003</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C234" s="5">
         <v>9</v>
@@ -13999,7 +14001,7 @@
         <v>5000</v>
       </c>
       <c r="Q234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.15">
@@ -14007,7 +14009,7 @@
         <v>309004</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C235" s="5">
         <v>9</v>
@@ -14052,7 +14054,7 @@
         <v>5000</v>
       </c>
       <c r="Q235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.15">
@@ -14060,7 +14062,7 @@
         <v>309005</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C236" s="5">
         <v>9</v>
@@ -14105,7 +14107,7 @@
         <v>5000</v>
       </c>
       <c r="Q236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.15">
@@ -14113,7 +14115,7 @@
         <v>309006</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C237" s="5">
         <v>9</v>
@@ -14158,7 +14160,7 @@
         <v>5000</v>
       </c>
       <c r="Q237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.15">
@@ -14166,7 +14168,7 @@
         <v>309007</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C238" s="5">
         <v>9</v>
@@ -14211,7 +14213,7 @@
         <v>800000</v>
       </c>
       <c r="Q238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.15">
@@ -14219,7 +14221,7 @@
         <v>309008</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C239" s="5">
         <v>9</v>
@@ -14264,7 +14266,7 @@
         <v>800000</v>
       </c>
       <c r="Q239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.15">
@@ -14272,7 +14274,7 @@
         <v>309009</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C240" s="5">
         <v>9</v>
@@ -14317,7 +14319,7 @@
         <v>800000</v>
       </c>
       <c r="Q240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.15">
@@ -14325,7 +14327,7 @@
         <v>310000</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C241" s="5">
         <v>10</v>
@@ -14370,7 +14372,7 @@
         <v>1000000</v>
       </c>
       <c r="Q241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -14378,7 +14380,7 @@
         <v>310001</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C242" s="5">
         <v>10</v>
@@ -14423,7 +14425,7 @@
         <v>1000000</v>
       </c>
       <c r="Q242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.15">
@@ -14431,7 +14433,7 @@
         <v>310002</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C243" s="5">
         <v>10</v>
@@ -14476,7 +14478,7 @@
         <v>1000000</v>
       </c>
       <c r="Q243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -14501,7 +14503,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14513,55 +14515,55 @@
     <col min="5" max="5" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="A1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>359</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -14569,7 +14571,7 @@
         <v>200001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -14586,7 +14588,7 @@
       <c r="G4">
         <v>1100</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>40</v>
       </c>
       <c r="I4" t="str">
@@ -14594,7 +14596,7 @@
         <v>立即恢复HP:40</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -14602,7 +14604,7 @@
         <v>200002</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -14619,7 +14621,7 @@
       <c r="G5">
         <v>1100</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>90</v>
       </c>
       <c r="I5" t="str">
@@ -14627,7 +14629,7 @@
         <v>立即恢复HP:90</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -14635,7 +14637,7 @@
         <v>200003</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -14652,15 +14654,15 @@
       <c r="G6">
         <v>1100</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>160</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE("立即恢复HP:",H6)</f>
+        <f t="shared" ref="I6:I13" si="1">CONCATENATE("立即恢复HP:",H6)</f>
         <v>立即恢复HP:160</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -14668,7 +14670,7 @@
         <v>200004</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -14685,15 +14687,15 @@
       <c r="G7">
         <v>1100</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>400</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE("立即恢复HP:",H7)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:400</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -14701,7 +14703,7 @@
         <v>200005</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -14718,15 +14720,15 @@
       <c r="G8">
         <v>1100</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1000</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE("立即恢复HP:",H8)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:1000</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -14734,7 +14736,7 @@
         <v>200006</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -14751,15 +14753,15 @@
       <c r="G9">
         <v>1100</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>3000</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE("立即恢复HP:",H9)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:3000</v>
       </c>
       <c r="J9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -14767,7 +14769,7 @@
         <v>200007</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -14784,15 +14786,15 @@
       <c r="G10">
         <v>1100</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>6000</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE("立即恢复HP:",H10)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:6000</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -14800,7 +14802,7 @@
         <v>200008</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -14817,15 +14819,15 @@
       <c r="G11">
         <v>1100</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>10000</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("立即恢复HP:",H11)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:10000</v>
       </c>
       <c r="J11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -14833,7 +14835,7 @@
         <v>200009</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -14850,15 +14852,15 @@
       <c r="G12">
         <v>1100</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>50000</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE("立即恢复HP:",H12)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:50000</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -14866,7 +14868,7 @@
         <v>200010</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -14883,15 +14885,15 @@
       <c r="G13">
         <v>1100</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>100000</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE("立即恢复HP:",H13)</f>
+        <f t="shared" si="1"/>
         <v>立即恢复HP:100000</v>
       </c>
       <c r="J13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -14899,7 +14901,7 @@
         <v>200011</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -14916,7 +14918,7 @@
       <c r="G14">
         <v>1101</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>50</v>
       </c>
       <c r="I14" t="str">
@@ -14924,7 +14926,7 @@
         <v>立即恢复MP:50</v>
       </c>
       <c r="J14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -14932,7 +14934,7 @@
         <v>200012</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -14949,15 +14951,15 @@
       <c r="G15">
         <v>1101</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>100</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15" si="1">CONCATENATE("立即恢复MP:",H15)</f>
+        <f t="shared" ref="I15" si="2">CONCATENATE("立即恢复MP:",H15)</f>
         <v>立即恢复MP:100</v>
       </c>
       <c r="J15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -14965,7 +14967,7 @@
         <v>200013</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -14982,7 +14984,7 @@
       <c r="G16">
         <v>1101</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>200</v>
       </c>
       <c r="I16" t="str">
@@ -14990,7 +14992,7 @@
         <v>立即恢复MP:200</v>
       </c>
       <c r="J16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -14998,7 +15000,7 @@
         <v>200014</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -15015,7 +15017,7 @@
       <c r="G17">
         <v>1101</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>500</v>
       </c>
       <c r="I17" t="str">
@@ -15023,7 +15025,7 @@
         <v>立即恢复MP:500</v>
       </c>
       <c r="J17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -15031,7 +15033,7 @@
         <v>200015</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -15048,7 +15050,7 @@
       <c r="G18">
         <v>1101</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>1000</v>
       </c>
       <c r="I18" t="str">
@@ -15056,7 +15058,7 @@
         <v>立即恢复MP:1000</v>
       </c>
       <c r="J18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -15064,7 +15066,7 @@
         <v>200016</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -15081,7 +15083,7 @@
       <c r="G19">
         <v>1101</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>3000</v>
       </c>
       <c r="I19" t="str">
@@ -15089,7 +15091,7 @@
         <v>立即恢复MP:3000</v>
       </c>
       <c r="J19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -15097,7 +15099,7 @@
         <v>200017</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -15114,7 +15116,7 @@
       <c r="G20">
         <v>1101</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>6000</v>
       </c>
       <c r="I20" t="str">
@@ -15122,7 +15124,7 @@
         <v>立即恢复MP:6000</v>
       </c>
       <c r="J20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -15130,7 +15132,7 @@
         <v>200018</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -15147,15 +15149,15 @@
       <c r="G21">
         <v>1101</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>10000</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" ref="I21:I23" si="2">CONCATENATE("立即恢复MP:",H21)</f>
+        <f t="shared" ref="I21:I23" si="3">CONCATENATE("立即恢复MP:",H21)</f>
         <v>立即恢复MP:10000</v>
       </c>
       <c r="J21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -15163,7 +15165,7 @@
         <v>200019</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -15180,15 +15182,15 @@
       <c r="G22">
         <v>1101</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>50000</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>立即恢复MP:50000</v>
       </c>
       <c r="J22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -15196,7 +15198,7 @@
         <v>200020</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -15213,15 +15215,15 @@
       <c r="G23">
         <v>1101</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>100000</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>立即恢复MP:100000</v>
       </c>
       <c r="J23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -15229,7 +15231,7 @@
         <v>201001</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -15246,7 +15248,7 @@
       <c r="G24">
         <v>5001</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>2</v>
       </c>
       <c r="I24" t="str">
@@ -15254,7 +15256,7 @@
         <v>使用后获得双倍经验100次</v>
       </c>
       <c r="J24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -15262,7 +15264,7 @@
         <v>201002</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -15279,15 +15281,15 @@
       <c r="G25">
         <v>5001</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ref="I25" si="3">CONCATENATE("使用后获得",B25,"100次")</f>
+        <f t="shared" ref="I25" si="4">CONCATENATE("使用后获得",B25,"100次")</f>
         <v>使用后获得三倍经验100次</v>
       </c>
       <c r="J25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -15295,7 +15297,7 @@
         <v>201003</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -15312,15 +15314,15 @@
       <c r="G26">
         <v>5001</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>4</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ref="I26:I56" si="4">CONCATENATE("使用后获得",B26,"100次")</f>
+        <f t="shared" ref="I26:I41" si="5">CONCATENATE("使用后获得",B26,"100次")</f>
         <v>使用后获得四倍经验100次</v>
       </c>
       <c r="J26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -15328,7 +15330,7 @@
         <v>201004</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -15345,15 +15347,15 @@
       <c r="G27">
         <v>5001</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>5</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得五倍经验100次</v>
       </c>
       <c r="J27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -15361,7 +15363,7 @@
         <v>201005</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -15378,15 +15380,15 @@
       <c r="G28">
         <v>5001</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>6</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得六倍经验100次</v>
       </c>
       <c r="J28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -15394,7 +15396,7 @@
         <v>201006</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -15411,15 +15413,15 @@
       <c r="G29">
         <v>5001</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>8</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得八倍经验100次</v>
       </c>
       <c r="J29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -15427,7 +15429,7 @@
         <v>201007</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -15444,15 +15446,15 @@
       <c r="G30">
         <v>5001</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>10</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得十倍经验100次</v>
       </c>
       <c r="J30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -15460,7 +15462,7 @@
         <v>201008</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -15477,15 +15479,15 @@
       <c r="G31" s="2">
         <v>5000</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>2</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得双倍声望100次</v>
       </c>
       <c r="J31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -15493,7 +15495,7 @@
         <v>201009</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -15510,15 +15512,15 @@
       <c r="G32" s="2">
         <v>5000</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>3</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得三倍声望100次</v>
       </c>
       <c r="J32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -15526,7 +15528,7 @@
         <v>201010</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -15543,15 +15545,15 @@
       <c r="G33" s="2">
         <v>5000</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>4</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得四倍声望100次</v>
       </c>
       <c r="J33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -15559,7 +15561,7 @@
         <v>201011</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -15576,15 +15578,15 @@
       <c r="G34" s="2">
         <v>5000</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>5</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得五倍声望100次</v>
       </c>
       <c r="J34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -15592,7 +15594,7 @@
         <v>201012</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -15609,15 +15611,15 @@
       <c r="G35" s="2">
         <v>5000</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>6</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得六倍声望100次</v>
       </c>
       <c r="J35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -15625,7 +15627,7 @@
         <v>201013</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -15642,15 +15644,15 @@
       <c r="G36" s="2">
         <v>5000</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>8</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得八倍声望100次</v>
       </c>
       <c r="J36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -15658,7 +15660,7 @@
         <v>201014</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -15675,15 +15677,15 @@
       <c r="G37" s="2">
         <v>5000</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>10</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得十倍声望100次</v>
       </c>
       <c r="J37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -15691,7 +15693,7 @@
         <v>201015</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -15708,15 +15710,15 @@
       <c r="G38" s="1">
         <v>5002</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>2</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得双倍暴率100次</v>
       </c>
       <c r="J38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -15724,7 +15726,7 @@
         <v>201016</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -15741,15 +15743,15 @@
       <c r="G39" s="1">
         <v>5002</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>3</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得三倍暴率100次</v>
       </c>
       <c r="J39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -15757,7 +15759,7 @@
         <v>201017</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -15774,15 +15776,15 @@
       <c r="G40" s="1">
         <v>5002</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>4</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得四倍暴率100次</v>
       </c>
       <c r="J40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -15790,7 +15792,7 @@
         <v>201018</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -15807,15 +15809,15 @@
       <c r="G41" s="1">
         <v>5002</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>5</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>使用后获得五倍暴率100次</v>
       </c>
       <c r="J41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -15823,7 +15825,7 @@
         <v>202001</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -15840,7 +15842,7 @@
       <c r="G42">
         <v>1000</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>10</v>
       </c>
       <c r="I42" t="str">
@@ -15848,7 +15850,7 @@
         <v>大洋10个</v>
       </c>
       <c r="J42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -15856,7 +15858,7 @@
         <v>202002</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -15873,15 +15875,15 @@
       <c r="G43">
         <v>1000</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>20</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ref="I43:I56" si="5">CONCATENATE("大洋",H43, "个")</f>
+        <f t="shared" ref="I43:I52" si="6">CONCATENATE("大洋",H43, "个")</f>
         <v>大洋20个</v>
       </c>
       <c r="J43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -15889,7 +15891,7 @@
         <v>202003</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -15906,15 +15908,15 @@
       <c r="G44">
         <v>1000</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>50</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋50个</v>
       </c>
       <c r="J44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -15922,7 +15924,7 @@
         <v>202004</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -15939,15 +15941,15 @@
       <c r="G45">
         <v>1000</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>100</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋100个</v>
       </c>
       <c r="J45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -15955,7 +15957,7 @@
         <v>202005</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -15972,15 +15974,15 @@
       <c r="G46">
         <v>1000</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>500</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋500个</v>
       </c>
       <c r="J46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -15988,7 +15990,7 @@
         <v>202006</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -16005,15 +16007,15 @@
       <c r="G47">
         <v>1000</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>1000</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋1000个</v>
       </c>
       <c r="J47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -16021,7 +16023,7 @@
         <v>202007</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -16038,15 +16040,15 @@
       <c r="G48">
         <v>1000</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>5000</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋5000个</v>
       </c>
       <c r="J48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -16054,7 +16056,7 @@
         <v>202008</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -16071,15 +16073,15 @@
       <c r="G49">
         <v>1000</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>10000</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋10000个</v>
       </c>
       <c r="J49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -16087,7 +16089,7 @@
         <v>202009</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -16104,15 +16106,15 @@
       <c r="G50">
         <v>1000</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>50000</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋50000个</v>
       </c>
       <c r="J50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -16120,7 +16122,7 @@
         <v>202010</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -16137,15 +16139,15 @@
       <c r="G51">
         <v>1000</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>100000</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋100000个</v>
       </c>
       <c r="J51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -16153,7 +16155,7 @@
         <v>202011</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -16170,15 +16172,15 @@
       <c r="G52">
         <v>1000</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>500000</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>大洋500000个</v>
       </c>
       <c r="J52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -16186,7 +16188,7 @@
         <v>202012</v>
       </c>
       <c r="B53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -16203,7 +16205,7 @@
       <c r="G53">
         <v>1000</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>1000000</v>
       </c>
       <c r="I53" t="str">
@@ -16211,7 +16213,7 @@
         <v>别说你不知道</v>
       </c>
       <c r="J53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -16219,7 +16221,7 @@
         <v>202013</v>
       </c>
       <c r="B54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -16236,15 +16238,15 @@
       <c r="G54">
         <v>1000</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>5000000</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" ref="I54:I56" si="6">CONCATENATE("别说你不知道")</f>
+        <f t="shared" ref="I54:I56" si="7">CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
       <c r="J54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -16252,7 +16254,7 @@
         <v>202014</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -16269,15 +16271,15 @@
       <c r="G55">
         <v>1000</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>10000000</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>别说你不知道</v>
       </c>
       <c r="J55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -16285,7 +16287,7 @@
         <v>202015</v>
       </c>
       <c r="B56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -16302,15 +16304,15 @@
       <c r="G56">
         <v>1000</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>50000000</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>别说你不知道</v>
       </c>
       <c r="J56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -16318,7 +16320,7 @@
         <v>202016</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -16335,7 +16337,7 @@
       <c r="G57">
         <v>1002</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>10</v>
       </c>
       <c r="I57" t="str">
@@ -16343,7 +16345,7 @@
         <v>偶有传闻，声望+10</v>
       </c>
       <c r="J57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -16351,7 +16353,7 @@
         <v>202017</v>
       </c>
       <c r="B58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -16368,15 +16370,15 @@
       <c r="G58">
         <v>1002</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>20</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" ref="I58:I59" si="7">CONCATENATE("偶有传闻，声望+",H58)</f>
+        <f t="shared" ref="I58:I59" si="8">CONCATENATE("偶有传闻，声望+",H58)</f>
         <v>偶有传闻，声望+20</v>
       </c>
       <c r="J58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -16384,7 +16386,7 @@
         <v>202018</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -16401,15 +16403,15 @@
       <c r="G59">
         <v>1002</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>50</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>偶有传闻，声望+50</v>
       </c>
       <c r="J59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -16417,7 +16419,7 @@
         <v>202019</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -16434,15 +16436,15 @@
       <c r="G60">
         <v>1002</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>100</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" ref="I60:I62" si="8">CONCATENATE("闯闯江湖，声望+",H60)</f>
+        <f t="shared" ref="I60:I62" si="9">CONCATENATE("闯闯江湖，声望+",H60)</f>
         <v>闯闯江湖，声望+100</v>
       </c>
       <c r="J60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -16450,7 +16452,7 @@
         <v>202020</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -16467,15 +16469,15 @@
       <c r="G61">
         <v>1002</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>200</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>闯闯江湖，声望+200</v>
       </c>
       <c r="J61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -16483,7 +16485,7 @@
         <v>202021</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -16500,15 +16502,15 @@
       <c r="G62">
         <v>1002</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>500</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>闯闯江湖，声望+500</v>
       </c>
       <c r="J62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -16516,7 +16518,7 @@
         <v>202022</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -16533,7 +16535,7 @@
       <c r="G63">
         <v>1002</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>1000</v>
       </c>
       <c r="I63" t="str">
@@ -16541,7 +16543,7 @@
         <v>小有名气，声望+1000</v>
       </c>
       <c r="J63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -16549,7 +16551,7 @@
         <v>202023</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -16566,15 +16568,15 @@
       <c r="G64">
         <v>1002</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>2000</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" ref="I64:I65" si="9">CONCATENATE("小有名气，声望+",H64)</f>
+        <f t="shared" ref="I64:I65" si="10">CONCATENATE("小有名气，声望+",H64)</f>
         <v>小有名气，声望+2000</v>
       </c>
       <c r="J64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -16582,7 +16584,7 @@
         <v>202024</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -16599,15 +16601,15 @@
       <c r="G65">
         <v>1002</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>5000</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>小有名气，声望+5000</v>
       </c>
       <c r="J65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -16615,7 +16617,7 @@
         <v>202025</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -16632,7 +16634,7 @@
       <c r="G66">
         <v>1002</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>10000</v>
       </c>
       <c r="I66" t="str">
@@ -16640,7 +16642,7 @@
         <v>除魔卫道，声望+10000</v>
       </c>
       <c r="J66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
@@ -16648,7 +16650,7 @@
         <v>202026</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -16665,15 +16667,15 @@
       <c r="G67">
         <v>1002</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>20000</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I68" si="10">CONCATENATE("除魔卫道，声望+",H67)</f>
+        <f t="shared" ref="I67:I68" si="11">CONCATENATE("除魔卫道，声望+",H67)</f>
         <v>除魔卫道，声望+20000</v>
       </c>
       <c r="J67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -16681,7 +16683,7 @@
         <v>202027</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -16698,15 +16700,15 @@
       <c r="G68">
         <v>1002</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>50000</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>除魔卫道，声望+50000</v>
       </c>
       <c r="J68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -16714,7 +16716,7 @@
         <v>202028</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -16731,7 +16733,7 @@
       <c r="G69">
         <v>1002</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>100000</v>
       </c>
       <c r="I69" t="str">
@@ -16739,7 +16741,7 @@
         <v>匡扶正义，声望+100000</v>
       </c>
       <c r="J69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -16747,7 +16749,7 @@
         <v>202029</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -16764,15 +16766,15 @@
       <c r="G70">
         <v>1002</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>200000</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" ref="I70:I71" si="11">CONCATENATE("匡扶正义，声望+",H70)</f>
+        <f t="shared" ref="I70:I71" si="12">CONCATENATE("匡扶正义，声望+",H70)</f>
         <v>匡扶正义，声望+200000</v>
       </c>
       <c r="J70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
@@ -16780,7 +16782,7 @@
         <v>202030</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -16797,15 +16799,15 @@
       <c r="G71">
         <v>1002</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>500000</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>匡扶正义，声望+500000</v>
       </c>
       <c r="J71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
@@ -16813,7 +16815,7 @@
         <v>202031</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -16830,7 +16832,7 @@
       <c r="G72">
         <v>1001</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>10</v>
       </c>
       <c r="I72" t="str">
@@ -16838,7 +16840,7 @@
         <v>使用后获得元宝:10</v>
       </c>
       <c r="J72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -16846,7 +16848,7 @@
         <v>202032</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -16863,15 +16865,15 @@
       <c r="G73">
         <v>1001</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>20</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I81" si="12">CONCATENATE("使用后获得元宝:",H73)</f>
+        <f t="shared" ref="I73:I81" si="13">CONCATENATE("使用后获得元宝:",H73)</f>
         <v>使用后获得元宝:20</v>
       </c>
       <c r="J73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
@@ -16879,7 +16881,7 @@
         <v>202033</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -16896,15 +16898,15 @@
       <c r="G74">
         <v>1001</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>30</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:30</v>
       </c>
       <c r="J74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
@@ -16912,7 +16914,7 @@
         <v>202034</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -16929,15 +16931,15 @@
       <c r="G75">
         <v>1001</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>50</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:50</v>
       </c>
       <c r="J75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -16945,7 +16947,7 @@
         <v>202035</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -16962,15 +16964,15 @@
       <c r="G76">
         <v>1001</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>100</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:100</v>
       </c>
       <c r="J76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
@@ -16978,7 +16980,7 @@
         <v>202036</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -16995,15 +16997,15 @@
       <c r="G77">
         <v>1001</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>200</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:200</v>
       </c>
       <c r="J77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
@@ -17011,7 +17013,7 @@
         <v>202037</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -17028,15 +17030,15 @@
       <c r="G78">
         <v>1001</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>500</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:500</v>
       </c>
       <c r="J78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -17044,7 +17046,7 @@
         <v>202038</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -17061,15 +17063,15 @@
       <c r="G79">
         <v>1001</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>1000</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:1000</v>
       </c>
       <c r="J79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
@@ -17077,7 +17079,7 @@
         <v>202039</v>
       </c>
       <c r="B80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -17094,15 +17096,15 @@
       <c r="G80">
         <v>1001</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>2000</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:2000</v>
       </c>
       <c r="J80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
@@ -17110,7 +17112,7 @@
         <v>202040</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
@@ -17127,15 +17129,15 @@
       <c r="G81">
         <v>1001</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>5000</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>使用后获得元宝:5000</v>
       </c>
       <c r="J81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17180,10 +17182,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -17191,7 +17193,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -17199,7 +17201,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -17207,7 +17209,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -17215,7 +17217,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -17223,7 +17225,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -17231,7 +17233,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -17239,7 +17241,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -17247,7 +17249,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -17255,7 +17257,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -17263,7 +17265,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -17271,7 +17273,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -17279,7 +17281,7 @@
         <v>1100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -17287,7 +17289,7 @@
         <v>1101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -17295,7 +17297,7 @@
         <v>5000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -17303,7 +17305,7 @@
         <v>5001</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -17311,7 +17313,7 @@
         <v>5002</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -1658,11 +1658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
@@ -14499,8 +14499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D74" sqref="D74"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="4170" yWindow="15" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
     <sheet name="道具" sheetId="2" r:id="rId2"/>
     <sheet name="道具作用说明表" sheetId="3" r:id="rId3"/>
+    <sheet name="技能" sheetId="4" r:id="rId4"/>
+    <sheet name="buff" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -43,8 +45,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Aspire</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Aspire:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能最大等级
+此值不可超过damage数量.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="421">
   <si>
     <t>ID</t>
   </si>
@@ -1135,13 +1172,6 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：
-    1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
-    2、类别：01为药品，02为状态类，03为经济，04为属性调整类
-    3、Sale:0不出售，1商店，2商城</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1229,12 +1259,205 @@
     <t>Lv</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>治愈术</t>
+  </si>
+  <si>
+    <t>基本剑术</t>
+  </si>
+  <si>
+    <t>精神力战法</t>
+  </si>
+  <si>
+    <t>大火球</t>
+  </si>
+  <si>
+    <t>攻杀剑术</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>抗拒火环</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>疾光电影</t>
+  </si>
+  <si>
+    <t>灵魂火符</t>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+  </si>
+  <si>
+    <t>神圣战甲术</t>
+  </si>
+  <si>
+    <t>刺杀剑术</t>
+  </si>
+  <si>
+    <t>困魔咒</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>集体隐身术</t>
+  </si>
+  <si>
+    <t>诱惑之光</t>
+  </si>
+  <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>地狱雷光</t>
+  </si>
+  <si>
+    <t>半月弯刀</t>
+  </si>
+  <si>
+    <t>烈火剑法</t>
+  </si>
+  <si>
+    <t>野蛮冲撞</t>
+  </si>
+  <si>
+    <t>心灵启示</t>
+  </si>
+  <si>
+    <t>群体治疗术</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>圣言术</t>
+  </si>
+  <si>
+    <t>冰咆哮</t>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+    1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
+    2、类别：20书籍
+    3、Sale:0不出售，1商店，2商城
+    4、由于是单机类挂机游戏，所以游戏技能需要变化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣战甲术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+    1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
+    2、类别：01为药品，02为状态类，03为经济，04为属性调整类,20技能书
+    3、Sale:0不出售，1药店，2杂货铺，99商城</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocation</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1285,6 +1508,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1311,7 +1547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1587,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,7 +1598,23 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1700,11 +1955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C244" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E253" sqref="E253"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1727,26 +1982,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -1756,10 +2011,10 @@
         <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>52</v>
@@ -1812,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f>A4</f>
+        <f t="shared" ref="C4:C22" si="0">A4</f>
         <v>301001</v>
       </c>
       <c r="D4" s="5">
@@ -1869,7 +2124,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="5">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>301002</v>
       </c>
       <c r="D5" s="5">
@@ -1926,7 +2181,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="5">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>301003</v>
       </c>
       <c r="D6" s="5">
@@ -1984,7 +2239,7 @@
         <v>208</v>
       </c>
       <c r="C7" s="5">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>301004</v>
       </c>
       <c r="D7" s="5">
@@ -2041,7 +2296,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="5">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>301005</v>
       </c>
       <c r="D8" s="5">
@@ -2098,7 +2353,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="5">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>301006</v>
       </c>
       <c r="D9" s="5">
@@ -2155,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="5">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>301007</v>
       </c>
       <c r="D10" s="5">
@@ -2209,10 +2464,10 @@
         <v>301008</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="5">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>301008</v>
       </c>
       <c r="D11" s="5">
@@ -2269,7 +2524,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="5">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>301009</v>
       </c>
       <c r="D12" s="5">
@@ -2326,7 +2581,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="5">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>301010</v>
       </c>
       <c r="D13" s="5">
@@ -2383,7 +2638,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="5">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>301011</v>
       </c>
       <c r="D14" s="5">
@@ -2440,7 +2695,7 @@
         <v>84</v>
       </c>
       <c r="C15" s="5">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>301012</v>
       </c>
       <c r="D15" s="5">
@@ -2497,7 +2752,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="5">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>301013</v>
       </c>
       <c r="D16" s="5">
@@ -2554,7 +2809,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="5">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>301014</v>
       </c>
       <c r="D17" s="5">
@@ -2611,7 +2866,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="5">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>301015</v>
       </c>
       <c r="D18" s="5">
@@ -2668,7 +2923,7 @@
         <v>116</v>
       </c>
       <c r="C19" s="5">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>301016</v>
       </c>
       <c r="D19" s="5">
@@ -2725,7 +2980,7 @@
         <v>159</v>
       </c>
       <c r="C20" s="5">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>301017</v>
       </c>
       <c r="D20" s="5">
@@ -2782,7 +3037,7 @@
         <v>79</v>
       </c>
       <c r="C21" s="5">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>301018</v>
       </c>
       <c r="D21" s="5">
@@ -2839,7 +3094,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="5">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>301019</v>
       </c>
       <c r="D22" s="5">
@@ -2953,7 +3208,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="5">
-        <f>A24</f>
+        <f t="shared" ref="C24:C38" si="1">A24</f>
         <v>301021</v>
       </c>
       <c r="D24" s="5">
@@ -3010,7 +3265,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="5">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>301022</v>
       </c>
       <c r="D25" s="5">
@@ -3067,7 +3322,7 @@
         <v>70</v>
       </c>
       <c r="C26" s="5">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>301023</v>
       </c>
       <c r="D26" s="5">
@@ -3124,7 +3379,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="5">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>301024</v>
       </c>
       <c r="D27" s="5">
@@ -3181,7 +3436,7 @@
         <v>153</v>
       </c>
       <c r="C28" s="5">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>301025</v>
       </c>
       <c r="D28" s="5">
@@ -3238,7 +3493,7 @@
         <v>154</v>
       </c>
       <c r="C29" s="5">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>301026</v>
       </c>
       <c r="D29" s="5">
@@ -3295,7 +3550,7 @@
         <v>168</v>
       </c>
       <c r="C30" s="5">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>301027</v>
       </c>
       <c r="D30" s="5">
@@ -3352,7 +3607,7 @@
         <v>169</v>
       </c>
       <c r="C31" s="5">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>301028</v>
       </c>
       <c r="D31" s="5">
@@ -3409,7 +3664,7 @@
         <v>170</v>
       </c>
       <c r="C32" s="5">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>301029</v>
       </c>
       <c r="D32" s="5">
@@ -3466,7 +3721,7 @@
         <v>171</v>
       </c>
       <c r="C33" s="5">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>301030</v>
       </c>
       <c r="D33" s="5">
@@ -3523,7 +3778,7 @@
         <v>172</v>
       </c>
       <c r="C34" s="5">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>301031</v>
       </c>
       <c r="D34" s="5">
@@ -3580,7 +3835,7 @@
         <v>181</v>
       </c>
       <c r="C35" s="5">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>301032</v>
       </c>
       <c r="D35" s="5">
@@ -3637,7 +3892,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="5">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>301033</v>
       </c>
       <c r="D36" s="5">
@@ -3694,7 +3949,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="5">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>301034</v>
       </c>
       <c r="D37" s="5">
@@ -3751,7 +4006,7 @@
         <v>211</v>
       </c>
       <c r="C38" s="5">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>301035</v>
       </c>
       <c r="D38" s="5">
@@ -3865,7 +4120,7 @@
         <v>219</v>
       </c>
       <c r="C40" s="5">
-        <f>A40</f>
+        <f t="shared" ref="C40:C48" si="2">A40</f>
         <v>301037</v>
       </c>
       <c r="D40" s="5">
@@ -3922,7 +4177,7 @@
         <v>220</v>
       </c>
       <c r="C41" s="5">
-        <f>A41</f>
+        <f t="shared" si="2"/>
         <v>301038</v>
       </c>
       <c r="D41" s="5">
@@ -3979,7 +4234,7 @@
         <v>221</v>
       </c>
       <c r="C42" s="5">
-        <f>A42</f>
+        <f t="shared" si="2"/>
         <v>301039</v>
       </c>
       <c r="D42" s="5">
@@ -4036,7 +4291,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="5">
-        <f>A43</f>
+        <f t="shared" si="2"/>
         <v>302001</v>
       </c>
       <c r="D43" s="5">
@@ -4093,7 +4348,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="5">
-        <f>A44</f>
+        <f t="shared" si="2"/>
         <v>302002</v>
       </c>
       <c r="D44" s="5">
@@ -4150,7 +4405,7 @@
         <v>194</v>
       </c>
       <c r="C45" s="5">
-        <f>A45</f>
+        <f t="shared" si="2"/>
         <v>302003</v>
       </c>
       <c r="D45" s="5">
@@ -4207,7 +4462,7 @@
         <v>75</v>
       </c>
       <c r="C46" s="5">
-        <f>A46</f>
+        <f t="shared" si="2"/>
         <v>302004</v>
       </c>
       <c r="D46" s="5">
@@ -4264,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="5">
-        <f>A47</f>
+        <f t="shared" si="2"/>
         <v>302005</v>
       </c>
       <c r="D47" s="5">
@@ -4321,7 +4576,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="5">
-        <f>A48</f>
+        <f t="shared" si="2"/>
         <v>302006</v>
       </c>
       <c r="D48" s="5">
@@ -4891,7 +5146,7 @@
         <v>228</v>
       </c>
       <c r="C58" s="5">
-        <f>A58</f>
+        <f t="shared" ref="C58:C64" si="3">A58</f>
         <v>302016</v>
       </c>
       <c r="D58" s="5">
@@ -4948,7 +5203,7 @@
         <v>65</v>
       </c>
       <c r="C59" s="5">
-        <f>A59</f>
+        <f t="shared" si="3"/>
         <v>303001</v>
       </c>
       <c r="D59" s="5">
@@ -5005,7 +5260,7 @@
         <v>69</v>
       </c>
       <c r="C60" s="5">
-        <f>A60</f>
+        <f t="shared" si="3"/>
         <v>303002</v>
       </c>
       <c r="D60" s="5">
@@ -5062,7 +5317,7 @@
         <v>195</v>
       </c>
       <c r="C61" s="5">
-        <f>A61</f>
+        <f t="shared" si="3"/>
         <v>303003</v>
       </c>
       <c r="D61" s="5">
@@ -5119,7 +5374,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <f>A62</f>
+        <f t="shared" si="3"/>
         <v>303004</v>
       </c>
       <c r="D62" s="5">
@@ -5176,7 +5431,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <f>A63</f>
+        <f t="shared" si="3"/>
         <v>303005</v>
       </c>
       <c r="D63" s="5">
@@ -5233,7 +5488,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <f>A64</f>
+        <f t="shared" si="3"/>
         <v>303006</v>
       </c>
       <c r="D64" s="5">
@@ -5974,7 +6229,7 @@
         <v>135</v>
       </c>
       <c r="C77" s="5">
-        <f>A77</f>
+        <f t="shared" ref="C77:C120" si="4">A77</f>
         <v>304003</v>
       </c>
       <c r="D77" s="5">
@@ -6031,7 +6286,7 @@
         <v>138</v>
       </c>
       <c r="C78" s="5">
-        <f>A78</f>
+        <f t="shared" si="4"/>
         <v>304004</v>
       </c>
       <c r="D78" s="5">
@@ -6088,7 +6343,7 @@
         <v>158</v>
       </c>
       <c r="C79" s="5">
-        <f>A79</f>
+        <f t="shared" si="4"/>
         <v>304005</v>
       </c>
       <c r="D79" s="5">
@@ -6145,7 +6400,7 @@
         <v>163</v>
       </c>
       <c r="C80" s="5">
-        <f>A80</f>
+        <f t="shared" si="4"/>
         <v>304006</v>
       </c>
       <c r="D80" s="5">
@@ -6202,7 +6457,7 @@
         <v>167</v>
       </c>
       <c r="C81" s="5">
-        <f>A81</f>
+        <f t="shared" si="4"/>
         <v>304007</v>
       </c>
       <c r="D81" s="5">
@@ -6259,7 +6514,7 @@
         <v>196</v>
       </c>
       <c r="C82" s="5">
-        <f>A82</f>
+        <f t="shared" si="4"/>
         <v>304008</v>
       </c>
       <c r="D82" s="5">
@@ -6316,7 +6571,7 @@
         <v>200</v>
       </c>
       <c r="C83" s="5">
-        <f>A83</f>
+        <f t="shared" si="4"/>
         <v>304009</v>
       </c>
       <c r="D83" s="5">
@@ -6373,7 +6628,7 @@
         <v>204</v>
       </c>
       <c r="C84" s="5">
-        <f>A84</f>
+        <f t="shared" si="4"/>
         <v>304010</v>
       </c>
       <c r="D84" s="5">
@@ -6430,7 +6685,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="5">
-        <f>A85</f>
+        <f t="shared" si="4"/>
         <v>305001</v>
       </c>
       <c r="D85" s="5">
@@ -6487,7 +6742,7 @@
         <v>117</v>
       </c>
       <c r="C86" s="5">
-        <f>A86</f>
+        <f t="shared" si="4"/>
         <v>305002</v>
       </c>
       <c r="D86" s="5">
@@ -6544,7 +6799,7 @@
         <v>98</v>
       </c>
       <c r="C87" s="5">
-        <f>A87</f>
+        <f t="shared" si="4"/>
         <v>305003</v>
       </c>
       <c r="D87" s="5">
@@ -6601,7 +6856,7 @@
         <v>99</v>
       </c>
       <c r="C88" s="5">
-        <f>A88</f>
+        <f t="shared" si="4"/>
         <v>305004</v>
       </c>
       <c r="D88" s="5">
@@ -6658,7 +6913,7 @@
         <v>100</v>
       </c>
       <c r="C89" s="5">
-        <f>A89</f>
+        <f t="shared" si="4"/>
         <v>305005</v>
       </c>
       <c r="D89" s="5">
@@ -6715,7 +6970,7 @@
         <v>108</v>
       </c>
       <c r="C90" s="5">
-        <f>A90</f>
+        <f t="shared" si="4"/>
         <v>305006</v>
       </c>
       <c r="D90" s="5">
@@ -6772,7 +7027,7 @@
         <v>109</v>
       </c>
       <c r="C91" s="5">
-        <f>A91</f>
+        <f t="shared" si="4"/>
         <v>305007</v>
       </c>
       <c r="D91" s="5">
@@ -6829,7 +7084,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="5">
-        <f>A92</f>
+        <f t="shared" si="4"/>
         <v>305008</v>
       </c>
       <c r="D92" s="5">
@@ -6886,7 +7141,7 @@
         <v>122</v>
       </c>
       <c r="C93" s="5">
-        <f>A93</f>
+        <f t="shared" si="4"/>
         <v>305009</v>
       </c>
       <c r="D93" s="5">
@@ -6943,7 +7198,7 @@
         <v>124</v>
       </c>
       <c r="C94" s="5">
-        <f>A94</f>
+        <f t="shared" si="4"/>
         <v>305010</v>
       </c>
       <c r="D94" s="5">
@@ -7000,7 +7255,7 @@
         <v>126</v>
       </c>
       <c r="C95" s="5">
-        <f>A95</f>
+        <f t="shared" si="4"/>
         <v>305011</v>
       </c>
       <c r="D95" s="5">
@@ -7057,7 +7312,7 @@
         <v>127</v>
       </c>
       <c r="C96" s="5">
-        <f>A96</f>
+        <f t="shared" si="4"/>
         <v>305012</v>
       </c>
       <c r="D96" s="5">
@@ -7114,7 +7369,7 @@
         <v>130</v>
       </c>
       <c r="C97" s="5">
-        <f>A97</f>
+        <f t="shared" si="4"/>
         <v>305013</v>
       </c>
       <c r="D97" s="5">
@@ -7171,7 +7426,7 @@
         <v>141</v>
       </c>
       <c r="C98" s="5">
-        <f>A98</f>
+        <f t="shared" si="4"/>
         <v>305014</v>
       </c>
       <c r="D98" s="5">
@@ -7228,7 +7483,7 @@
         <v>150</v>
       </c>
       <c r="C99" s="5">
-        <f>A99</f>
+        <f t="shared" si="4"/>
         <v>305015</v>
       </c>
       <c r="D99" s="5">
@@ -7285,7 +7540,7 @@
         <v>156</v>
       </c>
       <c r="C100" s="5">
-        <f>A100</f>
+        <f t="shared" si="4"/>
         <v>305016</v>
       </c>
       <c r="D100" s="5">
@@ -7342,7 +7597,7 @@
         <v>161</v>
       </c>
       <c r="C101" s="5">
-        <f>A101</f>
+        <f t="shared" si="4"/>
         <v>305017</v>
       </c>
       <c r="D101" s="5">
@@ -7399,7 +7654,7 @@
         <v>184</v>
       </c>
       <c r="C102" s="5">
-        <f>A102</f>
+        <f t="shared" si="4"/>
         <v>305018</v>
       </c>
       <c r="D102" s="5">
@@ -7456,7 +7711,7 @@
         <v>187</v>
       </c>
       <c r="C103" s="5">
-        <f>A103</f>
+        <f t="shared" si="4"/>
         <v>305019</v>
       </c>
       <c r="D103" s="5">
@@ -7513,7 +7768,7 @@
         <v>164</v>
       </c>
       <c r="C104" s="5">
-        <f>A104</f>
+        <f t="shared" si="4"/>
         <v>305020</v>
       </c>
       <c r="D104" s="5">
@@ -7570,7 +7825,7 @@
         <v>178</v>
       </c>
       <c r="C105" s="5">
-        <f>A105</f>
+        <f t="shared" si="4"/>
         <v>305021</v>
       </c>
       <c r="D105" s="5">
@@ -7627,7 +7882,7 @@
         <v>179</v>
       </c>
       <c r="C106" s="5">
-        <f>A106</f>
+        <f t="shared" si="4"/>
         <v>305022</v>
       </c>
       <c r="D106" s="5">
@@ -7684,7 +7939,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="5">
-        <f>A107</f>
+        <f t="shared" si="4"/>
         <v>305023</v>
       </c>
       <c r="D107" s="5">
@@ -7741,7 +7996,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="5">
-        <f>A108</f>
+        <f t="shared" si="4"/>
         <v>305024</v>
       </c>
       <c r="D108" s="5">
@@ -7798,7 +8053,7 @@
         <v>147</v>
       </c>
       <c r="C109" s="5">
-        <f>A109</f>
+        <f t="shared" si="4"/>
         <v>305025</v>
       </c>
       <c r="D109" s="5">
@@ -7855,7 +8110,7 @@
         <v>197</v>
       </c>
       <c r="C110" s="5">
-        <f>A110</f>
+        <f t="shared" si="4"/>
         <v>305026</v>
       </c>
       <c r="D110" s="5">
@@ -7912,7 +8167,7 @@
         <v>201</v>
       </c>
       <c r="C111" s="5">
-        <f>A111</f>
+        <f t="shared" si="4"/>
         <v>305027</v>
       </c>
       <c r="D111" s="5">
@@ -7969,7 +8224,7 @@
         <v>205</v>
       </c>
       <c r="C112" s="5">
-        <f>A112</f>
+        <f t="shared" si="4"/>
         <v>305028</v>
       </c>
       <c r="D112" s="5">
@@ -8026,7 +8281,7 @@
         <v>230</v>
       </c>
       <c r="C113" s="5">
-        <f>A113</f>
+        <f t="shared" si="4"/>
         <v>305029</v>
       </c>
       <c r="D113" s="5">
@@ -8083,7 +8338,7 @@
         <v>231</v>
       </c>
       <c r="C114" s="5">
-        <f>A114</f>
+        <f t="shared" si="4"/>
         <v>305030</v>
       </c>
       <c r="D114" s="5">
@@ -8140,7 +8395,7 @@
         <v>232</v>
       </c>
       <c r="C115" s="5">
-        <f>A115</f>
+        <f t="shared" si="4"/>
         <v>305031</v>
       </c>
       <c r="D115" s="5">
@@ -8197,7 +8452,7 @@
         <v>239</v>
       </c>
       <c r="C116" s="5">
-        <f>A116</f>
+        <f t="shared" si="4"/>
         <v>305032</v>
       </c>
       <c r="D116" s="5">
@@ -8254,7 +8509,7 @@
         <v>240</v>
       </c>
       <c r="C117" s="5">
-        <f>A117</f>
+        <f t="shared" si="4"/>
         <v>305033</v>
       </c>
       <c r="D117" s="5">
@@ -8311,7 +8566,7 @@
         <v>241</v>
       </c>
       <c r="C118" s="5">
-        <f>A118</f>
+        <f t="shared" si="4"/>
         <v>305034</v>
       </c>
       <c r="D118" s="5">
@@ -8368,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="C119" s="5">
-        <f>A119</f>
+        <f t="shared" si="4"/>
         <v>306001</v>
       </c>
       <c r="D119" s="5">
@@ -8425,7 +8680,7 @@
         <v>103</v>
       </c>
       <c r="C120" s="5">
-        <f>A120</f>
+        <f t="shared" si="4"/>
         <v>306002</v>
       </c>
       <c r="D120" s="5">
@@ -8881,7 +9136,7 @@
         <v>104</v>
       </c>
       <c r="C128" s="5">
-        <f>A128</f>
+        <f t="shared" ref="C128:C159" si="5">A128</f>
         <v>306010</v>
       </c>
       <c r="D128" s="5">
@@ -8938,7 +9193,7 @@
         <v>136</v>
       </c>
       <c r="C129" s="5">
-        <f>A129</f>
+        <f t="shared" si="5"/>
         <v>306011</v>
       </c>
       <c r="D129" s="5">
@@ -8995,7 +9250,7 @@
         <v>134</v>
       </c>
       <c r="C130" s="5">
-        <f>A130</f>
+        <f t="shared" si="5"/>
         <v>306012</v>
       </c>
       <c r="D130" s="5">
@@ -9052,7 +9307,7 @@
         <v>137</v>
       </c>
       <c r="C131" s="5">
-        <f>A131</f>
+        <f t="shared" si="5"/>
         <v>306013</v>
       </c>
       <c r="D131" s="5">
@@ -9109,7 +9364,7 @@
         <v>142</v>
       </c>
       <c r="C132" s="5">
-        <f>A132</f>
+        <f t="shared" si="5"/>
         <v>306014</v>
       </c>
       <c r="D132" s="5">
@@ -9166,7 +9421,7 @@
         <v>145</v>
       </c>
       <c r="C133" s="5">
-        <f>A133</f>
+        <f t="shared" si="5"/>
         <v>306015</v>
       </c>
       <c r="D133" s="5">
@@ -9223,7 +9478,7 @@
         <v>157</v>
       </c>
       <c r="C134" s="5">
-        <f>A134</f>
+        <f t="shared" si="5"/>
         <v>306016</v>
       </c>
       <c r="D134" s="5">
@@ -9280,7 +9535,7 @@
         <v>160</v>
       </c>
       <c r="C135" s="5">
-        <f>A135</f>
+        <f t="shared" si="5"/>
         <v>306017</v>
       </c>
       <c r="D135" s="5">
@@ -9337,7 +9592,7 @@
         <v>175</v>
       </c>
       <c r="C136" s="5">
-        <f>A136</f>
+        <f t="shared" si="5"/>
         <v>306018</v>
       </c>
       <c r="D136" s="5">
@@ -9394,7 +9649,7 @@
         <v>176</v>
       </c>
       <c r="C137" s="5">
-        <f>A137</f>
+        <f t="shared" si="5"/>
         <v>306019</v>
       </c>
       <c r="D137" s="5">
@@ -9451,7 +9706,7 @@
         <v>180</v>
       </c>
       <c r="C138" s="5">
-        <f>A138</f>
+        <f t="shared" si="5"/>
         <v>306020</v>
       </c>
       <c r="D138" s="5">
@@ -9508,7 +9763,7 @@
         <v>146</v>
       </c>
       <c r="C139" s="5">
-        <f>A139</f>
+        <f t="shared" si="5"/>
         <v>306021</v>
       </c>
       <c r="D139" s="5">
@@ -9565,7 +9820,7 @@
         <v>166</v>
       </c>
       <c r="C140" s="5">
-        <f>A140</f>
+        <f t="shared" si="5"/>
         <v>306022</v>
       </c>
       <c r="D140" s="5">
@@ -9622,7 +9877,7 @@
         <v>183</v>
       </c>
       <c r="C141" s="5">
-        <f>A141</f>
+        <f t="shared" si="5"/>
         <v>306023</v>
       </c>
       <c r="D141" s="5">
@@ -9679,7 +9934,7 @@
         <v>186</v>
       </c>
       <c r="C142" s="5">
-        <f>A142</f>
+        <f t="shared" si="5"/>
         <v>306024</v>
       </c>
       <c r="D142" s="5">
@@ -9736,7 +9991,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="5">
-        <f>A143</f>
+        <f t="shared" si="5"/>
         <v>306025</v>
       </c>
       <c r="D143" s="5">
@@ -9793,7 +10048,7 @@
         <v>177</v>
       </c>
       <c r="C144" s="5">
-        <f>A144</f>
+        <f t="shared" si="5"/>
         <v>306026</v>
       </c>
       <c r="D144" s="5">
@@ -9850,7 +10105,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5">
-        <f>A145</f>
+        <f t="shared" si="5"/>
         <v>306027</v>
       </c>
       <c r="D145" s="5">
@@ -9907,7 +10162,7 @@
         <v>198</v>
       </c>
       <c r="C146" s="5">
-        <f>A146</f>
+        <f t="shared" si="5"/>
         <v>306028</v>
       </c>
       <c r="D146" s="5">
@@ -9964,7 +10219,7 @@
         <v>202</v>
       </c>
       <c r="C147" s="5">
-        <f>A147</f>
+        <f t="shared" si="5"/>
         <v>306029</v>
       </c>
       <c r="D147" s="5">
@@ -10021,7 +10276,7 @@
         <v>206</v>
       </c>
       <c r="C148" s="5">
-        <f>A148</f>
+        <f t="shared" si="5"/>
         <v>306030</v>
       </c>
       <c r="D148" s="5">
@@ -10078,7 +10333,7 @@
         <v>233</v>
       </c>
       <c r="C149" s="5">
-        <f>A149</f>
+        <f t="shared" si="5"/>
         <v>306031</v>
       </c>
       <c r="D149" s="5">
@@ -10135,7 +10390,7 @@
         <v>234</v>
       </c>
       <c r="C150" s="5">
-        <f>A150</f>
+        <f t="shared" si="5"/>
         <v>306032</v>
       </c>
       <c r="D150" s="5">
@@ -10192,7 +10447,7 @@
         <v>235</v>
       </c>
       <c r="C151" s="5">
-        <f>A151</f>
+        <f t="shared" si="5"/>
         <v>306033</v>
       </c>
       <c r="D151" s="5">
@@ -10249,7 +10504,7 @@
         <v>245</v>
       </c>
       <c r="C152" s="5">
-        <f>A152</f>
+        <f t="shared" si="5"/>
         <v>306034</v>
       </c>
       <c r="D152" s="5">
@@ -10306,7 +10561,7 @@
         <v>246</v>
       </c>
       <c r="C153" s="5">
-        <f>A153</f>
+        <f t="shared" si="5"/>
         <v>306035</v>
       </c>
       <c r="D153" s="5">
@@ -10363,7 +10618,7 @@
         <v>247</v>
       </c>
       <c r="C154" s="5">
-        <f>A154</f>
+        <f t="shared" si="5"/>
         <v>306036</v>
       </c>
       <c r="D154" s="5">
@@ -10420,7 +10675,7 @@
         <v>87</v>
       </c>
       <c r="C155" s="5">
-        <f>A155</f>
+        <f t="shared" si="5"/>
         <v>307001</v>
       </c>
       <c r="D155" s="5">
@@ -10477,7 +10732,7 @@
         <v>97</v>
       </c>
       <c r="C156" s="5">
-        <f>A156</f>
+        <f t="shared" si="5"/>
         <v>307002</v>
       </c>
       <c r="D156" s="5">
@@ -10534,7 +10789,7 @@
         <v>94</v>
       </c>
       <c r="C157" s="5">
-        <f>A157</f>
+        <f t="shared" si="5"/>
         <v>307003</v>
       </c>
       <c r="D157" s="5">
@@ -10591,7 +10846,7 @@
         <v>95</v>
       </c>
       <c r="C158" s="5">
-        <f>A158</f>
+        <f t="shared" si="5"/>
         <v>307004</v>
       </c>
       <c r="D158" s="5">
@@ -10648,7 +10903,7 @@
         <v>96</v>
       </c>
       <c r="C159" s="5">
-        <f>A159</f>
+        <f t="shared" si="5"/>
         <v>307005</v>
       </c>
       <c r="D159" s="5">
@@ -10705,7 +10960,7 @@
         <v>106</v>
       </c>
       <c r="C160" s="5">
-        <f>A160</f>
+        <f t="shared" ref="C160:C177" si="6">A160</f>
         <v>307006</v>
       </c>
       <c r="D160" s="5">
@@ -10762,7 +11017,7 @@
         <v>107</v>
       </c>
       <c r="C161" s="5">
-        <f>A161</f>
+        <f t="shared" si="6"/>
         <v>307007</v>
       </c>
       <c r="D161" s="5">
@@ -10819,7 +11074,7 @@
         <v>110</v>
       </c>
       <c r="C162" s="5">
-        <f>A162</f>
+        <f t="shared" si="6"/>
         <v>307008</v>
       </c>
       <c r="D162" s="5">
@@ -10876,7 +11131,7 @@
         <v>111</v>
       </c>
       <c r="C163" s="5">
-        <f>A163</f>
+        <f t="shared" si="6"/>
         <v>307009</v>
       </c>
       <c r="D163" s="5">
@@ -10933,7 +11188,7 @@
         <v>113</v>
       </c>
       <c r="C164" s="5">
-        <f>A164</f>
+        <f t="shared" si="6"/>
         <v>307010</v>
       </c>
       <c r="D164" s="5">
@@ -10990,7 +11245,7 @@
         <v>121</v>
       </c>
       <c r="C165" s="5">
-        <f>A165</f>
+        <f t="shared" si="6"/>
         <v>307011</v>
       </c>
       <c r="D165" s="5">
@@ -11047,7 +11302,7 @@
         <v>123</v>
       </c>
       <c r="C166" s="5">
-        <f>A166</f>
+        <f t="shared" si="6"/>
         <v>307012</v>
       </c>
       <c r="D166" s="5">
@@ -11104,7 +11359,7 @@
         <v>125</v>
       </c>
       <c r="C167" s="5">
-        <f>A167</f>
+        <f t="shared" si="6"/>
         <v>307013</v>
       </c>
       <c r="D167" s="5">
@@ -11161,7 +11416,7 @@
         <v>128</v>
       </c>
       <c r="C168" s="5">
-        <f>A168</f>
+        <f t="shared" si="6"/>
         <v>307014</v>
       </c>
       <c r="D168" s="5">
@@ -11218,7 +11473,7 @@
         <v>129</v>
       </c>
       <c r="C169" s="5">
-        <f>A169</f>
+        <f t="shared" si="6"/>
         <v>307015</v>
       </c>
       <c r="D169" s="5">
@@ -11275,7 +11530,7 @@
         <v>131</v>
       </c>
       <c r="C170" s="5">
-        <f>A170</f>
+        <f t="shared" si="6"/>
         <v>307016</v>
       </c>
       <c r="D170" s="5">
@@ -11332,7 +11587,7 @@
         <v>132</v>
       </c>
       <c r="C171" s="5">
-        <f>A171</f>
+        <f t="shared" si="6"/>
         <v>307017</v>
       </c>
       <c r="D171" s="5">
@@ -11389,7 +11644,7 @@
         <v>133</v>
       </c>
       <c r="C172" s="5">
-        <f>A172</f>
+        <f t="shared" si="6"/>
         <v>307018</v>
       </c>
       <c r="D172" s="5">
@@ -11446,7 +11701,7 @@
         <v>148</v>
       </c>
       <c r="C173" s="5">
-        <f>A173</f>
+        <f t="shared" si="6"/>
         <v>307019</v>
       </c>
       <c r="D173" s="5">
@@ -11503,7 +11758,7 @@
         <v>155</v>
       </c>
       <c r="C174" s="5">
-        <f>A174</f>
+        <f t="shared" si="6"/>
         <v>307020</v>
       </c>
       <c r="D174" s="5">
@@ -11560,7 +11815,7 @@
         <v>162</v>
       </c>
       <c r="C175" s="5">
-        <f>A175</f>
+        <f t="shared" si="6"/>
         <v>307021</v>
       </c>
       <c r="D175" s="5">
@@ -11617,7 +11872,7 @@
         <v>165</v>
       </c>
       <c r="C176" s="5">
-        <f>A176</f>
+        <f t="shared" si="6"/>
         <v>307022</v>
       </c>
       <c r="D176" s="5">
@@ -11674,7 +11929,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="5">
-        <f>A177</f>
+        <f t="shared" si="6"/>
         <v>307023</v>
       </c>
       <c r="D177" s="5">
@@ -11787,7 +12042,7 @@
         <v>182</v>
       </c>
       <c r="C179" s="5">
-        <f>A179</f>
+        <f t="shared" ref="C179:C190" si="7">A179</f>
         <v>307025</v>
       </c>
       <c r="D179" s="5">
@@ -11844,7 +12099,7 @@
         <v>185</v>
       </c>
       <c r="C180" s="5">
-        <f>A180</f>
+        <f t="shared" si="7"/>
         <v>307026</v>
       </c>
       <c r="D180" s="5">
@@ -11901,7 +12156,7 @@
         <v>199</v>
       </c>
       <c r="C181" s="5">
-        <f>A181</f>
+        <f t="shared" si="7"/>
         <v>307027</v>
       </c>
       <c r="D181" s="5">
@@ -11958,7 +12213,7 @@
         <v>203</v>
       </c>
       <c r="C182" s="5">
-        <f>A182</f>
+        <f t="shared" si="7"/>
         <v>307028</v>
       </c>
       <c r="D182" s="5">
@@ -12015,7 +12270,7 @@
         <v>207</v>
       </c>
       <c r="C183" s="5">
-        <f>A183</f>
+        <f t="shared" si="7"/>
         <v>307029</v>
       </c>
       <c r="D183" s="5">
@@ -12072,7 +12327,7 @@
         <v>236</v>
       </c>
       <c r="C184" s="5">
-        <f>A184</f>
+        <f t="shared" si="7"/>
         <v>307030</v>
       </c>
       <c r="D184" s="5">
@@ -12129,7 +12384,7 @@
         <v>237</v>
       </c>
       <c r="C185" s="5">
-        <f>A185</f>
+        <f t="shared" si="7"/>
         <v>307031</v>
       </c>
       <c r="D185" s="5">
@@ -12186,7 +12441,7 @@
         <v>238</v>
       </c>
       <c r="C186" s="5">
-        <f>A186</f>
+        <f t="shared" si="7"/>
         <v>307032</v>
       </c>
       <c r="D186" s="5">
@@ -12243,7 +12498,7 @@
         <v>242</v>
       </c>
       <c r="C187" s="5">
-        <f>A187</f>
+        <f t="shared" si="7"/>
         <v>307033</v>
       </c>
       <c r="D187" s="5">
@@ -12300,7 +12555,7 @@
         <v>243</v>
       </c>
       <c r="C188" s="5">
-        <f>A188</f>
+        <f t="shared" si="7"/>
         <v>307034</v>
       </c>
       <c r="D188" s="5">
@@ -12357,7 +12612,7 @@
         <v>244</v>
       </c>
       <c r="C189" s="5">
-        <f>A189</f>
+        <f t="shared" si="7"/>
         <v>307035</v>
       </c>
       <c r="D189" s="5">
@@ -12414,7 +12669,7 @@
         <v>268</v>
       </c>
       <c r="C190" s="5">
-        <f>A190</f>
+        <f t="shared" si="7"/>
         <v>308001</v>
       </c>
       <c r="D190" s="5">
@@ -12471,7 +12726,7 @@
         <v>269</v>
       </c>
       <c r="C191" s="6">
-        <f>$C$190</f>
+        <f t="shared" ref="C191:C214" si="8">$C$190</f>
         <v>308001</v>
       </c>
       <c r="D191" s="6">
@@ -12528,7 +12783,7 @@
         <v>270</v>
       </c>
       <c r="C192" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D192" s="6">
@@ -12585,7 +12840,7 @@
         <v>271</v>
       </c>
       <c r="C193" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D193" s="6">
@@ -12642,7 +12897,7 @@
         <v>272</v>
       </c>
       <c r="C194" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D194" s="6">
@@ -12699,7 +12954,7 @@
         <v>273</v>
       </c>
       <c r="C195" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D195" s="6">
@@ -12756,7 +13011,7 @@
         <v>274</v>
       </c>
       <c r="C196" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D196" s="6">
@@ -12813,7 +13068,7 @@
         <v>275</v>
       </c>
       <c r="C197" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D197" s="6">
@@ -12870,7 +13125,7 @@
         <v>276</v>
       </c>
       <c r="C198" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D198" s="6">
@@ -12927,7 +13182,7 @@
         <v>277</v>
       </c>
       <c r="C199" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D199" s="6">
@@ -12984,7 +13239,7 @@
         <v>278</v>
       </c>
       <c r="C200" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D200" s="6">
@@ -13041,7 +13296,7 @@
         <v>279</v>
       </c>
       <c r="C201" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D201" s="6">
@@ -13098,7 +13353,7 @@
         <v>280</v>
       </c>
       <c r="C202" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D202" s="6">
@@ -13155,7 +13410,7 @@
         <v>281</v>
       </c>
       <c r="C203" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D203" s="6">
@@ -13212,7 +13467,7 @@
         <v>282</v>
       </c>
       <c r="C204" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D204" s="6">
@@ -13269,7 +13524,7 @@
         <v>283</v>
       </c>
       <c r="C205" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D205" s="6">
@@ -13326,7 +13581,7 @@
         <v>284</v>
       </c>
       <c r="C206" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D206" s="6">
@@ -13383,7 +13638,7 @@
         <v>285</v>
       </c>
       <c r="C207" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D207" s="6">
@@ -13440,7 +13695,7 @@
         <v>286</v>
       </c>
       <c r="C208" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D208" s="6">
@@ -13497,7 +13752,7 @@
         <v>287</v>
       </c>
       <c r="C209" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D209" s="6">
@@ -13554,7 +13809,7 @@
         <v>288</v>
       </c>
       <c r="C210" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D210" s="6">
@@ -13611,7 +13866,7 @@
         <v>289</v>
       </c>
       <c r="C211" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D211" s="6">
@@ -13668,7 +13923,7 @@
         <v>290</v>
       </c>
       <c r="C212" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D212" s="6">
@@ -13725,7 +13980,7 @@
         <v>291</v>
       </c>
       <c r="C213" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D213" s="6">
@@ -13782,7 +14037,7 @@
         <v>292</v>
       </c>
       <c r="C214" s="6">
-        <f>$C$190</f>
+        <f t="shared" si="8"/>
         <v>308001</v>
       </c>
       <c r="D214" s="6">
@@ -13839,7 +14094,7 @@
         <v>255</v>
       </c>
       <c r="C215" s="5">
-        <f>A215</f>
+        <f t="shared" ref="C215:C248" si="9">A215</f>
         <v>309001</v>
       </c>
       <c r="D215" s="5">
@@ -13896,7 +14151,7 @@
         <v>256</v>
       </c>
       <c r="C216" s="5">
-        <f>A216</f>
+        <f t="shared" si="9"/>
         <v>309002</v>
       </c>
       <c r="D216" s="5">
@@ -13953,7 +14208,7 @@
         <v>257</v>
       </c>
       <c r="C217" s="5">
-        <f>A217</f>
+        <f t="shared" si="9"/>
         <v>309003</v>
       </c>
       <c r="D217" s="5">
@@ -14010,7 +14265,7 @@
         <v>258</v>
       </c>
       <c r="C218" s="5">
-        <f>A218</f>
+        <f t="shared" si="9"/>
         <v>309004</v>
       </c>
       <c r="D218" s="5">
@@ -14067,7 +14322,7 @@
         <v>259</v>
       </c>
       <c r="C219" s="5">
-        <f>A219</f>
+        <f t="shared" si="9"/>
         <v>309005</v>
       </c>
       <c r="D219" s="5">
@@ -14124,7 +14379,7 @@
         <v>260</v>
       </c>
       <c r="C220" s="5">
-        <f>A220</f>
+        <f t="shared" si="9"/>
         <v>309006</v>
       </c>
       <c r="D220" s="5">
@@ -14181,7 +14436,7 @@
         <v>261</v>
       </c>
       <c r="C221" s="5">
-        <f>A221</f>
+        <f t="shared" si="9"/>
         <v>309007</v>
       </c>
       <c r="D221" s="5">
@@ -14238,7 +14493,7 @@
         <v>248</v>
       </c>
       <c r="C222" s="5">
-        <f>A222</f>
+        <f t="shared" si="9"/>
         <v>310001</v>
       </c>
       <c r="D222" s="5">
@@ -14295,7 +14550,7 @@
         <v>249</v>
       </c>
       <c r="C223" s="5">
-        <f>A223</f>
+        <f t="shared" si="9"/>
         <v>310002</v>
       </c>
       <c r="D223" s="5">
@@ -14352,7 +14607,7 @@
         <v>250</v>
       </c>
       <c r="C224" s="5">
-        <f>A224</f>
+        <f t="shared" si="9"/>
         <v>310003</v>
       </c>
       <c r="D224" s="5">
@@ -14409,7 +14664,7 @@
         <v>251</v>
       </c>
       <c r="C225" s="5">
-        <f>A225</f>
+        <f t="shared" si="9"/>
         <v>310004</v>
       </c>
       <c r="D225" s="5">
@@ -14466,7 +14721,7 @@
         <v>252</v>
       </c>
       <c r="C226" s="5">
-        <f>A226</f>
+        <f t="shared" si="9"/>
         <v>310005</v>
       </c>
       <c r="D226" s="5">
@@ -14523,7 +14778,7 @@
         <v>253</v>
       </c>
       <c r="C227" s="5">
-        <f>A227</f>
+        <f t="shared" si="9"/>
         <v>310006</v>
       </c>
       <c r="D227" s="5">
@@ -14580,7 +14835,7 @@
         <v>254</v>
       </c>
       <c r="C228" s="5">
-        <f>A228</f>
+        <f t="shared" si="9"/>
         <v>310007</v>
       </c>
       <c r="D228" s="5">
@@ -14634,10 +14889,10 @@
         <v>311001</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C229" s="5">
-        <f>A229</f>
+        <f t="shared" si="9"/>
         <v>311001</v>
       </c>
       <c r="D229" s="5">
@@ -14691,10 +14946,10 @@
         <v>311002</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C230" s="5">
-        <f>A230</f>
+        <f t="shared" si="9"/>
         <v>311002</v>
       </c>
       <c r="D230" s="5">
@@ -14748,10 +15003,10 @@
         <v>311003</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C231" s="5">
-        <f>A231</f>
+        <f t="shared" si="9"/>
         <v>311003</v>
       </c>
       <c r="D231" s="5">
@@ -14805,10 +15060,10 @@
         <v>311004</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C232" s="5">
-        <f>A232</f>
+        <f t="shared" si="9"/>
         <v>311004</v>
       </c>
       <c r="D232" s="5">
@@ -14862,10 +15117,10 @@
         <v>311005</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C233" s="5">
-        <f>A233</f>
+        <f t="shared" si="9"/>
         <v>311005</v>
       </c>
       <c r="D233" s="5">
@@ -14919,10 +15174,10 @@
         <v>311006</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C234" s="5">
-        <f>A234</f>
+        <f t="shared" si="9"/>
         <v>311006</v>
       </c>
       <c r="D234" s="5">
@@ -14976,10 +15231,10 @@
         <v>311007</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C235" s="5">
-        <f>A235</f>
+        <f t="shared" si="9"/>
         <v>311007</v>
       </c>
       <c r="D235" s="5">
@@ -15033,10 +15288,10 @@
         <v>311008</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C236" s="5">
-        <f>A236</f>
+        <f t="shared" si="9"/>
         <v>311008</v>
       </c>
       <c r="D236" s="5">
@@ -15090,10 +15345,10 @@
         <v>311009</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C237" s="5">
-        <f>A237</f>
+        <f t="shared" si="9"/>
         <v>311009</v>
       </c>
       <c r="D237" s="5">
@@ -15147,10 +15402,10 @@
         <v>311010</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C238" s="5">
-        <f>A238</f>
+        <f t="shared" si="9"/>
         <v>311010</v>
       </c>
       <c r="D238" s="5">
@@ -15204,10 +15459,10 @@
         <v>311011</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C239" s="5">
-        <f>A239</f>
+        <f t="shared" si="9"/>
         <v>311011</v>
       </c>
       <c r="D239" s="5">
@@ -15261,10 +15516,10 @@
         <v>311012</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C240" s="5">
-        <f>A240</f>
+        <f t="shared" si="9"/>
         <v>311012</v>
       </c>
       <c r="D240" s="5">
@@ -15318,10 +15573,10 @@
         <v>311013</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C241" s="5">
-        <f>A241</f>
+        <f t="shared" si="9"/>
         <v>311013</v>
       </c>
       <c r="D241" s="5">
@@ -15375,10 +15630,10 @@
         <v>311014</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C242" s="5">
-        <f>A242</f>
+        <f t="shared" si="9"/>
         <v>311014</v>
       </c>
       <c r="D242" s="5">
@@ -15432,10 +15687,10 @@
         <v>311015</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C243" s="5">
-        <f>A243</f>
+        <f t="shared" si="9"/>
         <v>311015</v>
       </c>
       <c r="D243" s="5">
@@ -15489,10 +15744,10 @@
         <v>311016</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C244" s="5">
-        <f>A244</f>
+        <f t="shared" si="9"/>
         <v>311016</v>
       </c>
       <c r="D244" s="5">
@@ -15546,10 +15801,10 @@
         <v>311017</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C245" s="5">
-        <f>A245</f>
+        <f t="shared" si="9"/>
         <v>311017</v>
       </c>
       <c r="D245" s="5">
@@ -15603,10 +15858,10 @@
         <v>311018</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C246" s="5">
-        <f>A246</f>
+        <f t="shared" si="9"/>
         <v>311018</v>
       </c>
       <c r="D246" s="5">
@@ -15660,10 +15915,10 @@
         <v>311019</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C247" s="5">
-        <f>A247</f>
+        <f t="shared" si="9"/>
         <v>311019</v>
       </c>
       <c r="D247" s="5">
@@ -15717,10 +15972,10 @@
         <v>311020</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C248" s="5">
-        <f>A248</f>
+        <f t="shared" si="9"/>
         <v>311020</v>
       </c>
       <c r="D248" s="5">
@@ -15785,44 +16040,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -15830,2611 +16089,4470 @@
         <v>340</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>201001</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">A4</f>
+        <v>201001</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>50</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1100</v>
       </c>
-      <c r="H4" s="9">
+      <c r="J4" s="9">
         <v>40</v>
       </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE("立即恢复HP:",H4)</f>
+      <c r="K4" t="str">
+        <f>CONCATENATE("立即恢复HP:",J4)</f>
         <v>立即恢复HP:40</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>201002</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>201002</v>
       </c>
       <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1100</v>
       </c>
-      <c r="H5" s="9">
+      <c r="J5" s="9">
         <v>90</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5" si="0">CONCATENATE("立即恢复HP:",H5)</f>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5" si="1">CONCATENATE("立即恢复HP:",J5)</f>
         <v>立即恢复HP:90</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>201003</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>201003</v>
       </c>
       <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>200</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1100</v>
       </c>
-      <c r="H6" s="9">
+      <c r="J6" s="9">
         <v>160</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="1">CONCATENATE("立即恢复HP:",H6)</f>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K13" si="2">CONCATENATE("立即恢复HP:",J6)</f>
         <v>立即恢复HP:160</v>
       </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>201004</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>201004</v>
       </c>
       <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
         <v>500</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1100</v>
       </c>
-      <c r="H7" s="9">
+      <c r="J7" s="9">
         <v>400</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:400</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>201005</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>201005</v>
       </c>
       <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>100</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
         <v>1000</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1100</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
         <v>1000</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:1000</v>
       </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201006</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>201006</v>
       </c>
       <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>200</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
         <v>3000</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1100</v>
       </c>
-      <c r="H9" s="9">
+      <c r="J9" s="9">
         <v>3000</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:3000</v>
       </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>201007</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>201007</v>
       </c>
       <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>300</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
         <v>6000</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1100</v>
       </c>
-      <c r="H10" s="9">
+      <c r="J10" s="9">
         <v>6000</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:6000</v>
       </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>201008</v>
       </c>
       <c r="B11" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>400</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>10000</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>1100</v>
       </c>
-      <c r="H11" s="9">
+      <c r="J11" s="9">
         <v>10000</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:10000</v>
       </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>201009</v>
       </c>
       <c r="B12" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>600</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>50000</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1100</v>
       </c>
-      <c r="H12" s="9">
+      <c r="J12" s="9">
         <v>50000</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:50000</v>
       </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>201010</v>
       </c>
       <c r="B13" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>800</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>100000</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1100</v>
       </c>
-      <c r="H13" s="9">
+      <c r="J13" s="9">
         <v>100000</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
         <v>立即恢复HP:100000</v>
       </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>201011</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>201011</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>1101</v>
       </c>
-      <c r="H14" s="9">
+      <c r="J14" s="9">
         <v>50</v>
       </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE("立即恢复MP:",H14)</f>
+      <c r="K14" t="str">
+        <f>CONCATENATE("立即恢复MP:",J14)</f>
         <v>立即恢复MP:50</v>
       </c>
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>201012</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>201012</v>
       </c>
       <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <v>100</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1101</v>
       </c>
-      <c r="H15" s="9">
+      <c r="J15" s="9">
         <v>100</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" ref="I15" si="2">CONCATENATE("立即恢复MP:",H15)</f>
+      <c r="K15" t="str">
+        <f t="shared" ref="K15" si="3">CONCATENATE("立即恢复MP:",J15)</f>
         <v>立即恢复MP:100</v>
       </c>
-      <c r="J15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>201013</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>201013</v>
       </c>
       <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
         <v>200</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1101</v>
       </c>
-      <c r="H16" s="9">
+      <c r="J16" s="9">
         <v>200</v>
       </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE("立即恢复MP:",H16)</f>
+      <c r="K16" t="str">
+        <f>CONCATENATE("立即恢复MP:",J16)</f>
         <v>立即恢复MP:200</v>
       </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>201014</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>201014</v>
       </c>
       <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <v>500</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1101</v>
       </c>
-      <c r="H17" s="9">
+      <c r="J17" s="9">
         <v>500</v>
       </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE("立即恢复MP:",H17)</f>
+      <c r="K17" t="str">
+        <f>CONCATENATE("立即恢复MP:",J17)</f>
         <v>立即恢复MP:500</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>201015</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>201015</v>
       </c>
       <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
         <v>1000</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1101</v>
       </c>
-      <c r="H18" s="9">
+      <c r="J18" s="9">
         <v>1000</v>
       </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE("立即恢复MP:",H18)</f>
+      <c r="K18" t="str">
+        <f>CONCATENATE("立即恢复MP:",J18)</f>
         <v>立即恢复MP:1000</v>
       </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>201016</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>201016</v>
       </c>
       <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>200</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
         <v>3000</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1101</v>
       </c>
-      <c r="H19" s="9">
+      <c r="J19" s="9">
         <v>3000</v>
       </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE("立即恢复MP:",H19)</f>
+      <c r="K19" t="str">
+        <f>CONCATENATE("立即恢复MP:",J19)</f>
         <v>立即恢复MP:3000</v>
       </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>201017</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>201017</v>
       </c>
       <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>300</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>6000</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1101</v>
       </c>
-      <c r="H20" s="9">
+      <c r="J20" s="9">
         <v>6000</v>
       </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE("立即恢复MP:",H20)</f>
+      <c r="K20" t="str">
+        <f>CONCATENATE("立即恢复MP:",J20)</f>
         <v>立即恢复MP:6000</v>
       </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>201018</v>
       </c>
       <c r="B21" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>400</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
         <v>10000</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1101</v>
       </c>
-      <c r="H21" s="9">
+      <c r="J21" s="9">
         <v>10000</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" ref="I21:I23" si="3">CONCATENATE("立即恢复MP:",H21)</f>
+      <c r="K21" t="str">
+        <f t="shared" ref="K21:K23" si="4">CONCATENATE("立即恢复MP:",J21)</f>
         <v>立即恢复MP:10000</v>
       </c>
-      <c r="J21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201019</v>
       </c>
       <c r="B22" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>600</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <v>50000</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1101</v>
       </c>
-      <c r="H22" s="9">
+      <c r="J22" s="9">
         <v>50000</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
         <v>立即恢复MP:50000</v>
       </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201020</v>
       </c>
       <c r="B23" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>800</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>100000</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1101</v>
       </c>
-      <c r="H23" s="9">
+      <c r="J23" s="9">
         <v>100000</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
         <v>立即恢复MP:100000</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>202001</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>202001</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
         <v>10000</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>5001</v>
       </c>
-      <c r="H24" s="9">
-        <v>2</v>
-      </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE("使用后获得",B24,"100次")</f>
+      <c r="J24" s="9">
+        <v>2</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ref="K24:K41" si="5">CONCATENATE("使用后获得",B24,"100次")</f>
         <v>使用后获得双倍经验100次</v>
       </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>202002</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4">
-        <v>2</v>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>202002</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>5001</v>
       </c>
-      <c r="H25" s="9">
+      <c r="J25" s="9">
         <v>3</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" ref="I25" si="4">CONCATENATE("使用后获得",B25,"100次")</f>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
         <v>使用后获得三倍经验100次</v>
       </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>202003</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
-        <v>2</v>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>202003</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
         <v>5001</v>
       </c>
-      <c r="H26" s="9">
+      <c r="J26" s="9">
         <v>4</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" ref="I26:I41" si="5">CONCATENATE("使用后获得",B26,"100次")</f>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
         <v>使用后获得四倍经验100次</v>
       </c>
-      <c r="J26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>202004</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>202004</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
         <v>5001</v>
       </c>
-      <c r="H27" s="9">
+      <c r="J27" s="9">
         <v>5</v>
       </c>
-      <c r="I27" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得五倍经验100次</v>
       </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>202005</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
-        <v>0</v>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>202005</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+      <c r="I28">
         <v>5001</v>
       </c>
-      <c r="H28" s="9">
+      <c r="J28" s="9">
         <v>6</v>
       </c>
-      <c r="I28" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得六倍经验100次</v>
       </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>202006</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
-        <v>0</v>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>202006</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
         <v>5001</v>
       </c>
-      <c r="H29" s="9">
+      <c r="J29" s="9">
         <v>8</v>
       </c>
-      <c r="I29" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得八倍经验100次</v>
       </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>202007</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4">
-        <v>0</v>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>202007</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>800</v>
+      </c>
+      <c r="I30">
         <v>5001</v>
       </c>
-      <c r="H30" s="9">
+      <c r="J30" s="9">
         <v>10</v>
       </c>
-      <c r="I30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得十倍经验100次</v>
       </c>
-      <c r="J30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>202008</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>202008</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
         <v>20000</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
         <v>5000</v>
       </c>
-      <c r="H31" s="9">
-        <v>2</v>
-      </c>
-      <c r="I31" t="str">
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得双倍声望100次</v>
       </c>
-      <c r="J31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>202009</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="4">
-        <v>2</v>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>202009</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2">
         <v>5000</v>
       </c>
-      <c r="H32" s="9">
+      <c r="J32" s="9">
         <v>3</v>
       </c>
-      <c r="I32" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得三倍声望100次</v>
       </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>202010</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4">
-        <v>2</v>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>202010</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="G33" s="2">
+      <c r="I33" s="2">
         <v>5000</v>
       </c>
-      <c r="H33" s="9">
+      <c r="J33" s="9">
         <v>4</v>
       </c>
-      <c r="I33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得四倍声望100次</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>202011</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4">
-        <v>0</v>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>202011</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2">
         <v>5000</v>
       </c>
-      <c r="H34" s="9">
+      <c r="J34" s="9">
         <v>5</v>
       </c>
-      <c r="I34" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得五倍声望100次</v>
       </c>
-      <c r="J34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>202012</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>202012</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35" s="2">
         <v>5000</v>
       </c>
-      <c r="H35" s="9">
+      <c r="J35" s="9">
         <v>6</v>
       </c>
-      <c r="I35" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得六倍声望100次</v>
       </c>
-      <c r="J35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>202013</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>202013</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>400</v>
+      </c>
+      <c r="I36" s="2">
         <v>5000</v>
       </c>
-      <c r="H36" s="9">
+      <c r="J36" s="9">
         <v>8</v>
       </c>
-      <c r="I36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得八倍声望100次</v>
       </c>
-      <c r="J36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>202014</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
-        <v>0</v>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>202014</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>800</v>
+      </c>
+      <c r="I37" s="2">
         <v>5000</v>
       </c>
-      <c r="H37" s="9">
+      <c r="J37" s="9">
         <v>10</v>
       </c>
-      <c r="I37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得十倍声望100次</v>
       </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>202015</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>202015</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
         <v>100000</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>5002</v>
       </c>
-      <c r="H38" s="9">
-        <v>2</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="J38" s="9">
+        <v>2</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得双倍暴率100次</v>
       </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>202016</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="4">
-        <v>2</v>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>202016</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1">
         <v>5002</v>
       </c>
-      <c r="H39" s="9">
+      <c r="J39" s="9">
         <v>3</v>
       </c>
-      <c r="I39" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得三倍暴率100次</v>
       </c>
-      <c r="J39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>202017</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="4">
-        <v>0</v>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>202017</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>400</v>
+      </c>
+      <c r="I40" s="1">
         <v>5002</v>
       </c>
-      <c r="H40" s="9">
+      <c r="J40" s="9">
         <v>4</v>
       </c>
-      <c r="I40" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得四倍暴率100次</v>
       </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>202018</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4">
-        <v>0</v>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>202018</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>800</v>
+      </c>
+      <c r="I41" s="1">
         <v>5002</v>
       </c>
-      <c r="H41" s="9">
+      <c r="J41" s="9">
         <v>5</v>
       </c>
-      <c r="I41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="5"/>
         <v>使用后获得五倍暴率100次</v>
       </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>203001</v>
       </c>
       <c r="B42" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="4">
-        <v>0</v>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>203001</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>1000</v>
       </c>
-      <c r="H42" s="9">
+      <c r="J42" s="9">
         <v>10</v>
       </c>
-      <c r="I42" t="str">
-        <f>CONCATENATE("大洋",H42, "个")</f>
+      <c r="K42" t="str">
+        <f>CONCATENATE("大洋",J42, "个")</f>
         <v>大洋10个</v>
       </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>203002</v>
       </c>
       <c r="B43" t="s">
         <v>301</v>
       </c>
-      <c r="C43" s="4">
-        <v>0</v>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>203002</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>1000</v>
       </c>
-      <c r="H43" s="9">
+      <c r="J43" s="9">
         <v>20</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" ref="I43:I52" si="6">CONCATENATE("大洋",H43, "个")</f>
+      <c r="K43" t="str">
+        <f t="shared" ref="K43:K52" si="6">CONCATENATE("大洋",J43, "个")</f>
         <v>大洋20个</v>
       </c>
-      <c r="J43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>203003</v>
       </c>
       <c r="B44" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="4">
-        <v>0</v>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>203003</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>1000</v>
       </c>
-      <c r="H44" s="9">
+      <c r="J44" s="9">
         <v>50</v>
       </c>
-      <c r="I44" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="6"/>
         <v>大洋50个</v>
       </c>
-      <c r="J44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>203004</v>
       </c>
       <c r="B45" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="4">
-        <v>0</v>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>203004</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1000</v>
       </c>
-      <c r="H45" s="9">
+      <c r="J45" s="9">
         <v>100</v>
       </c>
-      <c r="I45" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="6"/>
         <v>大洋100个</v>
       </c>
-      <c r="J45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>203005</v>
       </c>
       <c r="B46" t="s">
         <v>304</v>
       </c>
-      <c r="C46" s="4">
-        <v>0</v>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>203005</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1000</v>
       </c>
-      <c r="H46" s="9">
+      <c r="J46" s="9">
         <v>500</v>
       </c>
-      <c r="I46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="6"/>
         <v>大洋500个</v>
       </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>203006</v>
       </c>
       <c r="B47" t="s">
         <v>305</v>
       </c>
-      <c r="C47" s="4">
-        <v>0</v>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>203006</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1000</v>
       </c>
-      <c r="H47" s="9">
+      <c r="J47" s="9">
         <v>1000</v>
       </c>
-      <c r="I47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="6"/>
         <v>大洋1000个</v>
       </c>
-      <c r="J47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>203007</v>
       </c>
       <c r="B48" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="4">
-        <v>0</v>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>203007</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1000</v>
       </c>
-      <c r="H48" s="9">
+      <c r="J48" s="9">
         <v>5000</v>
       </c>
-      <c r="I48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="6"/>
         <v>大洋5000个</v>
       </c>
-      <c r="J48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>203008</v>
       </c>
       <c r="B49" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="4">
-        <v>0</v>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>203008</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1000</v>
       </c>
-      <c r="H49" s="9">
+      <c r="J49" s="9">
         <v>10000</v>
       </c>
-      <c r="I49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="6"/>
         <v>大洋10000个</v>
       </c>
-      <c r="J49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>203009</v>
       </c>
       <c r="B50" t="s">
         <v>308</v>
       </c>
-      <c r="C50" s="4">
-        <v>0</v>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>203009</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1000</v>
       </c>
-      <c r="H50" s="9">
+      <c r="J50" s="9">
         <v>50000</v>
       </c>
-      <c r="I50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="6"/>
         <v>大洋50000个</v>
       </c>
-      <c r="J50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>203010</v>
       </c>
       <c r="B51" t="s">
         <v>309</v>
       </c>
-      <c r="C51" s="4">
-        <v>0</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>203010</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1000</v>
       </c>
-      <c r="H51" s="9">
+      <c r="J51" s="9">
         <v>100000</v>
       </c>
-      <c r="I51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="6"/>
         <v>大洋100000个</v>
       </c>
-      <c r="J51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>203011</v>
       </c>
       <c r="B52" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1000</v>
       </c>
-      <c r="H52" s="9">
+      <c r="J52" s="9">
         <v>500000</v>
       </c>
-      <c r="I52" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="6"/>
         <v>大洋500000个</v>
       </c>
-      <c r="J52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>203012</v>
       </c>
       <c r="B53" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="4">
-        <v>0</v>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>203012</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1100000</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1000</v>
       </c>
-      <c r="H53" s="9">
+      <c r="J53" s="9">
         <v>1000000</v>
       </c>
-      <c r="I53" t="str">
+      <c r="K53" t="str">
         <f>CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
-      <c r="J53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>203013</v>
       </c>
       <c r="B54" t="s">
         <v>312</v>
       </c>
-      <c r="C54" s="4">
-        <v>0</v>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>203013</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5200000</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1000</v>
       </c>
-      <c r="H54" s="9">
+      <c r="J54" s="9">
         <v>5000000</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" ref="I54:I56" si="7">CONCATENATE("别说你不知道")</f>
+      <c r="K54" t="str">
+        <f t="shared" ref="K54:K56" si="7">CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
-      <c r="J54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>203014</v>
       </c>
       <c r="B55" t="s">
         <v>313</v>
       </c>
-      <c r="C55" s="4">
-        <v>0</v>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>203014</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>11000000</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>1000</v>
       </c>
-      <c r="H55" s="9">
+      <c r="J55" s="9">
         <v>10000000</v>
       </c>
-      <c r="I55" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="7"/>
         <v>别说你不知道</v>
       </c>
-      <c r="J55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>203015</v>
       </c>
       <c r="B56" t="s">
         <v>314</v>
       </c>
-      <c r="C56" s="4">
-        <v>0</v>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>203015</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>52000000</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>1000</v>
       </c>
-      <c r="H56" s="9">
+      <c r="J56" s="9">
         <v>50000000</v>
       </c>
-      <c r="I56" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="7"/>
         <v>别说你不知道</v>
       </c>
-      <c r="J56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>203016</v>
       </c>
       <c r="B57" t="s">
         <v>323</v>
       </c>
-      <c r="C57" s="4">
-        <v>0</v>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>203016</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>1002</v>
       </c>
-      <c r="H57" s="9">
+      <c r="J57" s="9">
         <v>10</v>
       </c>
-      <c r="I57" t="str">
-        <f>CONCATENATE("偶有传闻，声望+",H57)</f>
+      <c r="K57" t="str">
+        <f>CONCATENATE("偶有传闻，声望+",J57)</f>
         <v>偶有传闻，声望+10</v>
       </c>
-      <c r="J57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>203017</v>
       </c>
       <c r="B58" t="s">
         <v>324</v>
       </c>
-      <c r="C58" s="4">
-        <v>0</v>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>203017</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1002</v>
       </c>
-      <c r="H58" s="9">
+      <c r="J58" s="9">
         <v>20</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" ref="I58:I59" si="8">CONCATENATE("偶有传闻，声望+",H58)</f>
+      <c r="K58" t="str">
+        <f t="shared" ref="K58:K59" si="8">CONCATENATE("偶有传闻，声望+",J58)</f>
         <v>偶有传闻，声望+20</v>
       </c>
-      <c r="J58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>203018</v>
       </c>
       <c r="B59" t="s">
         <v>326</v>
       </c>
-      <c r="C59" s="4">
-        <v>0</v>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>203018</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1002</v>
       </c>
-      <c r="H59" s="9">
+      <c r="J59" s="9">
         <v>50</v>
       </c>
-      <c r="I59" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="8"/>
         <v>偶有传闻，声望+50</v>
       </c>
-      <c r="J59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>203019</v>
       </c>
       <c r="B60" t="s">
         <v>325</v>
       </c>
-      <c r="C60" s="4">
-        <v>0</v>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>203019</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>1002</v>
       </c>
-      <c r="H60" s="9">
+      <c r="J60" s="9">
         <v>100</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" ref="I60:I62" si="9">CONCATENATE("闯闯江湖，声望+",H60)</f>
+      <c r="K60" t="str">
+        <f t="shared" ref="K60:K62" si="9">CONCATENATE("闯闯江湖，声望+",J60)</f>
         <v>闯闯江湖，声望+100</v>
       </c>
-      <c r="J60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>203020</v>
       </c>
       <c r="B61" t="s">
         <v>327</v>
       </c>
-      <c r="C61" s="4">
-        <v>0</v>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>203020</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1002</v>
       </c>
-      <c r="H61" s="9">
+      <c r="J61" s="9">
         <v>200</v>
       </c>
-      <c r="I61" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="9"/>
         <v>闯闯江湖，声望+200</v>
       </c>
-      <c r="J61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>203021</v>
       </c>
       <c r="B62" t="s">
         <v>328</v>
       </c>
-      <c r="C62" s="4">
-        <v>0</v>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>203021</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>1002</v>
       </c>
-      <c r="H62" s="9">
+      <c r="J62" s="9">
         <v>500</v>
       </c>
-      <c r="I62" t="str">
+      <c r="K62" t="str">
         <f t="shared" si="9"/>
         <v>闯闯江湖，声望+500</v>
       </c>
-      <c r="J62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>203022</v>
       </c>
       <c r="B63" t="s">
         <v>329</v>
       </c>
-      <c r="C63" s="4">
-        <v>0</v>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>203022</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1002</v>
       </c>
-      <c r="H63" s="9">
+      <c r="J63" s="9">
         <v>1000</v>
       </c>
-      <c r="I63" t="str">
-        <f>CONCATENATE("小有名气，声望+",H63)</f>
+      <c r="K63" t="str">
+        <f>CONCATENATE("小有名气，声望+",J63)</f>
         <v>小有名气，声望+1000</v>
       </c>
-      <c r="J63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>203023</v>
       </c>
       <c r="B64" t="s">
         <v>330</v>
       </c>
-      <c r="C64" s="4">
-        <v>0</v>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>203023</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1002</v>
       </c>
-      <c r="H64" s="9">
+      <c r="J64" s="9">
         <v>2000</v>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" ref="I64:I65" si="10">CONCATENATE("小有名气，声望+",H64)</f>
+      <c r="K64" t="str">
+        <f t="shared" ref="K64:K65" si="10">CONCATENATE("小有名气，声望+",J64)</f>
         <v>小有名气，声望+2000</v>
       </c>
-      <c r="J64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>203024</v>
       </c>
       <c r="B65" t="s">
         <v>331</v>
       </c>
-      <c r="C65" s="4">
-        <v>0</v>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>203024</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1002</v>
       </c>
-      <c r="H65" s="9">
+      <c r="J65" s="9">
         <v>5000</v>
       </c>
-      <c r="I65" t="str">
+      <c r="K65" t="str">
         <f t="shared" si="10"/>
         <v>小有名气，声望+5000</v>
       </c>
-      <c r="J65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>203025</v>
       </c>
       <c r="B66" t="s">
         <v>332</v>
       </c>
-      <c r="C66" s="4">
-        <v>0</v>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>203025</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>1002</v>
       </c>
-      <c r="H66" s="9">
+      <c r="J66" s="9">
         <v>10000</v>
       </c>
-      <c r="I66" t="str">
-        <f>CONCATENATE("除魔卫道，声望+",H66)</f>
+      <c r="K66" t="str">
+        <f>CONCATENATE("除魔卫道，声望+",J66)</f>
         <v>除魔卫道，声望+10000</v>
       </c>
-      <c r="J66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>203026</v>
       </c>
       <c r="B67" t="s">
         <v>333</v>
       </c>
-      <c r="C67" s="4">
-        <v>0</v>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>203026</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1002</v>
       </c>
-      <c r="H67" s="9">
+      <c r="J67" s="9">
         <v>20000</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I68" si="11">CONCATENATE("除魔卫道，声望+",H67)</f>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K68" si="11">CONCATENATE("除魔卫道，声望+",J67)</f>
         <v>除魔卫道，声望+20000</v>
       </c>
-      <c r="J67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>203027</v>
       </c>
       <c r="B68" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="4">
-        <v>0</v>
+      <c r="C68">
+        <f t="shared" ref="C68:C75" si="12">A68</f>
+        <v>203027</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1002</v>
       </c>
-      <c r="H68" s="9">
+      <c r="J68" s="9">
         <v>50000</v>
       </c>
-      <c r="I68" t="str">
+      <c r="K68" t="str">
         <f t="shared" si="11"/>
         <v>除魔卫道，声望+50000</v>
       </c>
-      <c r="J68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>203028</v>
       </c>
       <c r="B69" t="s">
         <v>335</v>
       </c>
-      <c r="C69" s="4">
-        <v>0</v>
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>203028</v>
       </c>
       <c r="D69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>1002</v>
       </c>
-      <c r="H69" s="9">
+      <c r="J69" s="9">
         <v>100000</v>
       </c>
-      <c r="I69" t="str">
-        <f>CONCATENATE("匡扶正义，声望+",H69)</f>
+      <c r="K69" t="str">
+        <f>CONCATENATE("匡扶正义，声望+",J69)</f>
         <v>匡扶正义，声望+100000</v>
       </c>
-      <c r="J69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>203029</v>
       </c>
       <c r="B70" t="s">
         <v>336</v>
       </c>
-      <c r="C70" s="4">
-        <v>0</v>
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>203029</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+        <v>40</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1002</v>
       </c>
-      <c r="H70" s="9">
+      <c r="J70" s="9">
         <v>200000</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" ref="I70:I71" si="12">CONCATENATE("匡扶正义，声望+",H70)</f>
+      <c r="K70" t="str">
+        <f t="shared" ref="K70:K71" si="13">CONCATENATE("匡扶正义，声望+",J70)</f>
         <v>匡扶正义，声望+200000</v>
       </c>
-      <c r="J70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>203030</v>
       </c>
       <c r="B71" t="s">
         <v>337</v>
       </c>
-      <c r="C71" s="4">
-        <v>0</v>
+      <c r="C71">
+        <f t="shared" si="12"/>
+        <v>203030</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
+        <v>50</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1002</v>
       </c>
-      <c r="H71" s="9">
+      <c r="J71" s="9">
         <v>500000</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="12"/>
+      <c r="K71" t="str">
+        <f t="shared" si="13"/>
         <v>匡扶正义，声望+500000</v>
       </c>
-      <c r="J71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>203031</v>
       </c>
       <c r="B72" t="s">
         <v>338</v>
       </c>
-      <c r="C72" s="4">
-        <v>0</v>
+      <c r="C72">
+        <f t="shared" si="12"/>
+        <v>203031</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1001</v>
       </c>
-      <c r="H72" s="9">
+      <c r="J72" s="9">
         <v>10</v>
       </c>
-      <c r="I72" t="str">
-        <f>CONCATENATE("使用后获得元宝:",H72)</f>
+      <c r="K72" t="str">
+        <f>CONCATENATE("使用后获得元宝:",J72)</f>
         <v>使用后获得元宝:10</v>
       </c>
-      <c r="J72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>203032</v>
       </c>
       <c r="B73" t="s">
         <v>315</v>
       </c>
-      <c r="C73" s="4">
-        <v>0</v>
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>203032</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1001</v>
       </c>
-      <c r="H73" s="9">
+      <c r="J73" s="9">
         <v>20</v>
       </c>
-      <c r="I73" t="str">
-        <f t="shared" ref="I73:I81" si="13">CONCATENATE("使用后获得元宝:",H73)</f>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73:K81" si="14">CONCATENATE("使用后获得元宝:",J73)</f>
         <v>使用后获得元宝:20</v>
       </c>
-      <c r="J73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>203033</v>
       </c>
       <c r="B74" t="s">
         <v>339</v>
       </c>
-      <c r="C74" s="4">
-        <v>0</v>
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>203033</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>1001</v>
       </c>
-      <c r="H74" s="9">
+      <c r="J74" s="9">
         <v>30</v>
       </c>
-      <c r="I74" t="str">
-        <f t="shared" si="13"/>
+      <c r="K74" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:30</v>
       </c>
-      <c r="J74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>203034</v>
       </c>
       <c r="B75" t="s">
         <v>316</v>
       </c>
-      <c r="C75" s="4">
-        <v>0</v>
+      <c r="C75">
+        <f t="shared" si="12"/>
+        <v>203034</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>1001</v>
       </c>
-      <c r="H75" s="9">
+      <c r="J75" s="9">
         <v>50</v>
       </c>
-      <c r="I75" t="str">
-        <f t="shared" si="13"/>
+      <c r="K75" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:50</v>
       </c>
-      <c r="J75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>203035</v>
       </c>
       <c r="B76" t="s">
         <v>317</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>110</v>
+      </c>
+      <c r="I76">
         <v>1001</v>
       </c>
-      <c r="H76" s="9">
+      <c r="J76" s="9">
         <v>100</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="13"/>
+      <c r="K76" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:100</v>
       </c>
-      <c r="J76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>203036</v>
       </c>
       <c r="B77" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>210</v>
+      </c>
+      <c r="I77">
         <v>1001</v>
       </c>
-      <c r="H77" s="9">
+      <c r="J77" s="9">
         <v>200</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="13"/>
+      <c r="K77" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:200</v>
       </c>
-      <c r="J77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>203037</v>
       </c>
       <c r="B78" t="s">
         <v>319</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>520</v>
+      </c>
+      <c r="I78">
         <v>1001</v>
       </c>
-      <c r="H78" s="9">
+      <c r="J78" s="9">
         <v>500</v>
       </c>
-      <c r="I78" t="str">
-        <f t="shared" si="13"/>
+      <c r="K78" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:500</v>
       </c>
-      <c r="J78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>203038</v>
       </c>
       <c r="B79" t="s">
         <v>320</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1050</v>
+      </c>
+      <c r="I79">
         <v>1001</v>
       </c>
-      <c r="H79" s="9">
+      <c r="J79" s="9">
         <v>1000</v>
       </c>
-      <c r="I79" t="str">
-        <f t="shared" si="13"/>
+      <c r="K79" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:1000</v>
       </c>
-      <c r="J79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>203039</v>
       </c>
       <c r="B80" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>2050</v>
+      </c>
+      <c r="I80">
         <v>1001</v>
       </c>
-      <c r="H80" s="9">
+      <c r="J80" s="9">
         <v>2000</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" si="13"/>
+      <c r="K80" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:2000</v>
       </c>
-      <c r="J80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>203040</v>
       </c>
       <c r="B81" t="s">
         <v>322</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>5100</v>
+      </c>
+      <c r="I81">
         <v>1001</v>
       </c>
-      <c r="H81" s="9">
+      <c r="J81" s="9">
         <v>5000</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" si="13"/>
+      <c r="K81" t="str">
+        <f t="shared" si="14"/>
         <v>使用后获得元宝:5000</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>220001</v>
+      </c>
+      <c r="B82" t="s">
+        <v>366</v>
+      </c>
+      <c r="C82">
+        <f>A82</f>
+        <v>220001</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>500</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>5100</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0</v>
+      </c>
+      <c r="K82" t="str">
+        <f>CONCATENATE("《",B82,"》技能等级+1")</f>
+        <v>《火球术》技能等级+1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>220002</v>
+      </c>
+      <c r="B83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83">
+        <f>$C$82</f>
+        <v>220001</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
+        <v>500</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>5100</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" ref="K83:K114" si="15">CONCATENATE("《",B83,"》技能等级+1")</f>
+        <v>《治愈术》技能等级+1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>220003</v>
+      </c>
+      <c r="B84" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:C114" si="16">$C$82</f>
+        <v>220001</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>7</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <v>500</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>5100</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="15"/>
+        <v>《基本剑术》技能等级+1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>220004</v>
+      </c>
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
+        <v>500</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>5100</v>
+      </c>
+      <c r="J85" s="9">
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="15"/>
+        <v>《精神力战法》技能等级+1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>220005</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4">
+        <v>19</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>5100</v>
+      </c>
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="15"/>
+        <v>《大火球》技能等级+1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>220006</v>
+      </c>
+      <c r="B87" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>19</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>5100</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="15"/>
+        <v>《攻杀剑术》技能等级+1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>220007</v>
+      </c>
+      <c r="B88" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>14</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>5100</v>
+      </c>
+      <c r="J88" s="9">
+        <v>0</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="15"/>
+        <v>《施毒术》技能等级+1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>220008</v>
+      </c>
+      <c r="B89" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4">
+        <v>12</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="9">
+        <v>500</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5100</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="15"/>
+        <v>《抗拒火环》技能等级+1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>220009</v>
+      </c>
+      <c r="B90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>16</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>5100</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="15"/>
+        <v>《地狱火》技能等级+1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>220010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4">
+        <v>17</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>5100</v>
+      </c>
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="15"/>
+        <v>《雷电术》技能等级+1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>220011</v>
+      </c>
+      <c r="B92" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="4">
+        <v>26</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9">
+        <v>9091</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>5100</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="15"/>
+        <v>《疾光电影》技能等级+1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>220012</v>
+      </c>
+      <c r="B93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>18</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>5100</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="15"/>
+        <v>《灵魂火符》技能等级+1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>220013</v>
+      </c>
+      <c r="B94" t="s">
+        <v>378</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4">
+        <v>22</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="9">
+        <v>2727</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>5100</v>
+      </c>
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="15"/>
+        <v>《幽灵盾》技能等级+1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>220014</v>
+      </c>
+      <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
+      <c r="E95" s="4">
+        <v>25</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="9">
+        <v>4545</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>5100</v>
+      </c>
+      <c r="J95" s="9">
+        <v>0</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="15"/>
+        <v>《神圣战甲术》技能等级+1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>220015</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>25</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="9">
+        <v>4545</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>5100</v>
+      </c>
+      <c r="J96" s="9">
+        <v>0</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="15"/>
+        <v>《刺杀剑术》技能等级+1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>220016</v>
+      </c>
+      <c r="B97" t="s">
+        <v>381</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4">
+        <v>28</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>5100</v>
+      </c>
+      <c r="J97" s="9">
+        <v>0</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="15"/>
+        <v>《困魔咒》技能等级+1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>220017</v>
+      </c>
+      <c r="B98" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="4">
+        <v>19</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>5100</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="15"/>
+        <v>《召唤骷髅》技能等级+1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>220018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="4">
+        <v>20</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>5100</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="15"/>
+        <v>《隐身术》技能等级+1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>220019</v>
+      </c>
+      <c r="B100" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4">
+        <v>21</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="9">
+        <v>2727</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>5100</v>
+      </c>
+      <c r="J100" s="9">
+        <v>0</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="15"/>
+        <v>《集体隐身术》技能等级+1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>220020</v>
+      </c>
+      <c r="B101" t="s">
+        <v>385</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>13</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>5100</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="15"/>
+        <v>《诱惑之光》技能等级+1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>220021</v>
+      </c>
+      <c r="B102" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D102" s="4">
+        <v>2</v>
+      </c>
+      <c r="E102" s="4">
+        <v>19</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>5100</v>
+      </c>
+      <c r="J102" s="9">
+        <v>0</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="15"/>
+        <v>《瞬息移动》技能等级+1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>220022</v>
+      </c>
+      <c r="B103" t="s">
+        <v>387</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4">
+        <v>24</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <v>4545</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>5100</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="15"/>
+        <v>《火墙》技能等级+1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>220023</v>
+      </c>
+      <c r="B104" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4">
+        <v>22</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="9">
+        <v>2727</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>5100</v>
+      </c>
+      <c r="J104" s="9">
+        <v>0</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="15"/>
+        <v>《爆裂火焰》技能等级+1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>220024</v>
+      </c>
+      <c r="B105" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D105" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>30</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>5100</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="15"/>
+        <v>《地狱雷光》技能等级+1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>220025</v>
+      </c>
+      <c r="B106" t="s">
+        <v>390</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4">
+        <v>28</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>5100</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="15"/>
+        <v>《半月弯刀》技能等级+1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>220026</v>
+      </c>
+      <c r="B107" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>35</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>5100</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="15"/>
+        <v>《烈火剑法》技能等级+1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>220027</v>
+      </c>
+      <c r="B108" t="s">
+        <v>392</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4">
+        <v>30</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="9">
+        <v>8000</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>5100</v>
+      </c>
+      <c r="J108" s="9">
+        <v>0</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="15"/>
+        <v>《野蛮冲撞》技能等级+1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>220028</v>
+      </c>
+      <c r="B109" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D109" s="4">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4">
+        <v>26</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9">
+        <v>9091</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>5100</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="15"/>
+        <v>《心灵启示》技能等级+1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>220029</v>
+      </c>
+      <c r="B110" t="s">
+        <v>394</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D110" s="4">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4">
+        <v>33</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>5100</v>
+      </c>
+      <c r="J110" s="9">
+        <v>0</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="15"/>
+        <v>《群体治疗术》技能等级+1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>220030</v>
+      </c>
+      <c r="B111" t="s">
+        <v>395</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D111" s="4">
+        <v>3</v>
+      </c>
+      <c r="E111" s="4">
+        <v>35</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0</v>
+      </c>
+      <c r="G111" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>5100</v>
+      </c>
+      <c r="J111" s="9">
+        <v>0</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="15"/>
+        <v>《召唤神兽》技能等级+1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>220031</v>
+      </c>
+      <c r="B112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D112" s="4">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4">
+        <v>31</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>5100</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="15"/>
+        <v>《魔法盾》技能等级+1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>220032</v>
+      </c>
+      <c r="B113" t="s">
+        <v>397</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2</v>
+      </c>
+      <c r="E113" s="4">
+        <v>32</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="9">
+        <v>10000</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>5100</v>
+      </c>
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="15"/>
+        <v>《圣言术》技能等级+1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>220033</v>
+      </c>
+      <c r="B114" t="s">
+        <v>398</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="16"/>
+        <v>220001</v>
+      </c>
+      <c r="D114" s="4">
+        <v>2</v>
+      </c>
+      <c r="E114" s="4">
+        <v>35</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>5100</v>
+      </c>
+      <c r="J114" s="9">
+        <v>0</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="15"/>
+        <v>《冰咆哮》技能等级+1</v>
+      </c>
+      <c r="L114" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E25:E30 H42:H55 E32:E65539"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G25:G30 J42:J55 G32:G81 G110:G65539 G103:G108"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18444,9 +20562,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>道具作用说明表!$A$2:$A$17</xm:f>
+            <xm:f>道具作用说明表!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G65539</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18456,10 +20574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18604,6 +20722,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
@@ -18611,4 +20737,1281 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>220000</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="4">
+        <v>220000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>220001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5">
+        <f>A5</f>
+        <v>220001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4">
+        <v>120</v>
+      </c>
+      <c r="H5" s="4">
+        <v>140</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>220002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C37" si="0">A6</f>
+        <v>220002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>110</v>
+      </c>
+      <c r="G6" s="4">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4">
+        <v>140</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>220003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>220003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4">
+        <v>140</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>220004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8">
+        <f>C7</f>
+        <v>220003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>220005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>220005</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4">
+        <v>130</v>
+      </c>
+      <c r="H9" s="4">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>220006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>220006</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>120</v>
+      </c>
+      <c r="G10" s="4">
+        <v>130</v>
+      </c>
+      <c r="H10" s="4">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>220007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>220007</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>220008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>220008</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>220009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>220009</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>220010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>220010</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>130</v>
+      </c>
+      <c r="G14" s="4">
+        <v>140</v>
+      </c>
+      <c r="H14" s="4">
+        <v>160</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>220011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>220011</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>220012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>220012</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>120</v>
+      </c>
+      <c r="G16" s="4">
+        <v>130</v>
+      </c>
+      <c r="H16" s="4">
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>220013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>220013</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>220014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>220014</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>220015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>220015</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>70</v>
+      </c>
+      <c r="G19" s="4">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>220016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>220016</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>220017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>220017</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>50</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>220018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>220018</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>220019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>220019</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>220020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>220020</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>220021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>220021</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>220022</v>
+      </c>
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>220022</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>50</v>
+      </c>
+      <c r="G26" s="4">
+        <v>60</v>
+      </c>
+      <c r="H26" s="4">
+        <v>80</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>220023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>220023</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>50</v>
+      </c>
+      <c r="G27" s="4">
+        <v>60</v>
+      </c>
+      <c r="H27" s="4">
+        <v>80</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>220024</v>
+      </c>
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>220024</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4">
+        <v>60</v>
+      </c>
+      <c r="H28" s="4">
+        <v>80</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>220025</v>
+      </c>
+      <c r="B29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>220025</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4">
+        <v>50</v>
+      </c>
+      <c r="G29" s="4">
+        <v>60</v>
+      </c>
+      <c r="H29" s="4">
+        <v>80</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>220026</v>
+      </c>
+      <c r="B30" t="s">
+        <v>391</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>220026</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>120</v>
+      </c>
+      <c r="G30" s="4">
+        <v>130</v>
+      </c>
+      <c r="H30" s="4">
+        <v>150</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>220027</v>
+      </c>
+      <c r="B31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31">
+        <f>C7</f>
+        <v>220003</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>220028</v>
+      </c>
+      <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>220028</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>220029</v>
+      </c>
+      <c r="B33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>220029</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>220030</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>220030</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>220031</v>
+      </c>
+      <c r="B35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>220031</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>220032</v>
+      </c>
+      <c r="B36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>220032</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>220033</v>
+      </c>
+      <c r="B37" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>220033</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <v>50</v>
+      </c>
+      <c r="G37" s="4">
+        <v>60</v>
+      </c>
+      <c r="H37" s="4">
+        <v>80</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A5:C37 F5:L37">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$L5=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E37">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$L5=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:I31 D2:J4 E33:I37 D5:D37 D38:J65466"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="15" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Aspire:</t>
@@ -68,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1457,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1509,17 +1511,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1547,7 +1560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,6 +1603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,7 +1617,32 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1956,10 +2000,10 @@
   <dimension ref="A1:T248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1982,26 +2026,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -3888,7 +3932,7 @@
       <c r="A36" s="5">
         <v>301033</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="5">
@@ -3945,7 +3989,7 @@
       <c r="A37" s="5">
         <v>301034</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="15" t="s">
         <v>210</v>
       </c>
       <c r="C37" s="5">
@@ -4002,7 +4046,7 @@
       <c r="A38" s="5">
         <v>301035</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="15" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="5">
@@ -4059,7 +4103,7 @@
       <c r="A39" s="5">
         <v>301036</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C39" s="5">
@@ -4116,7 +4160,7 @@
       <c r="A40" s="5">
         <v>301037</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="15" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="5">
@@ -4173,7 +4217,7 @@
       <c r="A41" s="5">
         <v>301038</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="5">
@@ -4230,7 +4274,7 @@
       <c r="A42" s="5">
         <v>301039</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C42" s="5">
@@ -4800,7 +4844,7 @@
       <c r="A52" s="5">
         <v>302010</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="5">
@@ -4857,7 +4901,7 @@
       <c r="A53" s="5">
         <v>302011</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C53" s="5">
@@ -4914,7 +4958,7 @@
       <c r="A54" s="5">
         <v>302012</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="5">
@@ -4971,7 +5015,7 @@
       <c r="A55" s="5">
         <v>302013</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C55" s="5">
@@ -5028,7 +5072,7 @@
       <c r="A56" s="5">
         <v>302014</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C56" s="5">
@@ -5085,7 +5129,7 @@
       <c r="A57" s="5">
         <v>302015</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C57" s="5">
@@ -5142,7 +5186,7 @@
       <c r="A58" s="5">
         <v>302016</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C58" s="5">
@@ -5712,7 +5756,7 @@
       <c r="A68" s="5">
         <v>303010</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C68" s="5">
@@ -5769,7 +5813,7 @@
       <c r="A69" s="5">
         <v>303011</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C69" s="5">
@@ -5826,7 +5870,7 @@
       <c r="A70" s="5">
         <v>303012</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C70" s="5">
@@ -5883,7 +5927,7 @@
       <c r="A71" s="5">
         <v>303013</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="5">
@@ -5940,7 +5984,7 @@
       <c r="A72" s="5">
         <v>303014</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="15" t="s">
         <v>225</v>
       </c>
       <c r="C72" s="5">
@@ -5997,7 +6041,7 @@
       <c r="A73" s="5">
         <v>303015</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C73" s="5">
@@ -6054,7 +6098,7 @@
       <c r="A74" s="5">
         <v>303016</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>229</v>
       </c>
       <c r="C74" s="5">
@@ -7650,7 +7694,7 @@
       <c r="A102" s="5">
         <v>305018</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C102" s="5">
@@ -7707,7 +7751,7 @@
       <c r="A103" s="5">
         <v>305019</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="5">
@@ -9873,7 +9917,7 @@
       <c r="A141" s="5">
         <v>306023</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="14" t="s">
         <v>183</v>
       </c>
       <c r="C141" s="5">
@@ -9930,7 +9974,7 @@
       <c r="A142" s="5">
         <v>306024</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C142" s="5">
@@ -10329,7 +10373,7 @@
       <c r="A149" s="5">
         <v>306031</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C149" s="5">
@@ -10386,7 +10430,7 @@
       <c r="A150" s="5">
         <v>306032</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C150" s="5">
@@ -10443,7 +10487,7 @@
       <c r="A151" s="5">
         <v>306033</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C151" s="5">
@@ -10500,7 +10544,7 @@
       <c r="A152" s="5">
         <v>306034</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="15" t="s">
         <v>245</v>
       </c>
       <c r="C152" s="5">
@@ -10557,7 +10601,7 @@
       <c r="A153" s="5">
         <v>306035</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="15" t="s">
         <v>246</v>
       </c>
       <c r="C153" s="5">
@@ -10614,7 +10658,7 @@
       <c r="A154" s="5">
         <v>306036</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C154" s="5">
@@ -12038,7 +12082,7 @@
       <c r="A179" s="5">
         <v>307025</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="5">
@@ -12095,7 +12139,7 @@
       <c r="A180" s="5">
         <v>307026</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="15" t="s">
         <v>185</v>
       </c>
       <c r="C180" s="5">
@@ -12323,7 +12367,7 @@
       <c r="A184" s="5">
         <v>307030</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="14" t="s">
         <v>236</v>
       </c>
       <c r="C184" s="5">
@@ -12380,7 +12424,7 @@
       <c r="A185" s="5">
         <v>307031</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C185" s="5">
@@ -12437,7 +12481,7 @@
       <c r="A186" s="5">
         <v>307032</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C186" s="5">
@@ -12494,7 +12538,7 @@
       <c r="A187" s="5">
         <v>307033</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="15" t="s">
         <v>242</v>
       </c>
       <c r="C187" s="5">
@@ -12551,7 +12595,7 @@
       <c r="A188" s="5">
         <v>307034</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C188" s="5">
@@ -12608,7 +12652,7 @@
       <c r="A189" s="5">
         <v>307035</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C189" s="5">
@@ -16043,10 +16087,10 @@
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16066,20 +16110,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -20744,10 +20788,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -20764,20 +20808,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -20858,13 +20902,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G5" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H5" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -20885,19 +20929,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>110</v>
-      </c>
-      <c r="G6" s="4">
-        <v>120</v>
-      </c>
-      <c r="H6" s="4">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -20918,13 +20953,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H7" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -20948,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -20969,13 +21004,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G9" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -20999,13 +21034,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G10" s="4">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H10" s="4">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -21092,13 +21127,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G14" s="4">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H14" s="4">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -21143,13 +21178,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G16" s="4">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H16" s="4">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -21245,13 +21280,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -21413,16 +21448,16 @@
         <v>3</v>
       </c>
       <c r="E26" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G26" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H26" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -21446,13 +21481,13 @@
         <v>3</v>
       </c>
       <c r="F27" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G27" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H27" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -21476,13 +21511,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G28" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -21506,13 +21541,13 @@
         <v>4</v>
       </c>
       <c r="F29" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H29" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -21536,13 +21571,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G30" s="4">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H30" s="4">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -21722,13 +21757,13 @@
         <v>5</v>
       </c>
       <c r="F37" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G37" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H37" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -21740,17 +21775,17 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A5:C37 F5:L37">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$L5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E37">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$L5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:I31 D2:J4 E33:I37 D5:D37 D38:J65466"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:J65466 D2:J4 E26:I31 D5:D37 E33:I37"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1534,6 +1534,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1560,7 +1574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,42 +1626,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1999,14 +1989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -2025,7 +2015,7 @@
     <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="100.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>364</v>
       </c>
@@ -2047,7 +2037,7 @@
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2093,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="5">
         <v>301001</v>
       </c>
@@ -2160,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="5">
         <v>301002</v>
       </c>
@@ -2217,7 +2207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="5">
         <v>301003</v>
       </c>
@@ -2275,7 +2265,7 @@
       </c>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="5">
         <v>301004</v>
       </c>
@@ -2332,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="5">
         <v>301005</v>
       </c>
@@ -2389,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="5">
         <v>301006</v>
       </c>
@@ -2446,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="5">
         <v>301007</v>
       </c>
@@ -2503,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="5">
         <v>301008</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="5">
         <v>301009</v>
       </c>
@@ -2617,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="5">
         <v>301010</v>
       </c>
@@ -2674,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="5">
         <v>301011</v>
       </c>
@@ -2731,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="5">
         <v>301012</v>
       </c>
@@ -2788,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="5">
         <v>301013</v>
       </c>
@@ -2845,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="5">
         <v>301014</v>
       </c>
@@ -2902,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" s="5">
         <v>301015</v>
       </c>
@@ -2959,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="5">
         <v>301016</v>
       </c>
@@ -3016,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20" s="5">
         <v>301017</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" s="5">
         <v>301018</v>
       </c>
@@ -3130,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18">
       <c r="A22" s="5">
         <v>301019</v>
       </c>
@@ -3187,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18">
       <c r="A23" s="5">
         <v>301020</v>
       </c>
@@ -3244,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18">
       <c r="A24" s="5">
         <v>301021</v>
       </c>
@@ -3301,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18">
       <c r="A25" s="5">
         <v>301022</v>
       </c>
@@ -3358,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18">
       <c r="A26" s="5">
         <v>301023</v>
       </c>
@@ -3415,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18">
       <c r="A27" s="5">
         <v>301024</v>
       </c>
@@ -3472,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18">
       <c r="A28" s="5">
         <v>301025</v>
       </c>
@@ -3529,7 +3519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18">
       <c r="A29" s="5">
         <v>301026</v>
       </c>
@@ -3586,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18">
       <c r="A30" s="5">
         <v>301027</v>
       </c>
@@ -3643,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18">
       <c r="A31" s="5">
         <v>301028</v>
       </c>
@@ -3700,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18">
       <c r="A32" s="5">
         <v>301029</v>
       </c>
@@ -3757,7 +3747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18">
       <c r="A33" s="5">
         <v>301030</v>
       </c>
@@ -3814,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18">
       <c r="A34" s="5">
         <v>301031</v>
       </c>
@@ -3871,7 +3861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18">
       <c r="A35" s="5">
         <v>301032</v>
       </c>
@@ -3928,11 +3918,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18">
       <c r="A36" s="5">
         <v>301033</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="5">
@@ -3985,11 +3975,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18">
       <c r="A37" s="5">
         <v>301034</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>210</v>
       </c>
       <c r="C37" s="5">
@@ -4042,11 +4032,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18">
       <c r="A38" s="5">
         <v>301035</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="5">
@@ -4099,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18">
       <c r="A39" s="5">
         <v>301036</v>
       </c>
@@ -4156,7 +4146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18">
       <c r="A40" s="5">
         <v>301037</v>
       </c>
@@ -4213,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18">
       <c r="A41" s="5">
         <v>301038</v>
       </c>
@@ -4270,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18">
       <c r="A42" s="5">
         <v>301039</v>
       </c>
@@ -4327,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18">
       <c r="A43" s="5">
         <v>302001</v>
       </c>
@@ -4384,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18">
       <c r="A44" s="5">
         <v>302002</v>
       </c>
@@ -4441,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18">
       <c r="A45" s="5">
         <v>302003</v>
       </c>
@@ -4498,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18">
       <c r="A46" s="5">
         <v>302004</v>
       </c>
@@ -4555,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18">
       <c r="A47" s="5">
         <v>302005</v>
       </c>
@@ -4612,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18">
       <c r="A48" s="5">
         <v>302006</v>
       </c>
@@ -4669,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18">
       <c r="A49" s="5">
         <v>302007</v>
       </c>
@@ -4726,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18">
       <c r="A50" s="5">
         <v>302008</v>
       </c>
@@ -4783,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18">
       <c r="A51" s="5">
         <v>302009</v>
       </c>
@@ -4840,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18">
       <c r="A52" s="5">
         <v>302010</v>
       </c>
@@ -4897,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18">
       <c r="A53" s="5">
         <v>302011</v>
       </c>
@@ -4954,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18">
       <c r="A54" s="5">
         <v>302012</v>
       </c>
@@ -5011,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18">
       <c r="A55" s="5">
         <v>302013</v>
       </c>
@@ -5068,7 +5058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18">
       <c r="A56" s="5">
         <v>302014</v>
       </c>
@@ -5125,7 +5115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18">
       <c r="A57" s="5">
         <v>302015</v>
       </c>
@@ -5182,7 +5172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18">
       <c r="A58" s="5">
         <v>302016</v>
       </c>
@@ -5239,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18">
       <c r="A59" s="5">
         <v>303001</v>
       </c>
@@ -5296,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18">
       <c r="A60" s="5">
         <v>303002</v>
       </c>
@@ -5353,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:18">
       <c r="A61" s="5">
         <v>303003</v>
       </c>
@@ -5410,7 +5400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:18">
       <c r="A62" s="5">
         <v>303004</v>
       </c>
@@ -5467,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:18">
       <c r="A63" s="5">
         <v>303005</v>
       </c>
@@ -5524,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:18">
       <c r="A64" s="5">
         <v>303006</v>
       </c>
@@ -5581,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:18">
       <c r="A65" s="5">
         <v>303007</v>
       </c>
@@ -5638,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:18">
       <c r="A66" s="5">
         <v>303008</v>
       </c>
@@ -5695,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:18">
       <c r="A67" s="5">
         <v>303009</v>
       </c>
@@ -5752,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:18">
       <c r="A68" s="5">
         <v>303010</v>
       </c>
@@ -5809,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:18">
       <c r="A69" s="5">
         <v>303011</v>
       </c>
@@ -5866,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:18">
       <c r="A70" s="5">
         <v>303012</v>
       </c>
@@ -5923,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:18">
       <c r="A71" s="5">
         <v>303013</v>
       </c>
@@ -5980,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:18">
       <c r="A72" s="5">
         <v>303014</v>
       </c>
@@ -6037,7 +6027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:18">
       <c r="A73" s="5">
         <v>303015</v>
       </c>
@@ -6094,7 +6084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:18">
       <c r="A74" s="5">
         <v>303016</v>
       </c>
@@ -6151,7 +6141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:18">
       <c r="A75" s="5">
         <v>304001</v>
       </c>
@@ -6208,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:18">
       <c r="A76" s="5">
         <v>304002</v>
       </c>
@@ -6265,7 +6255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:18">
       <c r="A77" s="5">
         <v>304003</v>
       </c>
@@ -6322,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:18">
       <c r="A78" s="5">
         <v>304004</v>
       </c>
@@ -6379,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:18">
       <c r="A79" s="5">
         <v>304005</v>
       </c>
@@ -6436,7 +6426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:18">
       <c r="A80" s="5">
         <v>304006</v>
       </c>
@@ -6493,7 +6483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:18">
       <c r="A81" s="5">
         <v>304007</v>
       </c>
@@ -6550,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:18">
       <c r="A82" s="5">
         <v>304008</v>
       </c>
@@ -6607,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:18">
       <c r="A83" s="5">
         <v>304009</v>
       </c>
@@ -6664,7 +6654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:18">
       <c r="A84" s="5">
         <v>304010</v>
       </c>
@@ -6721,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:18">
       <c r="A85" s="5">
         <v>305001</v>
       </c>
@@ -6778,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18">
       <c r="A86" s="5">
         <v>305002</v>
       </c>
@@ -6835,7 +6825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18">
       <c r="A87" s="5">
         <v>305003</v>
       </c>
@@ -6892,7 +6882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18">
       <c r="A88" s="5">
         <v>305004</v>
       </c>
@@ -6949,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18">
       <c r="A89" s="5">
         <v>305005</v>
       </c>
@@ -7006,7 +6996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18">
       <c r="A90" s="5">
         <v>305006</v>
       </c>
@@ -7063,7 +7053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18">
       <c r="A91" s="5">
         <v>305007</v>
       </c>
@@ -7120,7 +7110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:18">
       <c r="A92" s="5">
         <v>305008</v>
       </c>
@@ -7177,7 +7167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:18">
       <c r="A93" s="5">
         <v>305009</v>
       </c>
@@ -7234,7 +7224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:18">
       <c r="A94" s="5">
         <v>305010</v>
       </c>
@@ -7291,7 +7281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:18">
       <c r="A95" s="5">
         <v>305011</v>
       </c>
@@ -7348,7 +7338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:18">
       <c r="A96" s="5">
         <v>305012</v>
       </c>
@@ -7405,7 +7395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:18">
       <c r="A97" s="5">
         <v>305013</v>
       </c>
@@ -7462,7 +7452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:18">
       <c r="A98" s="5">
         <v>305014</v>
       </c>
@@ -7519,7 +7509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:18">
       <c r="A99" s="5">
         <v>305015</v>
       </c>
@@ -7576,7 +7566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:18">
       <c r="A100" s="5">
         <v>305016</v>
       </c>
@@ -7633,7 +7623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:18">
       <c r="A101" s="5">
         <v>305017</v>
       </c>
@@ -7690,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:18">
       <c r="A102" s="5">
         <v>305018</v>
       </c>
@@ -7747,7 +7737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:18">
       <c r="A103" s="5">
         <v>305019</v>
       </c>
@@ -7804,7 +7794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:18">
       <c r="A104" s="5">
         <v>305020</v>
       </c>
@@ -7861,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:18">
       <c r="A105" s="5">
         <v>305021</v>
       </c>
@@ -7918,7 +7908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:18">
       <c r="A106" s="5">
         <v>305022</v>
       </c>
@@ -7975,7 +7965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18">
       <c r="A107" s="5">
         <v>305023</v>
       </c>
@@ -8032,7 +8022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:18">
       <c r="A108" s="5">
         <v>305024</v>
       </c>
@@ -8089,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18">
       <c r="A109" s="5">
         <v>305025</v>
       </c>
@@ -8146,7 +8136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:18">
       <c r="A110" s="5">
         <v>305026</v>
       </c>
@@ -8203,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:18">
       <c r="A111" s="5">
         <v>305027</v>
       </c>
@@ -8260,7 +8250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:18">
       <c r="A112" s="5">
         <v>305028</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:18">
       <c r="A113" s="5">
         <v>305029</v>
       </c>
@@ -8374,7 +8364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:18">
       <c r="A114" s="5">
         <v>305030</v>
       </c>
@@ -8431,7 +8421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:18">
       <c r="A115" s="5">
         <v>305031</v>
       </c>
@@ -8488,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:18">
       <c r="A116" s="5">
         <v>305032</v>
       </c>
@@ -8545,7 +8535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:18">
       <c r="A117" s="5">
         <v>305033</v>
       </c>
@@ -8602,7 +8592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:18">
       <c r="A118" s="5">
         <v>305034</v>
       </c>
@@ -8659,7 +8649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:18">
       <c r="A119" s="5">
         <v>306001</v>
       </c>
@@ -8716,7 +8706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:18">
       <c r="A120" s="5">
         <v>306002</v>
       </c>
@@ -8773,7 +8763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:18">
       <c r="A121" s="5">
         <v>306003</v>
       </c>
@@ -8830,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:18">
       <c r="A122" s="5">
         <v>306004</v>
       </c>
@@ -8887,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:18">
       <c r="A123" s="5">
         <v>306005</v>
       </c>
@@ -8944,7 +8934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:18">
       <c r="A124" s="5">
         <v>306006</v>
       </c>
@@ -9001,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:18">
       <c r="A125" s="5">
         <v>306007</v>
       </c>
@@ -9058,7 +9048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:18">
       <c r="A126" s="5">
         <v>306008</v>
       </c>
@@ -9115,7 +9105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:18">
       <c r="A127" s="5">
         <v>306009</v>
       </c>
@@ -9172,7 +9162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:18">
       <c r="A128" s="5">
         <v>306010</v>
       </c>
@@ -9229,7 +9219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:18">
       <c r="A129" s="5">
         <v>306011</v>
       </c>
@@ -9286,7 +9276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:18">
       <c r="A130" s="5">
         <v>306012</v>
       </c>
@@ -9343,7 +9333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:18">
       <c r="A131" s="5">
         <v>306013</v>
       </c>
@@ -9400,7 +9390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:18">
       <c r="A132" s="5">
         <v>306014</v>
       </c>
@@ -9457,7 +9447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:18">
       <c r="A133" s="5">
         <v>306015</v>
       </c>
@@ -9514,7 +9504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:18">
       <c r="A134" s="5">
         <v>306016</v>
       </c>
@@ -9571,7 +9561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:18">
       <c r="A135" s="5">
         <v>306017</v>
       </c>
@@ -9628,7 +9618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:18">
       <c r="A136" s="5">
         <v>306018</v>
       </c>
@@ -9685,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:18">
       <c r="A137" s="5">
         <v>306019</v>
       </c>
@@ -9742,7 +9732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:18">
       <c r="A138" s="5">
         <v>306020</v>
       </c>
@@ -9799,7 +9789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:18">
       <c r="A139" s="5">
         <v>306021</v>
       </c>
@@ -9856,7 +9846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:18">
       <c r="A140" s="5">
         <v>306022</v>
       </c>
@@ -9913,7 +9903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:18">
       <c r="A141" s="5">
         <v>306023</v>
       </c>
@@ -9970,7 +9960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:18">
       <c r="A142" s="5">
         <v>306024</v>
       </c>
@@ -10027,7 +10017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:18">
       <c r="A143" s="5">
         <v>306025</v>
       </c>
@@ -10084,7 +10074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:18">
       <c r="A144" s="5">
         <v>306026</v>
       </c>
@@ -10141,7 +10131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:18">
       <c r="A145" s="5">
         <v>306027</v>
       </c>
@@ -10198,7 +10188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:18">
       <c r="A146" s="5">
         <v>306028</v>
       </c>
@@ -10255,7 +10245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:18">
       <c r="A147" s="5">
         <v>306029</v>
       </c>
@@ -10312,7 +10302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:18">
       <c r="A148" s="5">
         <v>306030</v>
       </c>
@@ -10369,7 +10359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:18">
       <c r="A149" s="5">
         <v>306031</v>
       </c>
@@ -10426,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:18">
       <c r="A150" s="5">
         <v>306032</v>
       </c>
@@ -10483,7 +10473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:18">
       <c r="A151" s="5">
         <v>306033</v>
       </c>
@@ -10540,7 +10530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:18">
       <c r="A152" s="5">
         <v>306034</v>
       </c>
@@ -10597,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:18">
       <c r="A153" s="5">
         <v>306035</v>
       </c>
@@ -10654,7 +10644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:18">
       <c r="A154" s="5">
         <v>306036</v>
       </c>
@@ -10711,7 +10701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:18">
       <c r="A155" s="5">
         <v>307001</v>
       </c>
@@ -10768,7 +10758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:18">
       <c r="A156" s="5">
         <v>307002</v>
       </c>
@@ -10825,7 +10815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:18">
       <c r="A157" s="5">
         <v>307003</v>
       </c>
@@ -10882,7 +10872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:18">
       <c r="A158" s="5">
         <v>307004</v>
       </c>
@@ -10939,7 +10929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:18">
       <c r="A159" s="5">
         <v>307005</v>
       </c>
@@ -10996,7 +10986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:18">
       <c r="A160" s="5">
         <v>307006</v>
       </c>
@@ -11053,7 +11043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:18">
       <c r="A161" s="5">
         <v>307007</v>
       </c>
@@ -11110,7 +11100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:18">
       <c r="A162" s="5">
         <v>307008</v>
       </c>
@@ -11167,7 +11157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:18">
       <c r="A163" s="5">
         <v>307009</v>
       </c>
@@ -11224,7 +11214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:18">
       <c r="A164" s="5">
         <v>307010</v>
       </c>
@@ -11281,7 +11271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:18">
       <c r="A165" s="5">
         <v>307011</v>
       </c>
@@ -11338,7 +11328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:18">
       <c r="A166" s="5">
         <v>307012</v>
       </c>
@@ -11395,7 +11385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:18">
       <c r="A167" s="5">
         <v>307013</v>
       </c>
@@ -11452,7 +11442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:18">
       <c r="A168" s="5">
         <v>307014</v>
       </c>
@@ -11509,7 +11499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:18">
       <c r="A169" s="5">
         <v>307015</v>
       </c>
@@ -11566,7 +11556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:18">
       <c r="A170" s="5">
         <v>307016</v>
       </c>
@@ -11623,7 +11613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:18">
       <c r="A171" s="5">
         <v>307017</v>
       </c>
@@ -11680,7 +11670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:18">
       <c r="A172" s="5">
         <v>307018</v>
       </c>
@@ -11737,7 +11727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:18">
       <c r="A173" s="5">
         <v>307019</v>
       </c>
@@ -11794,7 +11784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:18">
       <c r="A174" s="5">
         <v>307020</v>
       </c>
@@ -11851,7 +11841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:18">
       <c r="A175" s="5">
         <v>307021</v>
       </c>
@@ -11908,7 +11898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:18">
       <c r="A176" s="5">
         <v>307022</v>
       </c>
@@ -11965,7 +11955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:18">
       <c r="A177" s="5">
         <v>307023</v>
       </c>
@@ -12022,7 +12012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:18">
       <c r="A178" s="5">
         <v>307024</v>
       </c>
@@ -12078,7 +12068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:18">
       <c r="A179" s="5">
         <v>307025</v>
       </c>
@@ -12135,7 +12125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:18">
       <c r="A180" s="5">
         <v>307026</v>
       </c>
@@ -12192,7 +12182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:18">
       <c r="A181" s="5">
         <v>307027</v>
       </c>
@@ -12249,7 +12239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:18">
       <c r="A182" s="5">
         <v>307028</v>
       </c>
@@ -12306,7 +12296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:18">
       <c r="A183" s="5">
         <v>307029</v>
       </c>
@@ -12363,7 +12353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:18">
       <c r="A184" s="5">
         <v>307030</v>
       </c>
@@ -12420,7 +12410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:18">
       <c r="A185" s="5">
         <v>307031</v>
       </c>
@@ -12477,7 +12467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:18">
       <c r="A186" s="5">
         <v>307032</v>
       </c>
@@ -12534,7 +12524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:18">
       <c r="A187" s="5">
         <v>307033</v>
       </c>
@@ -12591,7 +12581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:18">
       <c r="A188" s="5">
         <v>307034</v>
       </c>
@@ -12648,7 +12638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:18">
       <c r="A189" s="5">
         <v>307035</v>
       </c>
@@ -12705,7 +12695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:18">
       <c r="A190" s="5">
         <v>308001</v>
       </c>
@@ -12762,7 +12752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:18">
       <c r="A191" s="5">
         <v>308002</v>
       </c>
@@ -12819,7 +12809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:18">
       <c r="A192" s="5">
         <v>308003</v>
       </c>
@@ -12876,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:18">
       <c r="A193" s="5">
         <v>308004</v>
       </c>
@@ -12933,7 +12923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:18">
       <c r="A194" s="5">
         <v>308005</v>
       </c>
@@ -12990,7 +12980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:18">
       <c r="A195" s="5">
         <v>308006</v>
       </c>
@@ -13047,7 +13037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:18">
       <c r="A196" s="5">
         <v>308007</v>
       </c>
@@ -13104,7 +13094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:18">
       <c r="A197" s="5">
         <v>308008</v>
       </c>
@@ -13161,7 +13151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:18">
       <c r="A198" s="5">
         <v>308009</v>
       </c>
@@ -13218,7 +13208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:18">
       <c r="A199" s="5">
         <v>308010</v>
       </c>
@@ -13275,7 +13265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:18">
       <c r="A200" s="5">
         <v>308011</v>
       </c>
@@ -13332,7 +13322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:18">
       <c r="A201" s="5">
         <v>308012</v>
       </c>
@@ -13389,7 +13379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:18">
       <c r="A202" s="5">
         <v>308013</v>
       </c>
@@ -13446,7 +13436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:18">
       <c r="A203" s="5">
         <v>308014</v>
       </c>
@@ -13503,7 +13493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:18">
       <c r="A204" s="5">
         <v>308015</v>
       </c>
@@ -13560,7 +13550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:18">
       <c r="A205" s="5">
         <v>308016</v>
       </c>
@@ -13617,7 +13607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:18">
       <c r="A206" s="5">
         <v>308017</v>
       </c>
@@ -13674,7 +13664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:18">
       <c r="A207" s="5">
         <v>308018</v>
       </c>
@@ -13731,7 +13721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:18">
       <c r="A208" s="5">
         <v>308019</v>
       </c>
@@ -13788,7 +13778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:18">
       <c r="A209" s="5">
         <v>308020</v>
       </c>
@@ -13845,7 +13835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:18">
       <c r="A210" s="5">
         <v>308021</v>
       </c>
@@ -13902,7 +13892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:18">
       <c r="A211" s="5">
         <v>308022</v>
       </c>
@@ -13959,7 +13949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:18">
       <c r="A212" s="5">
         <v>308023</v>
       </c>
@@ -14016,7 +14006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:18">
       <c r="A213" s="5">
         <v>308024</v>
       </c>
@@ -14073,7 +14063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:18">
       <c r="A214" s="5">
         <v>308025</v>
       </c>
@@ -14130,7 +14120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:18">
       <c r="A215" s="5">
         <v>309001</v>
       </c>
@@ -14187,7 +14177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:18">
       <c r="A216" s="5">
         <v>309002</v>
       </c>
@@ -14244,7 +14234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:18">
       <c r="A217" s="5">
         <v>309003</v>
       </c>
@@ -14301,7 +14291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:18">
       <c r="A218" s="5">
         <v>309004</v>
       </c>
@@ -14358,7 +14348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:18">
       <c r="A219" s="5">
         <v>309005</v>
       </c>
@@ -14415,7 +14405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:18">
       <c r="A220" s="5">
         <v>309006</v>
       </c>
@@ -14472,7 +14462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:18">
       <c r="A221" s="5">
         <v>309007</v>
       </c>
@@ -14529,7 +14519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:18">
       <c r="A222" s="5">
         <v>310001</v>
       </c>
@@ -14586,7 +14576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:18">
       <c r="A223" s="5">
         <v>310002</v>
       </c>
@@ -14643,7 +14633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:18">
       <c r="A224" s="5">
         <v>310003</v>
       </c>
@@ -14700,7 +14690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:18">
       <c r="A225" s="5">
         <v>310004</v>
       </c>
@@ -14757,7 +14747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:18">
       <c r="A226" s="5">
         <v>310005</v>
       </c>
@@ -14814,7 +14804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:18">
       <c r="A227" s="5">
         <v>310006</v>
       </c>
@@ -14871,7 +14861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:18">
       <c r="A228" s="5">
         <v>310007</v>
       </c>
@@ -14928,7 +14918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:18">
       <c r="A229" s="5">
         <v>311001</v>
       </c>
@@ -14985,7 +14975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:18">
       <c r="A230" s="5">
         <v>311002</v>
       </c>
@@ -15042,7 +15032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:18">
       <c r="A231" s="5">
         <v>311003</v>
       </c>
@@ -15099,7 +15089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:18">
       <c r="A232" s="5">
         <v>311004</v>
       </c>
@@ -15156,7 +15146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:18">
       <c r="A233" s="5">
         <v>311005</v>
       </c>
@@ -15213,7 +15203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:18">
       <c r="A234" s="5">
         <v>311006</v>
       </c>
@@ -15270,7 +15260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:18">
       <c r="A235" s="5">
         <v>311007</v>
       </c>
@@ -15327,7 +15317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:18">
       <c r="A236" s="5">
         <v>311008</v>
       </c>
@@ -15384,7 +15374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:18">
       <c r="A237" s="5">
         <v>311009</v>
       </c>
@@ -15441,7 +15431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:18">
       <c r="A238" s="5">
         <v>311010</v>
       </c>
@@ -15498,7 +15488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:18">
       <c r="A239" s="5">
         <v>311011</v>
       </c>
@@ -15555,7 +15545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:18">
       <c r="A240" s="5">
         <v>311012</v>
       </c>
@@ -15612,7 +15602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:18">
       <c r="A241" s="5">
         <v>311013</v>
       </c>
@@ -15669,7 +15659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:18">
       <c r="A242" s="5">
         <v>311014</v>
       </c>
@@ -15726,7 +15716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:18">
       <c r="A243" s="5">
         <v>311015</v>
       </c>
@@ -15783,7 +15773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:18">
       <c r="A244" s="5">
         <v>311016</v>
       </c>
@@ -15840,7 +15830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:18">
       <c r="A245" s="5">
         <v>311017</v>
       </c>
@@ -15897,7 +15887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:18">
       <c r="A246" s="5">
         <v>311018</v>
       </c>
@@ -15954,7 +15944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:18">
       <c r="A247" s="5">
         <v>311019</v>
       </c>
@@ -16011,7 +16001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:18">
       <c r="A248" s="5">
         <v>311020</v>
       </c>
@@ -16093,7 +16083,7 @@
       <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -16109,7 +16099,7 @@
     <col min="12" max="12" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>417</v>
       </c>
@@ -16125,7 +16115,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -16163,7 +16153,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>201001</v>
       </c>
@@ -16203,7 +16193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>201002</v>
       </c>
@@ -16243,7 +16233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>201003</v>
       </c>
@@ -16283,7 +16273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>201004</v>
       </c>
@@ -16323,7 +16313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>201005</v>
       </c>
@@ -16363,7 +16353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>201006</v>
       </c>
@@ -16403,7 +16393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>201007</v>
       </c>
@@ -16443,7 +16433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>201008</v>
       </c>
@@ -16482,7 +16472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>201009</v>
       </c>
@@ -16521,7 +16511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>201010</v>
       </c>
@@ -16560,7 +16550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>201011</v>
       </c>
@@ -16600,7 +16590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>201012</v>
       </c>
@@ -16640,7 +16630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>201013</v>
       </c>
@@ -16680,7 +16670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>201014</v>
       </c>
@@ -16720,7 +16710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>201015</v>
       </c>
@@ -16760,7 +16750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>201016</v>
       </c>
@@ -16800,7 +16790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>201017</v>
       </c>
@@ -16840,7 +16830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>201018</v>
       </c>
@@ -16879,7 +16869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>201019</v>
       </c>
@@ -16918,7 +16908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>201020</v>
       </c>
@@ -16957,7 +16947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>202001</v>
       </c>
@@ -16997,7 +16987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>202002</v>
       </c>
@@ -17037,7 +17027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>202003</v>
       </c>
@@ -17077,7 +17067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>202004</v>
       </c>
@@ -17117,7 +17107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>202005</v>
       </c>
@@ -17157,7 +17147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>202006</v>
       </c>
@@ -17197,7 +17187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>202007</v>
       </c>
@@ -17237,7 +17227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>202008</v>
       </c>
@@ -17277,7 +17267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>202009</v>
       </c>
@@ -17317,7 +17307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>202010</v>
       </c>
@@ -17357,7 +17347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>202011</v>
       </c>
@@ -17397,7 +17387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>202012</v>
       </c>
@@ -17437,7 +17427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>202013</v>
       </c>
@@ -17477,7 +17467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>202014</v>
       </c>
@@ -17517,7 +17507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>202015</v>
       </c>
@@ -17557,7 +17547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>202016</v>
       </c>
@@ -17597,7 +17587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>202017</v>
       </c>
@@ -17637,7 +17627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>202018</v>
       </c>
@@ -17677,7 +17667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>203001</v>
       </c>
@@ -17717,7 +17707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>203002</v>
       </c>
@@ -17757,7 +17747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>203003</v>
       </c>
@@ -17797,7 +17787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>203004</v>
       </c>
@@ -17837,7 +17827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>203005</v>
       </c>
@@ -17877,7 +17867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>203006</v>
       </c>
@@ -17917,7 +17907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>203007</v>
       </c>
@@ -17957,7 +17947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>203008</v>
       </c>
@@ -17997,7 +17987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>203009</v>
       </c>
@@ -18037,7 +18027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>203010</v>
       </c>
@@ -18077,7 +18067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>203011</v>
       </c>
@@ -18116,7 +18106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>203012</v>
       </c>
@@ -18156,7 +18146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>203013</v>
       </c>
@@ -18196,7 +18186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>203014</v>
       </c>
@@ -18236,7 +18226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>203015</v>
       </c>
@@ -18276,7 +18266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>203016</v>
       </c>
@@ -18316,7 +18306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>203017</v>
       </c>
@@ -18356,7 +18346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>203018</v>
       </c>
@@ -18396,7 +18386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>203019</v>
       </c>
@@ -18436,7 +18426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>203020</v>
       </c>
@@ -18476,7 +18466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>203021</v>
       </c>
@@ -18516,7 +18506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>203022</v>
       </c>
@@ -18556,7 +18546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>203023</v>
       </c>
@@ -18596,7 +18586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>203024</v>
       </c>
@@ -18636,7 +18626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>203025</v>
       </c>
@@ -18676,7 +18666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>203026</v>
       </c>
@@ -18716,7 +18706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>203027</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>203028</v>
       </c>
@@ -18796,7 +18786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>203029</v>
       </c>
@@ -18836,7 +18826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>203030</v>
       </c>
@@ -18876,7 +18866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>203031</v>
       </c>
@@ -18916,7 +18906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>203032</v>
       </c>
@@ -18956,7 +18946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>203033</v>
       </c>
@@ -18996,7 +18986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>203034</v>
       </c>
@@ -19036,7 +19026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>203035</v>
       </c>
@@ -19075,7 +19065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>203036</v>
       </c>
@@ -19114,7 +19104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>203037</v>
       </c>
@@ -19153,7 +19143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>203038</v>
       </c>
@@ -19192,7 +19182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>203039</v>
       </c>
@@ -19231,7 +19221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>203040</v>
       </c>
@@ -19270,7 +19260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>220001</v>
       </c>
@@ -19310,7 +19300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>220002</v>
       </c>
@@ -19350,7 +19340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>220003</v>
       </c>
@@ -19390,7 +19380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>220004</v>
       </c>
@@ -19430,7 +19420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>220005</v>
       </c>
@@ -19470,7 +19460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>220006</v>
       </c>
@@ -19510,7 +19500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>220007</v>
       </c>
@@ -19550,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>220008</v>
       </c>
@@ -19590,7 +19580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>220009</v>
       </c>
@@ -19630,7 +19620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>220010</v>
       </c>
@@ -19670,7 +19660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>220011</v>
       </c>
@@ -19710,7 +19700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>220012</v>
       </c>
@@ -19750,7 +19740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>220013</v>
       </c>
@@ -19790,7 +19780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>220014</v>
       </c>
@@ -19830,7 +19820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>220015</v>
       </c>
@@ -19870,7 +19860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>220016</v>
       </c>
@@ -19910,7 +19900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>220017</v>
       </c>
@@ -19950,7 +19940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>220018</v>
       </c>
@@ -19990,7 +19980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>220019</v>
       </c>
@@ -20030,7 +20020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>220020</v>
       </c>
@@ -20070,7 +20060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>220021</v>
       </c>
@@ -20110,7 +20100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>220022</v>
       </c>
@@ -20150,7 +20140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>220023</v>
       </c>
@@ -20190,7 +20180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>220024</v>
       </c>
@@ -20230,7 +20220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>220025</v>
       </c>
@@ -20270,7 +20260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>220026</v>
       </c>
@@ -20310,7 +20300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>220027</v>
       </c>
@@ -20350,7 +20340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>220028</v>
       </c>
@@ -20390,7 +20380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>220029</v>
       </c>
@@ -20430,7 +20420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>220030</v>
       </c>
@@ -20470,7 +20460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>220031</v>
       </c>
@@ -20510,7 +20500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>220032</v>
       </c>
@@ -20550,7 +20540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>220033</v>
       </c>
@@ -20624,13 +20614,13 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -20638,7 +20628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -20646,7 +20636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -20654,7 +20644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -20662,7 +20652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -20670,7 +20660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -20678,7 +20668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -20686,7 +20676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -20694,7 +20684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -20702,7 +20692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -20710,7 +20700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -20718,7 +20708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -20726,7 +20716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -20734,7 +20724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1101</v>
       </c>
@@ -20742,7 +20732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>5000</v>
       </c>
@@ -20750,7 +20740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>5001</v>
       </c>
@@ -20758,7 +20748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>5002</v>
       </c>
@@ -20766,7 +20756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>5100</v>
       </c>
@@ -20787,14 +20777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
@@ -20807,7 +20797,7 @@
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="77.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>401</v>
       </c>
@@ -20823,7 +20813,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -20861,7 +20851,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="4" customFormat="1">
       <c r="A4" s="9">
         <v>220000</v>
       </c>
@@ -20884,7 +20874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>220001</v>
       </c>
@@ -20914,7 +20904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>220002</v>
       </c>
@@ -20935,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>220003</v>
       </c>
@@ -20965,7 +20955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>220004</v>
       </c>
@@ -20986,7 +20976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>220005</v>
       </c>
@@ -21016,7 +21006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>220006</v>
       </c>
@@ -21046,7 +21036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>220007</v>
       </c>
@@ -21067,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>220008</v>
       </c>
@@ -21088,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>220009</v>
       </c>
@@ -21109,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>220010</v>
       </c>
@@ -21139,7 +21129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>220011</v>
       </c>
@@ -21160,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>220012</v>
       </c>
@@ -21190,7 +21180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>220013</v>
       </c>
@@ -21226,7 +21216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>220014</v>
       </c>
@@ -21262,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>220015</v>
       </c>
@@ -21292,7 +21282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>220016</v>
       </c>
@@ -21313,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>220017</v>
       </c>
@@ -21349,7 +21339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>220018</v>
       </c>
@@ -21370,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>220019</v>
       </c>
@@ -21391,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>220020</v>
       </c>
@@ -21412,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>220021</v>
       </c>
@@ -21433,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>220022</v>
       </c>
@@ -21463,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>220023</v>
       </c>
@@ -21493,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>220024</v>
       </c>
@@ -21523,7 +21513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>220025</v>
       </c>
@@ -21553,7 +21543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>220026</v>
       </c>
@@ -21583,7 +21573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>220027</v>
       </c>
@@ -21604,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>220028</v>
       </c>
@@ -21625,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>220029</v>
       </c>
@@ -21646,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>220030</v>
       </c>
@@ -21682,7 +21672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>220031</v>
       </c>
@@ -21718,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>220032</v>
       </c>
@@ -21739,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>220033</v>
       </c>
@@ -21775,12 +21765,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A5:C37 F5:L37">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$L5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E37">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$L5=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21802,7 +21792,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -21817,7 +21807,7 @@
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>408</v>
       </c>
@@ -21855,7 +21845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21893,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21931,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21969,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22007,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -10,8 +10,6 @@
     <sheet name="装备" sheetId="1" r:id="rId1"/>
     <sheet name="道具" sheetId="2" r:id="rId2"/>
     <sheet name="道具作用说明表" sheetId="3" r:id="rId3"/>
-    <sheet name="技能" sheetId="4" r:id="rId4"/>
-    <sheet name="buff" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -45,45 +43,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Aspire</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Aspire:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-技能最大等级
-此值不可超过damage数量.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1361,74 +1322,6 @@
     <t>冰咆哮</t>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏实现</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：
-    1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
-    2、类别：20书籍
-    3、Sale:0不出售，1商店，2商城
-    4、由于是单机类挂机游戏，所以游戏技能需要变化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽灵盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神圣战甲术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤神兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>photo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1446,20 +1339,12 @@
   <si>
     <t>vocation</t>
   </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_lv</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1509,14 +1394,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1574,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1614,8 +1491,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1623,32 +1500,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2016,26 +1879,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="100.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
@@ -3922,7 +3785,7 @@
       <c r="A36" s="5">
         <v>301033</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="5">
@@ -3979,7 +3842,7 @@
       <c r="A37" s="5">
         <v>301034</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C37" s="5">
@@ -4036,7 +3899,7 @@
       <c r="A38" s="5">
         <v>301035</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>211</v>
       </c>
       <c r="C38" s="5">
@@ -4093,7 +3956,7 @@
       <c r="A39" s="5">
         <v>301036</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C39" s="5">
@@ -4150,7 +4013,7 @@
       <c r="A40" s="5">
         <v>301037</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="5">
@@ -4207,7 +4070,7 @@
       <c r="A41" s="5">
         <v>301038</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="5">
@@ -4264,7 +4127,7 @@
       <c r="A42" s="5">
         <v>301039</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>221</v>
       </c>
       <c r="C42" s="5">
@@ -4834,7 +4697,7 @@
       <c r="A52" s="5">
         <v>302010</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="5">
@@ -4891,7 +4754,7 @@
       <c r="A53" s="5">
         <v>302011</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>214</v>
       </c>
       <c r="C53" s="5">
@@ -4948,7 +4811,7 @@
       <c r="A54" s="5">
         <v>302012</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="5">
@@ -5005,7 +4868,7 @@
       <c r="A55" s="5">
         <v>302013</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C55" s="5">
@@ -5062,7 +4925,7 @@
       <c r="A56" s="5">
         <v>302014</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>224</v>
       </c>
       <c r="C56" s="5">
@@ -5119,7 +4982,7 @@
       <c r="A57" s="5">
         <v>302015</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C57" s="5">
@@ -5176,7 +5039,7 @@
       <c r="A58" s="5">
         <v>302016</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C58" s="5">
@@ -5746,7 +5609,7 @@
       <c r="A68" s="5">
         <v>303010</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C68" s="5">
@@ -5803,7 +5666,7 @@
       <c r="A69" s="5">
         <v>303011</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C69" s="5">
@@ -5860,7 +5723,7 @@
       <c r="A70" s="5">
         <v>303012</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C70" s="5">
@@ -5917,7 +5780,7 @@
       <c r="A71" s="5">
         <v>303013</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="5">
@@ -5974,7 +5837,7 @@
       <c r="A72" s="5">
         <v>303014</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C72" s="5">
@@ -6031,7 +5894,7 @@
       <c r="A73" s="5">
         <v>303015</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C73" s="5">
@@ -6088,7 +5951,7 @@
       <c r="A74" s="5">
         <v>303016</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C74" s="5">
@@ -7684,7 +7547,7 @@
       <c r="A102" s="5">
         <v>305018</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>184</v>
       </c>
       <c r="C102" s="5">
@@ -7741,7 +7604,7 @@
       <c r="A103" s="5">
         <v>305019</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="5">
@@ -9907,7 +9770,7 @@
       <c r="A141" s="5">
         <v>306023</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>183</v>
       </c>
       <c r="C141" s="5">
@@ -9964,7 +9827,7 @@
       <c r="A142" s="5">
         <v>306024</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="14" t="s">
         <v>186</v>
       </c>
       <c r="C142" s="5">
@@ -10363,7 +10226,7 @@
       <c r="A149" s="5">
         <v>306031</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C149" s="5">
@@ -10420,7 +10283,7 @@
       <c r="A150" s="5">
         <v>306032</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C150" s="5">
@@ -10477,7 +10340,7 @@
       <c r="A151" s="5">
         <v>306033</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C151" s="5">
@@ -10534,7 +10397,7 @@
       <c r="A152" s="5">
         <v>306034</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="14" t="s">
         <v>245</v>
       </c>
       <c r="C152" s="5">
@@ -10591,7 +10454,7 @@
       <c r="A153" s="5">
         <v>306035</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C153" s="5">
@@ -10648,7 +10511,7 @@
       <c r="A154" s="5">
         <v>306036</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C154" s="5">
@@ -12072,7 +11935,7 @@
       <c r="A179" s="5">
         <v>307025</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="13" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="5">
@@ -12129,7 +11992,7 @@
       <c r="A180" s="5">
         <v>307026</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="14" t="s">
         <v>185</v>
       </c>
       <c r="C180" s="5">
@@ -12357,7 +12220,7 @@
       <c r="A184" s="5">
         <v>307030</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="13" t="s">
         <v>236</v>
       </c>
       <c r="C184" s="5">
@@ -12414,7 +12277,7 @@
       <c r="A185" s="5">
         <v>307031</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C185" s="5">
@@ -12471,7 +12334,7 @@
       <c r="A186" s="5">
         <v>307032</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C186" s="5">
@@ -12528,7 +12391,7 @@
       <c r="A187" s="5">
         <v>307033</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="14" t="s">
         <v>242</v>
       </c>
       <c r="C187" s="5">
@@ -12585,7 +12448,7 @@
       <c r="A188" s="5">
         <v>307034</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C188" s="5">
@@ -12642,7 +12505,7 @@
       <c r="A189" s="5">
         <v>307035</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C189" s="5">
@@ -16100,20 +15963,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="A1" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
@@ -16123,10 +15986,10 @@
         <v>340</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>263</v>
@@ -20761,7 +20624,7 @@
         <v>5100</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -20771,1272 +20634,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="77.25" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1">
-      <c r="A4" s="9">
-        <v>220000</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="4">
-        <v>220000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>220001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5">
-        <f>A5</f>
-        <v>220001</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>120</v>
-      </c>
-      <c r="G5" s="4">
-        <v>140</v>
-      </c>
-      <c r="H5" s="4">
-        <v>160</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>220002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C37" si="0">A6</f>
-        <v>220002</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>220003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>220003</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>120</v>
-      </c>
-      <c r="G7" s="4">
-        <v>140</v>
-      </c>
-      <c r="H7" s="4">
-        <v>160</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>220004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8">
-        <f>C7</f>
-        <v>220003</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>220005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>220005</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>130</v>
-      </c>
-      <c r="G9" s="4">
-        <v>150</v>
-      </c>
-      <c r="H9" s="4">
-        <v>180</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>220006</v>
-      </c>
-      <c r="B10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>220006</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>140</v>
-      </c>
-      <c r="G10" s="4">
-        <v>160</v>
-      </c>
-      <c r="H10" s="4">
-        <v>190</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>220007</v>
-      </c>
-      <c r="B11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>220007</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>220008</v>
-      </c>
-      <c r="B12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>220008</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>220009</v>
-      </c>
-      <c r="B13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>220009</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>220010</v>
-      </c>
-      <c r="B14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>220010</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>150</v>
-      </c>
-      <c r="G14" s="4">
-        <v>180</v>
-      </c>
-      <c r="H14" s="4">
-        <v>220</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>220011</v>
-      </c>
-      <c r="B15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>220011</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>220012</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>220012</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>140</v>
-      </c>
-      <c r="G16" s="4">
-        <v>160</v>
-      </c>
-      <c r="H16" s="4">
-        <v>190</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>220013</v>
-      </c>
-      <c r="B17" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>220013</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>40</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>220014</v>
-      </c>
-      <c r="B18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>220014</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4">
-        <v>40</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>220015</v>
-      </c>
-      <c r="B19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>220015</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>80</v>
-      </c>
-      <c r="G19" s="4">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4">
-        <v>110</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>220016</v>
-      </c>
-      <c r="B20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>220016</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>220017</v>
-      </c>
-      <c r="B21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>220017</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>4</v>
-      </c>
-      <c r="J21" s="4">
-        <v>50</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>220018</v>
-      </c>
-      <c r="B22" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>220018</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>220019</v>
-      </c>
-      <c r="B23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>220019</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>220020</v>
-      </c>
-      <c r="B24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>220020</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>220021</v>
-      </c>
-      <c r="B25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>220021</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>220022</v>
-      </c>
-      <c r="B26" t="s">
-        <v>387</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>220022</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <v>70</v>
-      </c>
-      <c r="G26" s="4">
-        <v>80</v>
-      </c>
-      <c r="H26" s="4">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>220023</v>
-      </c>
-      <c r="B27" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>220023</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <v>70</v>
-      </c>
-      <c r="G27" s="4">
-        <v>80</v>
-      </c>
-      <c r="H27" s="4">
-        <v>100</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>220024</v>
-      </c>
-      <c r="B28" t="s">
-        <v>389</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>220024</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-      <c r="F28" s="4">
-        <v>70</v>
-      </c>
-      <c r="G28" s="4">
-        <v>80</v>
-      </c>
-      <c r="H28" s="4">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>220025</v>
-      </c>
-      <c r="B29" t="s">
-        <v>390</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>220025</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4">
-        <v>70</v>
-      </c>
-      <c r="G29" s="4">
-        <v>80</v>
-      </c>
-      <c r="H29" s="4">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>220026</v>
-      </c>
-      <c r="B30" t="s">
-        <v>391</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>220026</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>150</v>
-      </c>
-      <c r="G30" s="4">
-        <v>180</v>
-      </c>
-      <c r="H30" s="4">
-        <v>220</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>220027</v>
-      </c>
-      <c r="B31" t="s">
-        <v>392</v>
-      </c>
-      <c r="C31">
-        <f>C7</f>
-        <v>220003</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>220028</v>
-      </c>
-      <c r="B32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>220028</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>220029</v>
-      </c>
-      <c r="B33" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>220029</v>
-      </c>
-      <c r="D33" s="4">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>220030</v>
-      </c>
-      <c r="B34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>220030</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>50</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>220031</v>
-      </c>
-      <c r="B35" t="s">
-        <v>396</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>220031</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4">
-        <v>40</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
-        <v>220032</v>
-      </c>
-      <c r="B36" t="s">
-        <v>397</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>220032</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>220033</v>
-      </c>
-      <c r="B37" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>220033</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4">
-        <v>70</v>
-      </c>
-      <c r="G37" s="4">
-        <v>80</v>
-      </c>
-      <c r="H37" s="4">
-        <v>100</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A5:C37 F5:L37">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$L5=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E37">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$L5=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:J65466 D2:J4 E26:I31 D5:D37 E33:I37"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -1852,11 +1852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36:B38"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K31" s="5">
         <v>0</v>
@@ -15939,11 +15939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16831,10 +16831,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>5001</v>
@@ -16871,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26">
         <v>50</v>
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <v>100</v>
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>400</v>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>800</v>
@@ -17111,10 +17111,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="9">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="2">
         <v>5000</v>
@@ -17151,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <v>50</v>
@@ -17231,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>100</v>
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -17311,7 +17311,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>400</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H37">
         <v>800</v>
@@ -17391,10 +17391,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I38" s="1">
         <v>5002</v>
@@ -17431,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H40">
         <v>400</v>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>800</v>
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H42" s="9">
         <v>0</v>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -17751,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -17791,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -17911,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -18270,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -18350,7 +18350,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -18470,7 +18470,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -18550,7 +18550,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -18590,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -18750,10 +18750,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I72">
         <v>1001</v>
@@ -18790,10 +18790,10 @@
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I73">
         <v>1001</v>
@@ -18830,10 +18830,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I74">
         <v>1001</v>
@@ -18870,10 +18870,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I75">
         <v>1001</v>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H76">
         <v>110</v>
@@ -18948,10 +18948,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H77">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I77">
         <v>1001</v>
@@ -18987,10 +18987,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H78">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="I78">
         <v>1001</v>
@@ -19026,10 +19026,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H79">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="I79">
         <v>1001</v>
@@ -19065,10 +19065,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H80">
-        <v>2050</v>
+        <v>2200</v>
       </c>
       <c r="I80">
         <v>1001</v>
@@ -19104,10 +19104,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="I81">
         <v>1001</v>
@@ -20449,7 +20449,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G25:G30 J42:J55 G32:G81 G110:G65539 G103:G108"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G42:G81 J42:J55 G103:G108 G110:G65539"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="4950" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="4950" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -1852,11 +1852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1968,7 +1968,7 @@
         <v>301001</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>301002</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>301003</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>301005</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>301006</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>301007</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>301008</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>301009</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>301010</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -2526,6 +2526,7 @@
       <c r="R13" t="s">
         <v>2</v>
       </c>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5">
@@ -2539,7 +2540,7 @@
         <v>301011</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -2596,7 +2597,7 @@
         <v>301012</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -2653,7 +2654,7 @@
         <v>301013</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -2710,7 +2711,7 @@
         <v>301014</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -2767,7 +2768,7 @@
         <v>301015</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2824,7 +2825,7 @@
         <v>301016</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -2938,7 +2939,7 @@
         <v>301018</v>
       </c>
       <c r="D21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -2995,7 +2996,7 @@
         <v>301019</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -3052,7 +3053,7 @@
         <v>301004</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -3109,7 +3110,7 @@
         <v>301021</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -3166,7 +3167,7 @@
         <v>301022</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -3223,7 +3224,7 @@
         <v>301023</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -3280,7 +3281,7 @@
         <v>301024</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -3337,7 +3338,7 @@
         <v>301025</v>
       </c>
       <c r="D28" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -3394,7 +3395,7 @@
         <v>301026</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -3451,7 +3452,7 @@
         <v>301027</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -3508,7 +3509,7 @@
         <v>301028</v>
       </c>
       <c r="D31" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -3565,7 +3566,7 @@
         <v>301029</v>
       </c>
       <c r="D32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -3622,7 +3623,7 @@
         <v>301030</v>
       </c>
       <c r="D33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -3679,7 +3680,7 @@
         <v>301031</v>
       </c>
       <c r="D34" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -3736,7 +3737,7 @@
         <v>301032</v>
       </c>
       <c r="D35" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -3793,7 +3794,7 @@
         <v>301033</v>
       </c>
       <c r="D36" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -3850,7 +3851,7 @@
         <v>301034</v>
       </c>
       <c r="D37" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -3907,7 +3908,7 @@
         <v>301035</v>
       </c>
       <c r="D38" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -3964,7 +3965,7 @@
         <v>301027</v>
       </c>
       <c r="D39" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -4021,7 +4022,7 @@
         <v>301037</v>
       </c>
       <c r="D40" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -4078,7 +4079,7 @@
         <v>301038</v>
       </c>
       <c r="D41" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -4135,7 +4136,7 @@
         <v>301039</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -4192,7 +4193,7 @@
         <v>302001</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -4249,7 +4250,7 @@
         <v>302002</v>
       </c>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5">
         <v>3</v>
@@ -4306,7 +4307,7 @@
         <v>302003</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5">
         <v>3</v>
@@ -4363,7 +4364,7 @@
         <v>302004</v>
       </c>
       <c r="D46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5">
         <v>4</v>
@@ -4420,7 +4421,7 @@
         <v>302005</v>
       </c>
       <c r="D47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5">
         <v>3</v>
@@ -4477,7 +4478,7 @@
         <v>302006</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5">
         <v>3</v>
@@ -4534,7 +4535,7 @@
         <v>302004</v>
       </c>
       <c r="D49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5">
         <v>5</v>
@@ -4591,7 +4592,7 @@
         <v>302006</v>
       </c>
       <c r="D50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="5">
         <v>4</v>
@@ -4648,7 +4649,7 @@
         <v>302005</v>
       </c>
       <c r="D51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="5">
         <v>4</v>
@@ -4705,7 +4706,7 @@
         <v>302010</v>
       </c>
       <c r="D52" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" s="5">
         <v>5</v>
@@ -4762,7 +4763,7 @@
         <v>302011</v>
       </c>
       <c r="D53" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" s="5">
         <v>4</v>
@@ -4819,7 +4820,7 @@
         <v>302012</v>
       </c>
       <c r="D54" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="5">
         <v>4</v>
@@ -4876,7 +4877,7 @@
         <v>302013</v>
       </c>
       <c r="D55" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="5">
         <v>5</v>
@@ -4933,7 +4934,7 @@
         <v>302013</v>
       </c>
       <c r="D56" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="5">
         <v>5</v>
@@ -4990,7 +4991,7 @@
         <v>302013</v>
       </c>
       <c r="D57" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="5">
         <v>5</v>
@@ -5047,7 +5048,7 @@
         <v>302016</v>
       </c>
       <c r="D58" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" s="5">
         <v>8</v>
@@ -5104,7 +5105,7 @@
         <v>303001</v>
       </c>
       <c r="D59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5">
         <v>0</v>
@@ -5161,7 +5162,7 @@
         <v>303002</v>
       </c>
       <c r="D60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -5218,7 +5219,7 @@
         <v>303003</v>
       </c>
       <c r="D61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
@@ -5275,7 +5276,7 @@
         <v>303004</v>
       </c>
       <c r="D62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5">
         <v>4</v>
@@ -5332,7 +5333,7 @@
         <v>303005</v>
       </c>
       <c r="D63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
@@ -5389,7 +5390,7 @@
         <v>303006</v>
       </c>
       <c r="D64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
@@ -5446,7 +5447,7 @@
         <v>303004</v>
       </c>
       <c r="D65" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5">
         <v>5</v>
@@ -5503,7 +5504,7 @@
         <v>303006</v>
       </c>
       <c r="D66" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="5">
         <v>4</v>
@@ -5560,7 +5561,7 @@
         <v>303005</v>
       </c>
       <c r="D67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5">
         <v>4</v>
@@ -5617,7 +5618,7 @@
         <v>303010</v>
       </c>
       <c r="D68" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" s="5">
         <v>5</v>
@@ -5674,7 +5675,7 @@
         <v>303011</v>
       </c>
       <c r="D69" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="5">
         <v>4</v>
@@ -5731,7 +5732,7 @@
         <v>303012</v>
       </c>
       <c r="D70" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="5">
         <v>4</v>
@@ -5788,7 +5789,7 @@
         <v>303013</v>
       </c>
       <c r="D71" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" s="5">
         <v>5</v>
@@ -5845,7 +5846,7 @@
         <v>303013</v>
       </c>
       <c r="D72" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="5">
         <v>5</v>
@@ -5902,7 +5903,7 @@
         <v>303013</v>
       </c>
       <c r="D73" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" s="5">
         <v>5</v>
@@ -5959,7 +5960,7 @@
         <v>303016</v>
       </c>
       <c r="D74" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" s="5">
         <v>8</v>
@@ -6016,7 +6017,7 @@
         <v>304001</v>
       </c>
       <c r="D75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5">
         <v>0</v>
@@ -6073,7 +6074,7 @@
         <v>304001</v>
       </c>
       <c r="D76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5">
         <v>0</v>
@@ -6130,7 +6131,7 @@
         <v>304003</v>
       </c>
       <c r="D77" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5">
         <v>2</v>
@@ -6187,7 +6188,7 @@
         <v>304004</v>
       </c>
       <c r="D78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -6244,7 +6245,7 @@
         <v>304005</v>
       </c>
       <c r="D79" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="5">
         <v>3</v>
@@ -6358,7 +6359,7 @@
         <v>304007</v>
       </c>
       <c r="D81" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="5">
         <v>4</v>
@@ -6415,7 +6416,7 @@
         <v>304008</v>
       </c>
       <c r="D82" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" s="5">
         <v>4</v>
@@ -6472,7 +6473,7 @@
         <v>304009</v>
       </c>
       <c r="D83" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="5">
         <v>4</v>
@@ -6529,7 +6530,7 @@
         <v>304010</v>
       </c>
       <c r="D84" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="5">
         <v>4</v>
@@ -6586,7 +6587,7 @@
         <v>305001</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5">
         <v>0</v>
@@ -6643,7 +6644,7 @@
         <v>305002</v>
       </c>
       <c r="D86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="5">
         <v>0</v>
@@ -6700,7 +6701,7 @@
         <v>305003</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5">
         <v>0</v>
@@ -6757,7 +6758,7 @@
         <v>305004</v>
       </c>
       <c r="D88" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="5">
         <v>0</v>
@@ -6814,7 +6815,7 @@
         <v>305005</v>
       </c>
       <c r="D89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -6871,7 +6872,7 @@
         <v>305006</v>
       </c>
       <c r="D90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="5">
         <v>0</v>
@@ -6928,7 +6929,7 @@
         <v>305007</v>
       </c>
       <c r="D91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -6985,7 +6986,7 @@
         <v>305008</v>
       </c>
       <c r="D92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5">
         <v>0</v>
@@ -7042,7 +7043,7 @@
         <v>305009</v>
       </c>
       <c r="D93" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -7099,7 +7100,7 @@
         <v>305010</v>
       </c>
       <c r="D94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7156,7 +7157,7 @@
         <v>305011</v>
       </c>
       <c r="D95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -7213,7 +7214,7 @@
         <v>305012</v>
       </c>
       <c r="D96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7270,7 +7271,7 @@
         <v>305013</v>
       </c>
       <c r="D97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -7327,7 +7328,7 @@
         <v>305014</v>
       </c>
       <c r="D98" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -7384,7 +7385,7 @@
         <v>305015</v>
       </c>
       <c r="D99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="5">
         <v>2</v>
@@ -7441,7 +7442,7 @@
         <v>305016</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="5">
         <v>0</v>
@@ -7555,7 +7556,7 @@
         <v>305018</v>
       </c>
       <c r="D102" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7612,7 +7613,7 @@
         <v>305019</v>
       </c>
       <c r="D103" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="5">
         <v>0</v>
@@ -7669,7 +7670,7 @@
         <v>305020</v>
       </c>
       <c r="D104" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -7726,7 +7727,7 @@
         <v>305021</v>
       </c>
       <c r="D105" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -7783,7 +7784,7 @@
         <v>305022</v>
       </c>
       <c r="D106" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -7840,7 +7841,7 @@
         <v>305023</v>
       </c>
       <c r="D107" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -7897,7 +7898,7 @@
         <v>305024</v>
       </c>
       <c r="D108" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -7954,7 +7955,7 @@
         <v>305025</v>
       </c>
       <c r="D109" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -8011,7 +8012,7 @@
         <v>305026</v>
       </c>
       <c r="D110" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -8068,7 +8069,7 @@
         <v>305027</v>
       </c>
       <c r="D111" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111" s="5">
         <v>1</v>
@@ -8125,7 +8126,7 @@
         <v>305028</v>
       </c>
       <c r="D112" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" s="5">
         <v>1</v>
@@ -8182,7 +8183,7 @@
         <v>305029</v>
       </c>
       <c r="D113" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -8239,7 +8240,7 @@
         <v>305030</v>
       </c>
       <c r="D114" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -8296,7 +8297,7 @@
         <v>305031</v>
       </c>
       <c r="D115" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -8353,7 +8354,7 @@
         <v>305032</v>
       </c>
       <c r="D116" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -8410,7 +8411,7 @@
         <v>305033</v>
       </c>
       <c r="D117" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -8467,7 +8468,7 @@
         <v>305034</v>
       </c>
       <c r="D118" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -8524,7 +8525,7 @@
         <v>306001</v>
       </c>
       <c r="D119" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="5">
         <v>0</v>
@@ -8581,7 +8582,7 @@
         <v>306002</v>
       </c>
       <c r="D120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -8638,7 +8639,7 @@
         <v>306001</v>
       </c>
       <c r="D121" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -8695,7 +8696,7 @@
         <v>306004</v>
       </c>
       <c r="D122" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -8752,7 +8753,7 @@
         <v>306005</v>
       </c>
       <c r="D123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -8809,7 +8810,7 @@
         <v>306006</v>
       </c>
       <c r="D124" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="5">
         <v>1</v>
@@ -8866,7 +8867,7 @@
         <v>306007</v>
       </c>
       <c r="D125" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -8923,7 +8924,7 @@
         <v>306008</v>
       </c>
       <c r="D126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" s="5">
         <v>0</v>
@@ -8980,7 +8981,7 @@
         <v>306008</v>
       </c>
       <c r="D127" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -9037,7 +9038,7 @@
         <v>306010</v>
       </c>
       <c r="D128" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -9094,7 +9095,7 @@
         <v>306011</v>
       </c>
       <c r="D129" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -9151,7 +9152,7 @@
         <v>306012</v>
       </c>
       <c r="D130" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -9208,7 +9209,7 @@
         <v>306013</v>
       </c>
       <c r="D131" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -9265,7 +9266,7 @@
         <v>306014</v>
       </c>
       <c r="D132" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -9322,7 +9323,7 @@
         <v>306015</v>
       </c>
       <c r="D133" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -9379,7 +9380,7 @@
         <v>306016</v>
       </c>
       <c r="D134" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -9493,7 +9494,7 @@
         <v>306018</v>
       </c>
       <c r="D136" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -9550,7 +9551,7 @@
         <v>306019</v>
       </c>
       <c r="D137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -9607,7 +9608,7 @@
         <v>306020</v>
       </c>
       <c r="D138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -9664,7 +9665,7 @@
         <v>306021</v>
       </c>
       <c r="D139" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -9721,7 +9722,7 @@
         <v>306022</v>
       </c>
       <c r="D140" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -9778,7 +9779,7 @@
         <v>306023</v>
       </c>
       <c r="D141" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -9835,7 +9836,7 @@
         <v>306024</v>
       </c>
       <c r="D142" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" s="5">
         <v>0</v>
@@ -9892,7 +9893,7 @@
         <v>306025</v>
       </c>
       <c r="D143" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -9949,7 +9950,7 @@
         <v>306026</v>
       </c>
       <c r="D144" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="5">
         <v>0</v>
@@ -10006,7 +10007,7 @@
         <v>306027</v>
       </c>
       <c r="D145" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" s="5">
         <v>1</v>
@@ -10063,7 +10064,7 @@
         <v>306028</v>
       </c>
       <c r="D146" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -10120,7 +10121,7 @@
         <v>306029</v>
       </c>
       <c r="D147" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -10177,7 +10178,7 @@
         <v>306030</v>
       </c>
       <c r="D148" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -10234,7 +10235,7 @@
         <v>306031</v>
       </c>
       <c r="D149" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -10291,7 +10292,7 @@
         <v>306032</v>
       </c>
       <c r="D150" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -10348,7 +10349,7 @@
         <v>306033</v>
       </c>
       <c r="D151" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -10405,7 +10406,7 @@
         <v>306034</v>
       </c>
       <c r="D152" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -10462,7 +10463,7 @@
         <v>306035</v>
       </c>
       <c r="D153" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -10519,7 +10520,7 @@
         <v>306036</v>
       </c>
       <c r="D154" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E154" s="5">
         <v>1</v>
@@ -10576,7 +10577,7 @@
         <v>307001</v>
       </c>
       <c r="D155" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -10633,7 +10634,7 @@
         <v>307002</v>
       </c>
       <c r="D156" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -10690,7 +10691,7 @@
         <v>307003</v>
       </c>
       <c r="D157" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -10747,7 +10748,7 @@
         <v>307004</v>
       </c>
       <c r="D158" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -10804,7 +10805,7 @@
         <v>307005</v>
       </c>
       <c r="D159" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -10861,7 +10862,7 @@
         <v>307006</v>
       </c>
       <c r="D160" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -10918,7 +10919,7 @@
         <v>307007</v>
       </c>
       <c r="D161" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -10975,7 +10976,7 @@
         <v>307008</v>
       </c>
       <c r="D162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="5">
         <v>0</v>
@@ -11032,7 +11033,7 @@
         <v>307009</v>
       </c>
       <c r="D163" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -11089,7 +11090,7 @@
         <v>307010</v>
       </c>
       <c r="D164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="5">
         <v>0</v>
@@ -11146,7 +11147,7 @@
         <v>307011</v>
       </c>
       <c r="D165" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -11203,7 +11204,7 @@
         <v>307012</v>
       </c>
       <c r="D166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="5">
         <v>0</v>
@@ -11260,7 +11261,7 @@
         <v>307013</v>
       </c>
       <c r="D167" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -11317,7 +11318,7 @@
         <v>307014</v>
       </c>
       <c r="D168" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -11374,7 +11375,7 @@
         <v>307015</v>
       </c>
       <c r="D169" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="5">
         <v>0</v>
@@ -11431,7 +11432,7 @@
         <v>307016</v>
       </c>
       <c r="D170" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -11488,7 +11489,7 @@
         <v>307017</v>
       </c>
       <c r="D171" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="5">
         <v>0</v>
@@ -11545,7 +11546,7 @@
         <v>307018</v>
       </c>
       <c r="D172" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -11602,7 +11603,7 @@
         <v>307019</v>
       </c>
       <c r="D173" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="5">
         <v>1</v>
@@ -11659,7 +11660,7 @@
         <v>307020</v>
       </c>
       <c r="D174" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" s="5">
         <v>0</v>
@@ -11773,7 +11774,7 @@
         <v>307022</v>
       </c>
       <c r="D176" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" s="5">
         <v>0</v>
@@ -11830,7 +11831,7 @@
         <v>307023</v>
       </c>
       <c r="D177" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -11886,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178" s="5">
         <v>0</v>
@@ -11943,7 +11944,7 @@
         <v>307025</v>
       </c>
       <c r="D179" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179" s="5">
         <v>0</v>
@@ -12000,7 +12001,7 @@
         <v>307026</v>
       </c>
       <c r="D180" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180" s="5">
         <v>0</v>
@@ -12057,7 +12058,7 @@
         <v>307027</v>
       </c>
       <c r="D181" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181" s="5">
         <v>0</v>
@@ -12114,7 +12115,7 @@
         <v>307028</v>
       </c>
       <c r="D182" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" s="5">
         <v>0</v>
@@ -12171,7 +12172,7 @@
         <v>307029</v>
       </c>
       <c r="D183" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183" s="5">
         <v>0</v>
@@ -12228,7 +12229,7 @@
         <v>307030</v>
       </c>
       <c r="D184" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E184" s="5">
         <v>0</v>
@@ -12285,7 +12286,7 @@
         <v>307031</v>
       </c>
       <c r="D185" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E185" s="5">
         <v>0</v>
@@ -12342,7 +12343,7 @@
         <v>307032</v>
       </c>
       <c r="D186" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E186" s="5">
         <v>0</v>
@@ -12399,7 +12400,7 @@
         <v>307033</v>
       </c>
       <c r="D187" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -12456,7 +12457,7 @@
         <v>307034</v>
       </c>
       <c r="D188" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E188" s="5">
         <v>0</v>
@@ -12513,7 +12514,7 @@
         <v>307035</v>
       </c>
       <c r="D189" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E189" s="5">
         <v>0</v>
@@ -12570,7 +12571,7 @@
         <v>308001</v>
       </c>
       <c r="D190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="5">
         <v>0</v>
@@ -12627,7 +12628,7 @@
         <v>308001</v>
       </c>
       <c r="D191" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="5">
         <v>0</v>
@@ -12684,7 +12685,7 @@
         <v>308001</v>
       </c>
       <c r="D192" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" s="5">
         <v>0</v>
@@ -12741,7 +12742,7 @@
         <v>308001</v>
       </c>
       <c r="D193" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" s="5">
         <v>0</v>
@@ -12798,7 +12799,7 @@
         <v>308001</v>
       </c>
       <c r="D194" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" s="5">
         <v>0</v>
@@ -12855,7 +12856,7 @@
         <v>308001</v>
       </c>
       <c r="D195" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="5">
         <v>0</v>
@@ -12912,7 +12913,7 @@
         <v>308001</v>
       </c>
       <c r="D196" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" s="5">
         <v>0</v>
@@ -12969,7 +12970,7 @@
         <v>308001</v>
       </c>
       <c r="D197" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="5">
         <v>0</v>
@@ -13026,7 +13027,7 @@
         <v>308001</v>
       </c>
       <c r="D198" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" s="5">
         <v>0</v>
@@ -13083,7 +13084,7 @@
         <v>308001</v>
       </c>
       <c r="D199" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" s="5">
         <v>0</v>
@@ -13140,7 +13141,7 @@
         <v>308001</v>
       </c>
       <c r="D200" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" s="5">
         <v>2</v>
@@ -13197,7 +13198,7 @@
         <v>308001</v>
       </c>
       <c r="D201" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="5">
         <v>0</v>
@@ -13254,7 +13255,7 @@
         <v>308001</v>
       </c>
       <c r="D202" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" s="5">
         <v>0</v>
@@ -13311,7 +13312,7 @@
         <v>308001</v>
       </c>
       <c r="D203" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" s="5">
         <v>0</v>
@@ -13368,7 +13369,7 @@
         <v>308001</v>
       </c>
       <c r="D204" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E204" s="5">
         <v>0</v>
@@ -13425,7 +13426,7 @@
         <v>308001</v>
       </c>
       <c r="D205" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" s="5">
         <v>3</v>
@@ -13482,7 +13483,7 @@
         <v>308001</v>
       </c>
       <c r="D206" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -13539,7 +13540,7 @@
         <v>308001</v>
       </c>
       <c r="D207" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207" s="5">
         <v>0</v>
@@ -13596,7 +13597,7 @@
         <v>308001</v>
       </c>
       <c r="D208" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" s="5">
         <v>0</v>
@@ -13653,7 +13654,7 @@
         <v>308001</v>
       </c>
       <c r="D209" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E209" s="5">
         <v>0</v>
@@ -13710,7 +13711,7 @@
         <v>308001</v>
       </c>
       <c r="D210" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210" s="5">
         <v>4</v>
@@ -13767,7 +13768,7 @@
         <v>308001</v>
       </c>
       <c r="D211" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E211" s="5">
         <v>0</v>
@@ -13824,7 +13825,7 @@
         <v>308001</v>
       </c>
       <c r="D212" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212" s="5">
         <v>0</v>
@@ -13881,7 +13882,7 @@
         <v>308001</v>
       </c>
       <c r="D213" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E213" s="5">
         <v>0</v>
@@ -13938,7 +13939,7 @@
         <v>308001</v>
       </c>
       <c r="D214" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E214" s="5">
         <v>0</v>
@@ -13995,7 +13996,7 @@
         <v>309001</v>
       </c>
       <c r="D215" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" s="5">
         <v>0</v>
@@ -14052,7 +14053,7 @@
         <v>309002</v>
       </c>
       <c r="D216" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="5">
         <v>0</v>
@@ -14109,7 +14110,7 @@
         <v>309003</v>
       </c>
       <c r="D217" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" s="5">
         <v>0</v>
@@ -14166,7 +14167,7 @@
         <v>309004</v>
       </c>
       <c r="D218" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" s="5">
         <v>0</v>
@@ -14223,7 +14224,7 @@
         <v>309005</v>
       </c>
       <c r="D219" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E219" s="5">
         <v>2</v>
@@ -14280,7 +14281,7 @@
         <v>309006</v>
       </c>
       <c r="D220" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E220" s="5">
         <v>2</v>
@@ -14337,7 +14338,7 @@
         <v>309007</v>
       </c>
       <c r="D221" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E221" s="5">
         <v>2</v>
@@ -14394,7 +14395,7 @@
         <v>310001</v>
       </c>
       <c r="D222" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="5">
         <v>0</v>
@@ -14451,7 +14452,7 @@
         <v>310002</v>
       </c>
       <c r="D223" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" s="5">
         <v>0</v>
@@ -14508,7 +14509,7 @@
         <v>310003</v>
       </c>
       <c r="D224" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" s="5">
         <v>0</v>
@@ -14565,7 +14566,7 @@
         <v>310004</v>
       </c>
       <c r="D225" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225" s="5">
         <v>1</v>
@@ -14622,7 +14623,7 @@
         <v>310005</v>
       </c>
       <c r="D226" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E226" s="5">
         <v>0</v>
@@ -14679,7 +14680,7 @@
         <v>310006</v>
       </c>
       <c r="D227" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E227" s="5">
         <v>0</v>
@@ -14736,7 +14737,7 @@
         <v>310007</v>
       </c>
       <c r="D228" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -14793,7 +14794,7 @@
         <v>311001</v>
       </c>
       <c r="D229" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229" s="5">
         <v>0</v>
@@ -14850,7 +14851,7 @@
         <v>311002</v>
       </c>
       <c r="D230" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E230" s="5">
         <v>1</v>
@@ -14907,7 +14908,7 @@
         <v>311003</v>
       </c>
       <c r="D231" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E231" s="5">
         <v>2</v>
@@ -14964,7 +14965,7 @@
         <v>311004</v>
       </c>
       <c r="D232" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E232" s="5">
         <v>3</v>
@@ -15021,7 +15022,7 @@
         <v>311005</v>
       </c>
       <c r="D233" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E233" s="5">
         <v>5</v>
@@ -15078,7 +15079,7 @@
         <v>311006</v>
       </c>
       <c r="D234" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" s="5">
         <v>0</v>
@@ -15135,7 +15136,7 @@
         <v>311007</v>
       </c>
       <c r="D235" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235" s="5">
         <v>0</v>
@@ -15192,7 +15193,7 @@
         <v>311008</v>
       </c>
       <c r="D236" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236" s="5">
         <v>0</v>
@@ -15249,7 +15250,7 @@
         <v>311009</v>
       </c>
       <c r="D237" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237" s="5">
         <v>0</v>
@@ -15306,7 +15307,7 @@
         <v>311010</v>
       </c>
       <c r="D238" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E238" s="5">
         <v>0</v>
@@ -15363,7 +15364,7 @@
         <v>311011</v>
       </c>
       <c r="D239" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" s="5">
         <v>0</v>
@@ -15420,7 +15421,7 @@
         <v>311012</v>
       </c>
       <c r="D240" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E240" s="5">
         <v>0</v>
@@ -15477,7 +15478,7 @@
         <v>311013</v>
       </c>
       <c r="D241" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241" s="5">
         <v>0</v>
@@ -15534,7 +15535,7 @@
         <v>311014</v>
       </c>
       <c r="D242" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E242" s="5">
         <v>0</v>
@@ -15591,7 +15592,7 @@
         <v>311015</v>
       </c>
       <c r="D243" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E243" s="5">
         <v>0</v>
@@ -15648,7 +15649,7 @@
         <v>311016</v>
       </c>
       <c r="D244" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" s="5">
         <v>0</v>
@@ -15705,7 +15706,7 @@
         <v>311017</v>
       </c>
       <c r="D245" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -15762,7 +15763,7 @@
         <v>311018</v>
       </c>
       <c r="D246" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E246" s="5">
         <v>0</v>
@@ -15819,7 +15820,7 @@
         <v>311019</v>
       </c>
       <c r="D247" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E247" s="5">
         <v>0</v>
@@ -15876,7 +15877,7 @@
         <v>311020</v>
       </c>
       <c r="D248" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E248" s="5">
         <v>0</v>
@@ -15939,7 +15940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -1853,10 +1853,10 @@
   <dimension ref="A1:T248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F251" sqref="F251"/>
+      <selection pane="bottomRight" activeCell="P176" sqref="P176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11884,7 +11884,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="5">
-        <v>0</v>
+        <v>307024</v>
       </c>
       <c r="D178" s="5">
         <v>3</v>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="4950" windowHeight="7875"/>
+    <workbookView xWindow="5130" yWindow="-15" windowWidth="15360" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="409">
   <si>
     <t>ID</t>
   </si>
@@ -1330,14 +1330,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>vocation</t>
+  </si>
+  <si>
     <t>说明：
     1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
-    2、类别：01为药品，02为状态类，03为经济，04为属性调整类,20技能书
+    2、类别：01为药品，02为状态类，03为经济，04为属性调整类,20技能书,21开门道具
     3、Sale:0不出售，1药店，2杂货铺，99商城</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>vocation</t>
+    <t>骷髅的怨恨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔的悲伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃玛的沮丧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚的狂暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹魔的痛苦</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄泉的愤怒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1451,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1501,6 +1525,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1852,11 +1882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P176" sqref="P176"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1879,26 +1909,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="100.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
@@ -3957,7 +3987,7 @@
       <c r="A39" s="5">
         <v>301036</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C39" s="5">
@@ -4014,7 +4044,7 @@
       <c r="A40" s="5">
         <v>301037</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="5">
@@ -4071,7 +4101,7 @@
       <c r="A41" s="5">
         <v>301038</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="5">
@@ -4128,7 +4158,7 @@
       <c r="A42" s="5">
         <v>301039</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="16" t="s">
         <v>221</v>
       </c>
       <c r="C42" s="5">
@@ -5040,7 +5070,7 @@
       <c r="A58" s="5">
         <v>302016</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="16" t="s">
         <v>228</v>
       </c>
       <c r="C58" s="5">
@@ -5952,7 +5982,7 @@
       <c r="A74" s="5">
         <v>303016</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C74" s="5">
@@ -7548,7 +7578,7 @@
       <c r="A102" s="5">
         <v>305018</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C102" s="5">
@@ -7605,7 +7635,7 @@
       <c r="A103" s="5">
         <v>305019</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="16" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="5">
@@ -9771,7 +9801,7 @@
       <c r="A141" s="5">
         <v>306023</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C141" s="5">
@@ -9828,7 +9858,7 @@
       <c r="A142" s="5">
         <v>306024</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C142" s="5">
@@ -11880,7 +11910,7 @@
       <c r="A178" s="5">
         <v>307024</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C178" s="5">
@@ -11936,7 +11966,7 @@
       <c r="A179" s="5">
         <v>307025</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C179" s="5">
@@ -11993,7 +12023,7 @@
       <c r="A180" s="5">
         <v>307026</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="16" t="s">
         <v>185</v>
       </c>
       <c r="C180" s="5">
@@ -12050,7 +12080,7 @@
       <c r="A181" s="5">
         <v>307027</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="16" t="s">
         <v>199</v>
       </c>
       <c r="C181" s="5">
@@ -13703,7 +13733,7 @@
       <c r="A210" s="5">
         <v>308021</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C210" s="6">
@@ -13760,7 +13790,7 @@
       <c r="A211" s="5">
         <v>308022</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="14" t="s">
         <v>289</v>
       </c>
       <c r="C211" s="6">
@@ -13817,7 +13847,7 @@
       <c r="A212" s="5">
         <v>308023</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="14" t="s">
         <v>290</v>
       </c>
       <c r="C212" s="6">
@@ -13874,7 +13904,7 @@
       <c r="A213" s="5">
         <v>308024</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C213" s="6">
@@ -13931,7 +13961,7 @@
       <c r="A214" s="5">
         <v>308025</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C214" s="6">
@@ -14216,7 +14246,7 @@
       <c r="A219" s="5">
         <v>309005</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="13" t="s">
         <v>259</v>
       </c>
       <c r="C219" s="5">
@@ -14273,7 +14303,7 @@
       <c r="A220" s="5">
         <v>309006</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C220" s="5">
@@ -14330,7 +14360,7 @@
       <c r="A221" s="5">
         <v>309007</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C221" s="5">
@@ -14615,7 +14645,7 @@
       <c r="A226" s="5">
         <v>310005</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="13" t="s">
         <v>252</v>
       </c>
       <c r="C226" s="5">
@@ -14672,7 +14702,7 @@
       <c r="A227" s="5">
         <v>310006</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C227" s="5">
@@ -14729,7 +14759,7 @@
       <c r="A228" s="5">
         <v>310007</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C228" s="5">
@@ -14900,7 +14930,7 @@
       <c r="A231" s="5">
         <v>311003</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="13" t="s">
         <v>351</v>
       </c>
       <c r="C231" s="5">
@@ -14957,7 +14987,7 @@
       <c r="A232" s="5">
         <v>311004</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="14" t="s">
         <v>352</v>
       </c>
       <c r="C232" s="5">
@@ -15014,7 +15044,7 @@
       <c r="A233" s="5">
         <v>311005</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="14" t="s">
         <v>353</v>
       </c>
       <c r="C233" s="5">
@@ -15185,7 +15215,7 @@
       <c r="A236" s="5">
         <v>311008</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="13" t="s">
         <v>361</v>
       </c>
       <c r="C236" s="5">
@@ -15242,7 +15272,7 @@
       <c r="A237" s="5">
         <v>311009</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="14" t="s">
         <v>362</v>
       </c>
       <c r="C237" s="5">
@@ -15299,7 +15329,7 @@
       <c r="A238" s="5">
         <v>311010</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="14" t="s">
         <v>363</v>
       </c>
       <c r="C238" s="5">
@@ -15470,7 +15500,7 @@
       <c r="A241" s="5">
         <v>311013</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="B241" s="17" t="s">
         <v>346</v>
       </c>
       <c r="C241" s="5">
@@ -15527,7 +15557,7 @@
       <c r="A242" s="5">
         <v>311014</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B242" s="18" t="s">
         <v>347</v>
       </c>
       <c r="C242" s="5">
@@ -15584,7 +15614,7 @@
       <c r="A243" s="5">
         <v>311015</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="18" t="s">
         <v>348</v>
       </c>
       <c r="C243" s="5">
@@ -15755,7 +15785,7 @@
       <c r="A246" s="5">
         <v>311018</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B246" s="17" t="s">
         <v>356</v>
       </c>
       <c r="C246" s="5">
@@ -15812,7 +15842,7 @@
       <c r="A247" s="5">
         <v>311019</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B247" s="18" t="s">
         <v>357</v>
       </c>
       <c r="C247" s="5">
@@ -15869,7 +15899,7 @@
       <c r="A248" s="5">
         <v>311020</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="B248" s="18" t="s">
         <v>358</v>
       </c>
       <c r="C248" s="5">
@@ -15938,13 +15968,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15964,20 +15994,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="65.099999999999994" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
@@ -15990,7 +16020,7 @@
         <v>399</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>263</v>
@@ -16047,11 +16077,11 @@
         <v>1100</v>
       </c>
       <c r="J4" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE("立即恢复HP:",J4)</f>
-        <v>立即恢复HP:40</v>
+        <v>立即恢复HP:50</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
@@ -16072,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -16087,11 +16117,11 @@
         <v>1100</v>
       </c>
       <c r="J5" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" ref="K5" si="1">CONCATENATE("立即恢复HP:",J5)</f>
-        <v>立即恢复HP:90</v>
+        <v>立即恢复HP:100</v>
       </c>
       <c r="L5" t="s">
         <v>2</v>
@@ -16112,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -16127,11 +16157,11 @@
         <v>1100</v>
       </c>
       <c r="J6" s="9">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6:K13" si="2">CONCATENATE("立即恢复HP:",J6)</f>
-        <v>立即恢复HP:160</v>
+        <v>立即恢复HP:200</v>
       </c>
       <c r="L6" t="s">
         <v>2</v>
@@ -16152,13 +16182,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -16192,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -16232,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -16444,11 +16474,11 @@
         <v>1101</v>
       </c>
       <c r="J14" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE("立即恢复MP:",J14)</f>
-        <v>立即恢复MP:50</v>
+        <v>立即恢复MP:60</v>
       </c>
       <c r="L14" t="s">
         <v>2</v>
@@ -16469,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -16484,11 +16514,11 @@
         <v>1101</v>
       </c>
       <c r="J15" s="9">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" ref="K15" si="3">CONCATENATE("立即恢复MP:",J15)</f>
-        <v>立即恢复MP:100</v>
+        <v>立即恢复MP:120</v>
       </c>
       <c r="L15" t="s">
         <v>2</v>
@@ -16509,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -16524,11 +16554,11 @@
         <v>1101</v>
       </c>
       <c r="J16" s="9">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE("立即恢复MP:",J16)</f>
-        <v>立即恢复MP:200</v>
+        <v>立即恢复MP:240</v>
       </c>
       <c r="L16" t="s">
         <v>2</v>
@@ -16549,13 +16579,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -16564,11 +16594,11 @@
         <v>1101</v>
       </c>
       <c r="J17" s="9">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE("立即恢复MP:",J17)</f>
-        <v>立即恢复MP:500</v>
+        <v>立即恢复MP:480</v>
       </c>
       <c r="L17" t="s">
         <v>2</v>
@@ -16589,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -16629,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -20442,6 +20472,162 @@
       </c>
       <c r="L114" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>221001</v>
+      </c>
+      <c r="B115" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>40</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>221002</v>
+      </c>
+      <c r="B116" t="s">
+        <v>405</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>40</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>221003</v>
+      </c>
+      <c r="B117" t="s">
+        <v>404</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>40</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0</v>
+      </c>
+      <c r="G117" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>221004</v>
+      </c>
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>40</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0</v>
+      </c>
+      <c r="G118" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>221005</v>
+      </c>
+      <c r="B119" t="s">
+        <v>408</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>40</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>221006</v>
+      </c>
+      <c r="B120" t="s">
+        <v>407</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>40</v>
+      </c>
+      <c r="F120" s="4">
+        <v>0</v>
+      </c>
+      <c r="G120" s="9">
+        <v>50000</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20475,7 +20661,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-45" windowWidth="3840" windowHeight="9420"/>
+    <workbookView xWindow="3915" yWindow="0" windowWidth="14340" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="695">
   <si>
     <t>ID</t>
   </si>
@@ -2048,10 +2048,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>战神守护</t>
   </si>
   <si>
@@ -2454,6 +2450,98 @@
   </si>
   <si>
     <t>火焰戒指</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强者的灵魂所化，蕴含巨大能量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神祭坛的微小碎片，蕴含微量神性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神祭坛的细小碎片，蕴含微弱神性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神祭坛的小块碎片，蕴含一丝神性</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>练化精怪遗蜕后的精华，可铸防具</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强者的灵魂所化，蕴含毁灭性的能量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>强者的灵魂所化，蕴含破坏性的能量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>替身娃娃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤造化，妙不可言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>revive</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基丹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年蛛丝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手杖</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金杖蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉面素狐王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水之精</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域天将</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火之精</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静之火灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖丹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2614,7 +2702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2685,6 +2773,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3073,10 +3164,10 @@
   <dimension ref="A1:Z478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J472" sqref="J472"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3099,38 +3190,38 @@
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="66" hidden="1" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" ht="88.5" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12" hidden="1" customHeight="1"/>
-    <row r="3" spans="1:26" s="3" customFormat="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:26" s="3" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5973,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X40">
         <v>150000</v>
@@ -6048,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X41">
         <v>150000</v>
@@ -6123,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="W42">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X42">
         <v>150000</v>
@@ -6198,11 +6289,11 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43:X58" si="3">W43*1000</f>
-        <v>50000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -6274,11 +6365,11 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X44">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6350,11 +6441,11 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="X45">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -6426,11 +6517,11 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="X46">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6502,11 +6593,11 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="X47">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -6578,11 +6669,11 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="X48">
         <f t="shared" si="3"/>
-        <v>65000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -6590,7 +6681,7 @@
         <v>301046</v>
       </c>
       <c r="B49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="2"/>
@@ -6654,11 +6745,11 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="X49">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -6666,7 +6757,7 @@
         <v>301047</v>
       </c>
       <c r="B50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="2"/>
@@ -6730,11 +6821,11 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="X50">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -6742,7 +6833,7 @@
         <v>301048</v>
       </c>
       <c r="B51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="2"/>
@@ -6806,11 +6897,11 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="X51">
         <f t="shared" si="3"/>
-        <v>76000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -6818,7 +6909,7 @@
         <v>301049</v>
       </c>
       <c r="B52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="2"/>
@@ -6882,11 +6973,11 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="X52">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -6894,7 +6985,7 @@
         <v>301050</v>
       </c>
       <c r="B53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C53" s="4">
         <f>C52</f>
@@ -6958,11 +7049,11 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="X53">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -6970,7 +7061,7 @@
         <v>301051</v>
       </c>
       <c r="B54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C54" s="4">
         <f>C52</f>
@@ -7034,11 +7125,11 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="X54">
         <f t="shared" si="3"/>
-        <v>85000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -7046,7 +7137,7 @@
         <v>301052</v>
       </c>
       <c r="B55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" ref="C55:C64" si="4">A55</f>
@@ -7110,11 +7201,11 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="X55">
         <f t="shared" si="3"/>
-        <v>95000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -7122,7 +7213,7 @@
         <v>301053</v>
       </c>
       <c r="B56" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="4"/>
@@ -7186,11 +7277,11 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X56">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -7198,7 +7289,7 @@
         <v>301054</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="4"/>
@@ -7262,11 +7353,11 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X57">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -7274,7 +7365,7 @@
         <v>301055</v>
       </c>
       <c r="B58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="4"/>
@@ -7338,11 +7429,11 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X58">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -8314,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X71">
         <v>100000</v>
@@ -8389,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X72">
         <v>100000</v>
@@ -8464,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X73">
         <v>100000</v>
@@ -8539,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X74">
         <v>150000</v>
@@ -8581,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M75">
         <v>12</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O75">
         <v>8</v>
@@ -8614,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X75">
         <v>50000</v>
@@ -8656,13 +8747,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M76">
         <v>12</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O76">
         <v>8</v>
@@ -8689,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X76">
         <v>50000</v>
@@ -8731,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M77">
         <v>12</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O77">
         <v>8</v>
@@ -8764,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X77">
         <v>50000</v>
@@ -8839,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X78">
         <v>50000</v>
@@ -8914,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="W79">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X79">
         <v>50000</v>
@@ -8989,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X80">
         <v>50000</v>
@@ -9000,7 +9091,7 @@
         <v>302023</v>
       </c>
       <c r="B81" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" si="5"/>
@@ -9031,16 +9122,16 @@
         <v>0</v>
       </c>
       <c r="L81">
+        <v>12</v>
+      </c>
+      <c r="M81">
+        <v>16</v>
+      </c>
+      <c r="N81">
+        <v>10</v>
+      </c>
+      <c r="O81">
         <v>15</v>
-      </c>
-      <c r="M81">
-        <v>18</v>
-      </c>
-      <c r="N81">
-        <v>12</v>
-      </c>
-      <c r="O81">
-        <v>16</v>
       </c>
       <c r="P81">
         <v>4</v>
@@ -9064,11 +9155,11 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X81">
         <f t="shared" ref="X81:X87" si="6">W81*1000</f>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -9076,7 +9167,7 @@
         <v>302024</v>
       </c>
       <c r="B82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C82" s="4">
         <f>C81</f>
@@ -9107,16 +9198,16 @@
         <v>0</v>
       </c>
       <c r="L82">
+        <v>12</v>
+      </c>
+      <c r="M82">
+        <v>16</v>
+      </c>
+      <c r="N82">
+        <v>10</v>
+      </c>
+      <c r="O82">
         <v>15</v>
-      </c>
-      <c r="M82">
-        <v>18</v>
-      </c>
-      <c r="N82">
-        <v>12</v>
-      </c>
-      <c r="O82">
-        <v>16</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -9140,11 +9231,11 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X82">
         <f t="shared" si="6"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -9152,7 +9243,7 @@
         <v>302025</v>
       </c>
       <c r="B83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C83" s="4">
         <f>C81</f>
@@ -9183,16 +9274,16 @@
         <v>0</v>
       </c>
       <c r="L83">
+        <v>12</v>
+      </c>
+      <c r="M83">
+        <v>16</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+      <c r="O83">
         <v>15</v>
-      </c>
-      <c r="M83">
-        <v>18</v>
-      </c>
-      <c r="N83">
-        <v>12</v>
-      </c>
-      <c r="O83">
-        <v>16</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -9216,11 +9307,11 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X83">
         <f t="shared" si="6"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -9228,7 +9319,7 @@
         <v>302026</v>
       </c>
       <c r="B84" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C84" s="4">
         <f>A84</f>
@@ -9259,16 +9350,16 @@
         <v>0</v>
       </c>
       <c r="L84">
+        <v>15</v>
+      </c>
+      <c r="M84">
+        <v>18</v>
+      </c>
+      <c r="N84">
         <v>12</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>16</v>
-      </c>
-      <c r="N84">
-        <v>10</v>
-      </c>
-      <c r="O84">
-        <v>15</v>
       </c>
       <c r="P84">
         <v>10</v>
@@ -9292,11 +9383,11 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="X84">
         <f t="shared" si="6"/>
-        <v>95000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -9304,7 +9395,7 @@
         <v>302027</v>
       </c>
       <c r="B85" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C85" s="4">
         <f>C84</f>
@@ -9335,16 +9426,16 @@
         <v>0</v>
       </c>
       <c r="L85">
+        <v>15</v>
+      </c>
+      <c r="M85">
+        <v>18</v>
+      </c>
+      <c r="N85">
         <v>12</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>16</v>
-      </c>
-      <c r="N85">
-        <v>10</v>
-      </c>
-      <c r="O85">
-        <v>15</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -9368,11 +9459,11 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="X85">
         <f t="shared" si="6"/>
-        <v>95000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -9380,7 +9471,7 @@
         <v>302028</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C86" s="4">
         <f>C84</f>
@@ -9411,16 +9502,16 @@
         <v>0</v>
       </c>
       <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>18</v>
+      </c>
+      <c r="N86">
         <v>12</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>16</v>
-      </c>
-      <c r="N86">
-        <v>10</v>
-      </c>
-      <c r="O86">
-        <v>15</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -9444,11 +9535,11 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="X86">
         <f t="shared" si="6"/>
-        <v>95000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -9456,7 +9547,7 @@
         <v>302029</v>
       </c>
       <c r="B87" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" ref="C87:C93" si="7">A87</f>
@@ -9520,11 +9611,11 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X87">
         <f t="shared" si="6"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -10496,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="W100">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X100">
         <v>100000</v>
@@ -10571,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X101">
         <v>100000</v>
@@ -10646,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="W102">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X102">
         <v>100000</v>
@@ -10721,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="W103">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X103">
         <v>150000</v>
@@ -10763,13 +10854,13 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M104">
         <v>12</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O104">
         <v>8</v>
@@ -10796,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X104">
         <v>50000</v>
@@ -10838,13 +10929,13 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M105">
         <v>12</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O105">
         <v>8</v>
@@ -10871,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="W105">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X105">
         <v>50000</v>
@@ -10913,13 +11004,13 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M106">
         <v>12</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O106">
         <v>8</v>
@@ -10946,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X106">
         <v>50000</v>
@@ -11021,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X107">
         <v>50000</v>
@@ -11096,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X108">
         <v>50000</v>
@@ -11171,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="X109">
         <v>50000</v>
@@ -11182,7 +11273,7 @@
         <v>303023</v>
       </c>
       <c r="B110" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C110" s="4">
         <f t="shared" si="8"/>
@@ -11213,16 +11304,16 @@
         <v>0</v>
       </c>
       <c r="L110">
+        <v>12</v>
+      </c>
+      <c r="M110">
+        <v>16</v>
+      </c>
+      <c r="N110">
+        <v>10</v>
+      </c>
+      <c r="O110">
         <v>15</v>
-      </c>
-      <c r="M110">
-        <v>18</v>
-      </c>
-      <c r="N110">
-        <v>12</v>
-      </c>
-      <c r="O110">
-        <v>16</v>
       </c>
       <c r="P110">
         <v>4</v>
@@ -11246,11 +11337,11 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X110">
         <f t="shared" ref="X110:X116" si="9">W110*1000</f>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11258,7 +11349,7 @@
         <v>303024</v>
       </c>
       <c r="B111" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C111" s="4">
         <f>C110</f>
@@ -11289,16 +11380,16 @@
         <v>0</v>
       </c>
       <c r="L111">
+        <v>12</v>
+      </c>
+      <c r="M111">
+        <v>16</v>
+      </c>
+      <c r="N111">
+        <v>10</v>
+      </c>
+      <c r="O111">
         <v>15</v>
-      </c>
-      <c r="M111">
-        <v>18</v>
-      </c>
-      <c r="N111">
-        <v>12</v>
-      </c>
-      <c r="O111">
-        <v>16</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -11322,11 +11413,11 @@
         <v>0</v>
       </c>
       <c r="W111">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X111">
         <f t="shared" si="9"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -11334,7 +11425,7 @@
         <v>303025</v>
       </c>
       <c r="B112" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C112" s="4">
         <f>C110</f>
@@ -11365,16 +11456,16 @@
         <v>0</v>
       </c>
       <c r="L112">
+        <v>12</v>
+      </c>
+      <c r="M112">
+        <v>16</v>
+      </c>
+      <c r="N112">
+        <v>10</v>
+      </c>
+      <c r="O112">
         <v>15</v>
-      </c>
-      <c r="M112">
-        <v>18</v>
-      </c>
-      <c r="N112">
-        <v>12</v>
-      </c>
-      <c r="O112">
-        <v>16</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -11398,11 +11489,11 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X112">
         <f t="shared" si="9"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11410,7 +11501,7 @@
         <v>303026</v>
       </c>
       <c r="B113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C113" s="4">
         <f>A113</f>
@@ -11441,16 +11532,16 @@
         <v>0</v>
       </c>
       <c r="L113">
+        <v>15</v>
+      </c>
+      <c r="M113">
+        <v>18</v>
+      </c>
+      <c r="N113">
         <v>12</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>16</v>
-      </c>
-      <c r="N113">
-        <v>10</v>
-      </c>
-      <c r="O113">
-        <v>15</v>
       </c>
       <c r="P113">
         <v>10</v>
@@ -11474,11 +11565,11 @@
         <v>0</v>
       </c>
       <c r="W113">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X113">
         <f t="shared" si="9"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -11486,7 +11577,7 @@
         <v>303027</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C114" s="4">
         <f>C113</f>
@@ -11517,16 +11608,16 @@
         <v>0</v>
       </c>
       <c r="L114">
+        <v>15</v>
+      </c>
+      <c r="M114">
+        <v>18</v>
+      </c>
+      <c r="N114">
         <v>12</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>16</v>
-      </c>
-      <c r="N114">
-        <v>10</v>
-      </c>
-      <c r="O114">
-        <v>15</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -11550,11 +11641,11 @@
         <v>0</v>
       </c>
       <c r="W114">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X114">
         <f t="shared" si="9"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -11562,7 +11653,7 @@
         <v>303028</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C115" s="4">
         <f>C114</f>
@@ -11593,16 +11684,16 @@
         <v>0</v>
       </c>
       <c r="L115">
+        <v>15</v>
+      </c>
+      <c r="M115">
+        <v>18</v>
+      </c>
+      <c r="N115">
         <v>12</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>16</v>
-      </c>
-      <c r="N115">
-        <v>10</v>
-      </c>
-      <c r="O115">
-        <v>15</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -11626,11 +11717,11 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X115">
         <f t="shared" si="9"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -11638,7 +11729,7 @@
         <v>303029</v>
       </c>
       <c r="B116" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C116" s="4">
         <f>A116</f>
@@ -11702,11 +11793,11 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X116">
         <f t="shared" si="9"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -12527,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X127">
         <v>20000</v>
@@ -12602,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="W128">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X128">
         <v>20000</v>
@@ -12677,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="W129">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X129">
         <v>20000</v>
@@ -12719,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M130">
         <v>6</v>
@@ -12752,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="W130">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X130">
         <v>20000</v>
@@ -12794,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M131">
         <v>6</v>
@@ -12827,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="W131">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X131">
         <v>20000</v>
@@ -12869,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M132">
         <v>6</v>
@@ -12902,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="W132">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X132">
         <v>20000</v>
@@ -12977,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="W133">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X133">
         <v>20000</v>
@@ -13019,10 +13110,10 @@
         <v>0</v>
       </c>
       <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
         <v>5</v>
-      </c>
-      <c r="M134">
-        <v>7</v>
       </c>
       <c r="N134">
         <v>5</v>
@@ -13052,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X134">
         <v>20000</v>
@@ -13097,13 +13188,13 @@
         <v>5</v>
       </c>
       <c r="M135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N135">
         <v>5</v>
       </c>
       <c r="O135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -13127,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="W135">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X135">
         <v>20000</v>
@@ -13202,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="W136">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X136">
         <v>20000</v>
@@ -13277,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="W137">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X137">
         <v>20000</v>
@@ -13352,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X138">
         <v>20000</v>
@@ -13427,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="W139">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X139">
         <v>50000</v>
@@ -13502,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X140">
         <v>50000</v>
@@ -13577,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="W141">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X141">
         <v>50000</v>
@@ -13588,7 +13679,7 @@
         <v>304026</v>
       </c>
       <c r="B142" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C142">
         <f t="shared" si="11"/>
@@ -13652,11 +13743,11 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X142">
         <f t="shared" ref="X142:X151" si="12">W142*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -13664,7 +13755,7 @@
         <v>304027</v>
       </c>
       <c r="B143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C143">
         <f t="shared" si="11"/>
@@ -13728,11 +13819,11 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X143">
         <f t="shared" si="12"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -13740,7 +13831,7 @@
         <v>304028</v>
       </c>
       <c r="B144" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C144">
         <f t="shared" si="11"/>
@@ -13804,11 +13895,11 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X144">
         <f t="shared" si="12"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -13816,7 +13907,7 @@
         <v>304029</v>
       </c>
       <c r="B145" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C145">
         <f t="shared" si="11"/>
@@ -13880,11 +13971,11 @@
         <v>0</v>
       </c>
       <c r="W145">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X145">
         <f t="shared" si="12"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -13892,7 +13983,7 @@
         <v>304030</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146">
         <f>C145</f>
@@ -13956,11 +14047,11 @@
         <v>0</v>
       </c>
       <c r="W146">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X146">
         <f t="shared" si="12"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -13968,7 +14059,7 @@
         <v>304031</v>
       </c>
       <c r="B147" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C147">
         <f>C145</f>
@@ -14032,11 +14123,11 @@
         <v>0</v>
       </c>
       <c r="W147">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X147">
         <f t="shared" si="12"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -14044,7 +14135,7 @@
         <v>304032</v>
       </c>
       <c r="B148" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C148">
         <f>A148</f>
@@ -14108,11 +14199,11 @@
         <v>0</v>
       </c>
       <c r="W148">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X148">
         <f t="shared" si="12"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -14120,7 +14211,7 @@
         <v>304033</v>
       </c>
       <c r="B149" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C149">
         <f>C148</f>
@@ -14184,11 +14275,11 @@
         <v>0</v>
       </c>
       <c r="W149">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X149">
         <f t="shared" si="12"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -14196,7 +14287,7 @@
         <v>304034</v>
       </c>
       <c r="B150" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C150">
         <f>C148</f>
@@ -14260,11 +14351,11 @@
         <v>0</v>
       </c>
       <c r="W150">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X150">
         <f t="shared" si="12"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -14272,7 +14363,7 @@
         <v>304035</v>
       </c>
       <c r="B151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C151">
         <f t="shared" ref="C151:C186" si="13">A151</f>
@@ -14303,16 +14394,16 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M151">
         <v>9</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O151">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P151">
         <v>9</v>
@@ -14336,11 +14427,11 @@
         <v>0</v>
       </c>
       <c r="W151">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X151">
         <f t="shared" si="12"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -16962,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="W186">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X186">
         <v>20000</v>
@@ -17037,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="W187">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X187">
         <v>20000</v>
@@ -17112,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="W188">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X188">
         <v>20000</v>
@@ -17136,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -17163,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P189">
         <v>4</v>
@@ -17187,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="W189">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X189">
         <v>20000</v>
@@ -17262,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="W190">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X190">
         <v>20000</v>
@@ -17337,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="W191">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X191">
         <v>20000</v>
@@ -17391,10 +17482,10 @@
         <v>0</v>
       </c>
       <c r="P192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q192">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R192">
         <v>0</v>
@@ -17412,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="W192">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X192">
         <v>20000</v>
@@ -17475,7 +17566,7 @@
         <v>2</v>
       </c>
       <c r="S193">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T193">
         <v>0</v>
@@ -17487,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="W193">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X193">
         <v>20000</v>
@@ -17556,13 +17647,13 @@
         <v>2</v>
       </c>
       <c r="U194">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V194">
         <v>0</v>
       </c>
       <c r="W194">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X194">
         <v>20000</v>
@@ -17616,10 +17707,10 @@
         <v>0</v>
       </c>
       <c r="P195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R195">
         <v>0</v>
@@ -17637,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="W195">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X195">
         <v>50000</v>
@@ -17700,7 +17791,7 @@
         <v>3</v>
       </c>
       <c r="S196">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T196">
         <v>0</v>
@@ -17712,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="W196">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X196">
         <v>50000</v>
@@ -17781,13 +17872,13 @@
         <v>3</v>
       </c>
       <c r="U197">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V197">
         <v>0</v>
       </c>
       <c r="W197">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X197">
         <v>50000</v>
@@ -17798,7 +17889,7 @@
         <v>305047</v>
       </c>
       <c r="B198" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C198">
         <f t="shared" si="14"/>
@@ -17841,10 +17932,10 @@
         <v>0</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -17862,11 +17953,11 @@
         <v>0</v>
       </c>
       <c r="W198">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X198">
         <f t="shared" ref="X198:X207" si="15">W198*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -17874,7 +17965,7 @@
         <v>305048</v>
       </c>
       <c r="B199" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C199">
         <f t="shared" si="14"/>
@@ -17923,10 +18014,10 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S199">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -17938,11 +18029,11 @@
         <v>0</v>
       </c>
       <c r="W199">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X199">
         <f t="shared" si="15"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -17950,7 +18041,7 @@
         <v>305049</v>
       </c>
       <c r="B200" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C200">
         <f t="shared" si="14"/>
@@ -18005,20 +18096,20 @@
         <v>0</v>
       </c>
       <c r="T200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U200">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V200">
         <v>0</v>
       </c>
       <c r="W200">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X200">
         <f t="shared" si="15"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -18026,7 +18117,7 @@
         <v>305050</v>
       </c>
       <c r="B201" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C201">
         <f t="shared" si="14"/>
@@ -18069,10 +18160,10 @@
         <v>0</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q201">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -18090,11 +18181,11 @@
         <v>0</v>
       </c>
       <c r="W201">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X201">
         <f t="shared" si="15"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -18102,7 +18193,7 @@
         <v>305051</v>
       </c>
       <c r="B202" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C202">
         <f>C201</f>
@@ -18151,10 +18242,10 @@
         <v>0</v>
       </c>
       <c r="R202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S202">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T202">
         <v>0</v>
@@ -18166,11 +18257,11 @@
         <v>0</v>
       </c>
       <c r="W202">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X202">
         <f t="shared" si="15"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -18178,7 +18269,7 @@
         <v>305052</v>
       </c>
       <c r="B203" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C203">
         <f>C201</f>
@@ -18233,20 +18324,20 @@
         <v>0</v>
       </c>
       <c r="T203">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U203">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V203">
         <v>0</v>
       </c>
       <c r="W203">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X203">
         <f t="shared" si="15"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -18254,7 +18345,7 @@
         <v>305053</v>
       </c>
       <c r="B204" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C204">
         <f>A204</f>
@@ -18294,10 +18385,10 @@
         <v>0</v>
       </c>
       <c r="P204">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q204">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -18315,11 +18406,11 @@
         <v>0</v>
       </c>
       <c r="W204">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X204">
         <f t="shared" si="15"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -18327,7 +18418,7 @@
         <v>305054</v>
       </c>
       <c r="B205" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C205">
         <f>C204</f>
@@ -18388,11 +18479,11 @@
         <v>0</v>
       </c>
       <c r="W205">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X205">
         <f t="shared" si="15"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -18400,7 +18491,7 @@
         <v>305055</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C206">
         <f>C204</f>
@@ -18461,11 +18552,11 @@
         <v>0</v>
       </c>
       <c r="W206">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X206">
         <f t="shared" si="15"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -18473,7 +18564,7 @@
         <v>305056</v>
       </c>
       <c r="B207" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C207">
         <f>A207</f>
@@ -18537,11 +18628,11 @@
         <v>0</v>
       </c>
       <c r="W207">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X207">
         <f t="shared" si="15"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -21313,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="W244">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X244">
         <v>20000</v>
@@ -21388,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="W245">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X245">
         <v>20000</v>
@@ -21463,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="W246">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X246">
         <v>20000</v>
@@ -21538,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="W247">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X247">
         <v>20000</v>
@@ -21613,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="W248">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X248">
         <v>20000</v>
@@ -21688,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="W249">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X249">
         <v>20000</v>
@@ -21742,10 +21833,10 @@
         <v>0</v>
       </c>
       <c r="P250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R250">
         <v>0</v>
@@ -21763,7 +21854,7 @@
         <v>0</v>
       </c>
       <c r="W250">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X250">
         <v>20000</v>
@@ -21823,10 +21914,10 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T251">
         <v>0</v>
@@ -21838,7 +21929,7 @@
         <v>0</v>
       </c>
       <c r="W251">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X251">
         <v>20000</v>
@@ -21907,13 +21998,13 @@
         <v>2</v>
       </c>
       <c r="U252">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V252">
         <v>0</v>
       </c>
       <c r="W252">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X252">
         <v>20000</v>
@@ -21988,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="W253">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X253">
         <v>50000</v>
@@ -22063,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="W254">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X254">
         <v>50000</v>
@@ -22138,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="W255">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X255">
         <v>50000</v>
@@ -22149,7 +22240,7 @@
         <v>306049</v>
       </c>
       <c r="B256" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C256">
         <f t="shared" si="17"/>
@@ -22213,11 +22304,11 @@
         <v>0</v>
       </c>
       <c r="W256">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X256">
         <f t="shared" ref="X256:X265" si="18">W256*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -22225,7 +22316,7 @@
         <v>306050</v>
       </c>
       <c r="B257" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C257">
         <f t="shared" si="17"/>
@@ -22289,11 +22380,11 @@
         <v>0</v>
       </c>
       <c r="W257">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X257">
         <f t="shared" si="18"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="258" spans="1:24">
@@ -22301,7 +22392,7 @@
         <v>306051</v>
       </c>
       <c r="B258" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C258">
         <f t="shared" si="17"/>
@@ -22365,11 +22456,11 @@
         <v>0</v>
       </c>
       <c r="W258">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X258">
         <f t="shared" si="18"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="259" spans="1:24">
@@ -22377,7 +22468,7 @@
         <v>306052</v>
       </c>
       <c r="B259" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C259" s="4">
         <f t="shared" si="17"/>
@@ -22420,10 +22511,10 @@
         <v>2</v>
       </c>
       <c r="P259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R259">
         <v>0</v>
@@ -22441,11 +22532,11 @@
         <v>0</v>
       </c>
       <c r="W259">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X259">
         <f t="shared" si="18"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="260" spans="1:24">
@@ -22453,7 +22544,7 @@
         <v>306053</v>
       </c>
       <c r="B260" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C260" s="4">
         <f>C259</f>
@@ -22502,10 +22593,10 @@
         <v>0</v>
       </c>
       <c r="R260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S260">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T260">
         <v>0</v>
@@ -22517,11 +22608,11 @@
         <v>0</v>
       </c>
       <c r="W260">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X260">
         <f t="shared" si="18"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="261" spans="1:24">
@@ -22529,7 +22620,7 @@
         <v>306054</v>
       </c>
       <c r="B261" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C261" s="4">
         <f>C259</f>
@@ -22584,20 +22675,20 @@
         <v>0</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U261">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V261">
         <v>0</v>
       </c>
       <c r="W261">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X261">
         <f t="shared" si="18"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="262" spans="1:24">
@@ -22605,7 +22696,7 @@
         <v>306055</v>
       </c>
       <c r="B262" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C262" s="4">
         <f>A262</f>
@@ -22648,10 +22739,10 @@
         <v>4</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q262">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R262">
         <v>0</v>
@@ -22669,11 +22760,11 @@
         <v>0</v>
       </c>
       <c r="W262">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X262">
         <f t="shared" si="18"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="263" spans="1:24">
@@ -22681,7 +22772,7 @@
         <v>306056</v>
       </c>
       <c r="B263" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C263" s="4">
         <f>C262</f>
@@ -22730,10 +22821,10 @@
         <v>0</v>
       </c>
       <c r="R263">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S263">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T263">
         <v>0</v>
@@ -22745,11 +22836,11 @@
         <v>0</v>
       </c>
       <c r="W263">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X263">
         <f t="shared" si="18"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -22757,7 +22848,7 @@
         <v>306057</v>
       </c>
       <c r="B264" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C264" s="4">
         <f>C262</f>
@@ -22812,20 +22903,20 @@
         <v>0</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U264">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V264">
         <v>0</v>
       </c>
       <c r="W264">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X264">
         <f t="shared" si="18"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -22833,7 +22924,7 @@
         <v>306058</v>
       </c>
       <c r="B265" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C265">
         <f t="shared" ref="C265:C288" si="19">A265</f>
@@ -22897,11 +22988,11 @@
         <v>0</v>
       </c>
       <c r="W265">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X265">
         <f t="shared" si="18"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -24259,7 +24350,7 @@
         <v>307019</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C284" s="4">
         <f t="shared" si="19"/>
@@ -25597,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W301">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X301">
         <v>25000</v>
@@ -25672,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="W302">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X302">
         <v>25000</v>
@@ -25747,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="W303">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X303">
         <v>25000</v>
@@ -25822,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="W304">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X304">
         <v>25000</v>
@@ -25897,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="W305">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X305">
         <v>25000</v>
@@ -25972,7 +26063,7 @@
         <v>0</v>
       </c>
       <c r="W306">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X306">
         <v>25000</v>
@@ -26047,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="W307">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X307">
         <v>25000</v>
@@ -26122,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="W308">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X308">
         <v>25000</v>
@@ -26197,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="W309">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X309">
         <v>25000</v>
@@ -26272,7 +26363,7 @@
         <v>0</v>
       </c>
       <c r="W310">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X310">
         <v>50000</v>
@@ -26347,7 +26438,7 @@
         <v>0</v>
       </c>
       <c r="W311">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X311">
         <v>50000</v>
@@ -26422,7 +26513,7 @@
         <v>0</v>
       </c>
       <c r="W312">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X312">
         <v>50000</v>
@@ -26433,7 +26524,7 @@
         <v>307048</v>
       </c>
       <c r="B313" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C313">
         <f t="shared" si="21"/>
@@ -26476,7 +26567,7 @@
         <v>3</v>
       </c>
       <c r="P313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q313">
         <v>15</v>
@@ -26497,11 +26588,11 @@
         <v>0</v>
       </c>
       <c r="W313">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X313">
         <f t="shared" ref="X313:X322" si="22">W313*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -26509,7 +26600,7 @@
         <v>307049</v>
       </c>
       <c r="B314" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C314">
         <f t="shared" si="21"/>
@@ -26558,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="R314">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S314">
         <v>15</v>
@@ -26573,11 +26664,11 @@
         <v>0</v>
       </c>
       <c r="W314">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X314">
         <f t="shared" si="22"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="315" spans="1:24">
@@ -26585,7 +26676,7 @@
         <v>307050</v>
       </c>
       <c r="B315" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C315">
         <f t="shared" si="21"/>
@@ -26640,7 +26731,7 @@
         <v>0</v>
       </c>
       <c r="T315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U315">
         <v>15</v>
@@ -26649,11 +26740,11 @@
         <v>0</v>
       </c>
       <c r="W315">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X315">
         <f t="shared" si="22"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -26661,7 +26752,7 @@
         <v>307051</v>
       </c>
       <c r="B316" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C316" s="4">
         <f t="shared" si="21"/>
@@ -26704,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="P316">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q316">
         <v>18</v>
@@ -26725,11 +26816,11 @@
         <v>0</v>
       </c>
       <c r="W316">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X316">
         <f t="shared" si="22"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="317" spans="1:24">
@@ -26737,7 +26828,7 @@
         <v>307052</v>
       </c>
       <c r="B317" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C317" s="4">
         <f>C316</f>
@@ -26786,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="R317">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S317">
         <v>18</v>
@@ -26801,11 +26892,11 @@
         <v>0</v>
       </c>
       <c r="W317">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X317">
         <f t="shared" si="22"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -26813,7 +26904,7 @@
         <v>307053</v>
       </c>
       <c r="B318" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C318" s="4">
         <f>C316</f>
@@ -26868,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U318">
         <v>18</v>
@@ -26877,11 +26968,11 @@
         <v>0</v>
       </c>
       <c r="W318">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X318">
         <f t="shared" si="22"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="319" spans="1:24">
@@ -26889,7 +26980,7 @@
         <v>307054</v>
       </c>
       <c r="B319" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C319" s="4">
         <f>A319</f>
@@ -26932,7 +27023,7 @@
         <v>4</v>
       </c>
       <c r="P319">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q319">
         <v>18</v>
@@ -26953,11 +27044,11 @@
         <v>0</v>
       </c>
       <c r="W319">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X319">
         <f t="shared" si="22"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="320" spans="1:24">
@@ -26965,7 +27056,7 @@
         <v>307055</v>
       </c>
       <c r="B320" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C320" s="4">
         <f>C319</f>
@@ -27014,7 +27105,7 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S320">
         <v>18</v>
@@ -27029,11 +27120,11 @@
         <v>0</v>
       </c>
       <c r="W320">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X320">
         <f t="shared" si="22"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -27041,7 +27132,7 @@
         <v>307056</v>
       </c>
       <c r="B321" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C321" s="4">
         <f>C319</f>
@@ -27096,7 +27187,7 @@
         <v>0</v>
       </c>
       <c r="T321">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U321">
         <v>18</v>
@@ -27105,11 +27196,11 @@
         <v>0</v>
       </c>
       <c r="W321">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X321">
         <f t="shared" si="22"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -27117,7 +27208,7 @@
         <v>307057</v>
       </c>
       <c r="B322" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C322">
         <f>A322</f>
@@ -27181,11 +27272,11 @@
         <v>0</v>
       </c>
       <c r="W322">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X322">
         <f t="shared" si="22"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -27632,7 +27723,7 @@
         <v>0</v>
       </c>
       <c r="W328">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X328" s="4">
         <v>10000</v>
@@ -27707,7 +27798,7 @@
         <v>0</v>
       </c>
       <c r="W329">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X329" s="4">
         <v>10000</v>
@@ -27782,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="W330">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X330" s="4">
         <v>10000</v>
@@ -27857,7 +27948,7 @@
         <v>0</v>
       </c>
       <c r="W331">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X331" s="4">
         <v>10000</v>
@@ -27932,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="W332">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X332" s="4">
         <v>10000</v>
@@ -28007,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="W333">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X333" s="4">
         <v>10000</v>
@@ -28082,7 +28173,7 @@
         <v>0</v>
       </c>
       <c r="W334">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X334" s="4">
         <v>10000</v>
@@ -28157,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="W335">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X335" s="4">
         <v>10000</v>
@@ -28232,7 +28323,7 @@
         <v>0</v>
       </c>
       <c r="W336">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X336" s="4">
         <v>10000</v>
@@ -28243,7 +28334,7 @@
         <v>308015</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C337">
         <f>A337</f>
@@ -28307,11 +28398,11 @@
         <v>0</v>
       </c>
       <c r="W337">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X337">
         <f t="shared" ref="X337:X342" si="23">W337*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -28319,7 +28410,7 @@
         <v>308016</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C338">
         <f>A338</f>
@@ -28383,11 +28474,11 @@
         <v>0</v>
       </c>
       <c r="W338">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X338">
         <f t="shared" si="23"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="339" spans="1:24">
@@ -28395,7 +28486,7 @@
         <v>308017</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C339">
         <f>A339</f>
@@ -28459,11 +28550,11 @@
         <v>0</v>
       </c>
       <c r="W339">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X339">
         <f t="shared" si="23"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -28471,7 +28562,7 @@
         <v>308018</v>
       </c>
       <c r="B340" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C340" s="4">
         <f>A340</f>
@@ -28535,11 +28626,11 @@
         <v>0</v>
       </c>
       <c r="W340">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X340" s="4">
         <f t="shared" si="23"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -28547,7 +28638,7 @@
         <v>308019</v>
       </c>
       <c r="B341" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C341" s="4">
         <f>C340</f>
@@ -28611,11 +28702,11 @@
         <v>0</v>
       </c>
       <c r="W341">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X341" s="4">
         <f t="shared" si="23"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="342" spans="1:24">
@@ -28623,7 +28714,7 @@
         <v>308020</v>
       </c>
       <c r="B342" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C342" s="4">
         <f>C340</f>
@@ -28687,11 +28778,11 @@
         <v>0</v>
       </c>
       <c r="W342">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X342" s="4">
         <f t="shared" si="23"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -28699,7 +28790,7 @@
         <v>308021</v>
       </c>
       <c r="B343" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C343">
         <f t="shared" ref="C343:C363" si="24">A343</f>
@@ -28763,11 +28854,11 @@
         <v>0</v>
       </c>
       <c r="W343">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X343">
         <f>W343*1000</f>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -30264,7 +30355,7 @@
         <v>0</v>
       </c>
       <c r="W363">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X363">
         <v>20000</v>
@@ -30339,7 +30430,7 @@
         <v>0</v>
       </c>
       <c r="W364">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X364">
         <v>20000</v>
@@ -30414,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="W365">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X365">
         <v>20000</v>
@@ -30489,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="W366">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X366">
         <v>20000</v>
@@ -30564,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="W367">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X367">
         <v>20000</v>
@@ -30639,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="W368">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X368">
         <v>20000</v>
@@ -30714,7 +30805,7 @@
         <v>0</v>
       </c>
       <c r="W369">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X369">
         <v>20000</v>
@@ -30789,7 +30880,7 @@
         <v>0</v>
       </c>
       <c r="W370">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X370">
         <v>20000</v>
@@ -30864,7 +30955,7 @@
         <v>0</v>
       </c>
       <c r="W371">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X371">
         <v>20000</v>
@@ -30939,7 +31030,7 @@
         <v>0</v>
       </c>
       <c r="W372">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X372">
         <v>50000</v>
@@ -31014,7 +31105,7 @@
         <v>0</v>
       </c>
       <c r="W373">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X373">
         <v>50000</v>
@@ -31089,7 +31180,7 @@
         <v>0</v>
       </c>
       <c r="W374">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X374">
         <v>50000</v>
@@ -31100,7 +31191,7 @@
         <v>309020</v>
       </c>
       <c r="B375" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C375">
         <f>A375</f>
@@ -31164,11 +31255,11 @@
         <v>0</v>
       </c>
       <c r="W375">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X375">
         <f t="shared" ref="X375:X384" si="25">W375*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="376" spans="1:24">
@@ -31176,7 +31267,7 @@
         <v>309021</v>
       </c>
       <c r="B376" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C376">
         <f>A376</f>
@@ -31240,11 +31331,11 @@
         <v>0</v>
       </c>
       <c r="W376">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X376">
         <f t="shared" si="25"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="377" spans="1:24">
@@ -31252,7 +31343,7 @@
         <v>309022</v>
       </c>
       <c r="B377" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C377">
         <f>A377</f>
@@ -31316,11 +31407,11 @@
         <v>0</v>
       </c>
       <c r="W377">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X377">
         <f t="shared" si="25"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="378" spans="1:24">
@@ -31328,7 +31419,7 @@
         <v>309023</v>
       </c>
       <c r="B378" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C378">
         <f>A378</f>
@@ -31371,7 +31462,7 @@
         <v>8</v>
       </c>
       <c r="P378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q378">
         <v>9</v>
@@ -31392,11 +31483,11 @@
         <v>0</v>
       </c>
       <c r="W378">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X378">
         <f t="shared" si="25"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -31404,7 +31495,7 @@
         <v>309024</v>
       </c>
       <c r="B379" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C379">
         <f>C378</f>
@@ -31453,7 +31544,7 @@
         <v>0</v>
       </c>
       <c r="R379">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S379">
         <v>9</v>
@@ -31468,11 +31559,11 @@
         <v>0</v>
       </c>
       <c r="W379">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X379">
         <f t="shared" si="25"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="380" spans="1:24">
@@ -31480,7 +31571,7 @@
         <v>309025</v>
       </c>
       <c r="B380" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C380">
         <f>C378</f>
@@ -31535,7 +31626,7 @@
         <v>0</v>
       </c>
       <c r="T380">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U380">
         <v>9</v>
@@ -31544,11 +31635,11 @@
         <v>0</v>
       </c>
       <c r="W380">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X380">
         <f t="shared" si="25"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="381" spans="1:24">
@@ -31556,7 +31647,7 @@
         <v>309026</v>
       </c>
       <c r="B381" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C381">
         <f>A381</f>
@@ -31599,7 +31690,7 @@
         <v>6</v>
       </c>
       <c r="P381">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q381">
         <v>12</v>
@@ -31620,11 +31711,11 @@
         <v>0</v>
       </c>
       <c r="W381">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X381">
         <f t="shared" si="25"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="382" spans="1:24">
@@ -31632,7 +31723,7 @@
         <v>309027</v>
       </c>
       <c r="B382" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C382">
         <f>C381</f>
@@ -31681,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="R382">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S382">
         <v>12</v>
@@ -31696,11 +31787,11 @@
         <v>0</v>
       </c>
       <c r="W382">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X382">
         <f t="shared" si="25"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -31708,7 +31799,7 @@
         <v>309028</v>
       </c>
       <c r="B383" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C383">
         <f>C381</f>
@@ -31763,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="T383">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U383">
         <v>12</v>
@@ -31772,11 +31863,11 @@
         <v>0</v>
       </c>
       <c r="W383">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X383">
         <f t="shared" si="25"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="384" spans="1:24">
@@ -31784,7 +31875,7 @@
         <v>309029</v>
       </c>
       <c r="B384" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C384">
         <f t="shared" ref="C384:C392" si="26">A384</f>
@@ -31815,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="L384">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M384">
         <v>9</v>
@@ -31848,11 +31939,11 @@
         <v>0</v>
       </c>
       <c r="W384">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X384">
         <f t="shared" si="25"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="385" spans="1:24">
@@ -32449,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="W392">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X392">
         <v>20000</v>
@@ -32524,7 +32615,7 @@
         <v>0</v>
       </c>
       <c r="W393">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X393">
         <v>20000</v>
@@ -32599,7 +32690,7 @@
         <v>0</v>
       </c>
       <c r="W394">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="X394">
         <v>20000</v>
@@ -32674,7 +32765,7 @@
         <v>0</v>
       </c>
       <c r="W395">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X395">
         <v>20000</v>
@@ -32749,7 +32840,7 @@
         <v>0</v>
       </c>
       <c r="W396">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X396">
         <v>20000</v>
@@ -32824,7 +32915,7 @@
         <v>0</v>
       </c>
       <c r="W397">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X397">
         <v>20000</v>
@@ -32899,7 +32990,7 @@
         <v>0</v>
       </c>
       <c r="W398">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X398">
         <v>20000</v>
@@ -32974,7 +33065,7 @@
         <v>0</v>
       </c>
       <c r="W399">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X399">
         <v>20000</v>
@@ -33049,7 +33140,7 @@
         <v>0</v>
       </c>
       <c r="W400">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X400">
         <v>20000</v>
@@ -33124,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="W401">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X401">
         <v>50000</v>
@@ -33199,7 +33290,7 @@
         <v>0</v>
       </c>
       <c r="W402">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X402">
         <v>50000</v>
@@ -33274,7 +33365,7 @@
         <v>0</v>
       </c>
       <c r="W403">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="X403">
         <v>50000</v>
@@ -33285,7 +33376,7 @@
         <v>310020</v>
       </c>
       <c r="B404" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C404">
         <f t="shared" si="27"/>
@@ -33349,11 +33440,11 @@
         <v>0</v>
       </c>
       <c r="W404">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X404">
         <f t="shared" ref="X404:X413" si="28">W404*1000</f>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="405" spans="1:24">
@@ -33361,7 +33452,7 @@
         <v>310021</v>
       </c>
       <c r="B405" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C405">
         <f t="shared" si="27"/>
@@ -33425,11 +33516,11 @@
         <v>0</v>
       </c>
       <c r="W405">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X405">
         <f t="shared" si="28"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="406" spans="1:24">
@@ -33437,7 +33528,7 @@
         <v>310022</v>
       </c>
       <c r="B406" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C406">
         <f t="shared" si="27"/>
@@ -33501,11 +33592,11 @@
         <v>0</v>
       </c>
       <c r="W406">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="X406">
         <f t="shared" si="28"/>
-        <v>72000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -33513,7 +33604,7 @@
         <v>310023</v>
       </c>
       <c r="B407" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C407">
         <f t="shared" si="27"/>
@@ -33556,7 +33647,7 @@
         <v>8</v>
       </c>
       <c r="P407">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q407">
         <v>9</v>
@@ -33577,11 +33668,11 @@
         <v>0</v>
       </c>
       <c r="W407">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X407">
         <f t="shared" si="28"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -33589,7 +33680,7 @@
         <v>310024</v>
       </c>
       <c r="B408" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C408">
         <f>C407</f>
@@ -33638,7 +33729,7 @@
         <v>0</v>
       </c>
       <c r="R408">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S408">
         <v>9</v>
@@ -33653,11 +33744,11 @@
         <v>0</v>
       </c>
       <c r="W408">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X408">
         <f t="shared" si="28"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="409" spans="1:24">
@@ -33665,7 +33756,7 @@
         <v>310025</v>
       </c>
       <c r="B409" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C409">
         <f>C407</f>
@@ -33720,7 +33811,7 @@
         <v>0</v>
       </c>
       <c r="T409">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U409">
         <v>9</v>
@@ -33729,11 +33820,11 @@
         <v>0</v>
       </c>
       <c r="W409">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="X409">
         <f t="shared" si="28"/>
-        <v>80000</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="410" spans="1:24">
@@ -33741,7 +33832,7 @@
         <v>310026</v>
       </c>
       <c r="B410" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C410">
         <f>A410</f>
@@ -33784,7 +33875,7 @@
         <v>6</v>
       </c>
       <c r="P410">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q410">
         <v>12</v>
@@ -33805,11 +33896,11 @@
         <v>0</v>
       </c>
       <c r="W410">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X410">
         <f t="shared" si="28"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="411" spans="1:24">
@@ -33817,7 +33908,7 @@
         <v>310027</v>
       </c>
       <c r="B411" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C411">
         <f>C410</f>
@@ -33866,7 +33957,7 @@
         <v>0</v>
       </c>
       <c r="R411">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S411">
         <v>12</v>
@@ -33881,11 +33972,11 @@
         <v>0</v>
       </c>
       <c r="W411">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X411">
         <f t="shared" si="28"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="412" spans="1:24">
@@ -33893,7 +33984,7 @@
         <v>310028</v>
       </c>
       <c r="B412" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C412">
         <f>C410</f>
@@ -33948,7 +34039,7 @@
         <v>0</v>
       </c>
       <c r="T412">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U412">
         <v>12</v>
@@ -33957,11 +34048,11 @@
         <v>0</v>
       </c>
       <c r="W412">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="X412">
         <f t="shared" si="28"/>
-        <v>90000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="413" spans="1:24">
@@ -33969,7 +34060,7 @@
         <v>310029</v>
       </c>
       <c r="B413" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C413">
         <f t="shared" ref="C413:C430" si="29">A413</f>
@@ -34000,7 +34091,7 @@
         <v>0</v>
       </c>
       <c r="L413">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M413">
         <v>9</v>
@@ -34033,11 +34124,11 @@
         <v>0</v>
       </c>
       <c r="W413">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="X413">
         <f t="shared" si="28"/>
-        <v>100000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="414" spans="1:24">
@@ -34420,7 +34511,7 @@
         <v>311006</v>
       </c>
       <c r="B419" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C419" s="4">
         <f t="shared" si="29"/>
@@ -34495,7 +34586,7 @@
         <v>311007</v>
       </c>
       <c r="B420" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C420" s="4">
         <f t="shared" si="29"/>
@@ -34570,7 +34661,7 @@
         <v>311008</v>
       </c>
       <c r="B421" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C421" s="4">
         <f t="shared" si="29"/>
@@ -34645,7 +34736,7 @@
         <v>311009</v>
       </c>
       <c r="B422" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C422" s="4">
         <f t="shared" si="29"/>
@@ -34720,7 +34811,7 @@
         <v>311010</v>
       </c>
       <c r="B423" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C423" s="4">
         <f t="shared" si="29"/>
@@ -34795,7 +34886,7 @@
         <v>311011</v>
       </c>
       <c r="B424" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C424" s="4">
         <f t="shared" si="29"/>
@@ -34870,7 +34961,7 @@
         <v>311012</v>
       </c>
       <c r="B425" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C425" s="4">
         <f t="shared" si="29"/>
@@ -34945,7 +35036,7 @@
         <v>311013</v>
       </c>
       <c r="B426" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C426" s="4">
         <f t="shared" si="29"/>
@@ -35020,7 +35111,7 @@
         <v>311014</v>
       </c>
       <c r="B427" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C427" s="4">
         <f t="shared" si="29"/>
@@ -35095,7 +35186,7 @@
         <v>311015</v>
       </c>
       <c r="B428" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C428" s="4">
         <f t="shared" si="29"/>
@@ -35170,7 +35261,7 @@
         <v>311016</v>
       </c>
       <c r="B429" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C429" s="4">
         <f t="shared" si="29"/>
@@ -35245,7 +35336,7 @@
         <v>311017</v>
       </c>
       <c r="B430" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C430" s="4">
         <f t="shared" si="29"/>
@@ -38923,7 +39014,7 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="W49:W58 V142:W144 V198:W200 V375:W377 V404:W406 E265:T265 J414:K478 E414:I418 L266:U418 W81:W87 W110:W116 W145:W151 W201:W207 W256:W265 W313:W322 W378:W384 W407:W413 E479:U1167 E4:U264 V349:W349 E266:K413 V256:V258 V313:V315 V49:V51 V337:W342 V381:V384 V410:V413 V319:V322 V262:V265 V204:V207 V148:V151 V113:V116 V84:V87 V55:V58 V343">
+  <conditionalFormatting sqref="V142:W144 V198:W200 V375:W377 V404:W406 E265:T265 J414:K478 E414:I418 L266:U418 E479:U1167 V349:W349 E266:K413 V49:V51 V381:V384 V410:V413 V319:V322 V262:V265 V204:V207 V148:V151 V113:V116 V84:V87 V55:V58 E4:U264 V256:W258 V313:W315 W49:W58 W81:W87 W110:W116 W143:W151 W198:W207 W256:W265 W313:W322 V337:W343 W375:W384 W404:W413">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>E4=0</formula>
     </cfRule>
@@ -38967,13 +39058,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38987,23 +39078,23 @@
     <col min="7" max="7" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="7.5" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+    <row r="1" spans="1:11" ht="54" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="13"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1">
@@ -39046,7 +39137,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C49" si="0">A4</f>
+        <f t="shared" ref="C4:C50" si="0">A4</f>
         <v>201001</v>
       </c>
       <c r="D4" s="3">
@@ -39717,507 +39808,505 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
+        <v>201021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1102</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>203001</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>244</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>203001</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>11</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>1000</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="8">
         <v>10</v>
       </c>
-      <c r="J24" t="str">
-        <f>CONCATENATE("大洋",I24, "个")</f>
+      <c r="J25" t="str">
+        <f>CONCATENATE("大洋",I25, "个")</f>
         <v>大洋10个</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>203002</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>245</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>203002</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>22</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>1000</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>20</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" ref="J25:J34" si="5">CONCATENATE("大洋",I25, "个")</f>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26:J35" si="5">CONCATENATE("大洋",I26, "个")</f>
         <v>大洋20个</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>203003</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>246</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>203003</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>55</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>1000</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>50</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="5"/>
         <v>大洋50个</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>203004</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>247</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>203004</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>110</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>1000</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>100</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="5"/>
         <v>大洋100个</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="29" spans="1:10">
+      <c r="A29">
         <v>203005</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>248</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>203005</v>
       </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
         <v>550</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>1000</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>500</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="5"/>
         <v>大洋500个</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="30" spans="1:10">
+      <c r="A30">
         <v>203006</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>249</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>203006</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>1100</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>1000</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>1000</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="5"/>
         <v>大洋1000个</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="31" spans="1:10">
+      <c r="A31">
         <v>203007</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>250</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>203007</v>
       </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>5500</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>1000</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <v>5000</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="5"/>
         <v>大洋5000个</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="32" spans="1:10">
+      <c r="A32">
         <v>203008</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>251</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>203008</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <v>11000</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>1000</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <v>10000</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="5"/>
         <v>大洋10000个</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="33" spans="1:10">
+      <c r="A33">
         <v>203009</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>252</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>203009</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <v>55000</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>1000</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="8">
         <v>50000</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="5"/>
         <v>大洋50000个</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
+    <row r="34" spans="1:10">
+      <c r="A34">
         <v>203010</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>253</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="0"/>
         <v>203010</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
         <v>110000</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>1000</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>100000</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="5"/>
         <v>大洋100000个</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
+    <row r="35" spans="1:10">
+      <c r="A35">
         <v>203011</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>254</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>203011</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>10</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <v>550000</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>1000</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I35" s="8">
         <v>500000</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="5"/>
         <v>大洋500000个</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+    <row r="36" spans="1:10">
+      <c r="A36">
         <v>203012</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>255</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>203012</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
         <v>30</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
         <v>1100000</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>1000</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I36" s="8">
         <v>1000000</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J36" t="str">
         <f>CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
+    <row r="37" spans="1:10">
+      <c r="A37">
         <v>203013</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>256</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>203013</v>
       </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
         <v>50</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <v>5200000</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>1000</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I37" s="8">
         <v>5000000</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" ref="J36:J38" si="6">CONCATENATE("别说你不知道")</f>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37:J39" si="6">CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+    <row r="38" spans="1:10">
+      <c r="A38">
         <v>203014</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>257</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f t="shared" si="0"/>
         <v>203014</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
         <v>70</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <v>11000000</v>
-      </c>
-      <c r="H37">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="6"/>
-        <v>别说你不知道</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>203015</v>
-      </c>
-      <c r="B38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>203015</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>100</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>52000000</v>
       </c>
       <c r="H38">
         <v>1000</v>
       </c>
       <c r="I38" s="8">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="6"/>
@@ -40226,48 +40315,48 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>203016</v>
+        <v>203015</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>203016</v>
+        <v>203015</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <v>100</v>
+        <v>52000000</v>
       </c>
       <c r="H39">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="8">
-        <v>10</v>
+        <v>50000000</v>
       </c>
       <c r="J39" t="str">
-        <f>CONCATENATE("偶有传闻，声望+",I39)</f>
-        <v>偶有传闻，声望+10</v>
+        <f t="shared" si="6"/>
+        <v>别说你不知道</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>203017</v>
+        <v>203016</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>203017</v>
+        <v>203016</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -40285,23 +40374,23 @@
         <v>1002</v>
       </c>
       <c r="I40" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J41" si="7">CONCATENATE("偶有传闻，声望+",I40)</f>
-        <v>偶有传闻，声望+20</v>
+        <f>CONCATENATE("偶有传闻，声望+",I40)</f>
+        <v>偶有传闻，声望+10</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>203018</v>
+        <v>203017</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>203018</v>
+        <v>203017</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -40319,301 +40408,301 @@
         <v>1002</v>
       </c>
       <c r="I41" s="8">
+        <v>20</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ref="J41:J42" si="7">CONCATENATE("偶有传闻，声望+",I41)</f>
+        <v>偶有传闻，声望+20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>203018</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>203018</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1002</v>
+      </c>
+      <c r="I42" s="8">
         <v>30</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="7"/>
         <v>偶有传闻，声望+30</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
+    <row r="43" spans="1:10">
+      <c r="A43">
         <v>203019</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>261</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="0"/>
         <v>203019</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
         <v>100</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>1002</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I43" s="8">
         <v>50</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" ref="J42:J44" si="8">CONCATENATE("闯闯江湖，声望+",I42)</f>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43:J45" si="8">CONCATENATE("闯闯江湖，声望+",I43)</f>
         <v>闯闯江湖，声望+50</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+    <row r="44" spans="1:10">
+      <c r="A44">
         <v>203020</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>263</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="0"/>
         <v>203020</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
         <v>100</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>1002</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I44" s="8">
         <v>80</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="8"/>
         <v>闯闯江湖，声望+80</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
+    <row r="45" spans="1:10">
+      <c r="A45">
         <v>203021</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>264</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="0"/>
         <v>203021</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
         <v>100</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>1002</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I45" s="8">
         <v>110</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="8"/>
         <v>闯闯江湖，声望+110</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
+    <row r="46" spans="1:10">
+      <c r="A46">
         <v>203022</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>265</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="0"/>
         <v>203022</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
         <v>100</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>1002</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="8">
         <v>150</v>
       </c>
-      <c r="J45" t="str">
-        <f>CONCATENATE("小有名气，声望+",I45)</f>
+      <c r="J46" t="str">
+        <f>CONCATENATE("小有名气，声望+",I46)</f>
         <v>小有名气，声望+150</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
+    <row r="47" spans="1:10">
+      <c r="A47">
         <v>203023</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>266</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="0"/>
         <v>203023</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>1002</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I47" s="8">
         <v>200</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" ref="J46:J47" si="9">CONCATENATE("小有名气，声望+",I46)</f>
+      <c r="J47" t="str">
+        <f t="shared" ref="J47:J48" si="9">CONCATENATE("小有名气，声望+",I47)</f>
         <v>小有名气，声望+200</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
+    <row r="48" spans="1:10">
+      <c r="A48">
         <v>203024</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>267</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="0"/>
         <v>203024</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
         <v>100</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>1002</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="8">
         <v>300</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="9"/>
         <v>小有名气，声望+300</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
+    <row r="49" spans="1:10">
+      <c r="A49">
         <v>203025</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>268</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="0"/>
         <v>203025</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>1002</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I49" s="8">
         <v>400</v>
       </c>
-      <c r="J48" t="str">
-        <f>CONCATENATE("除魔卫道，声望+",I48)</f>
+      <c r="J49" t="str">
+        <f>CONCATENATE("除魔卫道，声望+",I49)</f>
         <v>除魔卫道，声望+400</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
+    <row r="50" spans="1:10">
+      <c r="A50">
         <v>203026</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>269</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="0"/>
         <v>203026</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
         <v>10</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
-        <v>100</v>
-      </c>
-      <c r="H49">
-        <v>1002</v>
-      </c>
-      <c r="I49" s="8">
-        <v>600</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" ref="J49:J50" si="10">CONCATENATE("除魔卫道，声望+",I49)</f>
-        <v>除魔卫道，声望+600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>203027</v>
-      </c>
-      <c r="B50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:C53" si="11">A50</f>
-        <v>203027</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>20</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -40625,158 +40714,159 @@
         <v>1002</v>
       </c>
       <c r="I50" s="8">
+        <v>600</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ref="J50:J51" si="10">CONCATENATE("除魔卫道，声望+",I50)</f>
+        <v>除魔卫道，声望+600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>203027</v>
+      </c>
+      <c r="B51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C54" si="11">A51</f>
+        <v>203027</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>1002</v>
+      </c>
+      <c r="I51" s="8">
         <v>800</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="10"/>
         <v>除魔卫道，声望+800</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
+    <row r="52" spans="1:10">
+      <c r="A52">
         <v>203028</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>271</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="11"/>
         <v>203028</v>
       </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>30</v>
       </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
         <v>100</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>1002</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I52" s="8">
         <v>1100</v>
       </c>
-      <c r="J51" t="str">
-        <f>CONCATENATE("匡扶正义，声望+",I51)</f>
+      <c r="J52" t="str">
+        <f>CONCATENATE("匡扶正义，声望+",I52)</f>
         <v>匡扶正义，声望+1100</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
+    <row r="53" spans="1:10">
+      <c r="A53">
         <v>203029</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>272</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="11"/>
         <v>203029</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
         <v>40</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
         <v>100</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>1002</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I53" s="8">
         <v>1500</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" ref="J52:J53" si="12">CONCATENATE("匡扶正义，声望+",I52)</f>
+      <c r="J53" t="str">
+        <f t="shared" ref="J53:J54" si="12">CONCATENATE("匡扶正义，声望+",I53)</f>
         <v>匡扶正义，声望+1500</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
+    <row r="54" spans="1:10">
+      <c r="A54">
         <v>203030</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>273</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="11"/>
         <v>203030</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>50</v>
       </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
         <v>100</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>1002</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I54" s="8">
         <v>2000</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="12"/>
         <v>匡扶正义，声望+2000</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>204001</v>
-      </c>
-      <c r="B54" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54">
-        <f>A54</f>
-        <v>204001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>500</v>
-      </c>
-      <c r="H54">
-        <v>5101</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>345</v>
-      </c>
-    </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>205001</v>
+        <v>204001</v>
       </c>
       <c r="B55" t="s">
-        <v>456</v>
+        <v>343</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:C66" si="13">A55</f>
-        <v>205001</v>
+        <f>A55</f>
+        <v>204001</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -40788,462 +40878,459 @@
         <v>0</v>
       </c>
       <c r="G55" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="I55" s="8">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>548</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
+        <v>204002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>682</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>99</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5102</v>
+      </c>
+      <c r="I56" s="8">
+        <v>100</v>
+      </c>
+      <c r="J56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>205001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>456</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C68" si="13">A57</f>
+        <v>205001</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
         <v>205002</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>458</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <f t="shared" si="13"/>
         <v>205002</v>
       </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
         <v>10000</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
         <v>205003</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>459</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <f t="shared" si="13"/>
         <v>205003</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>1</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
         <v>100000</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
         <v>205004</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>457</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <f t="shared" si="13"/>
         <v>205004</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>1</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8">
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
         <v>1000</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
         <v>205005</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>460</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <f t="shared" si="13"/>
         <v>205005</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
         <v>10000</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
         <v>205006</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>461</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <f t="shared" si="13"/>
         <v>205006</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
         <v>100000</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
         <v>205007</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>462</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <f t="shared" si="13"/>
         <v>205007</v>
       </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
         <v>1</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
         <v>1000</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
         <v>205008</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>463</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <f t="shared" si="13"/>
         <v>205008</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8">
         <v>10000</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
         <v>205009</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>464</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <f t="shared" si="13"/>
         <v>205009</v>
       </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8">
         <v>100000</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
         <v>205010</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>465</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <f t="shared" si="13"/>
         <v>205010</v>
       </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
         <v>1000</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
         <v>205011</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>466</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <f t="shared" si="13"/>
         <v>205011</v>
       </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
         <v>1</v>
       </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
         <v>10000</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
         <v>205012</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>467</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <f t="shared" si="13"/>
         <v>205012</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
         <v>1</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
         <v>100000</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67">
-        <v>220001</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67">
-        <f>A67</f>
-        <v>220001</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>7</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>500</v>
-      </c>
-      <c r="H67">
-        <v>5001</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" t="str">
-        <f>CONCATENATE("《",B67,"》技能等级+1")</f>
-        <v>《火球术》技能等级+1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
-        <v>220002</v>
-      </c>
-      <c r="B68" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68">
-        <f>$C$67</f>
-        <v>220001</v>
-      </c>
-      <c r="D68" s="3">
-        <v>3</v>
-      </c>
-      <c r="E68" s="3">
-        <v>7</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>500</v>
-      </c>
       <c r="H68">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="I68" s="8">
         <v>0</v>
       </c>
-      <c r="J68" t="str">
-        <f t="shared" ref="J68:J102" si="14">CONCATENATE("《",B68,"》技能等级+1")</f>
-        <v>《治愈术》技能等级+1</v>
+      <c r="J68" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>220003</v>
+        <v>220001</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C102" si="15">$C$67</f>
+        <f>A69</f>
         <v>220001</v>
       </c>
       <c r="D69" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3">
         <v>7</v>
@@ -41261,100 +41348,100 @@
         <v>0</v>
       </c>
       <c r="J69" t="str">
+        <f>CONCATENATE("《",B69,"》技能等级+1")</f>
+        <v>《火球术》技能等级+1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>220002</v>
+      </c>
+      <c r="B70" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70">
+        <f>$C$69</f>
+        <v>220001</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
+        <v>500</v>
+      </c>
+      <c r="H70">
+        <v>5001</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" ref="J70:J104" si="14">CONCATENATE("《",B70,"》技能等级+1")</f>
+        <v>《治愈术》技能等级+1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>220003</v>
+      </c>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C104" si="15">$C$69</f>
+        <v>220001</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>500</v>
+      </c>
+      <c r="H71">
+        <v>5001</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" t="str">
         <f t="shared" si="14"/>
         <v>《基本剑术》技能等级+1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
-        <v>220004</v>
-      </c>
-      <c r="B70" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="15"/>
-        <v>220001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3">
-        <v>9</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>500</v>
-      </c>
-      <c r="H70">
-        <v>5001</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="14"/>
-        <v>《精神力战法》技能等级+1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71">
-        <v>220005</v>
-      </c>
-      <c r="B71" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="15"/>
-        <v>220001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>19</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
-        <v>2000</v>
-      </c>
-      <c r="H71">
-        <v>5001</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="14"/>
-        <v>《大火球》技能等级+1</v>
-      </c>
-    </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>220006</v>
+        <v>220004</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C72">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D72" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="8">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H72">
         <v>5001</v>
@@ -41364,31 +41451,31 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" si="14"/>
-        <v>《攻杀剑术》技能等级+1</v>
+        <v>《精神力战法》技能等级+1</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>220007</v>
+        <v>220005</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C73">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H73">
         <v>5001</v>
@@ -41398,31 +41485,31 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" si="14"/>
-        <v>《施毒术》技能等级+1</v>
+        <v>《大火球》技能等级+1</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>220008</v>
+        <v>220006</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C74">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="8">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="H74">
         <v>5001</v>
@@ -41432,25 +41519,25 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="14"/>
-        <v>《抗拒火环》技能等级+1</v>
+        <v>《攻杀剑术》技能等级+1</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>220009</v>
+        <v>220007</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C75">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -41466,15 +41553,15 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="14"/>
-        <v>《地狱火》技能等级+1</v>
+        <v>《施毒术》技能等级+1</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>220010</v>
+        <v>220008</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76">
         <f t="shared" si="15"/>
@@ -41484,13 +41571,13 @@
         <v>2</v>
       </c>
       <c r="E76" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H76">
         <v>5001</v>
@@ -41500,15 +41587,15 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="14"/>
-        <v>《雷电术》技能等级+1</v>
+        <v>《抗拒火环》技能等级+1</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>220011</v>
+        <v>220009</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C77">
         <f t="shared" si="15"/>
@@ -41518,13 +41605,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="8">
-        <v>9091</v>
+        <v>1000</v>
       </c>
       <c r="H77">
         <v>5001</v>
@@ -41534,25 +41621,25 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="14"/>
-        <v>《疾光电影》技能等级+1</v>
+        <v>《地狱火》技能等级+1</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>220012</v>
+        <v>220010</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C78">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -41568,31 +41655,31 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="14"/>
-        <v>《灵魂火符》技能等级+1</v>
+        <v>《雷电术》技能等级+1</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>220013</v>
+        <v>220011</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C79">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="8">
-        <v>2727</v>
+        <v>9091</v>
       </c>
       <c r="H79">
         <v>5001</v>
@@ -41602,15 +41689,15 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" si="14"/>
-        <v>《幽灵盾》技能等级+1</v>
+        <v>《疾光电影》技能等级+1</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>220014</v>
+        <v>220012</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C80">
         <f t="shared" si="15"/>
@@ -41620,13 +41707,13 @@
         <v>3</v>
       </c>
       <c r="E80" s="3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <v>4545</v>
+        <v>1000</v>
       </c>
       <c r="H80">
         <v>5001</v>
@@ -41636,31 +41723,31 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="14"/>
-        <v>《神圣战甲术》技能等级+1</v>
+        <v>《灵魂火符》技能等级+1</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>220015</v>
+        <v>220013</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C81">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="8">
-        <v>4545</v>
+        <v>2727</v>
       </c>
       <c r="H81">
         <v>5001</v>
@@ -41670,15 +41757,15 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="14"/>
-        <v>《刺杀剑术》技能等级+1</v>
+        <v>《幽灵盾》技能等级+1</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>220016</v>
+        <v>220014</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C82">
         <f t="shared" si="15"/>
@@ -41688,13 +41775,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
       </c>
       <c r="G82" s="8">
-        <v>8000</v>
+        <v>4545</v>
       </c>
       <c r="H82">
         <v>5001</v>
@@ -41704,31 +41791,31 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="14"/>
-        <v>《困魔咒》技能等级+1</v>
+        <v>《神圣战甲术》技能等级+1</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>220017</v>
+        <v>220015</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C83">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="8">
-        <v>2000</v>
+        <v>4545</v>
       </c>
       <c r="H83">
         <v>5001</v>
@@ -41738,15 +41825,15 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" si="14"/>
-        <v>《召唤骷髅》技能等级+1</v>
+        <v>《刺杀剑术》技能等级+1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>220018</v>
+        <v>220016</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C84">
         <f t="shared" si="15"/>
@@ -41756,13 +41843,13 @@
         <v>3</v>
       </c>
       <c r="E84" s="3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
       </c>
       <c r="G84" s="8">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="H84">
         <v>5001</v>
@@ -41772,15 +41859,15 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="14"/>
-        <v>《隐身术》技能等级+1</v>
+        <v>《困魔咒》技能等级+1</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>220019</v>
+        <v>220017</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C85">
         <f t="shared" si="15"/>
@@ -41790,13 +41877,13 @@
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
       </c>
       <c r="G85" s="8">
-        <v>2727</v>
+        <v>2000</v>
       </c>
       <c r="H85">
         <v>5001</v>
@@ -41806,31 +41893,31 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" si="14"/>
-        <v>《集体隐身术》技能等级+1</v>
+        <v>《召唤骷髅》技能等级+1</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>220020</v>
+        <v>220018</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C86">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D86" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H86">
         <v>5001</v>
@@ -41840,31 +41927,31 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="14"/>
-        <v>《诱惑之光》技能等级+1</v>
+        <v>《隐身术》技能等级+1</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>220021</v>
+        <v>220019</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D87" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
       </c>
       <c r="G87" s="8">
-        <v>2000</v>
+        <v>2727</v>
       </c>
       <c r="H87">
         <v>5001</v>
@@ -41874,15 +41961,15 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" si="14"/>
-        <v>《瞬息移动》技能等级+1</v>
+        <v>《集体隐身术》技能等级+1</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>220022</v>
+        <v>220020</v>
       </c>
       <c r="B88" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="C88">
         <f t="shared" si="15"/>
@@ -41892,13 +41979,13 @@
         <v>2</v>
       </c>
       <c r="E88" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
       </c>
       <c r="G88" s="8">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="H88">
         <v>5001</v>
@@ -41908,15 +41995,15 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="14"/>
-        <v>《附体之炎》技能等级+1</v>
+        <v>《诱惑之光》技能等级+1</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>220023</v>
+        <v>220021</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C89">
         <f t="shared" si="15"/>
@@ -41926,13 +42013,13 @@
         <v>2</v>
       </c>
       <c r="E89" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="8">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="H89">
         <v>5001</v>
@@ -41942,15 +42029,15 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="14"/>
-        <v>《爆裂火焰》技能等级+1</v>
+        <v>《瞬息移动》技能等级+1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>220024</v>
+        <v>220022</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>537</v>
       </c>
       <c r="C90">
         <f t="shared" si="15"/>
@@ -41960,13 +42047,13 @@
         <v>2</v>
       </c>
       <c r="E90" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="8">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="H90">
         <v>5001</v>
@@ -41976,31 +42063,31 @@
       </c>
       <c r="J90" t="str">
         <f t="shared" si="14"/>
-        <v>《地狱雷光》技能等级+1</v>
+        <v>《附体之炎》技能等级+1</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>220025</v>
+        <v>220023</v>
       </c>
       <c r="B91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C91">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <v>8000</v>
+        <v>2700</v>
       </c>
       <c r="H91">
         <v>5001</v>
@@ -42010,31 +42097,31 @@
       </c>
       <c r="J91" t="str">
         <f t="shared" si="14"/>
-        <v>《半月弯刀》技能等级+1</v>
+        <v>《爆裂火焰》技能等级+1</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>220026</v>
+        <v>220024</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C92">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="H92">
         <v>5001</v>
@@ -42044,15 +42131,15 @@
       </c>
       <c r="J92" t="str">
         <f t="shared" si="14"/>
-        <v>《烈火剑法》技能等级+1</v>
+        <v>《地狱雷光》技能等级+1</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>220027</v>
+        <v>220025</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C93">
         <f t="shared" si="15"/>
@@ -42062,7 +42149,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -42078,31 +42165,31 @@
       </c>
       <c r="J93" t="str">
         <f t="shared" si="14"/>
-        <v>《野蛮冲撞》技能等级+1</v>
+        <v>《半月弯刀》技能等级+1</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>220028</v>
+        <v>220026</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C94">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="8">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="H94">
         <v>5001</v>
@@ -42112,31 +42199,31 @@
       </c>
       <c r="J94" t="str">
         <f t="shared" si="14"/>
-        <v>《心灵启示》技能等级+1</v>
+        <v>《烈火剑法》技能等级+1</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>220029</v>
+        <v>220027</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C95">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D95" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
       </c>
       <c r="G95" s="8">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="H95">
         <v>5001</v>
@@ -42146,15 +42233,15 @@
       </c>
       <c r="J95" t="str">
         <f t="shared" si="14"/>
-        <v>《群体治疗术》技能等级+1</v>
+        <v>《野蛮冲撞》技能等级+1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>220030</v>
+        <v>220028</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C96">
         <f t="shared" si="15"/>
@@ -42164,13 +42251,13 @@
         <v>3</v>
       </c>
       <c r="E96" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="8">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="H96">
         <v>5001</v>
@@ -42180,25 +42267,25 @@
       </c>
       <c r="J96" t="str">
         <f t="shared" si="14"/>
-        <v>《召唤神兽》技能等级+1</v>
+        <v>《心灵启示》技能等级+1</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>220031</v>
+        <v>220029</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C97">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D97" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -42214,31 +42301,31 @@
       </c>
       <c r="J97" t="str">
         <f t="shared" si="14"/>
-        <v>《魔法盾》技能等级+1</v>
+        <v>《群体治疗术》技能等级+1</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>220032</v>
+        <v>220030</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C98">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D98" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
       </c>
       <c r="G98" s="8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H98">
         <v>5001</v>
@@ -42248,15 +42335,15 @@
       </c>
       <c r="J98" t="str">
         <f t="shared" si="14"/>
-        <v>《圣言术》技能等级+1</v>
+        <v>《召唤神兽》技能等级+1</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>220033</v>
+        <v>220031</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C99">
         <f t="shared" si="15"/>
@@ -42266,13 +42353,13 @@
         <v>2</v>
       </c>
       <c r="E99" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H99">
         <v>5001</v>
@@ -42282,33 +42369,33 @@
       </c>
       <c r="J99" t="str">
         <f t="shared" si="14"/>
-        <v>《冰咆哮》技能等级+1</v>
+        <v>《魔法盾》技能等级+1</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>220034</v>
+        <v>220032</v>
       </c>
       <c r="B100" t="s">
-        <v>549</v>
+        <v>308</v>
       </c>
       <c r="C100">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <v>50000</v>
-      </c>
-      <c r="H100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H100">
         <v>5001</v>
       </c>
       <c r="I100" s="8">
@@ -42316,33 +42403,33 @@
       </c>
       <c r="J100" t="str">
         <f t="shared" si="14"/>
-        <v>《战神守护》技能等级+1</v>
+        <v>《圣言术》技能等级+1</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>220035</v>
+        <v>220033</v>
       </c>
       <c r="B101" t="s">
-        <v>550</v>
+        <v>309</v>
       </c>
       <c r="C101">
         <f t="shared" si="15"/>
         <v>220001</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <v>50000</v>
-      </c>
-      <c r="H101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H101">
         <v>5001</v>
       </c>
       <c r="I101" s="8">
@@ -42350,15 +42437,15 @@
       </c>
       <c r="J101" t="str">
         <f t="shared" si="14"/>
-        <v>《逐日剑法》技能等级+1</v>
+        <v>《冰咆哮》技能等级+1</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>220036</v>
+        <v>220034</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C102">
         <f t="shared" si="15"/>
@@ -42368,7 +42455,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="3">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -42384,679 +42471,800 @@
       </c>
       <c r="J102" t="str">
         <f t="shared" si="14"/>
-        <v>《开天斩》技能等级+1</v>
+        <v>《战神守护》技能等级+1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>299001</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>313</v>
+        <v>220035</v>
+      </c>
+      <c r="B103" t="s">
+        <v>549</v>
       </c>
       <c r="C103">
-        <f>A103</f>
-        <v>299001</v>
+        <f t="shared" si="15"/>
+        <v>220001</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="8">
-        <v>16</v>
+        <v>50000</v>
       </c>
       <c r="H103" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I103" s="8">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>314</v>
+      <c r="J103" t="str">
+        <f t="shared" si="14"/>
+        <v>《逐日剑法》技能等级+1</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>299002</v>
+        <v>220036</v>
       </c>
       <c r="B104" t="s">
-        <v>319</v>
+        <v>550</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:C122" si="16">A104</f>
-        <v>299002</v>
+        <f t="shared" si="15"/>
+        <v>220001</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <v>18</v>
+        <v>50000</v>
       </c>
       <c r="H104" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I104" s="8">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>542</v>
+      <c r="J104" t="str">
+        <f t="shared" si="14"/>
+        <v>《开天斩》技能等级+1</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
+        <v>299001</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105">
+        <f>A105</f>
+        <v>299001</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <v>16</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>299002</v>
+      </c>
+      <c r="B106" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:C124" si="16">A106</f>
+        <v>299002</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <v>18</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
         <v>299003</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>318</v>
       </c>
-      <c r="C105">
+      <c r="C107">
         <f t="shared" si="16"/>
         <v>299003</v>
       </c>
-      <c r="D105" s="3">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
         <v>1</v>
       </c>
-      <c r="F105" s="3">
-        <v>0</v>
-      </c>
-      <c r="G105" s="8">
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
         <v>20</v>
       </c>
-      <c r="H105" s="3">
-        <v>0</v>
-      </c>
-      <c r="I105" s="8">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106">
+    <row r="108" spans="1:10">
+      <c r="A108">
         <v>299004</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>322</v>
       </c>
-      <c r="C106">
+      <c r="C108">
         <f t="shared" si="16"/>
         <v>299004</v>
       </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
         <v>1</v>
       </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
         <v>22</v>
       </c>
-      <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106" s="8">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="8">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
-      <c r="A107">
+    <row r="109" spans="1:10">
+      <c r="A109">
         <v>299005</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>315</v>
       </c>
-      <c r="C107">
+      <c r="C109">
         <f t="shared" si="16"/>
         <v>299005</v>
       </c>
-      <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
         <v>1</v>
       </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
         <v>24</v>
       </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="8">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
+    <row r="110" spans="1:10">
+      <c r="A110">
         <v>299006</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>320</v>
       </c>
-      <c r="C108">
+      <c r="C110">
         <f t="shared" si="16"/>
         <v>299006</v>
       </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
         <v>1</v>
       </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
         <v>26</v>
       </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
+    <row r="111" spans="1:10">
+      <c r="A111">
         <v>299007</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>316</v>
       </c>
-      <c r="C109">
+      <c r="C111">
         <f t="shared" si="16"/>
         <v>299007</v>
       </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
         <v>1</v>
       </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
         <v>28</v>
       </c>
-      <c r="H109" s="3">
-        <v>0</v>
-      </c>
-      <c r="I109" s="8">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110">
+    <row r="112" spans="1:10">
+      <c r="A112">
         <v>299008</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>317</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <f t="shared" si="16"/>
         <v>299008</v>
       </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
         <v>30</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
-      <c r="I110" s="8">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
+    <row r="113" spans="1:10">
+      <c r="A113">
         <v>299009</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>340</v>
       </c>
-      <c r="C111">
+      <c r="C113">
         <f t="shared" si="16"/>
         <v>299009</v>
       </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
         <v>32</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
+    <row r="114" spans="1:10">
+      <c r="A114">
         <v>299010</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>321</v>
       </c>
-      <c r="C112">
+      <c r="C114">
         <f t="shared" si="16"/>
         <v>299010</v>
       </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
         <v>34</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112" s="8">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
+    <row r="115" spans="1:10">
+      <c r="A115">
         <v>299011</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>337</v>
       </c>
-      <c r="C113">
+      <c r="C115">
         <f t="shared" si="16"/>
         <v>299011</v>
       </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
         <v>36</v>
       </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
+    <row r="116" spans="1:10">
+      <c r="A116">
         <v>299012</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>339</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <f t="shared" si="16"/>
         <v>299012</v>
       </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
         <v>1</v>
       </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
         <v>38</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" s="8">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
+    <row r="117" spans="1:10">
+      <c r="A117">
         <v>299013</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>323</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <f t="shared" si="16"/>
         <v>299013</v>
       </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
         <v>40</v>
       </c>
-      <c r="H115" s="3">
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
+    <row r="118" spans="1:10">
+      <c r="A118">
         <v>299014</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>336</v>
       </c>
-      <c r="C116">
+      <c r="C118">
         <f t="shared" si="16"/>
         <v>299014</v>
       </c>
-      <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>1</v>
       </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
         <v>42</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
+    <row r="119" spans="1:10">
+      <c r="A119">
         <v>299015</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>338</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <f t="shared" si="16"/>
         <v>299015</v>
       </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
         <v>44</v>
       </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118">
+    <row r="120" spans="1:10">
+      <c r="A120">
         <v>299016</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>324</v>
       </c>
-      <c r="C118">
+      <c r="C120">
         <f t="shared" si="16"/>
         <v>299016</v>
       </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
         <v>1</v>
       </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
         <v>46</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
+    <row r="121" spans="1:10">
+      <c r="A121">
         <v>299017</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>325</v>
       </c>
-      <c r="C119">
+      <c r="C121">
         <f t="shared" si="16"/>
         <v>299017</v>
       </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
         <v>48</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
+    <row r="122" spans="1:10">
+      <c r="A122">
         <v>299018</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>326</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <f t="shared" si="16"/>
         <v>299018</v>
       </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
       </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
         <v>50</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
+    <row r="123" spans="1:10">
+      <c r="A123">
         <v>299019</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>342</v>
       </c>
-      <c r="C121">
+      <c r="C123">
         <f t="shared" si="16"/>
         <v>299019</v>
       </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
         <v>52</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
+    <row r="124" spans="1:10">
+      <c r="A124">
         <v>299020</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>341</v>
       </c>
-      <c r="C122">
+      <c r="C124">
         <f t="shared" si="16"/>
         <v>299020</v>
       </c>
-      <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
         <v>54</v>
       </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
-      <c r="H123" s="3"/>
+    <row r="125" spans="1:10">
+      <c r="A125">
+        <v>299021</v>
+      </c>
+      <c r="B125" t="s">
+        <v>685</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="J125" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>299022</v>
+      </c>
+      <c r="B126" t="s">
+        <v>686</v>
+      </c>
+      <c r="J126" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>299023</v>
+      </c>
+      <c r="B127" t="s">
+        <v>689</v>
+      </c>
+      <c r="J127" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" t="s">
+        <v>691</v>
+      </c>
+      <c r="J128" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" t="s">
+        <v>693</v>
+      </c>
+      <c r="J129" t="s">
+        <v>694</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I24:I37 G88:G93 G24:G66 G95:G65522"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I25:I38 G90:G95 G97:G65524 G24:G56 G57:G68"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H1048576">
+      <formula1>$A$2:$A$21</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43066,9 +43274,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>道具作用说明表!$A$2:$A$20</xm:f>
+            <xm:f>道具作用说明表!$A$2:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
+          <xm:sqref>H2:H56</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -43078,10 +43286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -43145,18 +43353,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>311</v>
+        <v>1102</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
+        <v>5001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>5101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -46892,37 +47116,37 @@
         <v>534</v>
       </c>
       <c r="B1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1" t="s">
         <v>656</v>
       </c>
-      <c r="C1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>657</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>658</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>659</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>660</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>661</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>662</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>663</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>664</v>
-      </c>
-      <c r="L1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -48878,22 +49102,22 @@
         <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D1" t="s">
         <v>667</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>668</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>669</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>670</v>
-      </c>
-      <c r="G1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -49091,5 +49315,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="60" windowWidth="14340" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="5385" yWindow="60" windowWidth="14340" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -3167,11 +3167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA478"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6956,10 +6956,10 @@
         <v>30</v>
       </c>
       <c r="S50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T50">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V51">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -29962,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="X344">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y344" s="9">
         <v>50</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="X345">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y345" s="9">
         <v>50</v>
@@ -30118,7 +30118,7 @@
         <v>0</v>
       </c>
       <c r="X346">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y346" s="9">
         <v>50</v>
@@ -30196,7 +30196,7 @@
         <v>0</v>
       </c>
       <c r="X347">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y347" s="9">
         <v>50</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="X348">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y348" s="9">
         <v>50</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="X349">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y349" s="9">
         <v>50</v>
@@ -30430,7 +30430,7 @@
         <v>0</v>
       </c>
       <c r="X350">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y350" s="9">
         <v>50</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="X351">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y351" s="9">
         <v>50</v>
@@ -30586,7 +30586,7 @@
         <v>0</v>
       </c>
       <c r="X352">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y352" s="9">
         <v>50</v>
@@ -30664,7 +30664,7 @@
         <v>0</v>
       </c>
       <c r="X353">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y353" s="9">
         <v>50</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="X354">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y354" s="9">
         <v>50</v>
@@ -30820,7 +30820,7 @@
         <v>0</v>
       </c>
       <c r="X355">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y355" s="9">
         <v>50</v>
@@ -35832,7 +35832,7 @@
         <v>0</v>
       </c>
       <c r="X419">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y419" s="9">
         <v>0</v>
@@ -35910,7 +35910,7 @@
         <v>0</v>
       </c>
       <c r="X420">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y420" s="9">
         <v>0</v>
@@ -35988,7 +35988,7 @@
         <v>0</v>
       </c>
       <c r="X421">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y421" s="9">
         <v>0</v>
@@ -36066,7 +36066,7 @@
         <v>0</v>
       </c>
       <c r="X422">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y422" s="9">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="X423">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y423" s="9">
         <v>0</v>
@@ -36222,7 +36222,7 @@
         <v>0</v>
       </c>
       <c r="X424">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y424" s="9">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="X425">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y425" s="9">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="X426">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y426" s="9">
         <v>0</v>
@@ -36456,7 +36456,7 @@
         <v>0</v>
       </c>
       <c r="X427">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y427" s="9">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>0</v>
       </c>
       <c r="X428">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y428" s="9">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="X429">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y429" s="9">
         <v>0</v>
@@ -36690,7 +36690,7 @@
         <v>0</v>
       </c>
       <c r="X430">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y430" s="9">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="X431">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y431" s="9">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>0</v>
       </c>
       <c r="X432">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y432" s="9">
         <v>0</v>
@@ -36924,7 +36924,7 @@
         <v>0</v>
       </c>
       <c r="X433">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y433" s="9">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="X434">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y434" s="9">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="X435">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y435" s="9">
         <v>0</v>
@@ -37158,7 +37158,7 @@
         <v>0</v>
       </c>
       <c r="X436">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y436" s="9">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="X437">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y437" s="9">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>0</v>
       </c>
       <c r="X438">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y438" s="9">
         <v>0</v>
@@ -37392,7 +37392,7 @@
         <v>0</v>
       </c>
       <c r="X439">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y439" s="9">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="X440">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y440" s="9">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="X441">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y441" s="9">
         <v>0</v>
@@ -37626,7 +37626,7 @@
         <v>0</v>
       </c>
       <c r="X442">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y442" s="9">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="X443">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y443" s="9">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="X444">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y444" s="9">
         <v>0</v>
@@ -37860,7 +37860,7 @@
         <v>0</v>
       </c>
       <c r="X445">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y445" s="9">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="X446">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y446" s="9">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="X447">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y447" s="9">
         <v>0</v>
@@ -38094,7 +38094,7 @@
         <v>0</v>
       </c>
       <c r="X448">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y448" s="9">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="X449">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y449" s="9">
         <v>0</v>
@@ -38250,7 +38250,7 @@
         <v>0</v>
       </c>
       <c r="X450">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y450" s="9">
         <v>0</v>
@@ -38328,7 +38328,7 @@
         <v>0</v>
       </c>
       <c r="X451">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y451" s="9">
         <v>0</v>
@@ -38406,7 +38406,7 @@
         <v>0</v>
       </c>
       <c r="X452">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y452" s="9">
         <v>0</v>
@@ -38484,7 +38484,7 @@
         <v>0</v>
       </c>
       <c r="X453">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y453" s="9">
         <v>0</v>
@@ -38562,7 +38562,7 @@
         <v>0</v>
       </c>
       <c r="X454">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y454" s="9">
         <v>0</v>
@@ -38640,7 +38640,7 @@
         <v>0</v>
       </c>
       <c r="X455">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y455" s="9">
         <v>0</v>
@@ -38718,7 +38718,7 @@
         <v>0</v>
       </c>
       <c r="X456">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y456" s="9">
         <v>0</v>
@@ -38796,7 +38796,7 @@
         <v>0</v>
       </c>
       <c r="X457">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y457" s="9">
         <v>0</v>
@@ -38874,7 +38874,7 @@
         <v>0</v>
       </c>
       <c r="X458">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y458" s="9">
         <v>0</v>
@@ -38952,7 +38952,7 @@
         <v>0</v>
       </c>
       <c r="X459">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y459" s="9">
         <v>0</v>
@@ -39030,7 +39030,7 @@
         <v>0</v>
       </c>
       <c r="X460">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y460" s="9">
         <v>0</v>
@@ -39108,7 +39108,7 @@
         <v>0</v>
       </c>
       <c r="X461">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y461" s="9">
         <v>0</v>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="X462">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y462" s="9">
         <v>0</v>
@@ -39264,7 +39264,7 @@
         <v>0</v>
       </c>
       <c r="X463">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y463" s="9">
         <v>0</v>
@@ -39342,7 +39342,7 @@
         <v>0</v>
       </c>
       <c r="X464">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y464" s="9">
         <v>0</v>
@@ -39420,7 +39420,7 @@
         <v>0</v>
       </c>
       <c r="X465">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y465" s="9">
         <v>0</v>
@@ -39498,7 +39498,7 @@
         <v>0</v>
       </c>
       <c r="X466">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y466" s="9">
         <v>0</v>
@@ -39576,7 +39576,7 @@
         <v>0</v>
       </c>
       <c r="X467">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Y467" s="9">
         <v>0</v>
@@ -39654,7 +39654,7 @@
         <v>0</v>
       </c>
       <c r="X468">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Y468" s="9">
         <v>0</v>
@@ -39732,7 +39732,7 @@
         <v>0</v>
       </c>
       <c r="X469">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="Y469" s="9">
         <v>0</v>
@@ -39810,7 +39810,7 @@
         <v>0</v>
       </c>
       <c r="X470">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="Y470" s="9">
         <v>0</v>
@@ -39888,7 +39888,7 @@
         <v>0</v>
       </c>
       <c r="X471">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="Y471" s="9">
         <v>0</v>
@@ -39966,7 +39966,7 @@
         <v>0</v>
       </c>
       <c r="X472">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="Y472" s="9">
         <v>0</v>
@@ -40044,7 +40044,7 @@
         <v>0</v>
       </c>
       <c r="X473">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Y473" s="9">
         <v>0</v>
@@ -40122,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="X474">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="Y474" s="9">
         <v>0</v>
@@ -40200,7 +40200,7 @@
         <v>0</v>
       </c>
       <c r="X475">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="Y475" s="9">
         <v>0</v>
@@ -40278,7 +40278,7 @@
         <v>0</v>
       </c>
       <c r="X476">
-        <v>800</v>
+        <v>899</v>
       </c>
       <c r="Y476" s="9">
         <v>0</v>
@@ -40356,7 +40356,7 @@
         <v>0</v>
       </c>
       <c r="X477">
-        <v>950</v>
+        <v>1099</v>
       </c>
       <c r="Y477" s="9">
         <v>0</v>
@@ -40434,7 +40434,7 @@
         <v>0</v>
       </c>
       <c r="X478">
-        <v>1100</v>
+        <v>1299</v>
       </c>
       <c r="Y478" s="9">
         <v>0</v>
@@ -40464,7 +40464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="6075" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="3750" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="732">
   <si>
     <t>ID</t>
   </si>
@@ -2789,6 +2789,15 @@
   <si>
     <t>攻速，不随等级成长</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥火咒</t>
+  </si>
+  <si>
+    <t>狂雷闪</t>
+  </si>
+  <si>
+    <t>怒炎</t>
   </si>
 </sst>
 </file>
@@ -3432,10 +3441,10 @@
   <dimension ref="A1:AD487"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D475" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="B492" sqref="B492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19106,7 +19115,7 @@
         <v>32</v>
       </c>
       <c r="AB181">
-        <v>800000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -34073,22 +34082,22 @@
         <v>0</v>
       </c>
       <c r="T353">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U353">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="V353">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W353">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="X353">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y353">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="Z353">
         <v>0</v>
@@ -34160,22 +34169,22 @@
         <v>0</v>
       </c>
       <c r="T354">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="U354">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="V354">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="W354">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="X354">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Y354">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="Z354">
         <v>0</v>
@@ -34247,22 +34256,22 @@
         <v>0</v>
       </c>
       <c r="T355">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="U355">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="V355">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="W355">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="X355">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="Y355">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="Z355">
         <v>0</v>
@@ -34334,22 +34343,22 @@
         <v>0</v>
       </c>
       <c r="T356">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="U356">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="V356">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="W356">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="X356">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="Y356">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="Z356">
         <v>0</v>
@@ -34421,22 +34430,22 @@
         <v>0</v>
       </c>
       <c r="T357">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="U357">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="V357">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="W357">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="X357">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="Y357">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="Z357">
         <v>0</v>
@@ -34508,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="T358">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="U358">
-        <v>728</v>
+        <v>473</v>
       </c>
       <c r="V358">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="W358">
-        <v>728</v>
+        <v>473</v>
       </c>
       <c r="X358">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="Y358">
-        <v>728</v>
+        <v>473</v>
       </c>
       <c r="Z358">
         <v>0</v>
@@ -34595,22 +34604,22 @@
         <v>0</v>
       </c>
       <c r="T359">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="U359">
-        <v>920</v>
+        <v>598</v>
       </c>
       <c r="V359">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="W359">
-        <v>920</v>
+        <v>598</v>
       </c>
       <c r="X359">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="Y359">
-        <v>920</v>
+        <v>598</v>
       </c>
       <c r="Z359">
         <v>0</v>
@@ -34682,22 +34691,22 @@
         <v>0</v>
       </c>
       <c r="T360">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="U360">
-        <v>1136</v>
+        <v>738</v>
       </c>
       <c r="V360">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="W360">
-        <v>1136</v>
+        <v>738</v>
       </c>
       <c r="X360">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="Y360">
-        <v>1136</v>
+        <v>738</v>
       </c>
       <c r="Z360">
         <v>0</v>
@@ -34769,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="T361">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="U361">
-        <v>1376</v>
+        <v>894</v>
       </c>
       <c r="V361">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="W361">
-        <v>1376</v>
+        <v>894</v>
       </c>
       <c r="X361">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="Y361">
-        <v>1376</v>
+        <v>894</v>
       </c>
       <c r="Z361">
         <v>0</v>
@@ -34856,22 +34865,22 @@
         <v>0</v>
       </c>
       <c r="T362">
-        <v>1008</v>
+        <v>705</v>
       </c>
       <c r="U362">
-        <v>1648</v>
+        <v>1071</v>
       </c>
       <c r="V362">
-        <v>1008</v>
+        <v>705</v>
       </c>
       <c r="W362">
-        <v>1648</v>
+        <v>1071</v>
       </c>
       <c r="X362">
-        <v>1008</v>
+        <v>705</v>
       </c>
       <c r="Y362">
-        <v>1648</v>
+        <v>1071</v>
       </c>
       <c r="Z362">
         <v>0</v>
@@ -34943,22 +34952,22 @@
         <v>0</v>
       </c>
       <c r="T363">
-        <v>1248</v>
+        <v>873</v>
       </c>
       <c r="U363">
-        <v>1952</v>
+        <v>1268</v>
       </c>
       <c r="V363">
-        <v>1248</v>
+        <v>873</v>
       </c>
       <c r="W363">
-        <v>1952</v>
+        <v>1268</v>
       </c>
       <c r="X363">
-        <v>1248</v>
+        <v>873</v>
       </c>
       <c r="Y363">
-        <v>1952</v>
+        <v>1268</v>
       </c>
       <c r="Z363">
         <v>0</v>
@@ -35030,22 +35039,22 @@
         <v>0</v>
       </c>
       <c r="T364">
-        <v>1520</v>
+        <v>1064</v>
       </c>
       <c r="U364">
-        <v>2288</v>
+        <v>1487</v>
       </c>
       <c r="V364">
-        <v>1520</v>
+        <v>1064</v>
       </c>
       <c r="W364">
-        <v>2288</v>
+        <v>1487</v>
       </c>
       <c r="X364">
-        <v>1520</v>
+        <v>1064</v>
       </c>
       <c r="Y364">
-        <v>2288</v>
+        <v>1487</v>
       </c>
       <c r="Z364">
         <v>0</v>
@@ -40705,22 +40714,22 @@
         <v>0</v>
       </c>
       <c r="T429">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="U429">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="V429">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="W429">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="X429">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Y429">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="Z429">
         <v>0</v>
@@ -40792,22 +40801,22 @@
         <v>0</v>
       </c>
       <c r="T430">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="U430">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="V430">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="W430">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="X430">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Y430">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="Z430">
         <v>0</v>
@@ -40879,22 +40888,22 @@
         <v>0</v>
       </c>
       <c r="T431">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="U431">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="V431">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="W431">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="X431">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="Y431">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="Z431">
         <v>0</v>
@@ -40966,22 +40975,22 @@
         <v>0</v>
       </c>
       <c r="T432">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="U432">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="V432">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="W432">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="X432">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="Y432">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="Z432">
         <v>0</v>
@@ -41053,22 +41062,22 @@
         <v>0</v>
       </c>
       <c r="T433">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="U433">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="V433">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="W433">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="X433">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="Y433">
-        <v>429</v>
+        <v>300</v>
       </c>
       <c r="Z433">
         <v>0</v>
@@ -41140,22 +41149,22 @@
         <v>0</v>
       </c>
       <c r="T434">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="U434">
-        <v>715</v>
+        <v>500</v>
       </c>
       <c r="V434">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="W434">
-        <v>715</v>
+        <v>500</v>
       </c>
       <c r="X434">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="Y434">
-        <v>715</v>
+        <v>500</v>
       </c>
       <c r="Z434">
         <v>0</v>
@@ -41227,22 +41236,22 @@
         <v>0</v>
       </c>
       <c r="T435">
-        <v>760</v>
+        <v>532</v>
       </c>
       <c r="U435">
-        <v>1144</v>
+        <v>800</v>
       </c>
       <c r="V435">
-        <v>760</v>
+        <v>532</v>
       </c>
       <c r="W435">
-        <v>1144</v>
+        <v>800</v>
       </c>
       <c r="X435">
-        <v>760</v>
+        <v>532</v>
       </c>
       <c r="Y435">
-        <v>1144</v>
+        <v>800</v>
       </c>
       <c r="Z435">
         <v>0</v>
@@ -41314,22 +41323,22 @@
         <v>0</v>
       </c>
       <c r="T436">
-        <v>1140</v>
+        <v>798</v>
       </c>
       <c r="U436">
-        <v>1716</v>
+        <v>1201</v>
       </c>
       <c r="V436">
-        <v>1140</v>
+        <v>798</v>
       </c>
       <c r="W436">
-        <v>1716</v>
+        <v>1201</v>
       </c>
       <c r="X436">
-        <v>1140</v>
+        <v>798</v>
       </c>
       <c r="Y436">
-        <v>1716</v>
+        <v>1201</v>
       </c>
       <c r="Z436">
         <v>0</v>
@@ -41401,22 +41410,22 @@
         <v>0</v>
       </c>
       <c r="T437">
-        <v>1653</v>
+        <v>1157</v>
       </c>
       <c r="U437">
-        <v>2488</v>
+        <v>1741</v>
       </c>
       <c r="V437">
-        <v>1653</v>
+        <v>1157</v>
       </c>
       <c r="W437">
-        <v>2488</v>
+        <v>1741</v>
       </c>
       <c r="X437">
-        <v>1653</v>
+        <v>1157</v>
       </c>
       <c r="Y437">
-        <v>2488</v>
+        <v>1741</v>
       </c>
       <c r="Z437">
         <v>0</v>
@@ -41488,22 +41497,22 @@
         <v>0</v>
       </c>
       <c r="T438">
-        <v>2397</v>
+        <v>1677</v>
       </c>
       <c r="U438">
-        <v>3608</v>
+        <v>2525</v>
       </c>
       <c r="V438">
-        <v>2397</v>
+        <v>1677</v>
       </c>
       <c r="W438">
-        <v>3608</v>
+        <v>2525</v>
       </c>
       <c r="X438">
-        <v>2397</v>
+        <v>1677</v>
       </c>
       <c r="Y438">
-        <v>3608</v>
+        <v>2525</v>
       </c>
       <c r="Z438">
         <v>0</v>
@@ -41575,22 +41584,22 @@
         <v>0</v>
       </c>
       <c r="T439">
-        <v>3545</v>
+        <v>2481</v>
       </c>
       <c r="U439">
-        <v>5180</v>
+        <v>3626</v>
       </c>
       <c r="V439">
-        <v>3545</v>
+        <v>2481</v>
       </c>
       <c r="W439">
-        <v>5180</v>
+        <v>3626</v>
       </c>
       <c r="X439">
-        <v>3545</v>
+        <v>2481</v>
       </c>
       <c r="Y439">
-        <v>5180</v>
+        <v>3626</v>
       </c>
       <c r="Z439">
         <v>0</v>
@@ -41911,16 +41920,16 @@
         <v>0</v>
       </c>
       <c r="P443">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q443">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="R443">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S443">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="T443">
         <v>0</v>
@@ -42004,10 +42013,10 @@
         <v>0</v>
       </c>
       <c r="R444">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S444">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="T444">
         <v>0</v>
@@ -42085,10 +42094,10 @@
         <v>0</v>
       </c>
       <c r="P445">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q445">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R445">
         <v>0</v>
@@ -42172,16 +42181,16 @@
         <v>0</v>
       </c>
       <c r="P446">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q446">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="R446">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S446">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="T446">
         <v>0</v>
@@ -42265,10 +42274,10 @@
         <v>0</v>
       </c>
       <c r="R447">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S447">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="T447">
         <v>0</v>
@@ -42346,10 +42355,10 @@
         <v>0</v>
       </c>
       <c r="P448">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q448">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="R448">
         <v>0</v>
@@ -42433,16 +42442,16 @@
         <v>0</v>
       </c>
       <c r="P449">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Q449">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="R449">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S449">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="T449">
         <v>0</v>
@@ -42526,10 +42535,10 @@
         <v>0</v>
       </c>
       <c r="R450">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="S450">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="T450">
         <v>0</v>
@@ -42607,10 +42616,10 @@
         <v>0</v>
       </c>
       <c r="P451">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="Q451">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -42694,16 +42703,16 @@
         <v>0</v>
       </c>
       <c r="P452">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="Q452">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="R452">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="S452">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="T452">
         <v>0</v>
@@ -42787,10 +42796,10 @@
         <v>0</v>
       </c>
       <c r="R453">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="S453">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="T453">
         <v>0</v>
@@ -42868,10 +42877,10 @@
         <v>0</v>
       </c>
       <c r="P454">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="Q454">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="R454">
         <v>0</v>
@@ -42955,16 +42964,16 @@
         <v>0</v>
       </c>
       <c r="P455">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="Q455">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="R455">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="S455">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="T455">
         <v>0</v>
@@ -43048,10 +43057,10 @@
         <v>0</v>
       </c>
       <c r="R456">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="S456">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="T456">
         <v>0</v>
@@ -43129,10 +43138,10 @@
         <v>0</v>
       </c>
       <c r="P457">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="Q457">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="R457">
         <v>0</v>
@@ -43216,16 +43225,16 @@
         <v>0</v>
       </c>
       <c r="P458">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="Q458">
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="R458">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="S458">
-        <v>505</v>
+        <v>353</v>
       </c>
       <c r="T458">
         <v>0</v>
@@ -43309,10 +43318,10 @@
         <v>0</v>
       </c>
       <c r="R459">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="S459">
-        <v>606</v>
+        <v>393</v>
       </c>
       <c r="T459">
         <v>0</v>
@@ -43390,10 +43399,10 @@
         <v>0</v>
       </c>
       <c r="P460">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="Q460">
-        <v>688</v>
+        <v>447</v>
       </c>
       <c r="R460">
         <v>0</v>
@@ -43477,16 +43486,16 @@
         <v>0</v>
       </c>
       <c r="P461">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="Q461">
-        <v>803</v>
+        <v>562</v>
       </c>
       <c r="R461">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="S461">
-        <v>707</v>
+        <v>494</v>
       </c>
       <c r="T461">
         <v>0</v>
@@ -43570,10 +43579,10 @@
         <v>0</v>
       </c>
       <c r="R462">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="S462">
-        <v>848</v>
+        <v>551</v>
       </c>
       <c r="T462">
         <v>0</v>
@@ -43651,10 +43660,10 @@
         <v>0</v>
       </c>
       <c r="P463">
-        <v>539</v>
+        <v>377</v>
       </c>
       <c r="Q463">
-        <v>964</v>
+        <v>626</v>
       </c>
       <c r="R463">
         <v>0</v>
@@ -43738,16 +43747,16 @@
         <v>0</v>
       </c>
       <c r="P464">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="Q464">
-        <v>1085</v>
+        <v>759</v>
       </c>
       <c r="R464">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="S464">
-        <v>955</v>
+        <v>668</v>
       </c>
       <c r="T464">
         <v>0</v>
@@ -43831,10 +43840,10 @@
         <v>0</v>
       </c>
       <c r="R465">
-        <v>485</v>
+        <v>339</v>
       </c>
       <c r="S465">
-        <v>1146</v>
+        <v>744</v>
       </c>
       <c r="T465">
         <v>0</v>
@@ -43912,10 +43921,10 @@
         <v>0</v>
       </c>
       <c r="P466">
-        <v>728</v>
+        <v>509</v>
       </c>
       <c r="Q466">
-        <v>1302</v>
+        <v>846</v>
       </c>
       <c r="R466">
         <v>0</v>
@@ -43999,16 +44008,16 @@
         <v>0</v>
       </c>
       <c r="P467">
-        <v>677</v>
+        <v>507</v>
       </c>
       <c r="Q467">
-        <v>1410</v>
+        <v>987</v>
       </c>
       <c r="R467">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="S467">
-        <v>1241</v>
+        <v>868</v>
       </c>
       <c r="T467">
         <v>0</v>
@@ -44092,10 +44101,10 @@
         <v>0</v>
       </c>
       <c r="R468">
-        <v>631</v>
+        <v>441</v>
       </c>
       <c r="S468">
-        <v>1489</v>
+        <v>967</v>
       </c>
       <c r="T468">
         <v>0</v>
@@ -44173,10 +44182,10 @@
         <v>0</v>
       </c>
       <c r="P469">
-        <v>947</v>
+        <v>662</v>
       </c>
       <c r="Q469">
-        <v>1692</v>
+        <v>1099</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -44260,16 +44269,16 @@
         <v>0</v>
       </c>
       <c r="P470">
-        <v>846</v>
+        <v>634</v>
       </c>
       <c r="Q470">
-        <v>1763</v>
+        <v>1234</v>
       </c>
       <c r="R470">
-        <v>564</v>
+        <v>423</v>
       </c>
       <c r="S470">
-        <v>1551</v>
+        <v>1085</v>
       </c>
       <c r="T470">
         <v>0</v>
@@ -44353,10 +44362,10 @@
         <v>0</v>
       </c>
       <c r="R471">
-        <v>789</v>
+        <v>552</v>
       </c>
       <c r="S471">
-        <v>1861</v>
+        <v>1209</v>
       </c>
       <c r="T471">
         <v>0</v>
@@ -44434,10 +44443,10 @@
         <v>0</v>
       </c>
       <c r="P472">
-        <v>1184</v>
+        <v>828</v>
       </c>
       <c r="Q472">
-        <v>2116</v>
+        <v>1375</v>
       </c>
       <c r="R472">
         <v>0</v>
@@ -44521,16 +44530,16 @@
         <v>0</v>
       </c>
       <c r="P473">
-        <v>1032</v>
+        <v>774</v>
       </c>
       <c r="Q473">
-        <v>2151</v>
+        <v>1505</v>
       </c>
       <c r="R473">
-        <v>688</v>
+        <v>516</v>
       </c>
       <c r="S473">
-        <v>1893</v>
+        <v>1325</v>
       </c>
       <c r="T473">
         <v>0</v>
@@ -44614,10 +44623,10 @@
         <v>0</v>
       </c>
       <c r="R474">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="S474">
-        <v>2271</v>
+        <v>1476</v>
       </c>
       <c r="T474">
         <v>0</v>
@@ -44695,10 +44704,10 @@
         <v>0</v>
       </c>
       <c r="P475">
-        <v>1445</v>
+        <v>1011</v>
       </c>
       <c r="Q475">
-        <v>2581</v>
+        <v>1677</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -45786,7 +45795,7 @@
     <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E4:Z4 AA208:AB208 E488:Z1009 H332:Z487 H272:Z328 H211:Z268 H5:Z208 E5:G487">
+  <conditionalFormatting sqref="E4:Z4 AA208:AB208 E488:Z1009 H272:Z328 H211:Z268 H5:Z208 E5:G487 H332:Z487">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>E4=0</formula>
     </cfRule>
@@ -45840,13 +45849,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46099,7 +46108,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>6000</v>
@@ -46439,7 +46448,7 @@
         <v>150</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
         <v>6000</v>
@@ -48165,7 +48174,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" ref="J70:J104" si="14">CONCATENATE("研读后可学会《",B70,"》，并有一定概率提升熟练度")</f>
+        <f t="shared" ref="J70:J107" si="14">CONCATENATE("研读后可学会《",B70,"》，并有一定概率提升熟练度")</f>
         <v>研读后可学会《治愈术》，并有一定概率提升熟练度</v>
       </c>
     </row>
@@ -48177,7 +48186,7 @@
         <v>280</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C104" si="15">$C$69</f>
+        <f t="shared" ref="C71:C107" si="15">$C$69</f>
         <v>220001</v>
       </c>
       <c r="D71" s="3">
@@ -49327,741 +49336,744 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>299001</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>313</v>
+        <v>220037</v>
+      </c>
+      <c r="B105" t="s">
+        <v>729</v>
       </c>
       <c r="C105">
-        <f>A105</f>
-        <v>299001</v>
+        <f t="shared" si="15"/>
+        <v>220001</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E105" s="3">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <v>16</v>
+        <v>50000</v>
       </c>
       <c r="H105" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I105" s="8">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>314</v>
+      <c r="J105" t="str">
+        <f t="shared" si="14"/>
+        <v>研读后可学会《幽冥火咒》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>299002</v>
+        <v>220038</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>730</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:C124" si="16">A106</f>
-        <v>299002</v>
+        <f t="shared" si="15"/>
+        <v>220001</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="8">
-        <v>18</v>
+        <v>50000</v>
       </c>
       <c r="H106" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I106" s="8">
         <v>0</v>
       </c>
-      <c r="J106" t="s">
-        <v>540</v>
+      <c r="J106" t="str">
+        <f t="shared" si="14"/>
+        <v>研读后可学会《狂雷闪》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
+        <v>220039</v>
+      </c>
+      <c r="B107" t="s">
+        <v>731</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="15"/>
+        <v>220001</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3">
+        <v>50</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
+        <v>50000</v>
+      </c>
+      <c r="H107" s="3">
+        <v>5001</v>
+      </c>
+      <c r="I107" s="8">
+        <v>0</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="14"/>
+        <v>研读后可学会《怒炎》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>299001</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108">
+        <f>A108</f>
+        <v>299001</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
+        <v>16</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="8">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>299002</v>
+      </c>
+      <c r="B109" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ref="C109:C127" si="16">A109</f>
+        <v>299002</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
+        <v>18</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
         <v>299003</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>318</v>
       </c>
-      <c r="C107">
+      <c r="C110">
         <f t="shared" si="16"/>
         <v>299003</v>
       </c>
-      <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
         <v>1</v>
       </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
         <v>20</v>
       </c>
-      <c r="H107" s="3">
-        <v>0</v>
-      </c>
-      <c r="I107" s="8">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108">
+    <row r="111" spans="1:10">
+      <c r="A111">
         <v>299004</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>322</v>
       </c>
-      <c r="C108">
+      <c r="C111">
         <f t="shared" si="16"/>
         <v>299004</v>
       </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
         <v>1</v>
       </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
         <v>22</v>
       </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109">
+    <row r="112" spans="1:10">
+      <c r="A112">
         <v>299005</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B112" t="s">
         <v>315</v>
       </c>
-      <c r="C109">
+      <c r="C112">
         <f t="shared" si="16"/>
         <v>299005</v>
       </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
         <v>24</v>
       </c>
-      <c r="H109" s="3">
-        <v>0</v>
-      </c>
-      <c r="I109" s="8">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110">
+    <row r="113" spans="1:10">
+      <c r="A113">
         <v>299006</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B113" t="s">
         <v>320</v>
       </c>
-      <c r="C110">
+      <c r="C113">
         <f t="shared" si="16"/>
         <v>299006</v>
       </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
         <v>26</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
-      <c r="I110" s="8">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
+    <row r="114" spans="1:10">
+      <c r="A114">
         <v>299007</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B114" t="s">
         <v>316</v>
       </c>
-      <c r="C111">
+      <c r="C114">
         <f t="shared" si="16"/>
         <v>299007</v>
       </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
         <v>1</v>
       </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
         <v>28</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
+    <row r="115" spans="1:10">
+      <c r="A115">
         <v>299008</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B115" t="s">
         <v>317</v>
       </c>
-      <c r="C112">
+      <c r="C115">
         <f t="shared" si="16"/>
         <v>299008</v>
       </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
         <v>30</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112" s="8">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
+    <row r="116" spans="1:10">
+      <c r="A116">
         <v>299009</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B116" t="s">
         <v>340</v>
       </c>
-      <c r="C113">
+      <c r="C116">
         <f t="shared" si="16"/>
         <v>299009</v>
       </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
         <v>32</v>
       </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
+    <row r="117" spans="1:10">
+      <c r="A117">
         <v>299010</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B117" t="s">
         <v>321</v>
       </c>
-      <c r="C114">
+      <c r="C117">
         <f t="shared" si="16"/>
         <v>299010</v>
       </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
         <v>34</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" s="8">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
+    <row r="118" spans="1:10">
+      <c r="A118">
         <v>299011</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B118" t="s">
         <v>337</v>
       </c>
-      <c r="C115">
+      <c r="C118">
         <f t="shared" si="16"/>
         <v>299011</v>
       </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
         <v>36</v>
       </c>
-      <c r="H115" s="3">
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
+    <row r="119" spans="1:10">
+      <c r="A119">
         <v>299012</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>339</v>
       </c>
-      <c r="C116">
+      <c r="C119">
         <f t="shared" si="16"/>
         <v>299012</v>
       </c>
-      <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
         <v>38</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
+    <row r="120" spans="1:10">
+      <c r="A120">
         <v>299013</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B120" t="s">
         <v>323</v>
       </c>
-      <c r="C117">
+      <c r="C120">
         <f t="shared" si="16"/>
         <v>299013</v>
       </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
         <v>1</v>
       </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
         <v>40</v>
       </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118">
+    <row r="121" spans="1:10">
+      <c r="A121">
         <v>299014</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B121" t="s">
         <v>336</v>
       </c>
-      <c r="C118">
+      <c r="C121">
         <f t="shared" si="16"/>
         <v>299014</v>
       </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
         <v>42</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
+    <row r="122" spans="1:10">
+      <c r="A122">
         <v>299015</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" t="s">
         <v>338</v>
       </c>
-      <c r="C119">
+      <c r="C122">
         <f t="shared" si="16"/>
         <v>299015</v>
       </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
       </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
         <v>44</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
+    <row r="123" spans="1:10">
+      <c r="A123">
         <v>299016</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B123" t="s">
         <v>324</v>
       </c>
-      <c r="C120">
+      <c r="C123">
         <f t="shared" si="16"/>
         <v>299016</v>
       </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
         <v>46</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
+    <row r="124" spans="1:10">
+      <c r="A124">
         <v>299017</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>325</v>
       </c>
-      <c r="C121">
+      <c r="C124">
         <f t="shared" si="16"/>
         <v>299017</v>
       </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
         <v>48</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
+    <row r="125" spans="1:10">
+      <c r="A125">
         <v>299018</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>326</v>
       </c>
-      <c r="C122">
+      <c r="C125">
         <f t="shared" si="16"/>
         <v>299018</v>
       </c>
-      <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
         <v>50</v>
       </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="8">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
+    <row r="126" spans="1:10">
+      <c r="A126">
         <v>299019</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>342</v>
       </c>
-      <c r="C123">
+      <c r="C126">
         <f t="shared" si="16"/>
         <v>299019</v>
       </c>
-      <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
         <v>52</v>
       </c>
-      <c r="H123" s="3">
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
+    <row r="127" spans="1:10">
+      <c r="A127">
         <v>299020</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
         <v>341</v>
       </c>
-      <c r="C124">
+      <c r="C127">
         <f t="shared" si="16"/>
         <v>299020</v>
       </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
-        <v>54</v>
-      </c>
-      <c r="H124" s="3">
-        <v>0</v>
-      </c>
-      <c r="I124" s="8">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
-        <v>299021</v>
-      </c>
-      <c r="B125" t="s">
-        <v>682</v>
-      </c>
-      <c r="C125">
-        <f>C118</f>
-        <v>299014</v>
-      </c>
-      <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="8">
-        <v>56</v>
-      </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125" s="8">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
-        <v>299022</v>
-      </c>
-      <c r="B126" t="s">
-        <v>683</v>
-      </c>
-      <c r="C126">
-        <f>A126</f>
-        <v>299022</v>
-      </c>
-      <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="8">
-        <v>58</v>
-      </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
-        <v>299023</v>
-      </c>
-      <c r="B127" t="s">
-        <v>688</v>
-      </c>
-      <c r="C127">
-        <f t="shared" ref="C127:C131" si="17">A127</f>
-        <v>299023</v>
-      </c>
       <c r="D127" s="3">
         <v>0</v>
       </c>
@@ -50072,7 +50084,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -50086,133 +50098,232 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
+        <v>299021</v>
+      </c>
+      <c r="B128" t="s">
+        <v>682</v>
+      </c>
+      <c r="C128">
+        <f>C121</f>
+        <v>299014</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>56</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>299022</v>
+      </c>
+      <c r="B129" t="s">
+        <v>683</v>
+      </c>
+      <c r="C129">
+        <f>A129</f>
+        <v>299022</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>58</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>299023</v>
+      </c>
+      <c r="B130" t="s">
+        <v>688</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C134" si="17">A130</f>
+        <v>299023</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>60</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
         <v>299024</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B131" t="s">
         <v>686</v>
       </c>
-      <c r="C128">
+      <c r="C131">
         <f t="shared" si="17"/>
         <v>299024</v>
       </c>
-      <c r="D128" s="3">
-        <v>0</v>
-      </c>
-      <c r="E128" s="3">
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
         <v>1</v>
       </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="8">
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
         <v>62</v>
       </c>
-      <c r="H128" s="3">
-        <v>0</v>
-      </c>
-      <c r="I128" s="8">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
+    <row r="132" spans="1:10">
+      <c r="A132">
         <v>299025</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>689</v>
       </c>
-      <c r="C129">
+      <c r="C132">
         <f t="shared" si="17"/>
         <v>299025</v>
       </c>
-      <c r="D129" s="3">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
         <v>1</v>
       </c>
-      <c r="F129" s="3">
-        <v>0</v>
-      </c>
-      <c r="G129" s="8">
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
         <v>64</v>
       </c>
-      <c r="H129" s="3">
-        <v>0</v>
-      </c>
-      <c r="I129" s="8">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130">
+    <row r="133" spans="1:10">
+      <c r="A133">
         <v>299026</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B133" t="s">
         <v>684</v>
       </c>
-      <c r="C130">
+      <c r="C133">
         <f t="shared" si="17"/>
         <v>299026</v>
       </c>
-      <c r="D130" s="3">
-        <v>0</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-      <c r="G130" s="8">
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
         <v>66</v>
       </c>
-      <c r="H130" s="3">
-        <v>0</v>
-      </c>
-      <c r="I130" s="8">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="8">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
-      <c r="A131">
+    <row r="134" spans="1:10">
+      <c r="A134">
         <v>299027</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B134" t="s">
         <v>687</v>
       </c>
-      <c r="C131">
+      <c r="C134">
         <f t="shared" si="17"/>
         <v>299027</v>
       </c>
-      <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
         <v>1</v>
       </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="8">
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
         <v>68</v>
       </c>
-      <c r="H131" s="3">
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="8">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
         <v>545</v>
       </c>
     </row>
@@ -50221,11 +50332,8 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I25:I38 G90:G95 G24:G68 G97:G65526"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H57:H1048576">
-      <formula1>$A$2:$A$21</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I25:I38 G90:G95 G24:G68 G97:G65529"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50235,9 +50343,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>道具作用说明表!$A$2:$A$21</xm:f>
+            <xm:f>道具作用说明表!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H56</xm:sqref>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="3750" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="5100" yWindow="90" windowWidth="15390" windowHeight="9375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="隐藏属性" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装备!$A$3:$AB$487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装备!$A$3:$AB$475</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="722">
   <si>
     <t>ID</t>
   </si>
@@ -2003,54 +2003,6 @@
   </si>
   <si>
     <t>洪荒护盾</t>
-  </si>
-  <si>
-    <t>太初</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>三才</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>四象</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>六合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>八卦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>九宫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>十方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>神威</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>至尊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>驰天护盾-玄</t>
@@ -2587,10 +2539,6 @@
   </si>
   <si>
     <t>筑基丹</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2798,6 +2746,18 @@
   </si>
   <si>
     <t>怒炎</t>
+  </si>
+  <si>
+    <t>神奇丹药，服用后可助人筑基</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤撒非</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤白虎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3438,13 +3398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD487"/>
+  <dimension ref="A1:AD475"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D475" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B492" sqref="B492"/>
+      <selection pane="bottomRight" activeCell="J470" sqref="J470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3474,7 +3434,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="88.5" hidden="1" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3521,13 +3481,13 @@
         <v>277</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>327</v>
@@ -3536,7 +3496,7 @@
         <v>328</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>329</v>
@@ -3548,10 +3508,10 @@
         <v>331</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>24</v>
@@ -7519,7 +7479,7 @@
         <v>301046</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="2"/>
@@ -7607,7 +7567,7 @@
         <v>301047</v>
       </c>
       <c r="B50" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="2"/>
@@ -7695,7 +7655,7 @@
         <v>301048</v>
       </c>
       <c r="B51" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="2"/>
@@ -7783,7 +7743,7 @@
         <v>301049</v>
       </c>
       <c r="B52" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="2"/>
@@ -7871,7 +7831,7 @@
         <v>301050</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C53" s="4">
         <f>C52</f>
@@ -7959,7 +7919,7 @@
         <v>301051</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C54" s="4">
         <f>C52</f>
@@ -8047,7 +8007,7 @@
         <v>301052</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" ref="C55:C64" si="4">A55</f>
@@ -8135,7 +8095,7 @@
         <v>301053</v>
       </c>
       <c r="B56" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="4"/>
@@ -8223,7 +8183,7 @@
         <v>301054</v>
       </c>
       <c r="B57" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="4"/>
@@ -8311,7 +8271,7 @@
         <v>301055</v>
       </c>
       <c r="B58" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="4"/>
@@ -10313,7 +10273,7 @@
         <v>302023</v>
       </c>
       <c r="B81" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" si="5"/>
@@ -10401,7 +10361,7 @@
         <v>302024</v>
       </c>
       <c r="B82" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C82" s="4">
         <f>C81</f>
@@ -10489,7 +10449,7 @@
         <v>302025</v>
       </c>
       <c r="B83" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C83" s="4">
         <f>C81</f>
@@ -10577,7 +10537,7 @@
         <v>302026</v>
       </c>
       <c r="B84" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C84" s="4">
         <f>A84</f>
@@ -10665,7 +10625,7 @@
         <v>302027</v>
       </c>
       <c r="B85" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C85" s="4">
         <f>C84</f>
@@ -10753,7 +10713,7 @@
         <v>302028</v>
       </c>
       <c r="B86" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C86" s="4">
         <f>C84</f>
@@ -10841,7 +10801,7 @@
         <v>302029</v>
       </c>
       <c r="B87" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" ref="C87:C93" si="7">A87</f>
@@ -12843,7 +12803,7 @@
         <v>303023</v>
       </c>
       <c r="B110" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C110" s="4">
         <f t="shared" si="8"/>
@@ -12931,7 +12891,7 @@
         <v>303024</v>
       </c>
       <c r="B111" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C111" s="4">
         <f>C110</f>
@@ -13019,7 +12979,7 @@
         <v>303025</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C112" s="4">
         <f>C110</f>
@@ -13107,7 +13067,7 @@
         <v>303026</v>
       </c>
       <c r="B113" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C113" s="4">
         <f>A113</f>
@@ -13195,7 +13155,7 @@
         <v>303027</v>
       </c>
       <c r="B114" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C114" s="4">
         <f>C113</f>
@@ -13283,7 +13243,7 @@
         <v>303028</v>
       </c>
       <c r="B115" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C115" s="4">
         <f>C114</f>
@@ -13371,7 +13331,7 @@
         <v>303029</v>
       </c>
       <c r="B116" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="C116" s="4">
         <f>A116</f>
@@ -15633,7 +15593,7 @@
         <v>304026</v>
       </c>
       <c r="B142" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C142">
         <f t="shared" si="11"/>
@@ -15721,7 +15681,7 @@
         <v>304027</v>
       </c>
       <c r="B143" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C143">
         <f t="shared" si="11"/>
@@ -15809,7 +15769,7 @@
         <v>304028</v>
       </c>
       <c r="B144" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C144">
         <f t="shared" si="11"/>
@@ -15897,7 +15857,7 @@
         <v>304029</v>
       </c>
       <c r="B145" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C145">
         <f t="shared" si="11"/>
@@ -15985,7 +15945,7 @@
         <v>304030</v>
       </c>
       <c r="B146" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C146">
         <f>C145</f>
@@ -16073,7 +16033,7 @@
         <v>304031</v>
       </c>
       <c r="B147" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C147">
         <f>C145</f>
@@ -16161,7 +16121,7 @@
         <v>304032</v>
       </c>
       <c r="B148" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="C148">
         <f>A148</f>
@@ -16249,7 +16209,7 @@
         <v>304033</v>
       </c>
       <c r="B149" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C149">
         <f>C148</f>
@@ -16337,7 +16297,7 @@
         <v>304034</v>
       </c>
       <c r="B150" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C150">
         <f>C148</f>
@@ -16425,7 +16385,7 @@
         <v>304035</v>
       </c>
       <c r="B151" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="C151">
         <f t="shared" ref="C151:C186" si="13">A151</f>
@@ -17744,7 +17704,7 @@
         <v>10</v>
       </c>
       <c r="F166" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G166" s="4">
         <v>0</v>
@@ -18008,7 +17968,7 @@
         <v>20</v>
       </c>
       <c r="G169" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -20515,7 +20475,7 @@
         <v>305047</v>
       </c>
       <c r="B198" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C198">
         <f t="shared" si="14"/>
@@ -20603,7 +20563,7 @@
         <v>305048</v>
       </c>
       <c r="B199" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C199">
         <f t="shared" si="14"/>
@@ -20691,7 +20651,7 @@
         <v>305049</v>
       </c>
       <c r="B200" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C200">
         <f t="shared" si="14"/>
@@ -20779,7 +20739,7 @@
         <v>305050</v>
       </c>
       <c r="B201" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C201">
         <f t="shared" si="14"/>
@@ -20867,7 +20827,7 @@
         <v>305051</v>
       </c>
       <c r="B202" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C202">
         <f>C201</f>
@@ -20955,7 +20915,7 @@
         <v>305052</v>
       </c>
       <c r="B203" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C203">
         <f>C201</f>
@@ -21043,7 +21003,7 @@
         <v>305053</v>
       </c>
       <c r="B204" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C204">
         <f>A204</f>
@@ -21128,7 +21088,7 @@
         <v>305054</v>
       </c>
       <c r="B205" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C205">
         <f>C204</f>
@@ -21213,7 +21173,7 @@
         <v>305055</v>
       </c>
       <c r="B206" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C206">
         <f>C204</f>
@@ -21298,7 +21258,7 @@
         <v>305056</v>
       </c>
       <c r="B207" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C207">
         <f t="shared" ref="C207:C212" si="16">A207</f>
@@ -21386,7 +21346,7 @@
         <v>305057</v>
       </c>
       <c r="B208" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C208">
         <f t="shared" si="16"/>
@@ -21473,7 +21433,7 @@
         <v>305058</v>
       </c>
       <c r="B209" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C209">
         <f t="shared" si="16"/>
@@ -21489,7 +21449,7 @@
         <v>20</v>
       </c>
       <c r="G209" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -21560,7 +21520,7 @@
         <v>305059</v>
       </c>
       <c r="B210" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C210">
         <f t="shared" si="16"/>
@@ -23577,7 +23537,7 @@
         <v>20</v>
       </c>
       <c r="G233" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -25823,7 +25783,7 @@
         <v>306049</v>
       </c>
       <c r="B259" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C259">
         <f t="shared" si="18"/>
@@ -25911,7 +25871,7 @@
         <v>306050</v>
       </c>
       <c r="B260" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C260">
         <f t="shared" si="18"/>
@@ -25999,7 +25959,7 @@
         <v>306051</v>
       </c>
       <c r="B261" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C261">
         <f t="shared" si="18"/>
@@ -26087,7 +26047,7 @@
         <v>306052</v>
       </c>
       <c r="B262" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C262" s="4">
         <f t="shared" si="18"/>
@@ -26175,7 +26135,7 @@
         <v>306053</v>
       </c>
       <c r="B263" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C263" s="4">
         <f>C262</f>
@@ -26263,7 +26223,7 @@
         <v>306054</v>
       </c>
       <c r="B264" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C264" s="4">
         <f>C262</f>
@@ -26351,7 +26311,7 @@
         <v>306055</v>
       </c>
       <c r="B265" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C265" s="4">
         <f>A265</f>
@@ -26439,7 +26399,7 @@
         <v>306056</v>
       </c>
       <c r="B266" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C266" s="4">
         <f>C265</f>
@@ -26527,7 +26487,7 @@
         <v>306057</v>
       </c>
       <c r="B267" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C267" s="4">
         <f>C265</f>
@@ -26615,7 +26575,7 @@
         <v>306058</v>
       </c>
       <c r="B268" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C268">
         <f t="shared" ref="C268:C294" si="20">A268</f>
@@ -26703,7 +26663,7 @@
         <v>306059</v>
       </c>
       <c r="B269" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="C269">
         <f>A269</f>
@@ -26790,7 +26750,7 @@
         <v>306060</v>
       </c>
       <c r="B270" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C270">
         <f>A270</f>
@@ -26806,7 +26766,7 @@
         <v>20</v>
       </c>
       <c r="G270" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -26877,7 +26837,7 @@
         <v>306061</v>
       </c>
       <c r="B271" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C271">
         <f>A271</f>
@@ -28530,7 +28490,7 @@
         <v>307019</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C290" s="4">
         <f t="shared" si="20"/>
@@ -29067,7 +29027,7 @@
         <v>25</v>
       </c>
       <c r="G296" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -31052,7 +31012,7 @@
         <v>307048</v>
       </c>
       <c r="B319" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C319">
         <f t="shared" si="22"/>
@@ -31140,7 +31100,7 @@
         <v>307049</v>
       </c>
       <c r="B320" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C320">
         <f t="shared" si="22"/>
@@ -31228,7 +31188,7 @@
         <v>307050</v>
       </c>
       <c r="B321" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C321">
         <f t="shared" si="22"/>
@@ -31316,7 +31276,7 @@
         <v>307051</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C322" s="4">
         <f t="shared" si="22"/>
@@ -31353,7 +31313,7 @@
         <v>0</v>
       </c>
       <c r="N322">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O322">
         <v>0</v>
@@ -31404,7 +31364,7 @@
         <v>307052</v>
       </c>
       <c r="B323" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C323" s="4">
         <f>C322</f>
@@ -31441,7 +31401,7 @@
         <v>0</v>
       </c>
       <c r="N323">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O323">
         <v>0</v>
@@ -31492,7 +31452,7 @@
         <v>307053</v>
       </c>
       <c r="B324" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C324" s="4">
         <f>C322</f>
@@ -31529,7 +31489,7 @@
         <v>0</v>
       </c>
       <c r="N324">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O324">
         <v>0</v>
@@ -31580,7 +31540,7 @@
         <v>307054</v>
       </c>
       <c r="B325" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C325" s="4">
         <f>A325</f>
@@ -31668,7 +31628,7 @@
         <v>307055</v>
       </c>
       <c r="B326" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C326" s="4">
         <f>C325</f>
@@ -31756,7 +31716,7 @@
         <v>307056</v>
       </c>
       <c r="B327" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C327" s="4">
         <f>C325</f>
@@ -31844,7 +31804,7 @@
         <v>307057</v>
       </c>
       <c r="B328" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C328">
         <f>A328</f>
@@ -31881,7 +31841,7 @@
         <v>0</v>
       </c>
       <c r="N328">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O328">
         <v>0</v>
@@ -31932,7 +31892,7 @@
         <v>307058</v>
       </c>
       <c r="B329" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C329">
         <f>A329</f>
@@ -32019,7 +31979,7 @@
         <v>307059</v>
       </c>
       <c r="B330" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C330">
         <f>A330</f>
@@ -32035,7 +31995,7 @@
         <v>25</v>
       </c>
       <c r="G330" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -32106,7 +32066,7 @@
         <v>307060</v>
       </c>
       <c r="B331" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C331">
         <f>A331</f>
@@ -33411,7 +33371,7 @@
         <v>308015</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C346">
         <f>A346</f>
@@ -33499,7 +33459,7 @@
         <v>308016</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C347">
         <f>A347</f>
@@ -33587,7 +33547,7 @@
         <v>308017</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C348">
         <f>A348</f>
@@ -33675,7 +33635,7 @@
         <v>308018</v>
       </c>
       <c r="B349" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C349" s="4">
         <f>A349</f>
@@ -33763,7 +33723,7 @@
         <v>308019</v>
       </c>
       <c r="B350" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C350" s="4">
         <f>C349</f>
@@ -33851,7 +33811,7 @@
         <v>308020</v>
       </c>
       <c r="B351" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C351" s="4">
         <f>C349</f>
@@ -33939,7 +33899,7 @@
         <v>308021</v>
       </c>
       <c r="B352" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C352">
         <f t="shared" ref="C352:C372" si="25">A352</f>
@@ -33979,7 +33939,7 @@
         <v>0</v>
       </c>
       <c r="O352">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P352">
         <v>0</v>
@@ -34103,7 +34063,7 @@
         <v>0</v>
       </c>
       <c r="AA353">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AB353" s="9">
         <v>50</v>
@@ -34190,7 +34150,7 @@
         <v>0</v>
       </c>
       <c r="AA354">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AB354" s="9">
         <v>50</v>
@@ -34277,7 +34237,7 @@
         <v>0</v>
       </c>
       <c r="AA355">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="AB355" s="9">
         <v>50</v>
@@ -34364,7 +34324,7 @@
         <v>0</v>
       </c>
       <c r="AA356">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="AB356" s="9">
         <v>50</v>
@@ -34451,7 +34411,7 @@
         <v>0</v>
       </c>
       <c r="AA357">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AB357" s="9">
         <v>50</v>
@@ -34538,7 +34498,7 @@
         <v>0</v>
       </c>
       <c r="AA358">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="AB358" s="9">
         <v>50</v>
@@ -34625,7 +34585,7 @@
         <v>0</v>
       </c>
       <c r="AA359">
-        <v>599</v>
+        <v>1</v>
       </c>
       <c r="AB359" s="9">
         <v>50</v>
@@ -34712,7 +34672,7 @@
         <v>0</v>
       </c>
       <c r="AA360">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="AB360" s="9">
         <v>50</v>
@@ -34799,7 +34759,7 @@
         <v>0</v>
       </c>
       <c r="AA361">
-        <v>799</v>
+        <v>1</v>
       </c>
       <c r="AB361" s="9">
         <v>50</v>
@@ -34886,7 +34846,7 @@
         <v>0</v>
       </c>
       <c r="AA362">
-        <v>899</v>
+        <v>1</v>
       </c>
       <c r="AB362" s="9">
         <v>50</v>
@@ -34973,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="AA363">
-        <v>1099</v>
+        <v>1</v>
       </c>
       <c r="AB363" s="9">
         <v>50</v>
@@ -35060,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="AA364">
-        <v>1299</v>
+        <v>1</v>
       </c>
       <c r="AB364" s="9">
         <v>50</v>
@@ -36724,7 +36684,7 @@
         <v>309020</v>
       </c>
       <c r="B384" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C384">
         <f>A384</f>
@@ -36812,7 +36772,7 @@
         <v>309021</v>
       </c>
       <c r="B385" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C385">
         <f>A385</f>
@@ -36900,7 +36860,7 @@
         <v>309022</v>
       </c>
       <c r="B386" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C386">
         <f>A386</f>
@@ -36988,7 +36948,7 @@
         <v>309023</v>
       </c>
       <c r="B387" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C387">
         <f>A387</f>
@@ -37076,7 +37036,7 @@
         <v>309024</v>
       </c>
       <c r="B388" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="C388">
         <f>C387</f>
@@ -37164,7 +37124,7 @@
         <v>309025</v>
       </c>
       <c r="B389" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C389">
         <f>C387</f>
@@ -37252,7 +37212,7 @@
         <v>309026</v>
       </c>
       <c r="B390" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C390">
         <f>A390</f>
@@ -37340,7 +37300,7 @@
         <v>309027</v>
       </c>
       <c r="B391" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C391">
         <f>C390</f>
@@ -37428,7 +37388,7 @@
         <v>309028</v>
       </c>
       <c r="B392" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C392">
         <f>C390</f>
@@ -37516,7 +37476,7 @@
         <v>309029</v>
       </c>
       <c r="B393" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="C393">
         <f t="shared" ref="C393:C401" si="27">A393</f>
@@ -39257,7 +39217,7 @@
         <v>310020</v>
       </c>
       <c r="B413" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C413">
         <f t="shared" si="28"/>
@@ -39345,7 +39305,7 @@
         <v>310021</v>
       </c>
       <c r="B414" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C414">
         <f t="shared" si="28"/>
@@ -39433,7 +39393,7 @@
         <v>310022</v>
       </c>
       <c r="B415" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C415">
         <f t="shared" si="28"/>
@@ -39521,7 +39481,7 @@
         <v>310023</v>
       </c>
       <c r="B416" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C416">
         <f t="shared" si="28"/>
@@ -39609,7 +39569,7 @@
         <v>310024</v>
       </c>
       <c r="B417" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C417">
         <f>C416</f>
@@ -39697,7 +39657,7 @@
         <v>310025</v>
       </c>
       <c r="B418" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C418">
         <f>C416</f>
@@ -39785,7 +39745,7 @@
         <v>310026</v>
       </c>
       <c r="B419" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C419">
         <f>A419</f>
@@ -39873,7 +39833,7 @@
         <v>310027</v>
       </c>
       <c r="B420" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C420">
         <f>C419</f>
@@ -39961,7 +39921,7 @@
         <v>310028</v>
       </c>
       <c r="B421" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C421">
         <f>C419</f>
@@ -40049,7 +40009,7 @@
         <v>310029</v>
       </c>
       <c r="B422" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C422">
         <f t="shared" ref="C422:C439" si="30">A422</f>
@@ -40572,7 +40532,7 @@
         <v>311006</v>
       </c>
       <c r="B428" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C428" s="4">
         <f t="shared" si="30"/>
@@ -40659,7 +40619,7 @@
         <v>311007</v>
       </c>
       <c r="B429" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C429" s="4">
         <f t="shared" si="30"/>
@@ -40746,7 +40706,7 @@
         <v>311008</v>
       </c>
       <c r="B430" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C430" s="4">
         <f t="shared" si="30"/>
@@ -40833,7 +40793,7 @@
         <v>311009</v>
       </c>
       <c r="B431" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C431" s="4">
         <f t="shared" si="30"/>
@@ -40920,7 +40880,7 @@
         <v>311010</v>
       </c>
       <c r="B432" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C432" s="4">
         <f t="shared" si="30"/>
@@ -41007,7 +40967,7 @@
         <v>311011</v>
       </c>
       <c r="B433" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C433" s="4">
         <f t="shared" si="30"/>
@@ -41094,7 +41054,7 @@
         <v>311012</v>
       </c>
       <c r="B434" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C434" s="4">
         <f t="shared" si="30"/>
@@ -41181,7 +41141,7 @@
         <v>311013</v>
       </c>
       <c r="B435" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C435" s="4">
         <f t="shared" si="30"/>
@@ -41268,7 +41228,7 @@
         <v>311014</v>
       </c>
       <c r="B436" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C436" s="4">
         <f t="shared" si="30"/>
@@ -41355,7 +41315,7 @@
         <v>311015</v>
       </c>
       <c r="B437" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C437" s="4">
         <f t="shared" si="30"/>
@@ -41442,7 +41402,7 @@
         <v>311016</v>
       </c>
       <c r="B438" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C438" s="4">
         <f t="shared" si="30"/>
@@ -41529,7 +41489,7 @@
         <v>311017</v>
       </c>
       <c r="B439" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C439" s="4">
         <f t="shared" si="30"/>
@@ -41703,7 +41663,7 @@
         <v>312002</v>
       </c>
       <c r="B441" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C441">
         <f>C440</f>
@@ -41790,7 +41750,7 @@
         <v>312003</v>
       </c>
       <c r="B442" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C442">
         <f>C441</f>
@@ -44740,1050 +44700,6 @@
         <v>1299</v>
       </c>
       <c r="AB475" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="476" spans="1:28">
-      <c r="A476" s="3">
-        <v>313001</v>
-      </c>
-      <c r="B476" t="s">
-        <v>512</v>
-      </c>
-      <c r="C476">
-        <f t="shared" ref="C476:C487" si="31">A476</f>
-        <v>313001</v>
-      </c>
-      <c r="D476" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E476" s="4">
-        <v>0</v>
-      </c>
-      <c r="F476" s="4">
-        <v>0</v>
-      </c>
-      <c r="G476" s="4">
-        <v>0</v>
-      </c>
-      <c r="H476">
-        <v>0</v>
-      </c>
-      <c r="I476">
-        <v>0</v>
-      </c>
-      <c r="J476">
-        <v>0</v>
-      </c>
-      <c r="K476">
-        <v>0</v>
-      </c>
-      <c r="L476">
-        <v>0</v>
-      </c>
-      <c r="M476">
-        <v>0</v>
-      </c>
-      <c r="N476">
-        <v>1500</v>
-      </c>
-      <c r="O476">
-        <v>630</v>
-      </c>
-      <c r="P476">
-        <v>0</v>
-      </c>
-      <c r="Q476">
-        <v>0</v>
-      </c>
-      <c r="R476">
-        <v>0</v>
-      </c>
-      <c r="S476">
-        <v>0</v>
-      </c>
-      <c r="T476">
-        <v>0</v>
-      </c>
-      <c r="U476">
-        <v>0</v>
-      </c>
-      <c r="V476">
-        <v>0</v>
-      </c>
-      <c r="W476">
-        <v>0</v>
-      </c>
-      <c r="X476">
-        <v>0</v>
-      </c>
-      <c r="Y476">
-        <v>0</v>
-      </c>
-      <c r="Z476">
-        <v>0</v>
-      </c>
-      <c r="AA476">
-        <v>49</v>
-      </c>
-      <c r="AB476" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="477" spans="1:28">
-      <c r="A477" s="3">
-        <v>313002</v>
-      </c>
-      <c r="B477" t="s">
-        <v>513</v>
-      </c>
-      <c r="C477">
-        <f t="shared" si="31"/>
-        <v>313002</v>
-      </c>
-      <c r="D477" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E477" s="4">
-        <v>0</v>
-      </c>
-      <c r="F477" s="4">
-        <v>0</v>
-      </c>
-      <c r="G477" s="4">
-        <v>0</v>
-      </c>
-      <c r="H477">
-        <v>0</v>
-      </c>
-      <c r="I477">
-        <v>0</v>
-      </c>
-      <c r="J477">
-        <v>0</v>
-      </c>
-      <c r="K477">
-        <v>0</v>
-      </c>
-      <c r="L477">
-        <v>0</v>
-      </c>
-      <c r="M477">
-        <v>0</v>
-      </c>
-      <c r="N477">
-        <v>1510</v>
-      </c>
-      <c r="O477">
-        <v>1658</v>
-      </c>
-      <c r="P477">
-        <v>0</v>
-      </c>
-      <c r="Q477">
-        <v>0</v>
-      </c>
-      <c r="R477">
-        <v>0</v>
-      </c>
-      <c r="S477">
-        <v>0</v>
-      </c>
-      <c r="T477">
-        <v>0</v>
-      </c>
-      <c r="U477">
-        <v>0</v>
-      </c>
-      <c r="V477">
-        <v>0</v>
-      </c>
-      <c r="W477">
-        <v>0</v>
-      </c>
-      <c r="X477">
-        <v>0</v>
-      </c>
-      <c r="Y477">
-        <v>0</v>
-      </c>
-      <c r="Z477">
-        <v>0</v>
-      </c>
-      <c r="AA477">
-        <v>99</v>
-      </c>
-      <c r="AB477" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="478" spans="1:28">
-      <c r="A478" s="3">
-        <v>313003</v>
-      </c>
-      <c r="B478" t="s">
-        <v>514</v>
-      </c>
-      <c r="C478">
-        <f t="shared" si="31"/>
-        <v>313003</v>
-      </c>
-      <c r="D478" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E478" s="4">
-        <v>0</v>
-      </c>
-      <c r="F478" s="4">
-        <v>0</v>
-      </c>
-      <c r="G478" s="4">
-        <v>0</v>
-      </c>
-      <c r="H478">
-        <v>0</v>
-      </c>
-      <c r="I478">
-        <v>0</v>
-      </c>
-      <c r="J478">
-        <v>0</v>
-      </c>
-      <c r="K478">
-        <v>0</v>
-      </c>
-      <c r="L478">
-        <v>0</v>
-      </c>
-      <c r="M478">
-        <v>0</v>
-      </c>
-      <c r="N478">
-        <v>1530</v>
-      </c>
-      <c r="O478">
-        <v>3160</v>
-      </c>
-      <c r="P478">
-        <v>0</v>
-      </c>
-      <c r="Q478">
-        <v>0</v>
-      </c>
-      <c r="R478">
-        <v>0</v>
-      </c>
-      <c r="S478">
-        <v>0</v>
-      </c>
-      <c r="T478">
-        <v>0</v>
-      </c>
-      <c r="U478">
-        <v>0</v>
-      </c>
-      <c r="V478">
-        <v>0</v>
-      </c>
-      <c r="W478">
-        <v>0</v>
-      </c>
-      <c r="X478">
-        <v>0</v>
-      </c>
-      <c r="Y478">
-        <v>0</v>
-      </c>
-      <c r="Z478">
-        <v>0</v>
-      </c>
-      <c r="AA478">
-        <v>199</v>
-      </c>
-      <c r="AB478" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="479" spans="1:28">
-      <c r="A479" s="3">
-        <v>313004</v>
-      </c>
-      <c r="B479" t="s">
-        <v>515</v>
-      </c>
-      <c r="C479">
-        <f t="shared" si="31"/>
-        <v>313004</v>
-      </c>
-      <c r="D479" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E479" s="4">
-        <v>0</v>
-      </c>
-      <c r="F479" s="4">
-        <v>0</v>
-      </c>
-      <c r="G479" s="4">
-        <v>0</v>
-      </c>
-      <c r="H479">
-        <v>0</v>
-      </c>
-      <c r="I479">
-        <v>0</v>
-      </c>
-      <c r="J479">
-        <v>0</v>
-      </c>
-      <c r="K479">
-        <v>0</v>
-      </c>
-      <c r="L479">
-        <v>0</v>
-      </c>
-      <c r="M479">
-        <v>0</v>
-      </c>
-      <c r="N479">
-        <v>1560</v>
-      </c>
-      <c r="O479">
-        <v>5090</v>
-      </c>
-      <c r="P479">
-        <v>0</v>
-      </c>
-      <c r="Q479">
-        <v>0</v>
-      </c>
-      <c r="R479">
-        <v>0</v>
-      </c>
-      <c r="S479">
-        <v>0</v>
-      </c>
-      <c r="T479">
-        <v>0</v>
-      </c>
-      <c r="U479">
-        <v>0</v>
-      </c>
-      <c r="V479">
-        <v>0</v>
-      </c>
-      <c r="W479">
-        <v>0</v>
-      </c>
-      <c r="X479">
-        <v>0</v>
-      </c>
-      <c r="Y479">
-        <v>0</v>
-      </c>
-      <c r="Z479">
-        <v>0</v>
-      </c>
-      <c r="AA479">
-        <v>299</v>
-      </c>
-      <c r="AB479" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="480" spans="1:28">
-      <c r="A480" s="3">
-        <v>313005</v>
-      </c>
-      <c r="B480" t="s">
-        <v>516</v>
-      </c>
-      <c r="C480">
-        <f t="shared" si="31"/>
-        <v>313005</v>
-      </c>
-      <c r="D480" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E480" s="4">
-        <v>0</v>
-      </c>
-      <c r="F480" s="4">
-        <v>0</v>
-      </c>
-      <c r="G480" s="4">
-        <v>0</v>
-      </c>
-      <c r="H480">
-        <v>0</v>
-      </c>
-      <c r="I480">
-        <v>0</v>
-      </c>
-      <c r="J480">
-        <v>0</v>
-      </c>
-      <c r="K480">
-        <v>0</v>
-      </c>
-      <c r="L480">
-        <v>0</v>
-      </c>
-      <c r="M480">
-        <v>0</v>
-      </c>
-      <c r="N480">
-        <v>1600</v>
-      </c>
-      <c r="O480">
-        <v>7424</v>
-      </c>
-      <c r="P480">
-        <v>0</v>
-      </c>
-      <c r="Q480">
-        <v>0</v>
-      </c>
-      <c r="R480">
-        <v>0</v>
-      </c>
-      <c r="S480">
-        <v>0</v>
-      </c>
-      <c r="T480">
-        <v>0</v>
-      </c>
-      <c r="U480">
-        <v>0</v>
-      </c>
-      <c r="V480">
-        <v>0</v>
-      </c>
-      <c r="W480">
-        <v>0</v>
-      </c>
-      <c r="X480">
-        <v>0</v>
-      </c>
-      <c r="Y480">
-        <v>0</v>
-      </c>
-      <c r="Z480">
-        <v>0</v>
-      </c>
-      <c r="AA480">
-        <v>399</v>
-      </c>
-      <c r="AB480" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="481" spans="1:28">
-      <c r="A481" s="3">
-        <v>313006</v>
-      </c>
-      <c r="B481" t="s">
-        <v>517</v>
-      </c>
-      <c r="C481">
-        <f t="shared" si="31"/>
-        <v>313006</v>
-      </c>
-      <c r="D481" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E481" s="4">
-        <v>0</v>
-      </c>
-      <c r="F481" s="4">
-        <v>0</v>
-      </c>
-      <c r="G481" s="4">
-        <v>0</v>
-      </c>
-      <c r="H481">
-        <v>0</v>
-      </c>
-      <c r="I481">
-        <v>0</v>
-      </c>
-      <c r="J481">
-        <v>0</v>
-      </c>
-      <c r="K481">
-        <v>0</v>
-      </c>
-      <c r="L481">
-        <v>0</v>
-      </c>
-      <c r="M481">
-        <v>0</v>
-      </c>
-      <c r="N481">
-        <v>1650</v>
-      </c>
-      <c r="O481">
-        <v>10078</v>
-      </c>
-      <c r="P481">
-        <v>0</v>
-      </c>
-      <c r="Q481">
-        <v>0</v>
-      </c>
-      <c r="R481">
-        <v>0</v>
-      </c>
-      <c r="S481">
-        <v>0</v>
-      </c>
-      <c r="T481">
-        <v>0</v>
-      </c>
-      <c r="U481">
-        <v>0</v>
-      </c>
-      <c r="V481">
-        <v>0</v>
-      </c>
-      <c r="W481">
-        <v>0</v>
-      </c>
-      <c r="X481">
-        <v>0</v>
-      </c>
-      <c r="Y481">
-        <v>0</v>
-      </c>
-      <c r="Z481">
-        <v>0</v>
-      </c>
-      <c r="AA481">
-        <v>499</v>
-      </c>
-      <c r="AB481" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="482" spans="1:28">
-      <c r="A482" s="3">
-        <v>313007</v>
-      </c>
-      <c r="B482" t="s">
-        <v>518</v>
-      </c>
-      <c r="C482">
-        <f t="shared" si="31"/>
-        <v>313007</v>
-      </c>
-      <c r="D482" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E482" s="4">
-        <v>0</v>
-      </c>
-      <c r="F482" s="4">
-        <v>0</v>
-      </c>
-      <c r="G482" s="4">
-        <v>0</v>
-      </c>
-      <c r="H482">
-        <v>0</v>
-      </c>
-      <c r="I482">
-        <v>0</v>
-      </c>
-      <c r="J482">
-        <v>0</v>
-      </c>
-      <c r="K482">
-        <v>0</v>
-      </c>
-      <c r="L482">
-        <v>0</v>
-      </c>
-      <c r="M482">
-        <v>0</v>
-      </c>
-      <c r="N482">
-        <v>1710.0000000000002</v>
-      </c>
-      <c r="O482">
-        <v>13130</v>
-      </c>
-      <c r="P482">
-        <v>0</v>
-      </c>
-      <c r="Q482">
-        <v>0</v>
-      </c>
-      <c r="R482">
-        <v>0</v>
-      </c>
-      <c r="S482">
-        <v>0</v>
-      </c>
-      <c r="T482">
-        <v>0</v>
-      </c>
-      <c r="U482">
-        <v>0</v>
-      </c>
-      <c r="V482">
-        <v>0</v>
-      </c>
-      <c r="W482">
-        <v>0</v>
-      </c>
-      <c r="X482">
-        <v>0</v>
-      </c>
-      <c r="Y482">
-        <v>0</v>
-      </c>
-      <c r="Z482">
-        <v>0</v>
-      </c>
-      <c r="AA482">
-        <v>599</v>
-      </c>
-      <c r="AB482" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="483" spans="1:28">
-      <c r="A483" s="3">
-        <v>313008</v>
-      </c>
-      <c r="B483" t="s">
-        <v>519</v>
-      </c>
-      <c r="C483">
-        <f t="shared" si="31"/>
-        <v>313008</v>
-      </c>
-      <c r="D483" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E483" s="4">
-        <v>0</v>
-      </c>
-      <c r="F483" s="4">
-        <v>0</v>
-      </c>
-      <c r="G483" s="4">
-        <v>0</v>
-      </c>
-      <c r="H483">
-        <v>0</v>
-      </c>
-      <c r="I483">
-        <v>0</v>
-      </c>
-      <c r="J483">
-        <v>0</v>
-      </c>
-      <c r="K483">
-        <v>0</v>
-      </c>
-      <c r="L483">
-        <v>0</v>
-      </c>
-      <c r="M483">
-        <v>0</v>
-      </c>
-      <c r="N483">
-        <v>1780</v>
-      </c>
-      <c r="O483">
-        <v>16714</v>
-      </c>
-      <c r="P483">
-        <v>0</v>
-      </c>
-      <c r="Q483">
-        <v>0</v>
-      </c>
-      <c r="R483">
-        <v>0</v>
-      </c>
-      <c r="S483">
-        <v>0</v>
-      </c>
-      <c r="T483">
-        <v>0</v>
-      </c>
-      <c r="U483">
-        <v>0</v>
-      </c>
-      <c r="V483">
-        <v>0</v>
-      </c>
-      <c r="W483">
-        <v>0</v>
-      </c>
-      <c r="X483">
-        <v>0</v>
-      </c>
-      <c r="Y483">
-        <v>0</v>
-      </c>
-      <c r="Z483">
-        <v>0</v>
-      </c>
-      <c r="AA483">
-        <v>699</v>
-      </c>
-      <c r="AB483" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="484" spans="1:28">
-      <c r="A484" s="3">
-        <v>313009</v>
-      </c>
-      <c r="B484" t="s">
-        <v>520</v>
-      </c>
-      <c r="C484">
-        <f t="shared" si="31"/>
-        <v>313009</v>
-      </c>
-      <c r="D484" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E484" s="4">
-        <v>0</v>
-      </c>
-      <c r="F484" s="4">
-        <v>0</v>
-      </c>
-      <c r="G484" s="4">
-        <v>0</v>
-      </c>
-      <c r="H484">
-        <v>0</v>
-      </c>
-      <c r="I484">
-        <v>0</v>
-      </c>
-      <c r="J484">
-        <v>0</v>
-      </c>
-      <c r="K484">
-        <v>0</v>
-      </c>
-      <c r="L484">
-        <v>0</v>
-      </c>
-      <c r="M484">
-        <v>0</v>
-      </c>
-      <c r="N484">
-        <v>1850</v>
-      </c>
-      <c r="O484">
-        <v>20944</v>
-      </c>
-      <c r="P484">
-        <v>0</v>
-      </c>
-      <c r="Q484">
-        <v>0</v>
-      </c>
-      <c r="R484">
-        <v>0</v>
-      </c>
-      <c r="S484">
-        <v>0</v>
-      </c>
-      <c r="T484">
-        <v>0</v>
-      </c>
-      <c r="U484">
-        <v>0</v>
-      </c>
-      <c r="V484">
-        <v>0</v>
-      </c>
-      <c r="W484">
-        <v>0</v>
-      </c>
-      <c r="X484">
-        <v>0</v>
-      </c>
-      <c r="Y484">
-        <v>0</v>
-      </c>
-      <c r="Z484">
-        <v>0</v>
-      </c>
-      <c r="AA484">
-        <v>799</v>
-      </c>
-      <c r="AB484" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="485" spans="1:28">
-      <c r="A485" s="3">
-        <v>313010</v>
-      </c>
-      <c r="B485" t="s">
-        <v>521</v>
-      </c>
-      <c r="C485">
-        <f t="shared" si="31"/>
-        <v>313010</v>
-      </c>
-      <c r="D485" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E485" s="4">
-        <v>0</v>
-      </c>
-      <c r="F485" s="4">
-        <v>0</v>
-      </c>
-      <c r="G485" s="4">
-        <v>0</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
-      <c r="J485">
-        <v>0</v>
-      </c>
-      <c r="K485">
-        <v>0</v>
-      </c>
-      <c r="L485">
-        <v>0</v>
-      </c>
-      <c r="M485">
-        <v>0</v>
-      </c>
-      <c r="N485">
-        <v>1940</v>
-      </c>
-      <c r="O485">
-        <v>25980</v>
-      </c>
-      <c r="P485">
-        <v>0</v>
-      </c>
-      <c r="Q485">
-        <v>0</v>
-      </c>
-      <c r="R485">
-        <v>0</v>
-      </c>
-      <c r="S485">
-        <v>0</v>
-      </c>
-      <c r="T485">
-        <v>0</v>
-      </c>
-      <c r="U485">
-        <v>0</v>
-      </c>
-      <c r="V485">
-        <v>0</v>
-      </c>
-      <c r="W485">
-        <v>0</v>
-      </c>
-      <c r="X485">
-        <v>0</v>
-      </c>
-      <c r="Y485">
-        <v>0</v>
-      </c>
-      <c r="Z485">
-        <v>0</v>
-      </c>
-      <c r="AA485">
-        <v>899</v>
-      </c>
-      <c r="AB485" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="486" spans="1:28">
-      <c r="A486" s="3">
-        <v>313011</v>
-      </c>
-      <c r="B486" t="s">
-        <v>522</v>
-      </c>
-      <c r="C486">
-        <f t="shared" si="31"/>
-        <v>313011</v>
-      </c>
-      <c r="D486" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E486" s="4">
-        <v>0</v>
-      </c>
-      <c r="F486" s="4">
-        <v>0</v>
-      </c>
-      <c r="G486" s="4">
-        <v>0</v>
-      </c>
-      <c r="H486">
-        <v>0</v>
-      </c>
-      <c r="I486">
-        <v>0</v>
-      </c>
-      <c r="J486">
-        <v>0</v>
-      </c>
-      <c r="K486">
-        <v>0</v>
-      </c>
-      <c r="L486">
-        <v>0</v>
-      </c>
-      <c r="M486">
-        <v>0</v>
-      </c>
-      <c r="N486">
-        <v>2040</v>
-      </c>
-      <c r="O486">
-        <v>32000</v>
-      </c>
-      <c r="P486">
-        <v>0</v>
-      </c>
-      <c r="Q486">
-        <v>0</v>
-      </c>
-      <c r="R486">
-        <v>0</v>
-      </c>
-      <c r="S486">
-        <v>0</v>
-      </c>
-      <c r="T486">
-        <v>0</v>
-      </c>
-      <c r="U486">
-        <v>0</v>
-      </c>
-      <c r="V486">
-        <v>0</v>
-      </c>
-      <c r="W486">
-        <v>0</v>
-      </c>
-      <c r="X486">
-        <v>0</v>
-      </c>
-      <c r="Y486">
-        <v>0</v>
-      </c>
-      <c r="Z486">
-        <v>0</v>
-      </c>
-      <c r="AA486">
-        <v>1099</v>
-      </c>
-      <c r="AB486" s="9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="487" spans="1:28">
-      <c r="A487" s="3">
-        <v>313012</v>
-      </c>
-      <c r="B487" t="s">
-        <v>523</v>
-      </c>
-      <c r="C487">
-        <f t="shared" si="31"/>
-        <v>313012</v>
-      </c>
-      <c r="D487" s="23">
-        <v>9999</v>
-      </c>
-      <c r="E487" s="4">
-        <v>0</v>
-      </c>
-      <c r="F487" s="4">
-        <v>0</v>
-      </c>
-      <c r="G487" s="4">
-        <v>0</v>
-      </c>
-      <c r="H487">
-        <v>0</v>
-      </c>
-      <c r="I487">
-        <v>0</v>
-      </c>
-      <c r="J487">
-        <v>0</v>
-      </c>
-      <c r="K487">
-        <v>0</v>
-      </c>
-      <c r="L487">
-        <v>0</v>
-      </c>
-      <c r="M487">
-        <v>0</v>
-      </c>
-      <c r="N487">
-        <v>2150</v>
-      </c>
-      <c r="O487">
-        <v>39206</v>
-      </c>
-      <c r="P487">
-        <v>0</v>
-      </c>
-      <c r="Q487">
-        <v>0</v>
-      </c>
-      <c r="R487">
-        <v>0</v>
-      </c>
-      <c r="S487">
-        <v>0</v>
-      </c>
-      <c r="T487">
-        <v>0</v>
-      </c>
-      <c r="U487">
-        <v>0</v>
-      </c>
-      <c r="V487">
-        <v>0</v>
-      </c>
-      <c r="W487">
-        <v>0</v>
-      </c>
-      <c r="X487">
-        <v>0</v>
-      </c>
-      <c r="Y487">
-        <v>0</v>
-      </c>
-      <c r="Z487">
-        <v>0</v>
-      </c>
-      <c r="AA487">
-        <v>1299</v>
-      </c>
-      <c r="AB487" s="9">
         <v>1000</v>
       </c>
     </row>
@@ -45795,7 +44711,7 @@
     <mergeCell ref="A1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E4:Z4 AA208:AB208 E488:Z1009 H272:Z328 H211:Z268 H5:Z208 E5:G487 H332:Z487">
+  <conditionalFormatting sqref="E4:Z4 AA208:AB208 E476:Z997 H272:Z328 H211:Z268 H5:Z208 E5:G475 H332:Z475">
     <cfRule type="expression" dxfId="8" priority="16">
       <formula>E4=0</formula>
     </cfRule>
@@ -45849,13 +44765,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -45875,7 +44791,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="62.25" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -46009,7 +44925,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H6">
         <v>1100</v>
@@ -46043,7 +44959,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="H7">
         <v>1100</v>
@@ -46077,7 +44993,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H8">
         <v>1100</v>
@@ -46111,7 +45027,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="H9">
         <v>1100</v>
@@ -46145,7 +45061,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>16000</v>
+        <v>11200</v>
       </c>
       <c r="H10">
         <v>1100</v>
@@ -46179,7 +45095,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>35000</v>
+        <v>24500</v>
       </c>
       <c r="H11">
         <v>1100</v>
@@ -46213,7 +45129,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>72000</v>
+        <v>48000</v>
       </c>
       <c r="H12">
         <v>1100</v>
@@ -46247,7 +45163,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="H13">
         <v>1100</v>
@@ -46349,7 +45265,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H16">
         <v>1101</v>
@@ -46383,7 +45299,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="H17">
         <v>1101</v>
@@ -46417,7 +45333,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="8">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H18">
         <v>1101</v>
@@ -46451,7 +45367,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="8">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="H19">
         <v>1101</v>
@@ -46485,7 +45401,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>16000</v>
+        <v>11200</v>
       </c>
       <c r="H20">
         <v>1101</v>
@@ -46518,7 +45434,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>35000</v>
+        <v>24500</v>
       </c>
       <c r="H21">
         <v>1101</v>
@@ -46551,7 +45467,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <v>72000</v>
+        <v>48000</v>
       </c>
       <c r="H22">
         <v>1101</v>
@@ -46584,7 +45500,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="H23">
         <v>1101</v>
@@ -46602,7 +45518,7 @@
         <v>201021</v>
       </c>
       <c r="B24" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -46626,7 +45542,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -47678,7 +46594,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -47686,7 +46602,7 @@
         <v>204002</v>
       </c>
       <c r="B56" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C56">
         <f>A56</f>
@@ -47711,7 +46627,7 @@
         <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>681</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -47744,7 +46660,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -47777,7 +46693,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -47810,7 +46726,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -47843,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -47876,7 +46792,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -47909,7 +46825,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -47942,7 +46858,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -47975,7 +46891,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -48008,7 +46924,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -48041,7 +46957,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -48074,7 +46990,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -48107,7 +47023,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -48174,7 +47090,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" ref="J70:J107" si="14">CONCATENATE("研读后可学会《",B70,"》，并有一定概率提升熟练度")</f>
+        <f t="shared" ref="J70:J109" si="14">CONCATENATE("研读后可学会《",B70,"》，并有一定概率提升熟练度")</f>
         <v>研读后可学会《治愈术》，并有一定概率提升熟练度</v>
       </c>
     </row>
@@ -48829,7 +47745,7 @@
         <v>220022</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C90">
         <f t="shared" si="15"/>
@@ -49237,7 +48153,7 @@
         <v>220034</v>
       </c>
       <c r="B102" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C102">
         <f t="shared" si="15"/>
@@ -49271,7 +48187,7 @@
         <v>220035</v>
       </c>
       <c r="B103" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C103">
         <f t="shared" si="15"/>
@@ -49305,7 +48221,7 @@
         <v>220036</v>
       </c>
       <c r="B104" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C104">
         <f t="shared" si="15"/>
@@ -49339,7 +48255,7 @@
         <v>220037</v>
       </c>
       <c r="B105" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C105">
         <f t="shared" si="15"/>
@@ -49373,7 +48289,7 @@
         <v>220038</v>
       </c>
       <c r="B106" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C106">
         <f t="shared" si="15"/>
@@ -49407,7 +48323,7 @@
         <v>220039</v>
       </c>
       <c r="B107" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C107">
         <f t="shared" si="15"/>
@@ -49438,708 +48354,708 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>299001</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>313</v>
+        <v>220040</v>
+      </c>
+      <c r="B108" t="s">
+        <v>720</v>
       </c>
       <c r="C108">
-        <f>A108</f>
-        <v>299001</v>
+        <v>220001</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E108" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
       </c>
       <c r="G108" s="8">
-        <v>16</v>
+        <v>90000</v>
       </c>
       <c r="H108" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I108" s="8">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>314</v>
+      <c r="J108" t="str">
+        <f t="shared" si="14"/>
+        <v>研读后可学会《召唤撒非》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>299002</v>
+        <v>220041</v>
       </c>
       <c r="B109" t="s">
-        <v>319</v>
+        <v>721</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:C127" si="16">A109</f>
-        <v>299002</v>
+        <v>220001</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E109" s="3">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <v>18</v>
+        <v>200000</v>
       </c>
       <c r="H109" s="3">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="I109" s="8">
         <v>0</v>
       </c>
-      <c r="J109" t="s">
-        <v>540</v>
+      <c r="J109" t="str">
+        <f t="shared" si="14"/>
+        <v>研读后可学会《召唤白虎》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
+        <v>299001</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110">
+        <f>A110</f>
+        <v>299001</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>16</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>299002</v>
+      </c>
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:C129" si="16">A111</f>
+        <v>299002</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
+        <v>18</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
         <v>299003</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>318</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <f t="shared" si="16"/>
         <v>299003</v>
       </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
         <v>20</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
-      </c>
-      <c r="I110" s="8">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111">
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
         <v>299004</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>322</v>
       </c>
-      <c r="C111">
+      <c r="C113">
         <f t="shared" si="16"/>
         <v>299004</v>
       </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
         <v>22</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
-      </c>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
         <v>299005</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>315</v>
       </c>
-      <c r="C112">
+      <c r="C114">
         <f t="shared" si="16"/>
         <v>299005</v>
       </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
         <v>24</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112" s="8">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
         <v>299006</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>320</v>
       </c>
-      <c r="C113">
+      <c r="C115">
         <f t="shared" si="16"/>
         <v>299006</v>
       </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
         <v>26</v>
       </c>
-      <c r="H113" s="3">
-        <v>0</v>
-      </c>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
         <v>299007</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>316</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <f t="shared" si="16"/>
         <v>299007</v>
       </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
         <v>1</v>
       </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
         <v>28</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
-      </c>
-      <c r="I114" s="8">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
         <v>299008</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>317</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <f t="shared" si="16"/>
         <v>299008</v>
       </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
         <v>30</v>
       </c>
-      <c r="H115" s="3">
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118">
         <v>299009</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>340</v>
       </c>
-      <c r="C116">
+      <c r="C118">
         <f t="shared" si="16"/>
         <v>299009</v>
       </c>
-      <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>1</v>
       </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
         <v>32</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119">
         <v>299010</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>321</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <f t="shared" si="16"/>
         <v>299010</v>
       </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
         <v>34</v>
       </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118">
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120">
         <v>299011</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>337</v>
       </c>
-      <c r="C118">
+      <c r="C120">
         <f t="shared" si="16"/>
         <v>299011</v>
       </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
         <v>1</v>
       </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
         <v>36</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121">
         <v>299012</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>339</v>
       </c>
-      <c r="C119">
+      <c r="C121">
         <f t="shared" si="16"/>
         <v>299012</v>
       </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
         <v>38</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122">
         <v>299013</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>323</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <f t="shared" si="16"/>
         <v>299013</v>
       </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
       </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
         <v>40</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123">
         <v>299014</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>336</v>
       </c>
-      <c r="C121">
+      <c r="C123">
         <f t="shared" si="16"/>
         <v>299014</v>
       </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
         <v>42</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124">
         <v>299015</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>338</v>
       </c>
-      <c r="C122">
+      <c r="C124">
         <f t="shared" si="16"/>
         <v>299015</v>
       </c>
-      <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
         <v>44</v>
       </c>
-      <c r="H122" s="3">
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125">
         <v>299016</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>324</v>
       </c>
-      <c r="C123">
+      <c r="C125">
         <f t="shared" si="16"/>
         <v>299016</v>
       </c>
-      <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
         <v>46</v>
       </c>
-      <c r="H123" s="3">
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="8">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
         <v>299017</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>325</v>
       </c>
-      <c r="C124">
+      <c r="C126">
         <f t="shared" si="16"/>
         <v>299017</v>
       </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="3">
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
         <v>48</v>
       </c>
-      <c r="H124" s="3">
-        <v>0</v>
-      </c>
-      <c r="I124" s="8">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
         <v>299018</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>326</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <f t="shared" si="16"/>
         <v>299018</v>
       </c>
-      <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
         <v>1</v>
       </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="8">
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
         <v>50</v>
       </c>
-      <c r="H125" s="3">
-        <v>0</v>
-      </c>
-      <c r="I125" s="8">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
         <v>299019</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
         <v>342</v>
       </c>
-      <c r="C126">
+      <c r="C128">
         <f t="shared" si="16"/>
         <v>299019</v>
       </c>
-      <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
         <v>1</v>
       </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="8">
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
         <v>52</v>
       </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
         <v>299020</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
         <v>341</v>
       </c>
-      <c r="C127">
+      <c r="C129">
         <f t="shared" si="16"/>
         <v>299020</v>
       </c>
-      <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-      <c r="G127" s="8">
-        <v>54</v>
-      </c>
-      <c r="H127" s="3">
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128">
-        <v>299021</v>
-      </c>
-      <c r="B128" t="s">
-        <v>682</v>
-      </c>
-      <c r="C128">
-        <f>C121</f>
-        <v>299014</v>
-      </c>
-      <c r="D128" s="3">
-        <v>0</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="8">
-        <v>56</v>
-      </c>
-      <c r="H128" s="3">
-        <v>0</v>
-      </c>
-      <c r="I128" s="8">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
-        <v>299022</v>
-      </c>
-      <c r="B129" t="s">
-        <v>683</v>
-      </c>
-      <c r="C129">
-        <f>A129</f>
-        <v>299022</v>
-      </c>
       <c r="D129" s="3">
         <v>0</v>
       </c>
@@ -50150,7 +49066,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -50159,19 +49075,19 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>299023</v>
+        <v>299021</v>
       </c>
       <c r="B130" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C134" si="17">A130</f>
-        <v>299023</v>
+        <f>C123</f>
+        <v>299014</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -50183,7 +49099,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -50192,139 +49108,205 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
+        <v>299022</v>
+      </c>
+      <c r="B131" t="s">
+        <v>670</v>
+      </c>
+      <c r="C131">
+        <f>A131</f>
+        <v>299022</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>58</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>299023</v>
+      </c>
+      <c r="B132" t="s">
+        <v>675</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C136" si="17">A132</f>
+        <v>299023</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <v>60</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
         <v>299024</v>
       </c>
-      <c r="B131" t="s">
-        <v>686</v>
-      </c>
-      <c r="C131">
+      <c r="B133" t="s">
+        <v>673</v>
+      </c>
+      <c r="C133">
         <f t="shared" si="17"/>
         <v>299024</v>
       </c>
-      <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="8">
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
         <v>62</v>
       </c>
-      <c r="H131" s="3">
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132">
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="8">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
         <v>299025</v>
       </c>
-      <c r="B132" t="s">
-        <v>689</v>
-      </c>
-      <c r="C132">
+      <c r="B134" t="s">
+        <v>676</v>
+      </c>
+      <c r="C134">
         <f t="shared" si="17"/>
         <v>299025</v>
       </c>
-      <c r="D132" s="3">
-        <v>0</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
         <v>1</v>
       </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="8">
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
         <v>64</v>
       </c>
-      <c r="H132" s="3">
-        <v>0</v>
-      </c>
-      <c r="I132" s="8">
-        <v>0</v>
-      </c>
-      <c r="J132" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133">
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="8">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="409.6">
+      <c r="A135">
         <v>299026</v>
       </c>
-      <c r="B133" t="s">
-        <v>684</v>
-      </c>
-      <c r="C133">
+      <c r="B135" t="s">
+        <v>671</v>
+      </c>
+      <c r="C135">
         <f t="shared" si="17"/>
         <v>299026</v>
       </c>
-      <c r="D133" s="3">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3">
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="8">
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="8">
         <v>66</v>
       </c>
-      <c r="H133" s="3">
-        <v>0</v>
-      </c>
-      <c r="I133" s="8">
-        <v>0</v>
-      </c>
-      <c r="J133" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134">
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="8">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
         <v>299027</v>
       </c>
-      <c r="B134" t="s">
-        <v>687</v>
-      </c>
-      <c r="C134">
+      <c r="B136" t="s">
+        <v>674</v>
+      </c>
+      <c r="C136">
         <f t="shared" si="17"/>
         <v>299027</v>
       </c>
-      <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
         <v>1</v>
       </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="8">
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="8">
         <v>68</v>
       </c>
-      <c r="H134" s="3">
-        <v>0</v>
-      </c>
-      <c r="I134" s="8">
-        <v>0</v>
-      </c>
-      <c r="J134" t="s">
-        <v>545</v>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="8">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -50333,7 +49315,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I25:I38 G90:G95 G24:G68 G97:G65529"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 I25:I38 G90:G95 G24:G68 G97:G65531"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -50425,7 +49407,7 @@
         <v>1102</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -50449,7 +49431,7 @@
         <v>5102</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -50483,22 +49465,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -52911,7 +51893,7 @@
         <v>-56</v>
       </c>
       <c r="J101" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -54182,40 +53164,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="E1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="H1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="J1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="K1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="L1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -55670,7 +54652,7 @@
     <row r="38" spans="1:12">
       <c r="A38" t="str">
         <f>VLOOKUP(B38,装备!A:B,2,TRUE)</f>
-        <v>太初</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B38" s="3">
         <v>313001</v>
@@ -55709,7 +54691,7 @@
     <row r="39" spans="1:12">
       <c r="A39" t="str">
         <f>VLOOKUP(B39,装备!A:B,2,TRUE)</f>
-        <v>两仪</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B39" s="3">
         <v>313002</v>
@@ -55749,7 +54731,7 @@
     <row r="40" spans="1:12">
       <c r="A40" t="str">
         <f>VLOOKUP(B40,装备!A:B,2,TRUE)</f>
-        <v>三才</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B40" s="3">
         <v>313003</v>
@@ -55789,7 +54771,7 @@
     <row r="41" spans="1:12">
       <c r="A41" t="str">
         <f>VLOOKUP(B41,装备!A:B,2,TRUE)</f>
-        <v>四象</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B41" s="3">
         <v>313004</v>
@@ -55829,7 +54811,7 @@
     <row r="42" spans="1:12">
       <c r="A42" t="str">
         <f>VLOOKUP(B42,装备!A:B,2,TRUE)</f>
-        <v>五行</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B42" s="3">
         <v>313005</v>
@@ -55869,7 +54851,7 @@
     <row r="43" spans="1:12">
       <c r="A43" t="str">
         <f>VLOOKUP(B43,装备!A:B,2,TRUE)</f>
-        <v>六合</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B43" s="3">
         <v>313006</v>
@@ -55909,7 +54891,7 @@
     <row r="44" spans="1:12">
       <c r="A44" t="str">
         <f>VLOOKUP(B44,装备!A:B,2,TRUE)</f>
-        <v>七星</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B44" s="3">
         <v>313007</v>
@@ -55949,7 +54931,7 @@
     <row r="45" spans="1:12">
       <c r="A45" t="str">
         <f>VLOOKUP(B45,装备!A:B,2,TRUE)</f>
-        <v>八卦</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B45" s="3">
         <v>313008</v>
@@ -55989,7 +54971,7 @@
     <row r="46" spans="1:12">
       <c r="A46" t="str">
         <f>VLOOKUP(B46,装备!A:B,2,TRUE)</f>
-        <v>九宫</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B46" s="3">
         <v>313009</v>
@@ -56029,7 +55011,7 @@
     <row r="47" spans="1:12">
       <c r="A47" t="str">
         <f>VLOOKUP(B47,装备!A:B,2,TRUE)</f>
-        <v>十方</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B47" s="3">
         <v>313010</v>
@@ -56069,7 +55051,7 @@
     <row r="48" spans="1:12">
       <c r="A48" t="str">
         <f>VLOOKUP(B48,装备!A:B,2,TRUE)</f>
-        <v>神威</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B48" s="3">
         <v>313011</v>
@@ -56109,7 +55091,7 @@
     <row r="49" spans="1:12">
       <c r="A49" t="str">
         <f>VLOOKUP(B49,装备!A:B,2,TRUE)</f>
-        <v>至尊</v>
+        <v>洪荒护盾-玄</v>
       </c>
       <c r="B49" s="3">
         <v>313012</v>
@@ -56168,25 +55150,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1" t="s">
         <v>653</v>
       </c>
-      <c r="C1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D1" t="s">
-        <v>665</v>
-      </c>
       <c r="E1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="F1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="G1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -56403,13 +55385,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -56417,10 +55399,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -56428,10 +55410,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -56439,10 +55421,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C4" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -56450,10 +55432,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C5" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -56461,10 +55443,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -56472,10 +55454,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C7" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -56483,10 +55465,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -56494,10 +55476,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C9" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -56505,10 +55487,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="C10" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -56516,10 +55498,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C11" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -56527,10 +55509,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C12" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="75" windowWidth="4455" windowHeight="9255"/>
+    <workbookView xWindow="-90" yWindow="75" windowWidth="4455" windowHeight="9255" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="formula" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">道具!$A$3:$J$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">道具!$A$3:$J$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装备!$A$3:$R$425</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="576">
   <si>
     <t>ID</t>
   </si>
@@ -927,9 +927,6 @@
     <t>抗拒火环</t>
   </si>
   <si>
-    <t>地狱火</t>
-  </si>
-  <si>
     <t>雷电术</t>
   </si>
   <si>
@@ -946,9 +943,6 @@
   </si>
   <si>
     <t>困魔咒</t>
-  </si>
-  <si>
-    <t>召唤骷髅</t>
   </si>
   <si>
     <t>隐身术</t>
@@ -1740,18 +1734,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>通魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣盾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2088,6 +2070,30 @@
     1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
     2、类别：01为药品，02为状态类，03为经济，04为属性调整类,05神器养成材料20技能书,99杂项
     3、Sale:0不出售，1药店，2书店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱寒冰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡灵召唤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀甲</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2719,11 +2725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C393" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W406" sqref="W406"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2742,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="99" hidden="1" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2779,19 +2785,19 @@
         <v>246</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>10</v>
@@ -3225,7 +3231,7 @@
         <v>301008</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
@@ -5049,7 +5055,7 @@
         <v>301040</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="2"/>
@@ -5107,7 +5113,7 @@
         <v>301041</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="2"/>
@@ -5165,7 +5171,7 @@
         <v>301042</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="2"/>
@@ -5223,7 +5229,7 @@
         <v>301043</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="2"/>
@@ -5281,7 +5287,7 @@
         <v>301044</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="2"/>
@@ -5339,7 +5345,7 @@
         <v>301045</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="2"/>
@@ -5397,7 +5403,7 @@
         <v>301046</v>
       </c>
       <c r="B49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="2"/>
@@ -5455,7 +5461,7 @@
         <v>301047</v>
       </c>
       <c r="B50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="2"/>
@@ -5513,7 +5519,7 @@
         <v>301048</v>
       </c>
       <c r="B51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="2"/>
@@ -5571,7 +5577,7 @@
         <v>301049</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="2"/>
@@ -5629,7 +5635,7 @@
         <v>301050</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C53" s="4">
         <f>C52</f>
@@ -5687,7 +5693,7 @@
         <v>301051</v>
       </c>
       <c r="B54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C54" s="4">
         <f>C52</f>
@@ -5745,7 +5751,7 @@
         <v>301052</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" ref="C55:C70" si="4">A55</f>
@@ -5803,7 +5809,7 @@
         <v>301053</v>
       </c>
       <c r="B56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="4"/>
@@ -5861,7 +5867,7 @@
         <v>301054</v>
       </c>
       <c r="B57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="4"/>
@@ -5919,7 +5925,7 @@
         <v>301055</v>
       </c>
       <c r="B58" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="4"/>
@@ -5977,7 +5983,7 @@
         <v>301056</v>
       </c>
       <c r="B59" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="4"/>
@@ -6035,7 +6041,7 @@
         <v>301057</v>
       </c>
       <c r="B60" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="4"/>
@@ -6093,7 +6099,7 @@
         <v>301058</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="4"/>
@@ -6151,7 +6157,7 @@
         <v>301059</v>
       </c>
       <c r="B62" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" si="4"/>
@@ -6209,7 +6215,7 @@
         <v>301060</v>
       </c>
       <c r="B63" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" si="4"/>
@@ -6267,7 +6273,7 @@
         <v>301061</v>
       </c>
       <c r="B64" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C64" s="4">
         <f t="shared" si="4"/>
@@ -7237,7 +7243,7 @@
         <v>302017</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C81" s="4">
         <f t="shared" si="5"/>
@@ -7294,7 +7300,7 @@
         <v>302018</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C82" s="4">
         <f t="shared" si="5"/>
@@ -7351,7 +7357,7 @@
         <v>302019</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C83" s="4">
         <f t="shared" si="5"/>
@@ -7408,7 +7414,7 @@
         <v>302020</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C84" s="4">
         <f t="shared" si="5"/>
@@ -7466,7 +7472,7 @@
         <v>302021</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C85" s="4">
         <f t="shared" si="5"/>
@@ -7524,7 +7530,7 @@
         <v>302022</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C86" s="4">
         <f t="shared" si="5"/>
@@ -7582,7 +7588,7 @@
         <v>302023</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C87" s="4">
         <f t="shared" si="5"/>
@@ -7640,7 +7646,7 @@
         <v>302024</v>
       </c>
       <c r="B88" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C88" s="4">
         <f>C87</f>
@@ -7698,7 +7704,7 @@
         <v>302025</v>
       </c>
       <c r="B89" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C89" s="4">
         <f>C87</f>
@@ -7756,7 +7762,7 @@
         <v>302026</v>
       </c>
       <c r="B90" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C90" s="4">
         <f>A90</f>
@@ -7814,7 +7820,7 @@
         <v>302027</v>
       </c>
       <c r="B91" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C91" s="4">
         <f>C90</f>
@@ -7872,7 +7878,7 @@
         <v>302028</v>
       </c>
       <c r="B92" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C92" s="4">
         <f>C90</f>
@@ -7930,7 +7936,7 @@
         <v>302029</v>
       </c>
       <c r="B93" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C93" s="4">
         <f t="shared" ref="C93:C101" si="7">A93</f>
@@ -7988,7 +7994,7 @@
         <v>302030</v>
       </c>
       <c r="B94" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" si="7"/>
@@ -8046,7 +8052,7 @@
         <v>302031</v>
       </c>
       <c r="B95" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C95" s="4">
         <f t="shared" si="7"/>
@@ -9016,7 +9022,7 @@
         <v>303017</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C112" s="4">
         <f t="shared" si="8"/>
@@ -9073,7 +9079,7 @@
         <v>303018</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C113" s="4">
         <f t="shared" si="8"/>
@@ -9130,7 +9136,7 @@
         <v>303019</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C114" s="4">
         <f t="shared" si="8"/>
@@ -9187,7 +9193,7 @@
         <v>303020</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C115" s="4">
         <f t="shared" si="8"/>
@@ -9245,7 +9251,7 @@
         <v>303021</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C116" s="4">
         <f t="shared" si="8"/>
@@ -9303,7 +9309,7 @@
         <v>303022</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C117" s="4">
         <f t="shared" si="8"/>
@@ -9361,7 +9367,7 @@
         <v>303023</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C118" s="4">
         <f t="shared" si="8"/>
@@ -9419,7 +9425,7 @@
         <v>303024</v>
       </c>
       <c r="B119" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C119" s="4">
         <f>C118</f>
@@ -9477,7 +9483,7 @@
         <v>303025</v>
       </c>
       <c r="B120" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C120" s="4">
         <f>C118</f>
@@ -9535,7 +9541,7 @@
         <v>303026</v>
       </c>
       <c r="B121" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C121" s="4">
         <f>A121</f>
@@ -9593,7 +9599,7 @@
         <v>303027</v>
       </c>
       <c r="B122" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C122" s="4">
         <f>C121</f>
@@ -9651,7 +9657,7 @@
         <v>303028</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C123" s="4">
         <f>C122</f>
@@ -9709,7 +9715,7 @@
         <v>303029</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C124" s="4">
         <f>A124</f>
@@ -9767,7 +9773,7 @@
         <v>303030</v>
       </c>
       <c r="B125" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C125" s="4">
         <f t="shared" ref="C125:C126" si="10">A125</f>
@@ -9825,7 +9831,7 @@
         <v>303031</v>
       </c>
       <c r="B126" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C126" s="4">
         <f t="shared" si="10"/>
@@ -10453,7 +10459,7 @@
         <v>304011</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C137" s="4">
         <v>304011</v>
@@ -10510,7 +10516,7 @@
         <v>304012</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C138" s="4">
         <f>C137</f>
@@ -10568,7 +10574,7 @@
         <v>304013</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C139" s="4">
         <f>C137</f>
@@ -10626,7 +10632,7 @@
         <v>304014</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C140">
         <f>A140</f>
@@ -10684,7 +10690,7 @@
         <v>304015</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C141">
         <f>C140</f>
@@ -10742,7 +10748,7 @@
         <v>304016</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C142">
         <f>C140</f>
@@ -10800,7 +10806,7 @@
         <v>304017</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C143">
         <f>A143</f>
@@ -10858,7 +10864,7 @@
         <v>304018</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C144">
         <f>A144</f>
@@ -10916,7 +10922,7 @@
         <v>304019</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C145">
         <f>A145</f>
@@ -10974,7 +10980,7 @@
         <v>304020</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C146">
         <f>A146</f>
@@ -11032,7 +11038,7 @@
         <v>304021</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C147">
         <f>C146</f>
@@ -11090,7 +11096,7 @@
         <v>304022</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C148">
         <f>C146</f>
@@ -11148,7 +11154,7 @@
         <v>304023</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C149">
         <f t="shared" ref="C149:C155" si="14">A149</f>
@@ -11206,7 +11212,7 @@
         <v>304024</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C150">
         <f t="shared" si="14"/>
@@ -11264,7 +11270,7 @@
         <v>304025</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C151">
         <f t="shared" si="14"/>
@@ -11322,7 +11328,7 @@
         <v>304026</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C152">
         <f t="shared" si="14"/>
@@ -11380,7 +11386,7 @@
         <v>304027</v>
       </c>
       <c r="B153" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C153">
         <f t="shared" si="14"/>
@@ -11438,7 +11444,7 @@
         <v>304028</v>
       </c>
       <c r="B154" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C154">
         <f t="shared" si="14"/>
@@ -11496,7 +11502,7 @@
         <v>304029</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C155">
         <f t="shared" si="14"/>
@@ -11554,7 +11560,7 @@
         <v>304030</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C156">
         <f>C155</f>
@@ -11612,7 +11618,7 @@
         <v>304031</v>
       </c>
       <c r="B157" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C157">
         <f>C155</f>
@@ -11670,7 +11676,7 @@
         <v>304032</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C158">
         <f>A158</f>
@@ -11728,7 +11734,7 @@
         <v>304033</v>
       </c>
       <c r="B159" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C159">
         <f>C158</f>
@@ -11786,7 +11792,7 @@
         <v>304034</v>
       </c>
       <c r="B160" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C160">
         <f>C158</f>
@@ -11844,7 +11850,7 @@
         <v>304035</v>
       </c>
       <c r="B161" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C161">
         <f t="shared" ref="C161:C196" si="15">A161</f>
@@ -13839,7 +13845,7 @@
         <v>305035</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C196" s="4">
         <f t="shared" si="15"/>
@@ -13896,7 +13902,7 @@
         <v>305036</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C197" s="8">
         <f>C196</f>
@@ -13953,7 +13959,7 @@
         <v>305037</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C198" s="8">
         <f>C197</f>
@@ -14010,7 +14016,7 @@
         <v>305038</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C199">
         <f>A199</f>
@@ -14067,7 +14073,7 @@
         <v>305039</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C200">
         <f>A200</f>
@@ -14124,7 +14130,7 @@
         <v>305040</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C201">
         <f>A201</f>
@@ -14181,7 +14187,7 @@
         <v>305041</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C202">
         <f>A202</f>
@@ -14238,7 +14244,7 @@
         <v>305042</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C203">
         <f>C202</f>
@@ -14295,7 +14301,7 @@
         <v>305043</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C204">
         <f>C202</f>
@@ -14352,7 +14358,7 @@
         <v>305044</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C205">
         <f t="shared" ref="C205:C211" si="16">A205</f>
@@ -14409,7 +14415,7 @@
         <v>305045</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C206">
         <f t="shared" si="16"/>
@@ -14466,7 +14472,7 @@
         <v>305046</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C207">
         <f t="shared" si="16"/>
@@ -14523,7 +14529,7 @@
         <v>305047</v>
       </c>
       <c r="B208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C208">
         <f t="shared" si="16"/>
@@ -14581,7 +14587,7 @@
         <v>305048</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C209">
         <f t="shared" si="16"/>
@@ -14639,7 +14645,7 @@
         <v>305049</v>
       </c>
       <c r="B210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C210">
         <f t="shared" si="16"/>
@@ -14697,7 +14703,7 @@
         <v>305050</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C211">
         <f t="shared" si="16"/>
@@ -14755,7 +14761,7 @@
         <v>305051</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C212">
         <f>C211</f>
@@ -14813,7 +14819,7 @@
         <v>305052</v>
       </c>
       <c r="B213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C213">
         <f>C211</f>
@@ -14871,7 +14877,7 @@
         <v>305053</v>
       </c>
       <c r="B214" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C214">
         <f>A214</f>
@@ -14929,7 +14935,7 @@
         <v>305054</v>
       </c>
       <c r="B215" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C215">
         <f>C214</f>
@@ -14987,7 +14993,7 @@
         <v>305055</v>
       </c>
       <c r="B216" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C216">
         <f>C214</f>
@@ -15045,7 +15051,7 @@
         <v>305056</v>
       </c>
       <c r="B217" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C217">
         <f t="shared" ref="C217" si="18">A217</f>
@@ -15103,7 +15109,7 @@
         <v>305057</v>
       </c>
       <c r="B218" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C218">
         <v>305056</v>
@@ -15160,7 +15166,7 @@
         <v>305058</v>
       </c>
       <c r="B219" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C219">
         <v>305056</v>
@@ -17262,7 +17268,7 @@
         <v>306037</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C256" s="4">
         <f t="shared" si="19"/>
@@ -17319,7 +17325,7 @@
         <v>306038</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C257" s="4">
         <f>C256</f>
@@ -17376,7 +17382,7 @@
         <v>306039</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C258" s="4">
         <f>C256</f>
@@ -17433,7 +17439,7 @@
         <v>306040</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C259" s="4">
         <f>A259</f>
@@ -17490,7 +17496,7 @@
         <v>306041</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C260" s="4">
         <f>A260</f>
@@ -17547,7 +17553,7 @@
         <v>306042</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C261" s="4">
         <f>A261</f>
@@ -17604,7 +17610,7 @@
         <v>306043</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C262" s="4">
         <f>A262</f>
@@ -17661,7 +17667,7 @@
         <v>306044</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C263" s="4">
         <f>C262</f>
@@ -17718,7 +17724,7 @@
         <v>306045</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C264" s="4">
         <f>C262</f>
@@ -17775,7 +17781,7 @@
         <v>306046</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C265" s="4">
         <f t="shared" ref="C265:C271" si="20">A265</f>
@@ -17832,7 +17838,7 @@
         <v>306047</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C266" s="4">
         <f t="shared" si="20"/>
@@ -17889,7 +17895,7 @@
         <v>306048</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="20"/>
@@ -17946,7 +17952,7 @@
         <v>306049</v>
       </c>
       <c r="B268" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C268">
         <f t="shared" si="20"/>
@@ -18004,7 +18010,7 @@
         <v>306050</v>
       </c>
       <c r="B269" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C269">
         <f t="shared" si="20"/>
@@ -18062,7 +18068,7 @@
         <v>306051</v>
       </c>
       <c r="B270" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C270">
         <f t="shared" si="20"/>
@@ -18120,7 +18126,7 @@
         <v>306052</v>
       </c>
       <c r="B271" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C271" s="4">
         <f t="shared" si="20"/>
@@ -18178,7 +18184,7 @@
         <v>306053</v>
       </c>
       <c r="B272" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C272" s="4">
         <f>C271</f>
@@ -18236,7 +18242,7 @@
         <v>306054</v>
       </c>
       <c r="B273" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C273" s="4">
         <f>C271</f>
@@ -18294,7 +18300,7 @@
         <v>306055</v>
       </c>
       <c r="B274" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C274" s="4">
         <f>A274</f>
@@ -18352,7 +18358,7 @@
         <v>306056</v>
       </c>
       <c r="B275" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C275" s="4">
         <f>C274</f>
@@ -18410,7 +18416,7 @@
         <v>306057</v>
       </c>
       <c r="B276" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C276" s="4">
         <f>C274</f>
@@ -18468,7 +18474,7 @@
         <v>306058</v>
       </c>
       <c r="B277" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C277">
         <f t="shared" ref="C277:C302" si="22">A277</f>
@@ -18526,7 +18532,7 @@
         <v>306059</v>
       </c>
       <c r="B278" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C278">
         <v>306058</v>
@@ -18583,7 +18589,7 @@
         <v>306060</v>
       </c>
       <c r="B279" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C279">
         <v>306058</v>
@@ -19666,7 +19672,7 @@
         <v>307019</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C298" s="4">
         <f t="shared" si="22"/>
@@ -20634,7 +20640,7 @@
         <v>307036</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C315" s="4">
         <f t="shared" si="23"/>
@@ -20691,7 +20697,7 @@
         <v>307037</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C316" s="4">
         <f>C315</f>
@@ -20748,7 +20754,7 @@
         <v>307038</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C317" s="4">
         <f>C316</f>
@@ -20805,7 +20811,7 @@
         <v>307039</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C318" s="4">
         <f>A318</f>
@@ -20862,7 +20868,7 @@
         <v>307040</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C319" s="4">
         <f>A319</f>
@@ -20919,7 +20925,7 @@
         <v>307041</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C320" s="4">
         <f>A320</f>
@@ -20976,7 +20982,7 @@
         <v>307042</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C321" s="4">
         <f>A321</f>
@@ -21033,7 +21039,7 @@
         <v>307043</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C322" s="4">
         <f>C321</f>
@@ -21090,7 +21096,7 @@
         <v>307044</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C323" s="4">
         <f>C321</f>
@@ -21147,7 +21153,7 @@
         <v>307045</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C324" s="4">
         <f t="shared" ref="C324:C330" si="24">A324</f>
@@ -21204,7 +21210,7 @@
         <v>307046</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C325" s="4">
         <f t="shared" si="24"/>
@@ -21261,7 +21267,7 @@
         <v>307047</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C326" s="4">
         <f t="shared" si="24"/>
@@ -21318,7 +21324,7 @@
         <v>307048</v>
       </c>
       <c r="B327" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C327">
         <f t="shared" si="24"/>
@@ -21376,7 +21382,7 @@
         <v>307049</v>
       </c>
       <c r="B328" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C328">
         <f t="shared" si="24"/>
@@ -21434,7 +21440,7 @@
         <v>307050</v>
       </c>
       <c r="B329" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C329">
         <f t="shared" si="24"/>
@@ -21492,7 +21498,7 @@
         <v>307051</v>
       </c>
       <c r="B330" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C330" s="4">
         <f t="shared" si="24"/>
@@ -21550,7 +21556,7 @@
         <v>307052</v>
       </c>
       <c r="B331" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C331" s="4">
         <f>C330</f>
@@ -21608,7 +21614,7 @@
         <v>307053</v>
       </c>
       <c r="B332" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C332" s="4">
         <f>C330</f>
@@ -21666,7 +21672,7 @@
         <v>307054</v>
       </c>
       <c r="B333" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C333" s="4">
         <f>A333</f>
@@ -21724,7 +21730,7 @@
         <v>307055</v>
       </c>
       <c r="B334" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C334" s="4">
         <f>C333</f>
@@ -21782,7 +21788,7 @@
         <v>307056</v>
       </c>
       <c r="B335" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C335" s="4">
         <f>C333</f>
@@ -21840,7 +21846,7 @@
         <v>307057</v>
       </c>
       <c r="B336" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C336">
         <f>A336</f>
@@ -21898,7 +21904,7 @@
         <v>307058</v>
       </c>
       <c r="B337" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C337">
         <f>C336</f>
@@ -21956,7 +21962,7 @@
         <v>307059</v>
       </c>
       <c r="B338" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C338">
         <f>C336</f>
@@ -22014,7 +22020,7 @@
         <v>308001</v>
       </c>
       <c r="B339" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C339">
         <f t="shared" ref="C339:C350" si="26">A339</f>
@@ -22071,7 +22077,7 @@
         <v>308002</v>
       </c>
       <c r="B340" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C340">
         <f t="shared" si="26"/>
@@ -22128,7 +22134,7 @@
         <v>308003</v>
       </c>
       <c r="B341" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C341">
         <f t="shared" si="26"/>
@@ -22185,7 +22191,7 @@
         <v>308004</v>
       </c>
       <c r="B342" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C342">
         <f t="shared" si="26"/>
@@ -22242,7 +22248,7 @@
         <v>308005</v>
       </c>
       <c r="B343" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C343">
         <f t="shared" si="26"/>
@@ -22299,7 +22305,7 @@
         <v>308006</v>
       </c>
       <c r="B344" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C344">
         <f t="shared" si="26"/>
@@ -22356,7 +22362,7 @@
         <v>308007</v>
       </c>
       <c r="B345" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C345">
         <f t="shared" si="26"/>
@@ -22413,7 +22419,7 @@
         <v>308008</v>
       </c>
       <c r="B346" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C346">
         <f t="shared" si="26"/>
@@ -22470,7 +22476,7 @@
         <v>308009</v>
       </c>
       <c r="B347" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C347">
         <f t="shared" si="26"/>
@@ -22527,7 +22533,7 @@
         <v>308010</v>
       </c>
       <c r="B348" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C348">
         <f t="shared" si="26"/>
@@ -22584,7 +22590,7 @@
         <v>308011</v>
       </c>
       <c r="B349" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C349">
         <f t="shared" si="26"/>
@@ -22641,7 +22647,7 @@
         <v>308012</v>
       </c>
       <c r="B350" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C350">
         <f t="shared" si="26"/>
@@ -22698,7 +22704,7 @@
         <v>309001</v>
       </c>
       <c r="B351" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C351">
         <v>309001</v>
@@ -22755,7 +22761,7 @@
         <v>309002</v>
       </c>
       <c r="B352" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C352">
         <v>309002</v>
@@ -22812,7 +22818,7 @@
         <v>309003</v>
       </c>
       <c r="B353" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C353">
         <v>309003</v>
@@ -22869,7 +22875,7 @@
         <v>309004</v>
       </c>
       <c r="B354" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C354">
         <v>309004</v>
@@ -22926,7 +22932,7 @@
         <v>309005</v>
       </c>
       <c r="B355" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C355">
         <v>309005</v>
@@ -22983,7 +22989,7 @@
         <v>309006</v>
       </c>
       <c r="B356" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C356">
         <v>309006</v>
@@ -23040,7 +23046,7 @@
         <v>309007</v>
       </c>
       <c r="B357" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C357">
         <v>309007</v>
@@ -23097,7 +23103,7 @@
         <v>309008</v>
       </c>
       <c r="B358" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C358">
         <v>309008</v>
@@ -23154,7 +23160,7 @@
         <v>309009</v>
       </c>
       <c r="B359" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C359">
         <v>309009</v>
@@ -23211,7 +23217,7 @@
         <v>309010</v>
       </c>
       <c r="B360" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C360">
         <v>309010</v>
@@ -23268,7 +23274,7 @@
         <v>309011</v>
       </c>
       <c r="B361" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C361">
         <v>309011</v>
@@ -23325,7 +23331,7 @@
         <v>309012</v>
       </c>
       <c r="B362" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C362">
         <v>309012</v>
@@ -23382,7 +23388,7 @@
         <v>309013</v>
       </c>
       <c r="B363" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C363">
         <v>309013</v>
@@ -23439,7 +23445,7 @@
         <v>309014</v>
       </c>
       <c r="B364" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C364">
         <v>309014</v>
@@ -23496,7 +23502,7 @@
         <v>309015</v>
       </c>
       <c r="B365" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C365">
         <v>309015</v>
@@ -23553,7 +23559,7 @@
         <v>309016</v>
       </c>
       <c r="B366" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C366">
         <v>309016</v>
@@ -23610,7 +23616,7 @@
         <v>309017</v>
       </c>
       <c r="B367" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C367">
         <v>309017</v>
@@ -23667,7 +23673,7 @@
         <v>309018</v>
       </c>
       <c r="B368" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C368">
         <v>309018</v>
@@ -23724,7 +23730,7 @@
         <v>309019</v>
       </c>
       <c r="B369" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C369">
         <v>309019</v>
@@ -23781,7 +23787,7 @@
         <v>309020</v>
       </c>
       <c r="B370" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C370">
         <v>309020</v>
@@ -24237,7 +24243,7 @@
         <v>310008</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C378">
         <f t="shared" si="34"/>
@@ -24294,7 +24300,7 @@
         <v>310009</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C379">
         <f>C378</f>
@@ -24351,7 +24357,7 @@
         <v>310010</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C380">
         <f>C378</f>
@@ -24408,7 +24414,7 @@
         <v>310011</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C381">
         <f>A381</f>
@@ -24465,7 +24471,7 @@
         <v>310012</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C382">
         <f>A382</f>
@@ -24522,7 +24528,7 @@
         <v>310013</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C383">
         <f>A383</f>
@@ -24579,7 +24585,7 @@
         <v>310014</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C384">
         <f>A384</f>
@@ -24636,7 +24642,7 @@
         <v>310015</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C385">
         <f>C384</f>
@@ -24693,7 +24699,7 @@
         <v>310016</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C386">
         <f>C384</f>
@@ -24750,7 +24756,7 @@
         <v>310017</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C387">
         <f t="shared" ref="C387:C393" si="35">A387</f>
@@ -24807,7 +24813,7 @@
         <v>310018</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C388">
         <f t="shared" si="35"/>
@@ -24864,7 +24870,7 @@
         <v>310019</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C389">
         <f t="shared" si="35"/>
@@ -24921,7 +24927,7 @@
         <v>310020</v>
       </c>
       <c r="B390" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C390">
         <f t="shared" si="35"/>
@@ -24979,7 +24985,7 @@
         <v>310021</v>
       </c>
       <c r="B391" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C391">
         <f t="shared" si="35"/>
@@ -25037,7 +25043,7 @@
         <v>310022</v>
       </c>
       <c r="B392" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C392">
         <f t="shared" si="35"/>
@@ -25095,7 +25101,7 @@
         <v>310023</v>
       </c>
       <c r="B393" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C393">
         <f t="shared" si="35"/>
@@ -25153,7 +25159,7 @@
         <v>310024</v>
       </c>
       <c r="B394" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C394">
         <f>C393</f>
@@ -25211,7 +25217,7 @@
         <v>310025</v>
       </c>
       <c r="B395" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C395">
         <f>C393</f>
@@ -25269,7 +25275,7 @@
         <v>310026</v>
       </c>
       <c r="B396" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C396">
         <f>A396</f>
@@ -25327,7 +25333,7 @@
         <v>310027</v>
       </c>
       <c r="B397" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C397">
         <f>C396</f>
@@ -25385,7 +25391,7 @@
         <v>310028</v>
       </c>
       <c r="B398" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C398">
         <f>C396</f>
@@ -25443,7 +25449,7 @@
         <v>310029</v>
       </c>
       <c r="B399" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C399">
         <f t="shared" ref="C399:C413" si="37">A399</f>
@@ -25501,7 +25507,7 @@
         <v>310030</v>
       </c>
       <c r="B400" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C400">
         <f>C399</f>
@@ -25559,7 +25565,7 @@
         <v>310031</v>
       </c>
       <c r="B401" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C401">
         <f>C399</f>
@@ -25617,7 +25623,7 @@
         <v>311001</v>
       </c>
       <c r="B402" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C402" s="4">
         <f t="shared" si="37"/>
@@ -25674,7 +25680,7 @@
         <v>311002</v>
       </c>
       <c r="B403" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C403" s="4">
         <f t="shared" si="37"/>
@@ -25731,7 +25737,7 @@
         <v>311003</v>
       </c>
       <c r="B404" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C404" s="4">
         <f t="shared" si="37"/>
@@ -25788,7 +25794,7 @@
         <v>311004</v>
       </c>
       <c r="B405" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C405" s="4">
         <f t="shared" si="37"/>
@@ -25845,7 +25851,7 @@
         <v>311005</v>
       </c>
       <c r="B406" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C406" s="4">
         <f t="shared" si="37"/>
@@ -25902,7 +25908,7 @@
         <v>311006</v>
       </c>
       <c r="B407" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C407" s="4">
         <f t="shared" si="37"/>
@@ -25959,7 +25965,7 @@
         <v>311007</v>
       </c>
       <c r="B408" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C408" s="4">
         <f t="shared" si="37"/>
@@ -26016,7 +26022,7 @@
         <v>311008</v>
       </c>
       <c r="B409" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C409" s="4">
         <f t="shared" si="37"/>
@@ -26073,7 +26079,7 @@
         <v>311009</v>
       </c>
       <c r="B410" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C410" s="4">
         <f t="shared" si="37"/>
@@ -26130,7 +26136,7 @@
         <v>311010</v>
       </c>
       <c r="B411" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C411" s="4">
         <f t="shared" si="37"/>
@@ -26187,7 +26193,7 @@
         <v>311011</v>
       </c>
       <c r="B412" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C412" s="4">
         <f t="shared" si="37"/>
@@ -26244,7 +26250,7 @@
         <v>311012</v>
       </c>
       <c r="B413" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C413" s="4">
         <f t="shared" si="37"/>
@@ -26301,7 +26307,7 @@
         <v>312001</v>
       </c>
       <c r="B414" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C414">
         <f t="shared" ref="C414:C425" si="38">A414</f>
@@ -26358,7 +26364,7 @@
         <v>312002</v>
       </c>
       <c r="B415" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C415">
         <f t="shared" si="38"/>
@@ -26415,7 +26421,7 @@
         <v>312003</v>
       </c>
       <c r="B416" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C416">
         <f t="shared" si="38"/>
@@ -26472,7 +26478,7 @@
         <v>312004</v>
       </c>
       <c r="B417" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C417">
         <f t="shared" si="38"/>
@@ -26529,7 +26535,7 @@
         <v>312005</v>
       </c>
       <c r="B418" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C418">
         <f t="shared" si="38"/>
@@ -26586,7 +26592,7 @@
         <v>312006</v>
       </c>
       <c r="B419" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C419">
         <f t="shared" si="38"/>
@@ -26643,7 +26649,7 @@
         <v>312007</v>
       </c>
       <c r="B420" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C420">
         <f t="shared" si="38"/>
@@ -26700,7 +26706,7 @@
         <v>312008</v>
       </c>
       <c r="B421" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C421">
         <f t="shared" si="38"/>
@@ -26757,7 +26763,7 @@
         <v>312009</v>
       </c>
       <c r="B422" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C422">
         <f t="shared" si="38"/>
@@ -26814,7 +26820,7 @@
         <v>312010</v>
       </c>
       <c r="B423" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C423">
         <f t="shared" si="38"/>
@@ -26871,7 +26877,7 @@
         <v>312011</v>
       </c>
       <c r="B424" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C424">
         <f t="shared" si="38"/>
@@ -26928,7 +26934,7 @@
         <v>312012</v>
       </c>
       <c r="B425" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C425">
         <f t="shared" si="38"/>
@@ -26981,6 +26987,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:R425"/>
   <sortState ref="A4:X478">
     <sortCondition ref="A353"/>
   </sortState>
@@ -27047,13 +27054,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27073,7 +27080,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="62.25" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -27094,10 +27101,10 @@
         <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>209</v>
@@ -28142,7 +28149,7 @@
         <v>205001</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C45" si="9">A34</f>
@@ -28167,7 +28174,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -28175,7 +28182,7 @@
         <v>205002</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C35">
         <f t="shared" si="9"/>
@@ -28200,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -28208,7 +28215,7 @@
         <v>205003</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C36">
         <f t="shared" si="9"/>
@@ -28233,7 +28240,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -28241,7 +28248,7 @@
         <v>205004</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C37">
         <f t="shared" si="9"/>
@@ -28266,7 +28273,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -28274,7 +28281,7 @@
         <v>205005</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C38">
         <f t="shared" si="9"/>
@@ -28299,7 +28306,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -28307,7 +28314,7 @@
         <v>205006</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C39">
         <f t="shared" si="9"/>
@@ -28332,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -28340,7 +28347,7 @@
         <v>205007</v>
       </c>
       <c r="B40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C40">
         <f t="shared" si="9"/>
@@ -28365,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -28373,7 +28380,7 @@
         <v>205008</v>
       </c>
       <c r="B41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C41">
         <f t="shared" si="9"/>
@@ -28398,7 +28405,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -28406,7 +28413,7 @@
         <v>205009</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C42">
         <f t="shared" si="9"/>
@@ -28431,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -28439,7 +28446,7 @@
         <v>205010</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C43">
         <f t="shared" si="9"/>
@@ -28464,7 +28471,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -28472,7 +28479,7 @@
         <v>205011</v>
       </c>
       <c r="B44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C44">
         <f t="shared" si="9"/>
@@ -28497,7 +28504,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -28505,7 +28512,7 @@
         <v>205012</v>
       </c>
       <c r="B45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C45">
         <f t="shared" si="9"/>
@@ -28530,7 +28537,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -28597,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47:J90" si="10">CONCATENATE("研读后可学会《",B47,"》，并有一定概率提升熟练度")</f>
+        <f t="shared" ref="J47:J91" si="10">CONCATENATE("研读后可学会《",B47,"》，并有一定概率提升熟练度")</f>
         <v>研读后可学会《治愈术》，并有一定概率提升熟练度</v>
       </c>
     </row>
@@ -28810,7 +28817,7 @@
         <v>220009</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>571</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
@@ -28836,7 +28843,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="10"/>
-        <v>研读后可学会《地狱火》，并有一定概率提升熟练度</v>
+        <v>研读后可学会《地狱寒冰》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -28844,7 +28851,7 @@
         <v>220010</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
@@ -28878,7 +28885,7 @@
         <v>220011</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
@@ -28912,7 +28919,7 @@
         <v>220012</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
@@ -28946,7 +28953,7 @@
         <v>220013</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
@@ -28972,7 +28979,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="10"/>
-        <v>研读后可学会《蚀甲》，并有一定概率提升熟练度</v>
+        <v>研读后可学会《幽灵盾》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -28980,7 +28987,7 @@
         <v>220014</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
@@ -29014,7 +29021,7 @@
         <v>220015</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
@@ -29048,7 +29055,7 @@
         <v>220016</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
@@ -29082,7 +29089,7 @@
         <v>220017</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>574</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
@@ -29108,7 +29115,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="10"/>
-        <v>研读后可学会《召唤骷髅》，并有一定概率提升熟练度</v>
+        <v>研读后可学会《亡灵召唤》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -29116,7 +29123,7 @@
         <v>220018</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
@@ -29150,7 +29157,7 @@
         <v>220019</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
@@ -29184,7 +29191,7 @@
         <v>220020</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
@@ -29218,7 +29225,7 @@
         <v>220021</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
@@ -29252,7 +29259,7 @@
         <v>220022</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
@@ -29286,7 +29293,7 @@
         <v>220023</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
@@ -29320,7 +29327,7 @@
         <v>220024</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69">
         <f t="shared" si="11"/>
@@ -29354,7 +29361,7 @@
         <v>220025</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C70">
         <f t="shared" si="11"/>
@@ -29388,7 +29395,7 @@
         <v>220026</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C71">
         <f t="shared" si="11"/>
@@ -29422,7 +29429,7 @@
         <v>220027</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C72">
         <f t="shared" si="11"/>
@@ -29456,7 +29463,7 @@
         <v>220028</v>
       </c>
       <c r="B73" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C73">
         <f t="shared" si="11"/>
@@ -29490,7 +29497,7 @@
         <v>220029</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C74">
         <f t="shared" si="11"/>
@@ -29524,7 +29531,7 @@
         <v>220030</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C75">
         <f t="shared" si="11"/>
@@ -29558,7 +29565,7 @@
         <v>220031</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C76">
         <f t="shared" si="11"/>
@@ -29592,7 +29599,7 @@
         <v>220032</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C77">
         <f t="shared" si="11"/>
@@ -29626,7 +29633,7 @@
         <v>220033</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C78">
         <f t="shared" si="11"/>
@@ -29660,7 +29667,7 @@
         <v>220034</v>
       </c>
       <c r="B79" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C79">
         <f t="shared" si="11"/>
@@ -29694,7 +29701,7 @@
         <v>220035</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80">
         <f t="shared" si="11"/>
@@ -29728,7 +29735,7 @@
         <v>220036</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
@@ -29762,7 +29769,7 @@
         <v>220037</v>
       </c>
       <c r="B82" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C82">
         <v>220001</v>
@@ -29795,7 +29802,7 @@
         <v>220038</v>
       </c>
       <c r="B83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C83">
         <f t="shared" si="11"/>
@@ -29829,7 +29836,7 @@
         <v>220039</v>
       </c>
       <c r="B84" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C84">
         <f t="shared" si="11"/>
@@ -29863,7 +29870,7 @@
         <v>220040</v>
       </c>
       <c r="B85" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
@@ -29897,7 +29904,7 @@
         <v>220041</v>
       </c>
       <c r="B86" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C86">
         <v>220001</v>
@@ -29930,7 +29937,7 @@
         <v>220042</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C87">
         <v>220001</v>
@@ -29963,7 +29970,7 @@
         <v>220043</v>
       </c>
       <c r="B88" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C88">
         <v>220001</v>
@@ -29996,13 +30003,13 @@
         <v>220044</v>
       </c>
       <c r="B89" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="C89">
         <v>220001</v>
       </c>
       <c r="D89" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3">
         <v>55</v>
@@ -30021,7 +30028,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="10"/>
-        <v>研读后可学会《通魔》，并有一定概率提升熟练度</v>
+        <v>研读后可学会《嗜血》，并有一定概率提升熟练度</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -30029,13 +30036,13 @@
         <v>220045</v>
       </c>
       <c r="B90" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="C90">
         <v>220001</v>
       </c>
       <c r="D90" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3">
         <v>55</v>
@@ -30054,17 +30061,50 @@
       </c>
       <c r="J90" t="str">
         <f t="shared" si="10"/>
-        <v>研读后可学会《圣盾》，并有一定概率提升熟练度</v>
+        <v>研读后可学会《狮子吼》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>220046</v>
+      </c>
+      <c r="B91" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91">
+        <v>220001</v>
+      </c>
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>40</v>
+      </c>
+      <c r="F91" s="3">
+        <v>2</v>
+      </c>
+      <c r="G91" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>5001</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="10"/>
+        <v>研读后可学会《蚀甲》，并有一定概率提升熟练度</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J90"/>
+  <autoFilter ref="A3:J89"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I17 G67:G72 G2:G45 G74:G65484"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I17 G67:G72 G2:G45 G74:G65483"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30156,7 +30196,7 @@
         <v>1102</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -30164,7 +30204,7 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -30172,7 +30212,7 @@
         <v>5002</v>
       </c>
       <c r="B10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -30180,7 +30220,7 @@
         <v>5101</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -30188,7 +30228,7 @@
         <v>5102</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -30222,22 +30262,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" t="s">
         <v>383</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>384</v>
       </c>
-      <c r="D1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>386</v>
-      </c>
-      <c r="G1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -31353,7 +31393,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -32813,7 +32853,7 @@
         <v>-56</v>
       </c>
       <c r="J109" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -34124,40 +34164,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
         <v>462</v>
       </c>
-      <c r="C1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>466</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>469</v>
-      </c>
-      <c r="K1" t="s">
-        <v>470</v>
-      </c>
-      <c r="L1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12">

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="75" windowWidth="4455" windowHeight="9255" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="75" windowWidth="4455" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -2725,11 +2725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T425"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="X340" sqref="X340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2743,7 +2743,11 @@
     <col min="17" max="18" width="8.5" customWidth="1"/>
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="99" hidden="1" customHeight="1">
@@ -14449,7 +14453,7 @@
         <v>5</v>
       </c>
       <c r="M206">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -14512,7 +14516,7 @@
         <v>5</v>
       </c>
       <c r="O207">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P207">
         <v>0</v>
@@ -14557,7 +14561,7 @@
         <v>13</v>
       </c>
       <c r="K208">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L208">
         <v>0</v>
@@ -14621,7 +14625,7 @@
         <v>9</v>
       </c>
       <c r="M209">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -14685,7 +14689,7 @@
         <v>9</v>
       </c>
       <c r="O210">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -14731,7 +14735,7 @@
         <v>17</v>
       </c>
       <c r="K211">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -14795,7 +14799,7 @@
         <v>11</v>
       </c>
       <c r="M212">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -14859,7 +14863,7 @@
         <v>13</v>
       </c>
       <c r="O213">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -14969,7 +14973,7 @@
         <v>14</v>
       </c>
       <c r="M215">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -15033,7 +15037,7 @@
         <v>14</v>
       </c>
       <c r="O216">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -15139,10 +15143,10 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M218">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -21244,7 +21248,7 @@
         <v>6</v>
       </c>
       <c r="M325">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -21307,7 +21311,7 @@
         <v>6</v>
       </c>
       <c r="O326">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P326">
         <v>0</v>
@@ -21416,7 +21420,7 @@
         <v>11</v>
       </c>
       <c r="M328">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -21761,10 +21765,10 @@
         <v>0</v>
       </c>
       <c r="L334">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M334">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -21828,7 +21832,7 @@
         <v>19</v>
       </c>
       <c r="O335">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P335">
         <v>0</v>
@@ -21871,7 +21875,7 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K336">
         <v>66</v>
@@ -21935,10 +21939,10 @@
         <v>0</v>
       </c>
       <c r="L337">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M337">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -21999,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="N338">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O338">
         <v>54</v>
@@ -27056,7 +27060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/documents/装备及道具.xlsx
+++ b/documents/装备及道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="75" windowWidth="4365" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="4665" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="formula" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">道具!$A$3:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">道具!$A$3:$I$196</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装备!$A$3:$R$428</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="545">
   <si>
     <t>ID</t>
   </si>
@@ -1963,9 +1963,41 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>黑铁矿石</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银矿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜矿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿石</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫水晶矿石</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿水晶矿石</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>说明：
     1、ID共六位，第1位2代表道具，2-3位为类别，4-6位为序号
-    2、类别：01为经济，20技能书</t>
+    2、类别：01为经济，02矿石，20技能书</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误物品</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2631,11 +2663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S428"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I394" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B420" sqref="B420"/>
+      <selection pane="bottomRight" activeCell="H411" sqref="H411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26834,13 +26866,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -26859,7 +26891,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1">
       <c r="A1" s="24" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -26900,45 +26932,44 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>201001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4">
-        <v>1001</v>
+    <row r="4" spans="1:10" s="3" customFormat="1">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE("大洋",H4, "个")</f>
-        <v>大洋20个</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>201002</v>
+        <v>201001</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>212</v>
       </c>
       <c r="C5">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -26947,28 +26978,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I8" si="0">CONCATENATE("大洋",H5, "个")</f>
-        <v>大洋100个</v>
+        <f>CONCATENATE("大洋",H5, "个")</f>
+        <v>大洋20个</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>201003</v>
+        <v>201002</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C6">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -26977,1602 +27008,5972 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6" s="7">
+        <v>100</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="0">CONCATENATE("大洋",H6, "个")</f>
+        <v>大洋100个</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>201003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="7">
         <v>200</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>大洋200个</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>201004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>213</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1004</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
         <v>110</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <v>500</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>大洋500个</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>201005</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>214</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1005</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>550</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>2000</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>大洋2000个</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>201006</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>215</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1006</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>1100000</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <v>1000000</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I10" t="str">
         <f>CONCATENATE("别说你不知道")</f>
         <v>别说你不知道</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>201007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5200000</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I11" si="1">CONCATENATE("别说你不知道")</f>
-        <v>别说你不知道</v>
-      </c>
-    </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>201008</v>
+        <v>201007</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7">
-        <v>11000000</v>
+        <v>5200000</v>
       </c>
       <c r="G11">
         <v>1000</v>
       </c>
       <c r="H11" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11:I12" si="1">CONCATENATE("别说你不知道")</f>
+        <v>别说你不知道</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>201008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="7">
         <v>10000000</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="1"/>
         <v>别说你不知道</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>220001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12">
-        <v>1009</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7">
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <v>5001</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE("研读后可学会《",B12,"》，并有一定概率提升熟练度")</f>
-        <v>研读后可学会《火球术》，并有一定概率提升熟练度</v>
-      </c>
-    </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>220002</v>
+        <v>202001</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>537</v>
       </c>
       <c r="C13">
-        <f>$C$12</f>
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7">
-        <v>500</v>
+        <f>50*H13*H13</f>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I57" si="2">CONCATENATE("研读后可学会《",B13,"》，并有一定概率提升熟练度")</f>
-        <v>研读后可学会《治愈术》，并有一定概率提升熟练度</v>
+        <f>CONCATENATE(B13, ",纯度:",H13)</f>
+        <v>金矿,纯度:1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>220003</v>
+        <v>202002</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>537</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C57" si="3">$C$12</f>
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>500</v>
+        <f t="shared" ref="F14:F32" si="2">50*H14*H14</f>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《基本剑术》，并有一定概率提升熟练度</v>
+        <f t="shared" ref="I14:I133" si="3">CONCATENATE(B14, ",纯度:",H14)</f>
+        <v>金矿,纯度:2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>220004</v>
+        <v>202003</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>537</v>
       </c>
       <c r="C15">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7">
-        <v>700</v>
-      </c>
-      <c r="G15">
-        <v>5001</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《精神力战法》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>220005</v>
+        <v>202004</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>537</v>
       </c>
       <c r="C16">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G16">
-        <v>5001</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《大火球》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>220006</v>
+        <v>202005</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="C17">
+        <v>1010</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G17">
-        <v>5001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《攻杀剑术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>220007</v>
+        <v>202006</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>537</v>
       </c>
       <c r="C18">
+        <v>1010</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1200</v>
-      </c>
-      <c r="G18">
-        <v>5001</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《施毒术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>220008</v>
+        <v>202007</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>537</v>
       </c>
       <c r="C19">
+        <v>1010</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7">
-        <v>500</v>
-      </c>
-      <c r="G19">
-        <v>5001</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《抗拒火环》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:7</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>220009</v>
+        <v>202008</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C20">
+        <v>1010</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G20">
-        <v>5001</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《地狱寒冰》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>220010</v>
+        <v>202009</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
       <c r="C21">
+        <v>1010</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>9</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1500</v>
-      </c>
-      <c r="G21">
-        <v>5001</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《雷电术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:9</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>220011</v>
+        <v>202010</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>537</v>
       </c>
       <c r="C22">
+        <v>1010</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>26</v>
-      </c>
-      <c r="F22" s="7">
-        <v>9000</v>
-      </c>
-      <c r="G22">
-        <v>5001</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《疾光电影》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:10</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>220012</v>
+        <v>202011</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>537</v>
       </c>
       <c r="C23">
+        <v>1010</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
+        <v>6050</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1800</v>
-      </c>
-      <c r="G23">
-        <v>5001</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《灵魂火符》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:11</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>220013</v>
+        <v>202012</v>
       </c>
       <c r="B24" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="C24">
+        <v>1010</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2727</v>
-      </c>
-      <c r="G24">
-        <v>5001</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《幽灵盾》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:12</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>220014</v>
+        <v>202013</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>537</v>
       </c>
       <c r="C25">
+        <v>1010</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="2"/>
+        <v>8450</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>13</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>25</v>
-      </c>
-      <c r="F25" s="7">
-        <v>4545</v>
-      </c>
-      <c r="G25">
-        <v>5001</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《神圣战甲术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:13</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>220015</v>
+        <v>202014</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>537</v>
       </c>
       <c r="C26">
+        <v>1010</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>9800</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7">
-        <v>4545</v>
-      </c>
-      <c r="G26">
-        <v>5001</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《刺杀剑术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:14</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>220016</v>
+        <v>202015</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>537</v>
       </c>
       <c r="C27">
+        <v>1010</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <f>50*H27*H27</f>
+        <v>11250</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>15</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>28</v>
-      </c>
-      <c r="F27" s="7">
-        <v>7000</v>
-      </c>
-      <c r="G27">
-        <v>5001</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《困魔咒》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:15</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>220017</v>
+        <v>202016</v>
       </c>
       <c r="B28" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C28">
+        <v>1010</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
+        <v>12800</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>16</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G28">
-        <v>5001</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《亡灵召唤》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:16</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>220018</v>
+        <v>202017</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>537</v>
       </c>
       <c r="C29">
+        <v>1010</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>14450</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>20</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G29">
-        <v>5001</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE("研读后可学会《",B29,"》，并有一定概率提升熟练度")</f>
-        <v>研读后可学会《隐身术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:17</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>220019</v>
+        <v>202018</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>537</v>
       </c>
       <c r="C30">
+        <v>1010</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>18</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>21</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2727</v>
-      </c>
-      <c r="G30">
-        <v>5001</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《集体隐身术》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:18</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>220020</v>
+        <v>202019</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>537</v>
       </c>
       <c r="C31">
+        <v>1010</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
+        <v>18050</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>19</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1000</v>
-      </c>
-      <c r="G31">
-        <v>5001</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《诱惑之光》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:19</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>220021</v>
+        <v>202020</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>537</v>
       </c>
       <c r="C32">
+        <v>1010</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>19</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G32">
-        <v>5001</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《瞬息移动》，并有一定概率提升熟练度</v>
+        <v>金矿,纯度:20</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>220022</v>
+        <v>202021</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>538</v>
       </c>
       <c r="C33">
+        <v>1011</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <f>25*H33*H33</f>
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>24</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4500</v>
-      </c>
-      <c r="G33">
-        <v>5001</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《附体之炎》，并有一定概率提升熟练度</v>
+        <v>银矿,纯度:1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>220023</v>
+        <v>202022</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>538</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" ref="F34:F52" si="4">25*H34*H34</f>
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="3">
-        <v>22</v>
-      </c>
-      <c r="F34" s="7">
-        <v>2700</v>
-      </c>
-      <c r="G34">
-        <v>5001</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《爆裂火焰》，并有一定概率提升熟练度</v>
+        <f t="shared" ref="I34:I52" si="5">CONCATENATE(B34, ",纯度:",H34)</f>
+        <v>银矿,纯度:2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>220024</v>
+        <v>202023</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>538</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F35" s="7">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>225</v>
       </c>
       <c r="G35">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《地狱雷光》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>220025</v>
+        <v>202024</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F36" s="7">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="G36">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《半月弯刀》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>220026</v>
+        <v>202025</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>538</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7">
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>625</v>
       </c>
       <c r="G37">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《烈火剑法》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:5</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>220027</v>
+        <v>202026</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>538</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F38" s="7">
-        <v>12000</v>
+        <f t="shared" si="4"/>
+        <v>900</v>
       </c>
       <c r="G38">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《野蛮冲撞》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>220028</v>
+        <v>202027</v>
       </c>
       <c r="B39" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D39" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
-        <v>18000</v>
+        <f t="shared" si="4"/>
+        <v>1225</v>
       </c>
       <c r="G39">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《群体施毒术》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>220029</v>
+        <v>202028</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>538</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F40" s="7">
-        <v>15000</v>
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
       <c r="G40">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《群体治疗术》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>220030</v>
+        <v>202029</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>538</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D41" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F41" s="7">
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>2025</v>
       </c>
       <c r="G41">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I41" t="str">
-        <f>CONCATENATE("研读后可学会《",B41,"》，并有一定概率提升熟练度")</f>
-        <v>研读后可学会《召唤神兽》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>220031</v>
+        <v>202030</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>538</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>2500</v>
       </c>
       <c r="G42">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《魔法盾》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:10</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>220032</v>
+        <v>202031</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>538</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F43" s="7">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>3025</v>
       </c>
       <c r="G43">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《圣言术》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:11</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>220033</v>
+        <v>202032</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>538</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F44" s="7">
-        <v>20000</v>
+        <f t="shared" si="4"/>
+        <v>3600</v>
       </c>
       <c r="G44">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《冰咆哮》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:12</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>220034</v>
+        <v>202033</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>538</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F45" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>4225</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《战神守护》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:13</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>220035</v>
+        <v>202034</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F46" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>4900</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《逐日剑法》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:14</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>220036</v>
+        <v>202035</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>538</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F47" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>5625</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《开天斩》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:15</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>220037</v>
+        <v>202036</v>
       </c>
       <c r="B48" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F48" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I48" t="str">
-        <f>CONCATENATE("研读后可学会《",B48,"》，并有一定概率提升熟练度")</f>
-        <v>研读后可学会《圆月莲华》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:16</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>220038</v>
+        <v>202037</v>
       </c>
       <c r="B49" t="s">
-        <v>437</v>
+        <v>538</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D49" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>7225</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《幽冥火咒》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:17</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>220039</v>
+        <v>202038</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>538</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F50" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G50" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>8100</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《狂雷闪》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:18</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>220040</v>
+        <v>202039</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>538</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G51" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>9025</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《怒炎》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:19</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>220041</v>
+        <v>202040</v>
       </c>
       <c r="B52" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D52" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F52" s="7">
-        <v>70000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5001</v>
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《召唤月灵》，并有一定概率提升熟练度</v>
+        <f t="shared" si="5"/>
+        <v>银矿,纯度:20</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>220042</v>
+        <v>202041</v>
       </c>
       <c r="B53" t="s">
-        <v>440</v>
+        <v>539</v>
       </c>
       <c r="C53">
+        <v>1012</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7">
+        <f>15*H53*H53</f>
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3">
-        <v>125</v>
-      </c>
-      <c r="F53" s="7">
-        <v>90000</v>
-      </c>
-      <c r="G53" s="3">
-        <v>5001</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《召唤白虎》，并有一定概率提升熟练度</v>
+        <v>铜矿,纯度:1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>220043</v>
+        <v>202042</v>
       </c>
       <c r="B54" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5001</v>
+        <f t="shared" ref="F54:F72" si="6">15*H54*H54</f>
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《狂暴》，并有一定概率提升熟练度</v>
+        <f t="shared" ref="I54:I72" si="7">CONCATENATE(B54, ",纯度:",H54)</f>
+        <v>铜矿,纯度:2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>220044</v>
+        <v>202043</v>
       </c>
       <c r="B55" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G55" s="3">
-        <v>5001</v>
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《嗜血》，并有一定概率提升熟练度</v>
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>220045</v>
+        <v>202044</v>
       </c>
       <c r="B56" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F56" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G56" s="3">
-        <v>5001</v>
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>研读后可学会《狮子吼》，并有一定概率提升熟练度</v>
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:4</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
+        <v>202045</v>
+      </c>
+      <c r="B57" t="s">
+        <v>539</v>
+      </c>
+      <c r="C57">
+        <v>1012</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>5</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>202046</v>
+      </c>
+      <c r="B58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58">
+        <v>1012</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>6</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>202047</v>
+      </c>
+      <c r="B59" t="s">
+        <v>539</v>
+      </c>
+      <c r="C59">
+        <v>1012</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="6"/>
+        <v>735</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>7</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>202048</v>
+      </c>
+      <c r="B60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C60">
+        <v>1012</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" si="6"/>
+        <v>960</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>8</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>202049</v>
+      </c>
+      <c r="B61" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61">
+        <v>1012</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="6"/>
+        <v>1215</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>9</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>202050</v>
+      </c>
+      <c r="B62" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62">
+        <v>1012</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>10</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>202051</v>
+      </c>
+      <c r="B63" t="s">
+        <v>539</v>
+      </c>
+      <c r="C63">
+        <v>1012</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="6"/>
+        <v>1815</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>11</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>202052</v>
+      </c>
+      <c r="B64" t="s">
+        <v>539</v>
+      </c>
+      <c r="C64">
+        <v>1012</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>12</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>202053</v>
+      </c>
+      <c r="B65" t="s">
+        <v>539</v>
+      </c>
+      <c r="C65">
+        <v>1012</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <f t="shared" si="6"/>
+        <v>2535</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>13</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>202054</v>
+      </c>
+      <c r="B66" t="s">
+        <v>539</v>
+      </c>
+      <c r="C66">
+        <v>1012</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <f t="shared" si="6"/>
+        <v>2940</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>14</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>202055</v>
+      </c>
+      <c r="B67" t="s">
+        <v>539</v>
+      </c>
+      <c r="C67">
+        <v>1012</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" si="6"/>
+        <v>3375</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>15</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>202056</v>
+      </c>
+      <c r="B68" t="s">
+        <v>539</v>
+      </c>
+      <c r="C68">
+        <v>1012</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" si="6"/>
+        <v>3840</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>16</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>202057</v>
+      </c>
+      <c r="B69" t="s">
+        <v>539</v>
+      </c>
+      <c r="C69">
+        <v>1012</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="6"/>
+        <v>4335</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>17</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>202058</v>
+      </c>
+      <c r="B70" t="s">
+        <v>539</v>
+      </c>
+      <c r="C70">
+        <v>1012</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="6"/>
+        <v>4860</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>18</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>202059</v>
+      </c>
+      <c r="B71" t="s">
+        <v>539</v>
+      </c>
+      <c r="C71">
+        <v>1012</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="6"/>
+        <v>5415</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>19</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>202060</v>
+      </c>
+      <c r="B72" t="s">
+        <v>539</v>
+      </c>
+      <c r="C72">
+        <v>1012</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>20</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="7"/>
+        <v>铜矿,纯度:20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>202061</v>
+      </c>
+      <c r="B73" t="s">
+        <v>540</v>
+      </c>
+      <c r="C73">
+        <v>1013</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7">
+        <f>5*H73*H73</f>
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="3"/>
+        <v>铁矿石,纯度:1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>202062</v>
+      </c>
+      <c r="B74" t="s">
+        <v>540</v>
+      </c>
+      <c r="C74">
+        <v>1013</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" ref="F74:F92" si="8">5*H74*H74</f>
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" ref="I74:I92" si="9">CONCATENATE(B74, ",纯度:",H74)</f>
+        <v>铁矿石,纯度:2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>202063</v>
+      </c>
+      <c r="B75" t="s">
+        <v>540</v>
+      </c>
+      <c r="C75">
+        <v>1013</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>3</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>202064</v>
+      </c>
+      <c r="B76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C76">
+        <v>1013</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>202065</v>
+      </c>
+      <c r="B77" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77">
+        <v>1013</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>202066</v>
+      </c>
+      <c r="B78" t="s">
+        <v>540</v>
+      </c>
+      <c r="C78">
+        <v>1013</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>6</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>202067</v>
+      </c>
+      <c r="B79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C79">
+        <v>1013</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>7</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>202068</v>
+      </c>
+      <c r="B80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80">
+        <v>1013</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" si="8"/>
+        <v>320</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>8</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>202069</v>
+      </c>
+      <c r="B81" t="s">
+        <v>540</v>
+      </c>
+      <c r="C81">
+        <v>1013</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>9</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>202070</v>
+      </c>
+      <c r="B82" t="s">
+        <v>540</v>
+      </c>
+      <c r="C82">
+        <v>1013</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>10</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>202071</v>
+      </c>
+      <c r="B83" t="s">
+        <v>540</v>
+      </c>
+      <c r="C83">
+        <v>1013</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" si="8"/>
+        <v>605</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>11</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>202072</v>
+      </c>
+      <c r="B84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C84">
+        <v>1013</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" si="8"/>
+        <v>720</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>12</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>202073</v>
+      </c>
+      <c r="B85" t="s">
+        <v>540</v>
+      </c>
+      <c r="C85">
+        <v>1013</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="8"/>
+        <v>845</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>13</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>202074</v>
+      </c>
+      <c r="B86" t="s">
+        <v>540</v>
+      </c>
+      <c r="C86">
+        <v>1013</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <f t="shared" si="8"/>
+        <v>980</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>14</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>202075</v>
+      </c>
+      <c r="B87" t="s">
+        <v>540</v>
+      </c>
+      <c r="C87">
+        <v>1013</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" si="8"/>
+        <v>1125</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>15</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>202076</v>
+      </c>
+      <c r="B88" t="s">
+        <v>540</v>
+      </c>
+      <c r="C88">
+        <v>1013</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" si="8"/>
+        <v>1280</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>16</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>202077</v>
+      </c>
+      <c r="B89" t="s">
+        <v>540</v>
+      </c>
+      <c r="C89">
+        <v>1013</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" si="8"/>
+        <v>1445</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>17</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>202078</v>
+      </c>
+      <c r="B90" t="s">
+        <v>540</v>
+      </c>
+      <c r="C90">
+        <v>1013</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="8"/>
+        <v>1620</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>18</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>202079</v>
+      </c>
+      <c r="B91" t="s">
+        <v>540</v>
+      </c>
+      <c r="C91">
+        <v>1013</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="8"/>
+        <v>1805</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>19</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>202080</v>
+      </c>
+      <c r="B92" t="s">
+        <v>540</v>
+      </c>
+      <c r="C92">
+        <v>1013</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="8"/>
+        <v>2000</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>20</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="9"/>
+        <v>铁矿石,纯度:20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>202081</v>
+      </c>
+      <c r="B93" t="s">
+        <v>536</v>
+      </c>
+      <c r="C93">
+        <v>1014</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7">
+        <f>16*H93*H93</f>
+        <v>16</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="3"/>
+        <v>黑铁矿石,纯度:1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>202082</v>
+      </c>
+      <c r="B94" t="s">
+        <v>536</v>
+      </c>
+      <c r="C94">
+        <v>1014</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" ref="F94:F112" si="10">16*H94*H94</f>
+        <v>64</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>2</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" ref="I94:I112" si="11">CONCATENATE(B94, ",纯度:",H94)</f>
+        <v>黑铁矿石,纯度:2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>202083</v>
+      </c>
+      <c r="B95" t="s">
+        <v>536</v>
+      </c>
+      <c r="C95">
+        <v>1014</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>3</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>202084</v>
+      </c>
+      <c r="B96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96">
+        <v>1014</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>4</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>202085</v>
+      </c>
+      <c r="B97" t="s">
+        <v>536</v>
+      </c>
+      <c r="C97">
+        <v>1014</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>5</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>202086</v>
+      </c>
+      <c r="B98" t="s">
+        <v>536</v>
+      </c>
+      <c r="C98">
+        <v>1014</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="10"/>
+        <v>576</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>6</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>202087</v>
+      </c>
+      <c r="B99" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99">
+        <v>1014</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="10"/>
+        <v>784</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>7</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>202088</v>
+      </c>
+      <c r="B100" t="s">
+        <v>536</v>
+      </c>
+      <c r="C100">
+        <v>1014</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>8</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>202089</v>
+      </c>
+      <c r="B101" t="s">
+        <v>536</v>
+      </c>
+      <c r="C101">
+        <v>1014</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="10"/>
+        <v>1296</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>9</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>202090</v>
+      </c>
+      <c r="B102" t="s">
+        <v>536</v>
+      </c>
+      <c r="C102">
+        <v>1014</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="10"/>
+        <v>1600</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7">
+        <v>10</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>202091</v>
+      </c>
+      <c r="B103" t="s">
+        <v>536</v>
+      </c>
+      <c r="C103">
+        <v>1014</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="10"/>
+        <v>1936</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>11</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>202092</v>
+      </c>
+      <c r="B104" t="s">
+        <v>536</v>
+      </c>
+      <c r="C104">
+        <v>1014</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" si="10"/>
+        <v>2304</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>12</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>202093</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105">
+        <v>1014</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="10"/>
+        <v>2704</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>13</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>202094</v>
+      </c>
+      <c r="B106" t="s">
+        <v>536</v>
+      </c>
+      <c r="C106">
+        <v>1014</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7">
+        <f t="shared" si="10"/>
+        <v>3136</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <v>14</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>202095</v>
+      </c>
+      <c r="B107" t="s">
+        <v>536</v>
+      </c>
+      <c r="C107">
+        <v>1014</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1</v>
+      </c>
+      <c r="F107" s="7">
+        <f t="shared" si="10"/>
+        <v>3600</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>15</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>202096</v>
+      </c>
+      <c r="B108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108">
+        <v>1014</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7">
+        <f t="shared" si="10"/>
+        <v>4096</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>16</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>202097</v>
+      </c>
+      <c r="B109" t="s">
+        <v>536</v>
+      </c>
+      <c r="C109">
+        <v>1014</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="10"/>
+        <v>4624</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>17</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>202098</v>
+      </c>
+      <c r="B110" t="s">
+        <v>536</v>
+      </c>
+      <c r="C110">
+        <v>1014</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7">
+        <f t="shared" si="10"/>
+        <v>5184</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>18</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>202099</v>
+      </c>
+      <c r="B111" t="s">
+        <v>536</v>
+      </c>
+      <c r="C111">
+        <v>1014</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="10"/>
+        <v>5776</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <v>19</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>202100</v>
+      </c>
+      <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112">
+        <v>1014</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="10"/>
+        <v>6400</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>20</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="11"/>
+        <v>黑铁矿石,纯度:20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>202101</v>
+      </c>
+      <c r="B113" t="s">
+        <v>541</v>
+      </c>
+      <c r="C113">
+        <v>1015</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7">
+        <f>35*H113*H113</f>
+        <v>35</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>1</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="3"/>
+        <v>紫水晶矿石,纯度:1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>202102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>541</v>
+      </c>
+      <c r="C114">
+        <v>1015</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" ref="F114:F133" si="12">35*H114*H114</f>
+        <v>140</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>2</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" ref="I114:I132" si="13">CONCATENATE(B114, ",纯度:",H114)</f>
+        <v>紫水晶矿石,纯度:2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>202103</v>
+      </c>
+      <c r="B115" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115">
+        <v>1015</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="7">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>3</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>202104</v>
+      </c>
+      <c r="B116" t="s">
+        <v>541</v>
+      </c>
+      <c r="C116">
+        <v>1015</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="7">
+        <f t="shared" si="12"/>
+        <v>560</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <v>4</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>202105</v>
+      </c>
+      <c r="B117" t="s">
+        <v>541</v>
+      </c>
+      <c r="C117">
+        <v>1015</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" si="12"/>
+        <v>875</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <v>5</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>202106</v>
+      </c>
+      <c r="B118" t="s">
+        <v>541</v>
+      </c>
+      <c r="C118">
+        <v>1015</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="7">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <v>6</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>202107</v>
+      </c>
+      <c r="B119" t="s">
+        <v>541</v>
+      </c>
+      <c r="C119">
+        <v>1015</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7">
+        <f t="shared" si="12"/>
+        <v>1715</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7">
+        <v>7</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>202108</v>
+      </c>
+      <c r="B120" t="s">
+        <v>541</v>
+      </c>
+      <c r="C120">
+        <v>1015</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="7">
+        <f t="shared" si="12"/>
+        <v>2240</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7">
+        <v>8</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>202109</v>
+      </c>
+      <c r="B121" t="s">
+        <v>541</v>
+      </c>
+      <c r="C121">
+        <v>1015</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="7">
+        <f t="shared" si="12"/>
+        <v>2835</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" s="7">
+        <v>9</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>202110</v>
+      </c>
+      <c r="B122" t="s">
+        <v>541</v>
+      </c>
+      <c r="C122">
+        <v>1015</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" si="12"/>
+        <v>3500</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" s="7">
+        <v>10</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>202111</v>
+      </c>
+      <c r="B123" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123">
+        <v>1015</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7">
+        <f t="shared" si="12"/>
+        <v>4235</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" s="7">
+        <v>11</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>202112</v>
+      </c>
+      <c r="B124" t="s">
+        <v>541</v>
+      </c>
+      <c r="C124">
+        <v>1015</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7">
+        <f t="shared" si="12"/>
+        <v>5040</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7">
+        <v>12</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>202113</v>
+      </c>
+      <c r="B125" t="s">
+        <v>541</v>
+      </c>
+      <c r="C125">
+        <v>1015</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7">
+        <f t="shared" si="12"/>
+        <v>5915</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7">
+        <v>13</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>202114</v>
+      </c>
+      <c r="B126" t="s">
+        <v>541</v>
+      </c>
+      <c r="C126">
+        <v>1015</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1</v>
+      </c>
+      <c r="F126" s="7">
+        <f t="shared" si="12"/>
+        <v>6860</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" s="7">
+        <v>14</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>202115</v>
+      </c>
+      <c r="B127" t="s">
+        <v>541</v>
+      </c>
+      <c r="C127">
+        <v>1015</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7">
+        <f t="shared" si="12"/>
+        <v>7875</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7">
+        <v>15</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>202116</v>
+      </c>
+      <c r="B128" t="s">
+        <v>541</v>
+      </c>
+      <c r="C128">
+        <v>1015</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7">
+        <f t="shared" si="12"/>
+        <v>8960</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7">
+        <v>16</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>202117</v>
+      </c>
+      <c r="B129" t="s">
+        <v>541</v>
+      </c>
+      <c r="C129">
+        <v>1015</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="7">
+        <f t="shared" si="12"/>
+        <v>10115</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7">
+        <v>17</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>202118</v>
+      </c>
+      <c r="B130" t="s">
+        <v>541</v>
+      </c>
+      <c r="C130">
+        <v>1015</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="7">
+        <f t="shared" si="12"/>
+        <v>11340</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <v>18</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>202119</v>
+      </c>
+      <c r="B131" t="s">
+        <v>541</v>
+      </c>
+      <c r="C131">
+        <v>1015</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="7">
+        <f t="shared" si="12"/>
+        <v>12635</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7">
+        <v>19</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>202120</v>
+      </c>
+      <c r="B132" t="s">
+        <v>541</v>
+      </c>
+      <c r="C132">
+        <v>1015</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="7">
+        <f t="shared" si="12"/>
+        <v>14000</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" s="7">
+        <v>20</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="13"/>
+        <v>紫水晶矿石,纯度:20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>202121</v>
+      </c>
+      <c r="B133" t="s">
+        <v>542</v>
+      </c>
+      <c r="C133">
+        <v>1016</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" s="7">
+        <v>1</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="3"/>
+        <v>绿水晶矿石,纯度:1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>202122</v>
+      </c>
+      <c r="B134" t="s">
+        <v>542</v>
+      </c>
+      <c r="C134">
+        <v>1016</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="7">
+        <f t="shared" ref="F134:F152" si="14">35*H134*H134</f>
+        <v>140</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7">
+        <v>2</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" ref="I134:I152" si="15">CONCATENATE(B134, ",纯度:",H134)</f>
+        <v>绿水晶矿石,纯度:2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>202123</v>
+      </c>
+      <c r="B135" t="s">
+        <v>542</v>
+      </c>
+      <c r="C135">
+        <v>1016</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="7">
+        <f t="shared" si="14"/>
+        <v>315</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>3</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>202124</v>
+      </c>
+      <c r="B136" t="s">
+        <v>542</v>
+      </c>
+      <c r="C136">
+        <v>1016</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="7">
+        <f t="shared" si="14"/>
+        <v>560</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <v>4</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>202125</v>
+      </c>
+      <c r="B137" t="s">
+        <v>542</v>
+      </c>
+      <c r="C137">
+        <v>1016</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="7">
+        <f t="shared" si="14"/>
+        <v>875</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7">
+        <v>5</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>202126</v>
+      </c>
+      <c r="B138" t="s">
+        <v>542</v>
+      </c>
+      <c r="C138">
+        <v>1016</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="7">
+        <f t="shared" si="14"/>
+        <v>1260</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7">
+        <v>6</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>202127</v>
+      </c>
+      <c r="B139" t="s">
+        <v>542</v>
+      </c>
+      <c r="C139">
+        <v>1016</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="7">
+        <f t="shared" si="14"/>
+        <v>1715</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <v>7</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>202128</v>
+      </c>
+      <c r="B140" t="s">
+        <v>542</v>
+      </c>
+      <c r="C140">
+        <v>1016</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="7">
+        <f t="shared" si="14"/>
+        <v>2240</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <v>8</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>202129</v>
+      </c>
+      <c r="B141" t="s">
+        <v>542</v>
+      </c>
+      <c r="C141">
+        <v>1016</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="7">
+        <f t="shared" si="14"/>
+        <v>2835</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>9</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>202130</v>
+      </c>
+      <c r="B142" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142">
+        <v>1016</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="7">
+        <f t="shared" si="14"/>
+        <v>3500</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>10</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>202131</v>
+      </c>
+      <c r="B143" t="s">
+        <v>542</v>
+      </c>
+      <c r="C143">
+        <v>1016</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="7">
+        <f t="shared" si="14"/>
+        <v>4235</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" s="7">
+        <v>11</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>202132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>542</v>
+      </c>
+      <c r="C144">
+        <v>1016</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="7">
+        <f t="shared" si="14"/>
+        <v>5040</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7">
+        <v>12</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>202133</v>
+      </c>
+      <c r="B145" t="s">
+        <v>542</v>
+      </c>
+      <c r="C145">
+        <v>1016</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" s="7">
+        <f t="shared" si="14"/>
+        <v>5915</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" s="7">
+        <v>13</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>202134</v>
+      </c>
+      <c r="B146" t="s">
+        <v>542</v>
+      </c>
+      <c r="C146">
+        <v>1016</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F146" s="7">
+        <f t="shared" si="14"/>
+        <v>6860</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" s="7">
+        <v>14</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>202135</v>
+      </c>
+      <c r="B147" t="s">
+        <v>542</v>
+      </c>
+      <c r="C147">
+        <v>1016</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1</v>
+      </c>
+      <c r="F147" s="7">
+        <f t="shared" si="14"/>
+        <v>7875</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" s="7">
+        <v>15</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>202136</v>
+      </c>
+      <c r="B148" t="s">
+        <v>542</v>
+      </c>
+      <c r="C148">
+        <v>1016</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7">
+        <f t="shared" si="14"/>
+        <v>8960</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" s="7">
+        <v>16</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>202137</v>
+      </c>
+      <c r="B149" t="s">
+        <v>542</v>
+      </c>
+      <c r="C149">
+        <v>1016</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1</v>
+      </c>
+      <c r="F149" s="7">
+        <f t="shared" si="14"/>
+        <v>10115</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" s="7">
+        <v>17</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>202138</v>
+      </c>
+      <c r="B150" t="s">
+        <v>542</v>
+      </c>
+      <c r="C150">
+        <v>1016</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150" s="7">
+        <f t="shared" si="14"/>
+        <v>11340</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" s="7">
+        <v>18</v>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>202139</v>
+      </c>
+      <c r="B151" t="s">
+        <v>542</v>
+      </c>
+      <c r="C151">
+        <v>1016</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1</v>
+      </c>
+      <c r="F151" s="7">
+        <f t="shared" si="14"/>
+        <v>12635</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" s="7">
+        <v>19</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>202140</v>
+      </c>
+      <c r="B152" t="s">
+        <v>542</v>
+      </c>
+      <c r="C152">
+        <v>1016</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="7">
+        <f t="shared" si="14"/>
+        <v>14000</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" s="7">
+        <v>20</v>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="15"/>
+        <v>绿水晶矿石,纯度:20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>220001</v>
+      </c>
+      <c r="B153" t="s">
+        <v>222</v>
+      </c>
+      <c r="C153">
+        <v>1009</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2</v>
+      </c>
+      <c r="E153" s="3">
+        <v>7</v>
+      </c>
+      <c r="F153" s="7">
+        <v>500</v>
+      </c>
+      <c r="G153">
+        <v>5001</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0</v>
+      </c>
+      <c r="I153" t="str">
+        <f>CONCATENATE("研读后可学会《",B153,"》，并有一定概率提升熟练度")</f>
+        <v>研读后可学会《火球术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>220002</v>
+      </c>
+      <c r="B154" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154">
+        <f>$C$153</f>
+        <v>1009</v>
+      </c>
+      <c r="D154" s="3">
+        <v>3</v>
+      </c>
+      <c r="E154" s="3">
+        <v>7</v>
+      </c>
+      <c r="F154" s="7">
+        <v>500</v>
+      </c>
+      <c r="G154">
+        <v>5001</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0</v>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" ref="I154:I198" si="16">CONCATENATE("研读后可学会《",B154,"》，并有一定概率提升熟练度")</f>
+        <v>研读后可学会《治愈术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>220003</v>
+      </c>
+      <c r="B155" t="s">
+        <v>224</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ref="C155:C198" si="17">$C$153</f>
+        <v>1009</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>7</v>
+      </c>
+      <c r="F155" s="7">
+        <v>500</v>
+      </c>
+      <c r="G155">
+        <v>5001</v>
+      </c>
+      <c r="H155" s="7">
+        <v>0</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《基本剑术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>220004</v>
+      </c>
+      <c r="B156" t="s">
+        <v>225</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D156" s="3">
+        <v>3</v>
+      </c>
+      <c r="E156" s="3">
+        <v>9</v>
+      </c>
+      <c r="F156" s="7">
+        <v>700</v>
+      </c>
+      <c r="G156">
+        <v>5001</v>
+      </c>
+      <c r="H156" s="7">
+        <v>0</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《精神力战法》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>220005</v>
+      </c>
+      <c r="B157" t="s">
+        <v>226</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2</v>
+      </c>
+      <c r="E157" s="3">
+        <v>19</v>
+      </c>
+      <c r="F157" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G157">
+        <v>5001</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《大火球》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>220006</v>
+      </c>
+      <c r="B158" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>19</v>
+      </c>
+      <c r="F158" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G158">
+        <v>5001</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《攻杀剑术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>220007</v>
+      </c>
+      <c r="B159" t="s">
+        <v>228</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D159" s="3">
+        <v>3</v>
+      </c>
+      <c r="E159" s="3">
+        <v>14</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G159">
+        <v>5001</v>
+      </c>
+      <c r="H159" s="7">
+        <v>0</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《施毒术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>220008</v>
+      </c>
+      <c r="B160" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2</v>
+      </c>
+      <c r="E160" s="3">
+        <v>12</v>
+      </c>
+      <c r="F160" s="7">
+        <v>500</v>
+      </c>
+      <c r="G160">
+        <v>5001</v>
+      </c>
+      <c r="H160" s="7">
+        <v>0</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《抗拒火环》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>220009</v>
+      </c>
+      <c r="B161" t="s">
+        <v>523</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2</v>
+      </c>
+      <c r="E161" s="3">
+        <v>16</v>
+      </c>
+      <c r="F161" s="7">
+        <v>1500</v>
+      </c>
+      <c r="G161">
+        <v>5001</v>
+      </c>
+      <c r="H161" s="7">
+        <v>0</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《地狱寒冰》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>220010</v>
+      </c>
+      <c r="B162" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2</v>
+      </c>
+      <c r="E162" s="3">
+        <v>17</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1500</v>
+      </c>
+      <c r="G162">
+        <v>5001</v>
+      </c>
+      <c r="H162" s="7">
+        <v>0</v>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《雷电术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>220011</v>
+      </c>
+      <c r="B163" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2</v>
+      </c>
+      <c r="E163" s="3">
+        <v>26</v>
+      </c>
+      <c r="F163" s="7">
+        <v>9000</v>
+      </c>
+      <c r="G163">
+        <v>5001</v>
+      </c>
+      <c r="H163" s="7">
+        <v>0</v>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《疾光电影》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>220012</v>
+      </c>
+      <c r="B164" t="s">
+        <v>232</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D164" s="3">
+        <v>3</v>
+      </c>
+      <c r="E164" s="3">
+        <v>18</v>
+      </c>
+      <c r="F164" s="7">
+        <v>1800</v>
+      </c>
+      <c r="G164">
+        <v>5001</v>
+      </c>
+      <c r="H164" s="7">
+        <v>0</v>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《灵魂火符》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>220013</v>
+      </c>
+      <c r="B165" t="s">
+        <v>522</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D165" s="3">
+        <v>3</v>
+      </c>
+      <c r="E165" s="3">
+        <v>22</v>
+      </c>
+      <c r="F165" s="7">
+        <v>2727</v>
+      </c>
+      <c r="G165">
+        <v>5001</v>
+      </c>
+      <c r="H165" s="7">
+        <v>0</v>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《幽灵盾》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>220014</v>
+      </c>
+      <c r="B166" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D166" s="3">
+        <v>3</v>
+      </c>
+      <c r="E166" s="3">
+        <v>25</v>
+      </c>
+      <c r="F166" s="7">
+        <v>4545</v>
+      </c>
+      <c r="G166">
+        <v>5001</v>
+      </c>
+      <c r="H166" s="7">
+        <v>0</v>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《神圣战甲术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>220015</v>
+      </c>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>25</v>
+      </c>
+      <c r="F167" s="7">
+        <v>4545</v>
+      </c>
+      <c r="G167">
+        <v>5001</v>
+      </c>
+      <c r="H167" s="7">
+        <v>0</v>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《刺杀剑术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>220016</v>
+      </c>
+      <c r="B168" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D168" s="3">
+        <v>3</v>
+      </c>
+      <c r="E168" s="3">
+        <v>28</v>
+      </c>
+      <c r="F168" s="7">
+        <v>7000</v>
+      </c>
+      <c r="G168">
+        <v>5001</v>
+      </c>
+      <c r="H168" s="7">
+        <v>0</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《困魔咒》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>220017</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D169" s="3">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3">
+        <v>19</v>
+      </c>
+      <c r="F169" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G169">
+        <v>5001</v>
+      </c>
+      <c r="H169" s="7">
+        <v>0</v>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《亡灵召唤》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>220018</v>
+      </c>
+      <c r="B170" t="s">
+        <v>236</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D170" s="3">
+        <v>3</v>
+      </c>
+      <c r="E170" s="3">
+        <v>20</v>
+      </c>
+      <c r="F170" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G170">
+        <v>5001</v>
+      </c>
+      <c r="H170" s="7">
+        <v>0</v>
+      </c>
+      <c r="I170" t="str">
+        <f>CONCATENATE("研读后可学会《",B170,"》，并有一定概率提升熟练度")</f>
+        <v>研读后可学会《隐身术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>220019</v>
+      </c>
+      <c r="B171" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D171" s="3">
+        <v>3</v>
+      </c>
+      <c r="E171" s="3">
+        <v>21</v>
+      </c>
+      <c r="F171" s="7">
+        <v>2727</v>
+      </c>
+      <c r="G171">
+        <v>5001</v>
+      </c>
+      <c r="H171" s="7">
+        <v>0</v>
+      </c>
+      <c r="I171" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《集体隐身术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>220020</v>
+      </c>
+      <c r="B172" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2</v>
+      </c>
+      <c r="E172" s="3">
+        <v>13</v>
+      </c>
+      <c r="F172" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G172">
+        <v>5001</v>
+      </c>
+      <c r="H172" s="7">
+        <v>0</v>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《诱惑之光》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>220021</v>
+      </c>
+      <c r="B173" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2</v>
+      </c>
+      <c r="E173" s="3">
+        <v>19</v>
+      </c>
+      <c r="F173" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G173">
+        <v>5001</v>
+      </c>
+      <c r="H173" s="7">
+        <v>0</v>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《瞬息移动》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>220022</v>
+      </c>
+      <c r="B174" t="s">
+        <v>351</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2</v>
+      </c>
+      <c r="E174" s="3">
+        <v>24</v>
+      </c>
+      <c r="F174" s="7">
+        <v>4500</v>
+      </c>
+      <c r="G174">
+        <v>5001</v>
+      </c>
+      <c r="H174" s="7">
+        <v>0</v>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《附体之炎》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>220023</v>
+      </c>
+      <c r="B175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2</v>
+      </c>
+      <c r="E175" s="3">
+        <v>22</v>
+      </c>
+      <c r="F175" s="7">
+        <v>2700</v>
+      </c>
+      <c r="G175">
+        <v>5001</v>
+      </c>
+      <c r="H175" s="7">
+        <v>0</v>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《爆裂火焰》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>220024</v>
+      </c>
+      <c r="B176" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2</v>
+      </c>
+      <c r="E176" s="3">
+        <v>30</v>
+      </c>
+      <c r="F176" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G176">
+        <v>5001</v>
+      </c>
+      <c r="H176" s="7">
+        <v>0</v>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《地狱雷光》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>220025</v>
+      </c>
+      <c r="B177" t="s">
+        <v>242</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
+      <c r="E177" s="3">
+        <v>28</v>
+      </c>
+      <c r="F177" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G177">
+        <v>5001</v>
+      </c>
+      <c r="H177" s="7">
+        <v>0</v>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《半月弯刀》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>220026</v>
+      </c>
+      <c r="B178" t="s">
+        <v>243</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3">
+        <v>35</v>
+      </c>
+      <c r="F178" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G178">
+        <v>5001</v>
+      </c>
+      <c r="H178" s="7">
+        <v>0</v>
+      </c>
+      <c r="I178" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《烈火剑法》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>220027</v>
+      </c>
+      <c r="B179" t="s">
+        <v>244</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>30</v>
+      </c>
+      <c r="F179" s="7">
+        <v>12000</v>
+      </c>
+      <c r="G179">
+        <v>5001</v>
+      </c>
+      <c r="H179" s="7">
+        <v>0</v>
+      </c>
+      <c r="I179" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《野蛮冲撞》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>220028</v>
+      </c>
+      <c r="B180" t="s">
+        <v>521</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D180" s="3">
+        <v>3</v>
+      </c>
+      <c r="E180" s="3">
+        <v>43</v>
+      </c>
+      <c r="F180" s="7">
+        <v>18000</v>
+      </c>
+      <c r="G180">
+        <v>5001</v>
+      </c>
+      <c r="H180" s="7">
+        <v>0</v>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《群体施毒术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>220029</v>
+      </c>
+      <c r="B181" t="s">
+        <v>245</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D181" s="3">
+        <v>3</v>
+      </c>
+      <c r="E181" s="3">
+        <v>33</v>
+      </c>
+      <c r="F181" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G181">
+        <v>5001</v>
+      </c>
+      <c r="H181" s="7">
+        <v>0</v>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《群体治疗术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>220030</v>
+      </c>
+      <c r="B182" t="s">
+        <v>246</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3</v>
+      </c>
+      <c r="E182" s="3">
+        <v>35</v>
+      </c>
+      <c r="F182" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G182">
+        <v>5001</v>
+      </c>
+      <c r="H182" s="7">
+        <v>0</v>
+      </c>
+      <c r="I182" t="str">
+        <f>CONCATENATE("研读后可学会《",B182,"》，并有一定概率提升熟练度")</f>
+        <v>研读后可学会《召唤神兽》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>220031</v>
+      </c>
+      <c r="B183" t="s">
+        <v>247</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2</v>
+      </c>
+      <c r="E183" s="3">
+        <v>31</v>
+      </c>
+      <c r="F183" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G183">
+        <v>5001</v>
+      </c>
+      <c r="H183" s="7">
+        <v>0</v>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《魔法盾》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>220032</v>
+      </c>
+      <c r="B184" t="s">
+        <v>248</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2</v>
+      </c>
+      <c r="E184" s="3">
+        <v>32</v>
+      </c>
+      <c r="F184" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G184">
+        <v>5001</v>
+      </c>
+      <c r="H184" s="7">
+        <v>0</v>
+      </c>
+      <c r="I184" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《圣言术》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>220033</v>
+      </c>
+      <c r="B185" t="s">
+        <v>249</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2</v>
+      </c>
+      <c r="E185" s="3">
+        <v>35</v>
+      </c>
+      <c r="F185" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G185">
+        <v>5001</v>
+      </c>
+      <c r="H185" s="7">
+        <v>0</v>
+      </c>
+      <c r="I185" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《冰咆哮》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>220034</v>
+      </c>
+      <c r="B186" t="s">
+        <v>352</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
+        <v>52</v>
+      </c>
+      <c r="F186" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G186" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H186" s="7">
+        <v>0</v>
+      </c>
+      <c r="I186" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《战神守护》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>220035</v>
+      </c>
+      <c r="B187" t="s">
+        <v>353</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3">
+        <v>60</v>
+      </c>
+      <c r="F187" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G187" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H187" s="7">
+        <v>0</v>
+      </c>
+      <c r="I187" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《逐日剑法》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>220036</v>
+      </c>
+      <c r="B188" t="s">
+        <v>354</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3">
+        <v>64</v>
+      </c>
+      <c r="F188" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G188" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H188" s="7">
+        <v>0</v>
+      </c>
+      <c r="I188" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《开天斩》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>220037</v>
+      </c>
+      <c r="B189" t="s">
+        <v>520</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3">
+        <v>70</v>
+      </c>
+      <c r="F189" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G189" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H189" s="7">
+        <v>0</v>
+      </c>
+      <c r="I189" t="str">
+        <f>CONCATENATE("研读后可学会《",B189,"》，并有一定概率提升熟练度")</f>
+        <v>研读后可学会《圆月莲华》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>220038</v>
+      </c>
+      <c r="B190" t="s">
+        <v>437</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D190" s="3">
+        <v>3</v>
+      </c>
+      <c r="E190" s="3">
+        <v>55</v>
+      </c>
+      <c r="F190" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G190" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H190" s="7">
+        <v>0</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《幽冥火咒》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>220039</v>
+      </c>
+      <c r="B191" t="s">
+        <v>438</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2</v>
+      </c>
+      <c r="E191" s="3">
+        <v>70</v>
+      </c>
+      <c r="F191" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G191" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H191" s="7">
+        <v>0</v>
+      </c>
+      <c r="I191" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《狂雷闪》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>220040</v>
+      </c>
+      <c r="B192" t="s">
+        <v>439</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2</v>
+      </c>
+      <c r="E192" s="3">
+        <v>95</v>
+      </c>
+      <c r="F192" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G192" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H192" s="7">
+        <v>0</v>
+      </c>
+      <c r="I192" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《怒炎》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>220041</v>
+      </c>
+      <c r="B193" t="s">
+        <v>442</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D193" s="3">
+        <v>3</v>
+      </c>
+      <c r="E193" s="3">
+        <v>80</v>
+      </c>
+      <c r="F193" s="7">
+        <v>70000</v>
+      </c>
+      <c r="G193" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H193" s="7">
+        <v>0</v>
+      </c>
+      <c r="I193" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《召唤月灵》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>220042</v>
+      </c>
+      <c r="B194" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D194" s="3">
+        <v>3</v>
+      </c>
+      <c r="E194" s="3">
+        <v>125</v>
+      </c>
+      <c r="F194" s="7">
+        <v>90000</v>
+      </c>
+      <c r="G194" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H194" s="7">
+        <v>0</v>
+      </c>
+      <c r="I194" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《召唤白虎》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>220043</v>
+      </c>
+      <c r="B195" t="s">
+        <v>443</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3">
+        <v>55</v>
+      </c>
+      <c r="F195" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G195" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H195" s="7">
+        <v>0</v>
+      </c>
+      <c r="I195" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《狂暴》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>220044</v>
+      </c>
+      <c r="B196" t="s">
+        <v>524</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="E196" s="3">
+        <v>55</v>
+      </c>
+      <c r="F196" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G196" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H196" s="7">
+        <v>0</v>
+      </c>
+      <c r="I196" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《嗜血》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>220045</v>
+      </c>
+      <c r="B197" t="s">
+        <v>525</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1</v>
+      </c>
+      <c r="E197" s="3">
+        <v>55</v>
+      </c>
+      <c r="F197" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G197" s="3">
+        <v>5001</v>
+      </c>
+      <c r="H197" s="7">
+        <v>0</v>
+      </c>
+      <c r="I197" t="str">
+        <f t="shared" si="16"/>
+        <v>研读后可学会《狮子吼》，并有一定概率提升熟练度</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
         <v>220046</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B198" t="s">
         <v>527</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="3"/>
+      <c r="C198">
+        <f t="shared" si="17"/>
         <v>1009</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D198" s="3">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E198" s="3">
         <v>40</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F198" s="7">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G198" s="3">
         <v>5001</v>
       </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="2"/>
+      <c r="H198" s="7">
+        <v>0</v>
+      </c>
+      <c r="I198" t="str">
+        <f t="shared" si="16"/>
         <v>研读后可学会《蚀甲》，并有一定概率提升熟练度</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I55"/>
+  <autoFilter ref="A3:I196"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F38 F40:F65449 F2:F11 H4:H11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F174:F179 F181:F65590 F2:F152 H5:H152"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
